--- a/SAG2_sensor_data_with_decimal_filtered_updated.xlsx
+++ b/SAG2_sensor_data_with_decimal_filtered_updated.xlsx
@@ -1321,7 +1321,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1538,6 +1538,47 @@
         <v>9</v>
       </c>
     </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>2025-03-04 14:31:34</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>0x 9</t>
+        </is>
+      </c>
+      <c r="F6" t="n">
+        <v>400</v>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>568631262647113770680332</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>400</v>
+      </c>
+      <c r="I6" t="n">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/SAG2_sensor_data_with_decimal_filtered_updated.xlsx
+++ b/SAG2_sensor_data_with_decimal_filtered_updated.xlsx
@@ -1052,7 +1052,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1307,6 +1307,47 @@
         <v>400</v>
       </c>
       <c r="I6" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>2025-03-04 14:38:36</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>0x13</t>
+        </is>
+      </c>
+      <c r="F7" t="n">
+        <v>400</v>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>568631262647113771270412</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>400</v>
+      </c>
+      <c r="I7" t="n">
         <v>13</v>
       </c>
     </row>

--- a/SAG2_sensor_data_with_decimal_filtered_updated.xlsx
+++ b/SAG2_sensor_data_with_decimal_filtered_updated.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -687,6 +687,211 @@
         <v>400</v>
       </c>
       <c r="I6" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>2025-03-04 15:18:04</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1b,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>0x14</t>
+        </is>
+      </c>
+      <c r="F7" t="n">
+        <v>400</v>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>568631262647113771335948</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>400</v>
+      </c>
+      <c r="I7" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>2025-03-04 16:18:04</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1b,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>0x14</t>
+        </is>
+      </c>
+      <c r="F8" t="n">
+        <v>400</v>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>568631262647113771335948</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>400</v>
+      </c>
+      <c r="I8" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>2025-03-04 17:18:04</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1b,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>0x14</t>
+        </is>
+      </c>
+      <c r="F9" t="n">
+        <v>400</v>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>568631262647113771335948</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>400</v>
+      </c>
+      <c r="I9" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>2025-03-04 18:18:04</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1b,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>0x14</t>
+        </is>
+      </c>
+      <c r="F10" t="n">
+        <v>400</v>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>568631262647113771335948</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>400</v>
+      </c>
+      <c r="I10" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>2025-03-04 19:18:04</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1b,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>0x14</t>
+        </is>
+      </c>
+      <c r="F11" t="n">
+        <v>400</v>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>568631262647113771335948</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>400</v>
+      </c>
+      <c r="I11" t="n">
         <v>14</v>
       </c>
     </row>
@@ -701,7 +906,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I8"/>
+  <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1038,6 +1243,211 @@
         <v>400</v>
       </c>
       <c r="I8" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>2025-03-04 15:12:19</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F9" t="n">
+        <v>400</v>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>400</v>
+      </c>
+      <c r="I9" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>2025-03-04 16:12:19</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F10" t="n">
+        <v>400</v>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>400</v>
+      </c>
+      <c r="I10" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>2025-03-04 17:12:19</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F11" t="n">
+        <v>400</v>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>400</v>
+      </c>
+      <c r="I11" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>2025-03-04 18:12:19</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F12" t="n">
+        <v>400</v>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>400</v>
+      </c>
+      <c r="I12" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>2025-03-04 19:12:19</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F13" t="n">
+        <v>400</v>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>400</v>
+      </c>
+      <c r="I13" t="n">
         <v>25</v>
       </c>
     </row>
@@ -1052,7 +1462,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1348,6 +1758,211 @@
         <v>400</v>
       </c>
       <c r="I7" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>2025-03-04 15:38:36</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>0x13</t>
+        </is>
+      </c>
+      <c r="F8" t="n">
+        <v>400</v>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>568631262647113771270412</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>400</v>
+      </c>
+      <c r="I8" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>2025-03-04 16:38:36</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>0x13</t>
+        </is>
+      </c>
+      <c r="F9" t="n">
+        <v>400</v>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>568631262647113771270412</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>400</v>
+      </c>
+      <c r="I9" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>2025-03-04 17:38:36</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>0x13</t>
+        </is>
+      </c>
+      <c r="F10" t="n">
+        <v>400</v>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>568631262647113771270412</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>400</v>
+      </c>
+      <c r="I10" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>2025-03-04 18:38:36</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>0x13</t>
+        </is>
+      </c>
+      <c r="F11" t="n">
+        <v>400</v>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>568631262647113771270412</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>400</v>
+      </c>
+      <c r="I11" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>2025-03-04 19:38:36</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>0x13</t>
+        </is>
+      </c>
+      <c r="F12" t="n">
+        <v>400</v>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>568631262647113771270412</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>400</v>
+      </c>
+      <c r="I12" t="n">
         <v>13</v>
       </c>
     </row>
@@ -1362,7 +1977,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1620,6 +2235,211 @@
         <v>9</v>
       </c>
     </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>2025-03-04 15:31:34</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>0x 9</t>
+        </is>
+      </c>
+      <c r="F7" t="n">
+        <v>400</v>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>568631262647113770680332</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>400</v>
+      </c>
+      <c r="I7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>2025-03-04 16:31:34</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>0x 9</t>
+        </is>
+      </c>
+      <c r="F8" t="n">
+        <v>400</v>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>568631262647113770680332</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>400</v>
+      </c>
+      <c r="I8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>2025-03-04 17:31:34</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>0x 9</t>
+        </is>
+      </c>
+      <c r="F9" t="n">
+        <v>400</v>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>568631262647113770680332</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>400</v>
+      </c>
+      <c r="I9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>2025-03-04 18:31:34</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>0x 9</t>
+        </is>
+      </c>
+      <c r="F10" t="n">
+        <v>400</v>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>568631262647113770680332</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>400</v>
+      </c>
+      <c r="I10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>2025-03-04 19:31:34</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>0x 9</t>
+        </is>
+      </c>
+      <c r="F11" t="n">
+        <v>400</v>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>568631262647113770680332</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>400</v>
+      </c>
+      <c r="I11" t="n">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/SAG2_sensor_data_with_decimal_filtered_updated.xlsx
+++ b/SAG2_sensor_data_with_decimal_filtered_updated.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I11"/>
+  <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -892,6 +892,47 @@
         <v>400</v>
       </c>
       <c r="I11" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>2025-03-04 20:18:04</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1b,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>0x14</t>
+        </is>
+      </c>
+      <c r="F12" t="n">
+        <v>400</v>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>568631262647113771335948</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>400</v>
+      </c>
+      <c r="I12" t="n">
         <v>14</v>
       </c>
     </row>
@@ -906,7 +947,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I13"/>
+  <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1448,6 +1489,47 @@
         <v>400</v>
       </c>
       <c r="I13" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>2025-03-04 20:12:19</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F14" t="n">
+        <v>400</v>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>400</v>
+      </c>
+      <c r="I14" t="n">
         <v>25</v>
       </c>
     </row>

--- a/SAG2_sensor_data_with_decimal_filtered_updated.xlsx
+++ b/SAG2_sensor_data_with_decimal_filtered_updated.xlsx
@@ -1544,7 +1544,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I12"/>
+  <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2045,6 +2045,47 @@
         <v>400</v>
       </c>
       <c r="I12" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>2025-03-04 20:38:36</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>0x13</t>
+        </is>
+      </c>
+      <c r="F13" t="n">
+        <v>400</v>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>568631262647113771270412</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>400</v>
+      </c>
+      <c r="I13" t="n">
         <v>13</v>
       </c>
     </row>
@@ -2059,7 +2100,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I11"/>
+  <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2522,6 +2563,47 @@
         <v>9</v>
       </c>
     </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>2025-03-04 20:31:34</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>0x 9</t>
+        </is>
+      </c>
+      <c r="F12" t="n">
+        <v>400</v>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>568631262647113770680332</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>400</v>
+      </c>
+      <c r="I12" t="n">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/SAG2_sensor_data_with_decimal_filtered_updated.xlsx
+++ b/SAG2_sensor_data_with_decimal_filtered_updated.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I12"/>
+  <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -933,6 +933,47 @@
         <v>400</v>
       </c>
       <c r="I12" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>2025-03-04 21:18:04</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1b,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>0x14</t>
+        </is>
+      </c>
+      <c r="F13" t="n">
+        <v>400</v>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>568631262647113771335948</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>400</v>
+      </c>
+      <c r="I13" t="n">
         <v>14</v>
       </c>
     </row>
@@ -947,7 +988,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I14"/>
+  <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1530,6 +1571,47 @@
         <v>400</v>
       </c>
       <c r="I14" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>2025-03-04 21:12:19</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F15" t="n">
+        <v>400</v>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>400</v>
+      </c>
+      <c r="I15" t="n">
         <v>25</v>
       </c>
     </row>

--- a/SAG2_sensor_data_with_decimal_filtered_updated.xlsx
+++ b/SAG2_sensor_data_with_decimal_filtered_updated.xlsx
@@ -1626,7 +1626,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I13"/>
+  <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2168,6 +2168,47 @@
         <v>400</v>
       </c>
       <c r="I13" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>2025-03-04 21:38:36</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>0x13</t>
+        </is>
+      </c>
+      <c r="F14" t="n">
+        <v>400</v>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>568631262647113771270412</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>400</v>
+      </c>
+      <c r="I14" t="n">
         <v>13</v>
       </c>
     </row>
@@ -2182,7 +2223,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I12"/>
+  <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2686,6 +2727,47 @@
         <v>9</v>
       </c>
     </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>2025-03-04 21:31:34</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>0x 9</t>
+        </is>
+      </c>
+      <c r="F13" t="n">
+        <v>400</v>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>568631262647113770680332</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>400</v>
+      </c>
+      <c r="I13" t="n">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/SAG2_sensor_data_with_decimal_filtered_updated.xlsx
+++ b/SAG2_sensor_data_with_decimal_filtered_updated.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I13"/>
+  <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -974,6 +974,47 @@
         <v>400</v>
       </c>
       <c r="I13" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>2025-03-04 22:18:04</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1b,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>0x14</t>
+        </is>
+      </c>
+      <c r="F14" t="n">
+        <v>400</v>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>568631262647113771335948</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>400</v>
+      </c>
+      <c r="I14" t="n">
         <v>14</v>
       </c>
     </row>
@@ -988,7 +1029,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I15"/>
+  <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1612,6 +1653,47 @@
         <v>400</v>
       </c>
       <c r="I15" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>2025-03-04 22:12:19</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F16" t="n">
+        <v>400</v>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>400</v>
+      </c>
+      <c r="I16" t="n">
         <v>25</v>
       </c>
     </row>

--- a/SAG2_sensor_data_with_decimal_filtered_updated.xlsx
+++ b/SAG2_sensor_data_with_decimal_filtered_updated.xlsx
@@ -1708,7 +1708,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I14"/>
+  <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2291,6 +2291,47 @@
         <v>400</v>
       </c>
       <c r="I14" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>2025-03-04 22:38:36</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>0x13</t>
+        </is>
+      </c>
+      <c r="F15" t="n">
+        <v>400</v>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>568631262647113771270412</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>400</v>
+      </c>
+      <c r="I15" t="n">
         <v>13</v>
       </c>
     </row>
@@ -2305,7 +2346,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I13"/>
+  <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2850,6 +2891,47 @@
         <v>9</v>
       </c>
     </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>2025-03-04 22:31:34</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>0x 9</t>
+        </is>
+      </c>
+      <c r="F14" t="n">
+        <v>400</v>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>568631262647113770680332</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>400</v>
+      </c>
+      <c r="I14" t="n">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/SAG2_sensor_data_with_decimal_filtered_updated.xlsx
+++ b/SAG2_sensor_data_with_decimal_filtered_updated.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I14"/>
+  <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1015,6 +1015,47 @@
         <v>400</v>
       </c>
       <c r="I14" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>2025-03-04 23:18:04</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1b,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>0x14</t>
+        </is>
+      </c>
+      <c r="F15" t="n">
+        <v>400</v>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>568631262647113771335948</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>400</v>
+      </c>
+      <c r="I15" t="n">
         <v>14</v>
       </c>
     </row>
@@ -1029,7 +1070,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I16"/>
+  <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1694,6 +1735,47 @@
         <v>400</v>
       </c>
       <c r="I16" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>2025-03-04 23:12:19</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F17" t="n">
+        <v>400</v>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>400</v>
+      </c>
+      <c r="I17" t="n">
         <v>25</v>
       </c>
     </row>

--- a/SAG2_sensor_data_with_decimal_filtered_updated.xlsx
+++ b/SAG2_sensor_data_with_decimal_filtered_updated.xlsx
@@ -1790,7 +1790,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I15"/>
+  <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2414,6 +2414,47 @@
         <v>400</v>
       </c>
       <c r="I15" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>2025-03-04 23:38:36</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>0x13</t>
+        </is>
+      </c>
+      <c r="F16" t="n">
+        <v>400</v>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>568631262647113771270412</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>400</v>
+      </c>
+      <c r="I16" t="n">
         <v>13</v>
       </c>
     </row>
@@ -2428,7 +2469,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I14"/>
+  <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3014,6 +3055,47 @@
         <v>9</v>
       </c>
     </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>2025-03-04 23:31:34</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>0x 9</t>
+        </is>
+      </c>
+      <c r="F15" t="n">
+        <v>400</v>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>568631262647113770680332</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>400</v>
+      </c>
+      <c r="I15" t="n">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/SAG2_sensor_data_with_decimal_filtered_updated.xlsx
+++ b/SAG2_sensor_data_with_decimal_filtered_updated.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I15"/>
+  <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1056,6 +1056,47 @@
         <v>400</v>
       </c>
       <c r="I15" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>2025-03-05 00:18:04</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1b,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>0x14</t>
+        </is>
+      </c>
+      <c r="F16" t="n">
+        <v>400</v>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>568631262647113771335948</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>400</v>
+      </c>
+      <c r="I16" t="n">
         <v>14</v>
       </c>
     </row>
@@ -1070,7 +1111,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1776,6 +1817,47 @@
         <v>400</v>
       </c>
       <c r="I17" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>2025-03-05 00:12:19</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F18" t="n">
+        <v>400</v>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>400</v>
+      </c>
+      <c r="I18" t="n">
         <v>25</v>
       </c>
     </row>

--- a/SAG2_sensor_data_with_decimal_filtered_updated.xlsx
+++ b/SAG2_sensor_data_with_decimal_filtered_updated.xlsx
@@ -1872,7 +1872,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I16"/>
+  <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2537,6 +2537,47 @@
         <v>400</v>
       </c>
       <c r="I16" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>2025-03-05 00:38:36</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>0x13</t>
+        </is>
+      </c>
+      <c r="F17" t="n">
+        <v>400</v>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>568631262647113771270412</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>400</v>
+      </c>
+      <c r="I17" t="n">
         <v>13</v>
       </c>
     </row>
@@ -2551,7 +2592,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I15"/>
+  <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3178,6 +3219,47 @@
         <v>9</v>
       </c>
     </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>2025-03-05 00:31:34</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>0x 9</t>
+        </is>
+      </c>
+      <c r="F16" t="n">
+        <v>400</v>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>568631262647113770680332</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>400</v>
+      </c>
+      <c r="I16" t="n">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/SAG2_sensor_data_with_decimal_filtered_updated.xlsx
+++ b/SAG2_sensor_data_with_decimal_filtered_updated.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I16"/>
+  <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1097,6 +1097,47 @@
         <v>400</v>
       </c>
       <c r="I16" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>2025-03-05 01:18:04</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1b,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>0x14</t>
+        </is>
+      </c>
+      <c r="F17" t="n">
+        <v>400</v>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>568631262647113771335948</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>400</v>
+      </c>
+      <c r="I17" t="n">
         <v>14</v>
       </c>
     </row>
@@ -1111,7 +1152,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I18"/>
+  <dimension ref="A1:I19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1858,6 +1899,47 @@
         <v>400</v>
       </c>
       <c r="I18" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>2025-03-05 01:12:19</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F19" t="n">
+        <v>400</v>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>400</v>
+      </c>
+      <c r="I19" t="n">
         <v>25</v>
       </c>
     </row>

--- a/SAG2_sensor_data_with_decimal_filtered_updated.xlsx
+++ b/SAG2_sensor_data_with_decimal_filtered_updated.xlsx
@@ -1954,7 +1954,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2660,6 +2660,47 @@
         <v>400</v>
       </c>
       <c r="I17" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>2025-03-05 01:38:36</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>0x13</t>
+        </is>
+      </c>
+      <c r="F18" t="n">
+        <v>400</v>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>568631262647113771270412</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>400</v>
+      </c>
+      <c r="I18" t="n">
         <v>13</v>
       </c>
     </row>
@@ -2674,7 +2715,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I16"/>
+  <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3342,6 +3383,47 @@
         <v>9</v>
       </c>
     </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>2025-03-05 01:31:34</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>0x 9</t>
+        </is>
+      </c>
+      <c r="F17" t="n">
+        <v>400</v>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>568631262647113770680332</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>400</v>
+      </c>
+      <c r="I17" t="n">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/SAG2_sensor_data_with_decimal_filtered_updated.xlsx
+++ b/SAG2_sensor_data_with_decimal_filtered_updated.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1138,6 +1138,47 @@
         <v>400</v>
       </c>
       <c r="I17" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>2025-03-05 02:18:04</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1b,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>0x14</t>
+        </is>
+      </c>
+      <c r="F18" t="n">
+        <v>400</v>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>568631262647113771335948</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>400</v>
+      </c>
+      <c r="I18" t="n">
         <v>14</v>
       </c>
     </row>
@@ -1152,7 +1193,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I19"/>
+  <dimension ref="A1:I20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1940,6 +1981,47 @@
         <v>400</v>
       </c>
       <c r="I19" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>2025-03-05 02:12:19</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F20" t="n">
+        <v>400</v>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>400</v>
+      </c>
+      <c r="I20" t="n">
         <v>25</v>
       </c>
     </row>

--- a/SAG2_sensor_data_with_decimal_filtered_updated.xlsx
+++ b/SAG2_sensor_data_with_decimal_filtered_updated.xlsx
@@ -2036,7 +2036,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I18"/>
+  <dimension ref="A1:I19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2783,6 +2783,47 @@
         <v>400</v>
       </c>
       <c r="I18" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>2025-03-05 02:38:36</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>0x13</t>
+        </is>
+      </c>
+      <c r="F19" t="n">
+        <v>400</v>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>568631262647113771270412</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>400</v>
+      </c>
+      <c r="I19" t="n">
         <v>13</v>
       </c>
     </row>
@@ -2797,7 +2838,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3506,6 +3547,47 @@
         <v>9</v>
       </c>
     </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>2025-03-05 02:31:34</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>0x 9</t>
+        </is>
+      </c>
+      <c r="F18" t="n">
+        <v>400</v>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>568631262647113770680332</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>400</v>
+      </c>
+      <c r="I18" t="n">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/SAG2_sensor_data_with_decimal_filtered_updated.xlsx
+++ b/SAG2_sensor_data_with_decimal_filtered_updated.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I18"/>
+  <dimension ref="A1:I19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1179,6 +1179,47 @@
         <v>400</v>
       </c>
       <c r="I18" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>2025-03-05 03:18:04</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1b,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>0x14</t>
+        </is>
+      </c>
+      <c r="F19" t="n">
+        <v>400</v>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>568631262647113771335948</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>400</v>
+      </c>
+      <c r="I19" t="n">
         <v>14</v>
       </c>
     </row>
@@ -1193,7 +1234,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I20"/>
+  <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2022,6 +2063,47 @@
         <v>400</v>
       </c>
       <c r="I20" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>2025-03-05 03:12:19</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F21" t="n">
+        <v>400</v>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>400</v>
+      </c>
+      <c r="I21" t="n">
         <v>25</v>
       </c>
     </row>

--- a/SAG2_sensor_data_with_decimal_filtered_updated.xlsx
+++ b/SAG2_sensor_data_with_decimal_filtered_updated.xlsx
@@ -2118,7 +2118,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I19"/>
+  <dimension ref="A1:I20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2906,6 +2906,47 @@
         <v>400</v>
       </c>
       <c r="I19" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>2025-03-05 03:38:36</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>0x13</t>
+        </is>
+      </c>
+      <c r="F20" t="n">
+        <v>400</v>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>568631262647113771270412</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>400</v>
+      </c>
+      <c r="I20" t="n">
         <v>13</v>
       </c>
     </row>
@@ -2920,7 +2961,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I18"/>
+  <dimension ref="A1:I19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3670,6 +3711,47 @@
         <v>9</v>
       </c>
     </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>2025-03-05 03:31:34</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>0x 9</t>
+        </is>
+      </c>
+      <c r="F19" t="n">
+        <v>400</v>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>568631262647113770680332</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>400</v>
+      </c>
+      <c r="I19" t="n">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/SAG2_sensor_data_with_decimal_filtered_updated.xlsx
+++ b/SAG2_sensor_data_with_decimal_filtered_updated.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I19"/>
+  <dimension ref="A1:I20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1220,6 +1220,47 @@
         <v>400</v>
       </c>
       <c r="I19" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>2025-03-05 04:18:04</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1b,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>0x14</t>
+        </is>
+      </c>
+      <c r="F20" t="n">
+        <v>400</v>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>568631262647113771335948</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>400</v>
+      </c>
+      <c r="I20" t="n">
         <v>14</v>
       </c>
     </row>
@@ -1234,7 +1275,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I21"/>
+  <dimension ref="A1:I22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2104,6 +2145,47 @@
         <v>400</v>
       </c>
       <c r="I21" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>2025-03-05 04:12:19</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F22" t="n">
+        <v>400</v>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>400</v>
+      </c>
+      <c r="I22" t="n">
         <v>25</v>
       </c>
     </row>

--- a/SAG2_sensor_data_with_decimal_filtered_updated.xlsx
+++ b/SAG2_sensor_data_with_decimal_filtered_updated.xlsx
@@ -2200,7 +2200,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I20"/>
+  <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3029,6 +3029,47 @@
         <v>400</v>
       </c>
       <c r="I20" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>2025-03-05 04:38:36</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>0x13</t>
+        </is>
+      </c>
+      <c r="F21" t="n">
+        <v>400</v>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>568631262647113771270412</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>400</v>
+      </c>
+      <c r="I21" t="n">
         <v>13</v>
       </c>
     </row>
@@ -3043,7 +3084,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I19"/>
+  <dimension ref="A1:I20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3834,6 +3875,47 @@
         <v>9</v>
       </c>
     </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>2025-03-05 04:31:34</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>0x 9</t>
+        </is>
+      </c>
+      <c r="F20" t="n">
+        <v>400</v>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>568631262647113770680332</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>400</v>
+      </c>
+      <c r="I20" t="n">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/SAG2_sensor_data_with_decimal_filtered_updated.xlsx
+++ b/SAG2_sensor_data_with_decimal_filtered_updated.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I20"/>
+  <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1261,6 +1261,47 @@
         <v>400</v>
       </c>
       <c r="I20" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>2025-03-05 05:18:04</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1b,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>0x14</t>
+        </is>
+      </c>
+      <c r="F21" t="n">
+        <v>400</v>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>568631262647113771335948</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>400</v>
+      </c>
+      <c r="I21" t="n">
         <v>14</v>
       </c>
     </row>
@@ -1275,7 +1316,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I22"/>
+  <dimension ref="A1:I23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2186,6 +2227,47 @@
         <v>400</v>
       </c>
       <c r="I22" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>2025-03-05 05:12:19</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F23" t="n">
+        <v>400</v>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>400</v>
+      </c>
+      <c r="I23" t="n">
         <v>25</v>
       </c>
     </row>

--- a/SAG2_sensor_data_with_decimal_filtered_updated.xlsx
+++ b/SAG2_sensor_data_with_decimal_filtered_updated.xlsx
@@ -2282,7 +2282,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I21"/>
+  <dimension ref="A1:I22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3152,6 +3152,47 @@
         <v>400</v>
       </c>
       <c r="I21" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>2025-03-05 05:38:36</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>0x13</t>
+        </is>
+      </c>
+      <c r="F22" t="n">
+        <v>400</v>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>568631262647113771270412</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>400</v>
+      </c>
+      <c r="I22" t="n">
         <v>13</v>
       </c>
     </row>
@@ -3166,7 +3207,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I20"/>
+  <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3998,6 +4039,47 @@
         <v>9</v>
       </c>
     </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>2025-03-05 05:31:34</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>0x 9</t>
+        </is>
+      </c>
+      <c r="F21" t="n">
+        <v>400</v>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>568631262647113770680332</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>400</v>
+      </c>
+      <c r="I21" t="n">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/SAG2_sensor_data_with_decimal_filtered_updated.xlsx
+++ b/SAG2_sensor_data_with_decimal_filtered_updated.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I21"/>
+  <dimension ref="A1:I22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1302,6 +1302,47 @@
         <v>400</v>
       </c>
       <c r="I21" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>2025-03-05 06:18:04</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1b,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>0x14</t>
+        </is>
+      </c>
+      <c r="F22" t="n">
+        <v>400</v>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>568631262647113771335948</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>400</v>
+      </c>
+      <c r="I22" t="n">
         <v>14</v>
       </c>
     </row>
@@ -1316,7 +1357,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I23"/>
+  <dimension ref="A1:I24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2268,6 +2309,47 @@
         <v>400</v>
       </c>
       <c r="I23" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>2025-03-05 06:12:19</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F24" t="n">
+        <v>400</v>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>400</v>
+      </c>
+      <c r="I24" t="n">
         <v>25</v>
       </c>
     </row>

--- a/SAG2_sensor_data_with_decimal_filtered_updated.xlsx
+++ b/SAG2_sensor_data_with_decimal_filtered_updated.xlsx
@@ -2364,7 +2364,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I22"/>
+  <dimension ref="A1:I23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3275,6 +3275,47 @@
         <v>400</v>
       </c>
       <c r="I22" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>2025-03-05 06:38:36</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>0x13</t>
+        </is>
+      </c>
+      <c r="F23" t="n">
+        <v>400</v>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>568631262647113771270412</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>400</v>
+      </c>
+      <c r="I23" t="n">
         <v>13</v>
       </c>
     </row>
@@ -3289,7 +3330,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I21"/>
+  <dimension ref="A1:I22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4162,6 +4203,47 @@
         <v>9</v>
       </c>
     </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>2025-03-05 06:31:34</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>0x 9</t>
+        </is>
+      </c>
+      <c r="F22" t="n">
+        <v>400</v>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>568631262647113770680332</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>400</v>
+      </c>
+      <c r="I22" t="n">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/SAG2_sensor_data_with_decimal_filtered_updated.xlsx
+++ b/SAG2_sensor_data_with_decimal_filtered_updated.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I22"/>
+  <dimension ref="A1:I23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1343,6 +1343,47 @@
         <v>400</v>
       </c>
       <c r="I22" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>2025-03-05 07:18:04</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1b,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>0x14</t>
+        </is>
+      </c>
+      <c r="F23" t="n">
+        <v>400</v>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>568631262647113771335948</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>400</v>
+      </c>
+      <c r="I23" t="n">
         <v>14</v>
       </c>
     </row>
@@ -1357,7 +1398,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I24"/>
+  <dimension ref="A1:I25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2350,6 +2391,47 @@
         <v>400</v>
       </c>
       <c r="I24" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>2025-03-05 07:12:19</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F25" t="n">
+        <v>400</v>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>400</v>
+      </c>
+      <c r="I25" t="n">
         <v>25</v>
       </c>
     </row>

--- a/SAG2_sensor_data_with_decimal_filtered_updated.xlsx
+++ b/SAG2_sensor_data_with_decimal_filtered_updated.xlsx
@@ -2446,7 +2446,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I23"/>
+  <dimension ref="A1:I24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3398,6 +3398,47 @@
         <v>400</v>
       </c>
       <c r="I23" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>2025-03-05 07:38:36</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>0x13</t>
+        </is>
+      </c>
+      <c r="F24" t="n">
+        <v>400</v>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>568631262647113771270412</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>400</v>
+      </c>
+      <c r="I24" t="n">
         <v>13</v>
       </c>
     </row>
@@ -3412,7 +3453,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I22"/>
+  <dimension ref="A1:I23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4326,6 +4367,47 @@
         <v>9</v>
       </c>
     </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>2025-03-05 07:31:34</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>0x 9</t>
+        </is>
+      </c>
+      <c r="F23" t="n">
+        <v>400</v>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>568631262647113770680332</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>400</v>
+      </c>
+      <c r="I23" t="n">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/SAG2_sensor_data_with_decimal_filtered_updated.xlsx
+++ b/SAG2_sensor_data_with_decimal_filtered_updated.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I23"/>
+  <dimension ref="A1:I24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1384,6 +1384,47 @@
         <v>400</v>
       </c>
       <c r="I23" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>2025-03-05 08:18:04</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1b,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>0x14</t>
+        </is>
+      </c>
+      <c r="F24" t="n">
+        <v>400</v>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>568631262647113771335948</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>400</v>
+      </c>
+      <c r="I24" t="n">
         <v>14</v>
       </c>
     </row>
@@ -1398,7 +1439,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I25"/>
+  <dimension ref="A1:I26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2432,6 +2473,47 @@
         <v>400</v>
       </c>
       <c r="I25" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>2025-03-05 08:12:19</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F26" t="n">
+        <v>400</v>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>400</v>
+      </c>
+      <c r="I26" t="n">
         <v>25</v>
       </c>
     </row>

--- a/SAG2_sensor_data_with_decimal_filtered_updated.xlsx
+++ b/SAG2_sensor_data_with_decimal_filtered_updated.xlsx
@@ -2528,7 +2528,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I24"/>
+  <dimension ref="A1:I25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3521,6 +3521,47 @@
         <v>400</v>
       </c>
       <c r="I24" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>2025-03-05 08:38:36</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>0x13</t>
+        </is>
+      </c>
+      <c r="F25" t="n">
+        <v>400</v>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>568631262647113771270412</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>400</v>
+      </c>
+      <c r="I25" t="n">
         <v>13</v>
       </c>
     </row>
@@ -3535,7 +3576,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I23"/>
+  <dimension ref="A1:I24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4490,6 +4531,47 @@
         <v>9</v>
       </c>
     </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>2025-03-05 08:31:34</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>0x 9</t>
+        </is>
+      </c>
+      <c r="F24" t="n">
+        <v>400</v>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>568631262647113770680332</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>400</v>
+      </c>
+      <c r="I24" t="n">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/SAG2_sensor_data_with_decimal_filtered_updated.xlsx
+++ b/SAG2_sensor_data_with_decimal_filtered_updated.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I24"/>
+  <dimension ref="A1:I25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1425,6 +1425,47 @@
         <v>400</v>
       </c>
       <c r="I24" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>2025-03-05 09:18:04</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1b,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>0x14</t>
+        </is>
+      </c>
+      <c r="F25" t="n">
+        <v>400</v>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>568631262647113771335948</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>400</v>
+      </c>
+      <c r="I25" t="n">
         <v>14</v>
       </c>
     </row>
@@ -1439,7 +1480,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I26"/>
+  <dimension ref="A1:I27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2514,6 +2555,47 @@
         <v>400</v>
       </c>
       <c r="I26" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>2025-03-05 09:12:19</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F27" t="n">
+        <v>400</v>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>400</v>
+      </c>
+      <c r="I27" t="n">
         <v>25</v>
       </c>
     </row>

--- a/SAG2_sensor_data_with_decimal_filtered_updated.xlsx
+++ b/SAG2_sensor_data_with_decimal_filtered_updated.xlsx
@@ -2610,7 +2610,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I25"/>
+  <dimension ref="A1:I26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3644,6 +3644,47 @@
         <v>400</v>
       </c>
       <c r="I25" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>2025-03-05 09:38:36</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>0x13</t>
+        </is>
+      </c>
+      <c r="F26" t="n">
+        <v>400</v>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>568631262647113771270412</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>400</v>
+      </c>
+      <c r="I26" t="n">
         <v>13</v>
       </c>
     </row>
@@ -3658,7 +3699,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I24"/>
+  <dimension ref="A1:I25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4654,6 +4695,47 @@
         <v>9</v>
       </c>
     </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>2025-03-05 09:31:34</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>0x 9</t>
+        </is>
+      </c>
+      <c r="F25" t="n">
+        <v>400</v>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>568631262647113770680332</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>400</v>
+      </c>
+      <c r="I25" t="n">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/SAG2_sensor_data_with_decimal_filtered_updated.xlsx
+++ b/SAG2_sensor_data_with_decimal_filtered_updated.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I25"/>
+  <dimension ref="A1:I26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1466,6 +1466,47 @@
         <v>400</v>
       </c>
       <c r="I25" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>2025-03-05 10:18:04</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1b,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>0x14</t>
+        </is>
+      </c>
+      <c r="F26" t="n">
+        <v>400</v>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>568631262647113771335948</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>400</v>
+      </c>
+      <c r="I26" t="n">
         <v>14</v>
       </c>
     </row>
@@ -1480,7 +1521,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I27"/>
+  <dimension ref="A1:I28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2596,6 +2637,47 @@
         <v>400</v>
       </c>
       <c r="I27" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>2025-03-05 10:12:19</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F28" t="n">
+        <v>400</v>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>400</v>
+      </c>
+      <c r="I28" t="n">
         <v>25</v>
       </c>
     </row>

--- a/SAG2_sensor_data_with_decimal_filtered_updated.xlsx
+++ b/SAG2_sensor_data_with_decimal_filtered_updated.xlsx
@@ -2692,7 +2692,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I26"/>
+  <dimension ref="A1:I27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3767,6 +3767,47 @@
         <v>400</v>
       </c>
       <c r="I26" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>2025-03-05 10:38:36</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>0x13</t>
+        </is>
+      </c>
+      <c r="F27" t="n">
+        <v>400</v>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>568631262647113771270412</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>400</v>
+      </c>
+      <c r="I27" t="n">
         <v>13</v>
       </c>
     </row>
@@ -3781,7 +3822,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I25"/>
+  <dimension ref="A1:I26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4818,6 +4859,47 @@
         <v>9</v>
       </c>
     </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>2025-03-05 10:31:34</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>0x 9</t>
+        </is>
+      </c>
+      <c r="F26" t="n">
+        <v>400</v>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>568631262647113770680332</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>400</v>
+      </c>
+      <c r="I26" t="n">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/SAG2_sensor_data_with_decimal_filtered_updated.xlsx
+++ b/SAG2_sensor_data_with_decimal_filtered_updated.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I26"/>
+  <dimension ref="A1:I27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1507,6 +1507,47 @@
         <v>400</v>
       </c>
       <c r="I26" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>2025-03-05 11:18:04</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1b,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>0x14</t>
+        </is>
+      </c>
+      <c r="F27" t="n">
+        <v>400</v>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>568631262647113771335948</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>400</v>
+      </c>
+      <c r="I27" t="n">
         <v>14</v>
       </c>
     </row>
@@ -1521,7 +1562,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I28"/>
+  <dimension ref="A1:I29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2678,6 +2719,47 @@
         <v>400</v>
       </c>
       <c r="I28" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>2025-03-05 11:12:19</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F29" t="n">
+        <v>400</v>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>400</v>
+      </c>
+      <c r="I29" t="n">
         <v>25</v>
       </c>
     </row>

--- a/SAG2_sensor_data_with_decimal_filtered_updated.xlsx
+++ b/SAG2_sensor_data_with_decimal_filtered_updated.xlsx
@@ -2774,7 +2774,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I27"/>
+  <dimension ref="A1:I28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3890,6 +3890,47 @@
         <v>400</v>
       </c>
       <c r="I27" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>2025-03-05 11:38:36</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>0x13</t>
+        </is>
+      </c>
+      <c r="F28" t="n">
+        <v>400</v>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>568631262647113771270412</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>400</v>
+      </c>
+      <c r="I28" t="n">
         <v>13</v>
       </c>
     </row>
@@ -3904,7 +3945,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I26"/>
+  <dimension ref="A1:I27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4982,6 +5023,47 @@
         <v>9</v>
       </c>
     </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>2025-03-05 11:31:34</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>0x 9</t>
+        </is>
+      </c>
+      <c r="F27" t="n">
+        <v>400</v>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>568631262647113770680332</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>400</v>
+      </c>
+      <c r="I27" t="n">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/SAG2_sensor_data_with_decimal_filtered_updated.xlsx
+++ b/SAG2_sensor_data_with_decimal_filtered_updated.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I27"/>
+  <dimension ref="A1:I28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1548,6 +1548,47 @@
         <v>400</v>
       </c>
       <c r="I27" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>2025-03-05 12:18:04</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1b,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>0x14</t>
+        </is>
+      </c>
+      <c r="F28" t="n">
+        <v>400</v>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>568631262647113771335948</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>400</v>
+      </c>
+      <c r="I28" t="n">
         <v>14</v>
       </c>
     </row>
@@ -1562,7 +1603,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I29"/>
+  <dimension ref="A1:I30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2760,6 +2801,47 @@
         <v>400</v>
       </c>
       <c r="I29" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>2025-03-05 12:12:19</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F30" t="n">
+        <v>400</v>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>400</v>
+      </c>
+      <c r="I30" t="n">
         <v>25</v>
       </c>
     </row>

--- a/SAG2_sensor_data_with_decimal_filtered_updated.xlsx
+++ b/SAG2_sensor_data_with_decimal_filtered_updated.xlsx
@@ -2856,7 +2856,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I28"/>
+  <dimension ref="A1:I29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4013,6 +4013,47 @@
         <v>400</v>
       </c>
       <c r="I28" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>2025-03-05 12:38:36</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>0x13</t>
+        </is>
+      </c>
+      <c r="F29" t="n">
+        <v>400</v>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>568631262647113771270412</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>400</v>
+      </c>
+      <c r="I29" t="n">
         <v>13</v>
       </c>
     </row>
@@ -4027,7 +4068,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I27"/>
+  <dimension ref="A1:I28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5146,6 +5187,47 @@
         <v>9</v>
       </c>
     </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>2025-03-05 12:31:34</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>0x 9</t>
+        </is>
+      </c>
+      <c r="F28" t="n">
+        <v>400</v>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>568631262647113770680332</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>400</v>
+      </c>
+      <c r="I28" t="n">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/SAG2_sensor_data_with_decimal_filtered_updated.xlsx
+++ b/SAG2_sensor_data_with_decimal_filtered_updated.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I28"/>
+  <dimension ref="A1:I29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1589,6 +1589,47 @@
         <v>400</v>
       </c>
       <c r="I28" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>2025-03-05 13:18:04</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1b,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>0x14</t>
+        </is>
+      </c>
+      <c r="F29" t="n">
+        <v>400</v>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>568631262647113771335948</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>400</v>
+      </c>
+      <c r="I29" t="n">
         <v>14</v>
       </c>
     </row>
@@ -1603,7 +1644,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I30"/>
+  <dimension ref="A1:I31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2842,6 +2883,47 @@
         <v>400</v>
       </c>
       <c r="I30" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>2025-03-05 13:12:19</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F31" t="n">
+        <v>400</v>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>400</v>
+      </c>
+      <c r="I31" t="n">
         <v>25</v>
       </c>
     </row>

--- a/SAG2_sensor_data_with_decimal_filtered_updated.xlsx
+++ b/SAG2_sensor_data_with_decimal_filtered_updated.xlsx
@@ -4150,7 +4150,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I28"/>
+  <dimension ref="A1:I29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5310,6 +5310,47 @@
         <v>9</v>
       </c>
     </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>2025-03-05 13:31:34</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>0x 9</t>
+        </is>
+      </c>
+      <c r="F29" t="n">
+        <v>400</v>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>568631262647113770680332</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>400</v>
+      </c>
+      <c r="I29" t="n">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/SAG2_sensor_data_with_decimal_filtered_updated.xlsx
+++ b/SAG2_sensor_data_with_decimal_filtered_updated.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I29"/>
+  <dimension ref="A1:I30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1633,12 +1633,1388 @@
         <v>14</v>
       </c>
     </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>2025-03-05 14:18:04</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1b,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>0x14</t>
+        </is>
+      </c>
+      <c r="F30" t="n">
+        <v>400</v>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>568631262647113771335948</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>400</v>
+      </c>
+      <c r="I30" t="n">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I32"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>time</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>总长</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>实际长度</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>和校验</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>总长_DEC</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>ID_DEC</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>实际长度_DEC</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>和校验_DEC</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>45720.34188657408</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F2" t="n">
+        <v>400</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>400</v>
+      </c>
+      <c r="I2" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2025-03-04 09:12:19</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F3" t="n">
+        <v>400</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>400</v>
+      </c>
+      <c r="I3" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>2025-03-04 10:12:19</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F4" t="n">
+        <v>400</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>400</v>
+      </c>
+      <c r="I4" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>2025-03-04 11:12:19</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F5" t="n">
+        <v>400</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>400</v>
+      </c>
+      <c r="I5" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>2025-03-04 12:12:19</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F6" t="n">
+        <v>400</v>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>400</v>
+      </c>
+      <c r="I6" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>2025-03-04 13:12:19</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F7" t="n">
+        <v>400</v>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>400</v>
+      </c>
+      <c r="I7" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>2025-03-04 14:12:19</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F8" t="n">
+        <v>400</v>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>400</v>
+      </c>
+      <c r="I8" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>2025-03-04 15:12:19</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F9" t="n">
+        <v>400</v>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>400</v>
+      </c>
+      <c r="I9" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>2025-03-04 16:12:19</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F10" t="n">
+        <v>400</v>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>400</v>
+      </c>
+      <c r="I10" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>2025-03-04 17:12:19</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F11" t="n">
+        <v>400</v>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>400</v>
+      </c>
+      <c r="I11" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>2025-03-04 18:12:19</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F12" t="n">
+        <v>400</v>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>400</v>
+      </c>
+      <c r="I12" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>2025-03-04 19:12:19</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F13" t="n">
+        <v>400</v>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>400</v>
+      </c>
+      <c r="I13" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>2025-03-04 20:12:19</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F14" t="n">
+        <v>400</v>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>400</v>
+      </c>
+      <c r="I14" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>2025-03-04 21:12:19</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F15" t="n">
+        <v>400</v>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>400</v>
+      </c>
+      <c r="I15" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>2025-03-04 22:12:19</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F16" t="n">
+        <v>400</v>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>400</v>
+      </c>
+      <c r="I16" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>2025-03-04 23:12:19</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F17" t="n">
+        <v>400</v>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>400</v>
+      </c>
+      <c r="I17" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>2025-03-05 00:12:19</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F18" t="n">
+        <v>400</v>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>400</v>
+      </c>
+      <c r="I18" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>2025-03-05 01:12:19</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F19" t="n">
+        <v>400</v>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>400</v>
+      </c>
+      <c r="I19" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>2025-03-05 02:12:19</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F20" t="n">
+        <v>400</v>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>400</v>
+      </c>
+      <c r="I20" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>2025-03-05 03:12:19</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F21" t="n">
+        <v>400</v>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>400</v>
+      </c>
+      <c r="I21" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>2025-03-05 04:12:19</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F22" t="n">
+        <v>400</v>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>400</v>
+      </c>
+      <c r="I22" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>2025-03-05 05:12:19</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F23" t="n">
+        <v>400</v>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>400</v>
+      </c>
+      <c r="I23" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>2025-03-05 06:12:19</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F24" t="n">
+        <v>400</v>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>400</v>
+      </c>
+      <c r="I24" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>2025-03-05 07:12:19</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F25" t="n">
+        <v>400</v>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>400</v>
+      </c>
+      <c r="I25" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>2025-03-05 08:12:19</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F26" t="n">
+        <v>400</v>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>400</v>
+      </c>
+      <c r="I26" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>2025-03-05 09:12:19</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F27" t="n">
+        <v>400</v>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>400</v>
+      </c>
+      <c r="I27" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>2025-03-05 10:12:19</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F28" t="n">
+        <v>400</v>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>400</v>
+      </c>
+      <c r="I28" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>2025-03-05 11:12:19</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F29" t="n">
+        <v>400</v>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>400</v>
+      </c>
+      <c r="I29" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>2025-03-05 12:12:19</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F30" t="n">
+        <v>400</v>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>400</v>
+      </c>
+      <c r="I30" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>2025-03-05 13:12:19</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F31" t="n">
+        <v>400</v>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>400</v>
+      </c>
+      <c r="I31" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>2025-03-05 14:12:19</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F32" t="n">
+        <v>400</v>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>400</v>
+      </c>
+      <c r="I32" t="n">
+        <v>25</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1701,7 +3077,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45720.34188657408</v>
+        <v>45720.40180555556</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -1710,7 +3086,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -1720,7 +3096,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>0x19</t>
+          <t>0x13</t>
         </is>
       </c>
       <c r="F2" t="n">
@@ -1728,20 +3104,20 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>568631262647113771663628</t>
+          <t>568631262647113771270412</t>
         </is>
       </c>
       <c r="H2" t="n">
         <v>400</v>
       </c>
       <c r="I2" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2025-03-04 09:12:19</t>
+          <t>2025-03-04 10:38:36</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -1751,7 +3127,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -1761,7 +3137,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>0x19</t>
+          <t>0x13</t>
         </is>
       </c>
       <c r="F3" t="n">
@@ -1769,20 +3145,20 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>568631262647113771663628</t>
+          <t>568631262647113771270412</t>
         </is>
       </c>
       <c r="H3" t="n">
         <v>400</v>
       </c>
       <c r="I3" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2025-03-04 10:12:19</t>
+          <t>2025-03-04 11:38:36</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -1792,7 +3168,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -1802,7 +3178,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>0x19</t>
+          <t>0x13</t>
         </is>
       </c>
       <c r="F4" t="n">
@@ -1810,20 +3186,20 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>568631262647113771663628</t>
+          <t>568631262647113771270412</t>
         </is>
       </c>
       <c r="H4" t="n">
         <v>400</v>
       </c>
       <c r="I4" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2025-03-04 11:12:19</t>
+          <t>2025-03-04 12:38:36</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1833,7 +3209,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -1843,7 +3219,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>0x19</t>
+          <t>0x13</t>
         </is>
       </c>
       <c r="F5" t="n">
@@ -1851,20 +3227,20 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>568631262647113771663628</t>
+          <t>568631262647113771270412</t>
         </is>
       </c>
       <c r="H5" t="n">
         <v>400</v>
       </c>
       <c r="I5" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2025-03-04 12:12:19</t>
+          <t>2025-03-04 13:38:36</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1874,7 +3250,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -1884,7 +3260,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>0x19</t>
+          <t>0x13</t>
         </is>
       </c>
       <c r="F6" t="n">
@@ -1892,20 +3268,20 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>568631262647113771663628</t>
+          <t>568631262647113771270412</t>
         </is>
       </c>
       <c r="H6" t="n">
         <v>400</v>
       </c>
       <c r="I6" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2025-03-04 13:12:19</t>
+          <t>2025-03-04 14:38:36</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1915,7 +3291,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -1925,7 +3301,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>0x19</t>
+          <t>0x13</t>
         </is>
       </c>
       <c r="F7" t="n">
@@ -1933,20 +3309,20 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>568631262647113771663628</t>
+          <t>568631262647113771270412</t>
         </is>
       </c>
       <c r="H7" t="n">
         <v>400</v>
       </c>
       <c r="I7" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2025-03-04 14:12:19</t>
+          <t>2025-03-04 15:38:36</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1956,7 +3332,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -1966,7 +3342,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>0x19</t>
+          <t>0x13</t>
         </is>
       </c>
       <c r="F8" t="n">
@@ -1974,20 +3350,20 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>568631262647113771663628</t>
+          <t>568631262647113771270412</t>
         </is>
       </c>
       <c r="H8" t="n">
         <v>400</v>
       </c>
       <c r="I8" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2025-03-04 15:12:19</t>
+          <t>2025-03-04 16:38:36</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1997,7 +3373,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -2007,7 +3383,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>0x19</t>
+          <t>0x13</t>
         </is>
       </c>
       <c r="F9" t="n">
@@ -2015,20 +3391,20 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>568631262647113771663628</t>
+          <t>568631262647113771270412</t>
         </is>
       </c>
       <c r="H9" t="n">
         <v>400</v>
       </c>
       <c r="I9" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2025-03-04 16:12:19</t>
+          <t>2025-03-04 17:38:36</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -2038,7 +3414,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -2048,7 +3424,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>0x19</t>
+          <t>0x13</t>
         </is>
       </c>
       <c r="F10" t="n">
@@ -2056,20 +3432,20 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>568631262647113771663628</t>
+          <t>568631262647113771270412</t>
         </is>
       </c>
       <c r="H10" t="n">
         <v>400</v>
       </c>
       <c r="I10" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2025-03-04 17:12:19</t>
+          <t>2025-03-04 18:38:36</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -2079,7 +3455,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -2089,7 +3465,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>0x19</t>
+          <t>0x13</t>
         </is>
       </c>
       <c r="F11" t="n">
@@ -2097,20 +3473,20 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>568631262647113771663628</t>
+          <t>568631262647113771270412</t>
         </is>
       </c>
       <c r="H11" t="n">
         <v>400</v>
       </c>
       <c r="I11" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2025-03-04 18:12:19</t>
+          <t>2025-03-04 19:38:36</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2120,7 +3496,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -2130,7 +3506,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>0x19</t>
+          <t>0x13</t>
         </is>
       </c>
       <c r="F12" t="n">
@@ -2138,20 +3514,20 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>568631262647113771663628</t>
+          <t>568631262647113771270412</t>
         </is>
       </c>
       <c r="H12" t="n">
         <v>400</v>
       </c>
       <c r="I12" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2025-03-04 19:12:19</t>
+          <t>2025-03-04 20:38:36</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2161,7 +3537,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -2171,7 +3547,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>0x19</t>
+          <t>0x13</t>
         </is>
       </c>
       <c r="F13" t="n">
@@ -2179,20 +3555,20 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>568631262647113771663628</t>
+          <t>568631262647113771270412</t>
         </is>
       </c>
       <c r="H13" t="n">
         <v>400</v>
       </c>
       <c r="I13" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2025-03-04 20:12:19</t>
+          <t>2025-03-04 21:38:36</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -2202,7 +3578,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -2212,7 +3588,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>0x19</t>
+          <t>0x13</t>
         </is>
       </c>
       <c r="F14" t="n">
@@ -2220,20 +3596,20 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>568631262647113771663628</t>
+          <t>568631262647113771270412</t>
         </is>
       </c>
       <c r="H14" t="n">
         <v>400</v>
       </c>
       <c r="I14" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2025-03-04 21:12:19</t>
+          <t>2025-03-04 22:38:36</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -2243,7 +3619,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -2253,7 +3629,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>0x19</t>
+          <t>0x13</t>
         </is>
       </c>
       <c r="F15" t="n">
@@ -2261,20 +3637,20 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>568631262647113771663628</t>
+          <t>568631262647113771270412</t>
         </is>
       </c>
       <c r="H15" t="n">
         <v>400</v>
       </c>
       <c r="I15" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2025-03-04 22:12:19</t>
+          <t>2025-03-04 23:38:36</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -2284,7 +3660,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -2294,7 +3670,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>0x19</t>
+          <t>0x13</t>
         </is>
       </c>
       <c r="F16" t="n">
@@ -2302,20 +3678,20 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>568631262647113771663628</t>
+          <t>568631262647113771270412</t>
         </is>
       </c>
       <c r="H16" t="n">
         <v>400</v>
       </c>
       <c r="I16" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2025-03-04 23:12:19</t>
+          <t>2025-03-05 00:38:36</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -2325,7 +3701,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -2335,7 +3711,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>0x19</t>
+          <t>0x13</t>
         </is>
       </c>
       <c r="F17" t="n">
@@ -2343,20 +3719,20 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>568631262647113771663628</t>
+          <t>568631262647113771270412</t>
         </is>
       </c>
       <c r="H17" t="n">
         <v>400</v>
       </c>
       <c r="I17" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2025-03-05 00:12:19</t>
+          <t>2025-03-05 01:38:36</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -2366,7 +3742,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -2376,7 +3752,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>0x19</t>
+          <t>0x13</t>
         </is>
       </c>
       <c r="F18" t="n">
@@ -2384,20 +3760,20 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>568631262647113771663628</t>
+          <t>568631262647113771270412</t>
         </is>
       </c>
       <c r="H18" t="n">
         <v>400</v>
       </c>
       <c r="I18" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>2025-03-05 01:12:19</t>
+          <t>2025-03-05 02:38:36</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -2407,7 +3783,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -2417,7 +3793,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>0x19</t>
+          <t>0x13</t>
         </is>
       </c>
       <c r="F19" t="n">
@@ -2425,20 +3801,20 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>568631262647113771663628</t>
+          <t>568631262647113771270412</t>
         </is>
       </c>
       <c r="H19" t="n">
         <v>400</v>
       </c>
       <c r="I19" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2025-03-05 02:12:19</t>
+          <t>2025-03-05 03:38:36</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -2448,7 +3824,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -2458,7 +3834,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>0x19</t>
+          <t>0x13</t>
         </is>
       </c>
       <c r="F20" t="n">
@@ -2466,20 +3842,20 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>568631262647113771663628</t>
+          <t>568631262647113771270412</t>
         </is>
       </c>
       <c r="H20" t="n">
         <v>400</v>
       </c>
       <c r="I20" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>2025-03-05 03:12:19</t>
+          <t>2025-03-05 04:38:36</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -2489,7 +3865,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -2499,7 +3875,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>0x19</t>
+          <t>0x13</t>
         </is>
       </c>
       <c r="F21" t="n">
@@ -2507,20 +3883,20 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>568631262647113771663628</t>
+          <t>568631262647113771270412</t>
         </is>
       </c>
       <c r="H21" t="n">
         <v>400</v>
       </c>
       <c r="I21" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>2025-03-05 04:12:19</t>
+          <t>2025-03-05 05:38:36</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -2530,7 +3906,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -2540,7 +3916,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>0x19</t>
+          <t>0x13</t>
         </is>
       </c>
       <c r="F22" t="n">
@@ -2548,20 +3924,20 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>568631262647113771663628</t>
+          <t>568631262647113771270412</t>
         </is>
       </c>
       <c r="H22" t="n">
         <v>400</v>
       </c>
       <c r="I22" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>2025-03-05 05:12:19</t>
+          <t>2025-03-05 06:38:36</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -2571,7 +3947,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -2581,7 +3957,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>0x19</t>
+          <t>0x13</t>
         </is>
       </c>
       <c r="F23" t="n">
@@ -2589,20 +3965,20 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>568631262647113771663628</t>
+          <t>568631262647113771270412</t>
         </is>
       </c>
       <c r="H23" t="n">
         <v>400</v>
       </c>
       <c r="I23" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>2025-03-05 06:12:19</t>
+          <t>2025-03-05 07:38:36</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -2612,7 +3988,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -2622,7 +3998,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>0x19</t>
+          <t>0x13</t>
         </is>
       </c>
       <c r="F24" t="n">
@@ -2630,20 +4006,20 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>568631262647113771663628</t>
+          <t>568631262647113771270412</t>
         </is>
       </c>
       <c r="H24" t="n">
         <v>400</v>
       </c>
       <c r="I24" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>2025-03-05 07:12:19</t>
+          <t>2025-03-05 08:38:36</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -2653,7 +4029,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -2663,7 +4039,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>0x19</t>
+          <t>0x13</t>
         </is>
       </c>
       <c r="F25" t="n">
@@ -2671,20 +4047,20 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>568631262647113771663628</t>
+          <t>568631262647113771270412</t>
         </is>
       </c>
       <c r="H25" t="n">
         <v>400</v>
       </c>
       <c r="I25" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>2025-03-05 08:12:19</t>
+          <t>2025-03-05 09:38:36</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -2694,7 +4070,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -2704,7 +4080,7 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>0x19</t>
+          <t>0x13</t>
         </is>
       </c>
       <c r="F26" t="n">
@@ -2712,20 +4088,20 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>568631262647113771663628</t>
+          <t>568631262647113771270412</t>
         </is>
       </c>
       <c r="H26" t="n">
         <v>400</v>
       </c>
       <c r="I26" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>2025-03-05 09:12:19</t>
+          <t>2025-03-05 10:38:36</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -2735,7 +4111,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -2745,7 +4121,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>0x19</t>
+          <t>0x13</t>
         </is>
       </c>
       <c r="F27" t="n">
@@ -2753,20 +4129,20 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>568631262647113771663628</t>
+          <t>568631262647113771270412</t>
         </is>
       </c>
       <c r="H27" t="n">
         <v>400</v>
       </c>
       <c r="I27" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>2025-03-05 10:12:19</t>
+          <t>2025-03-05 11:38:36</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -2776,7 +4152,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -2786,7 +4162,7 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>0x19</t>
+          <t>0x13</t>
         </is>
       </c>
       <c r="F28" t="n">
@@ -2794,20 +4170,20 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>568631262647113771663628</t>
+          <t>568631262647113771270412</t>
         </is>
       </c>
       <c r="H28" t="n">
         <v>400</v>
       </c>
       <c r="I28" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>2025-03-05 11:12:19</t>
+          <t>2025-03-05 12:38:36</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -2817,7 +4193,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -2827,7 +4203,7 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>0x19</t>
+          <t>0x13</t>
         </is>
       </c>
       <c r="F29" t="n">
@@ -2835,20 +4211,20 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>568631262647113771663628</t>
+          <t>568631262647113771270412</t>
         </is>
       </c>
       <c r="H29" t="n">
         <v>400</v>
       </c>
       <c r="I29" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>2025-03-05 12:12:19</t>
+          <t>2025-03-05 13:38:36</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -2858,7 +4234,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -2868,7 +4244,7 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>0x19</t>
+          <t>0x13</t>
         </is>
       </c>
       <c r="F30" t="n">
@@ -2876,20 +4252,20 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>568631262647113771663628</t>
+          <t>568631262647113771270412</t>
         </is>
       </c>
       <c r="H30" t="n">
         <v>400</v>
       </c>
       <c r="I30" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>2025-03-05 13:12:19</t>
+          <t>2025-03-05 14:38:36</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -2899,7 +4275,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -2909,7 +4285,7 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>0x19</t>
+          <t>0x13</t>
         </is>
       </c>
       <c r="F31" t="n">
@@ -2917,1225 +4293,13 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>568631262647113771663628</t>
+          <t>568631262647113771270412</t>
         </is>
       </c>
       <c r="H31" t="n">
         <v>400</v>
       </c>
       <c r="I31" t="n">
-        <v>25</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:I29"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>time</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>总长</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>ID</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>实际长度</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>和校验</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>总长_DEC</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>ID_DEC</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>实际长度_DEC</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>和校验_DEC</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>45720.40180555556</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0x01,0x90 </t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>0x01,0x90,</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>0x13</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>400</v>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>568631262647113771270412</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>400</v>
-      </c>
-      <c r="I2" t="n">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>2025-03-04 10:38:36</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0x01,0x90 </t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>0x01,0x90,</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>0x13</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>400</v>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>568631262647113771270412</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>400</v>
-      </c>
-      <c r="I3" t="n">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>2025-03-04 11:38:36</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0x01,0x90 </t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>0x01,0x90,</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>0x13</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>400</v>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>568631262647113771270412</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>400</v>
-      </c>
-      <c r="I4" t="n">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>2025-03-04 12:38:36</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0x01,0x90 </t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>0x01,0x90,</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>0x13</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>400</v>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>568631262647113771270412</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>400</v>
-      </c>
-      <c r="I5" t="n">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>2025-03-04 13:38:36</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0x01,0x90 </t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0x01,0x90,</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>0x13</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>400</v>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>568631262647113771270412</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>400</v>
-      </c>
-      <c r="I6" t="n">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>2025-03-04 14:38:36</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0x01,0x90 </t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>0x01,0x90,</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>0x13</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>400</v>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>568631262647113771270412</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>400</v>
-      </c>
-      <c r="I7" t="n">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>2025-03-04 15:38:36</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0x01,0x90 </t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>0x01,0x90,</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>0x13</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>400</v>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>568631262647113771270412</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>400</v>
-      </c>
-      <c r="I8" t="n">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>2025-03-04 16:38:36</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0x01,0x90 </t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>0x01,0x90,</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>0x13</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>400</v>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>568631262647113771270412</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>400</v>
-      </c>
-      <c r="I9" t="n">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>2025-03-04 17:38:36</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0x01,0x90 </t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>0x01,0x90,</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>0x13</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>400</v>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>568631262647113771270412</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>400</v>
-      </c>
-      <c r="I10" t="n">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>2025-03-04 18:38:36</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0x01,0x90 </t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>0x01,0x90,</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>0x13</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>400</v>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>568631262647113771270412</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>400</v>
-      </c>
-      <c r="I11" t="n">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>2025-03-04 19:38:36</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0x01,0x90 </t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>0x01,0x90,</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>0x13</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>400</v>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>568631262647113771270412</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>400</v>
-      </c>
-      <c r="I12" t="n">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>2025-03-04 20:38:36</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0x01,0x90 </t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>0x01,0x90,</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>0x13</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>400</v>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>568631262647113771270412</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>400</v>
-      </c>
-      <c r="I13" t="n">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>2025-03-04 21:38:36</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0x01,0x90 </t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>0x01,0x90,</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>0x13</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>400</v>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>568631262647113771270412</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>400</v>
-      </c>
-      <c r="I14" t="n">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>2025-03-04 22:38:36</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0x01,0x90 </t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>0x01,0x90,</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>0x13</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>400</v>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>568631262647113771270412</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>400</v>
-      </c>
-      <c r="I15" t="n">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>2025-03-04 23:38:36</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0x01,0x90 </t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>0x01,0x90,</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>0x13</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
-        <v>400</v>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>568631262647113771270412</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
-        <v>400</v>
-      </c>
-      <c r="I16" t="n">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>2025-03-05 00:38:36</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0x01,0x90 </t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>0x01,0x90,</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>0x13</t>
-        </is>
-      </c>
-      <c r="F17" t="n">
-        <v>400</v>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>568631262647113771270412</t>
-        </is>
-      </c>
-      <c r="H17" t="n">
-        <v>400</v>
-      </c>
-      <c r="I17" t="n">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>2025-03-05 01:38:36</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0x01,0x90 </t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>0x01,0x90,</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>0x13</t>
-        </is>
-      </c>
-      <c r="F18" t="n">
-        <v>400</v>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>568631262647113771270412</t>
-        </is>
-      </c>
-      <c r="H18" t="n">
-        <v>400</v>
-      </c>
-      <c r="I18" t="n">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>2025-03-05 02:38:36</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0x01,0x90 </t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>0x01,0x90,</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>0x13</t>
-        </is>
-      </c>
-      <c r="F19" t="n">
-        <v>400</v>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>568631262647113771270412</t>
-        </is>
-      </c>
-      <c r="H19" t="n">
-        <v>400</v>
-      </c>
-      <c r="I19" t="n">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>2025-03-05 03:38:36</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0x01,0x90 </t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>0x01,0x90,</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>0x13</t>
-        </is>
-      </c>
-      <c r="F20" t="n">
-        <v>400</v>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>568631262647113771270412</t>
-        </is>
-      </c>
-      <c r="H20" t="n">
-        <v>400</v>
-      </c>
-      <c r="I20" t="n">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>2025-03-05 04:38:36</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0x01,0x90 </t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>0x01,0x90,</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>0x13</t>
-        </is>
-      </c>
-      <c r="F21" t="n">
-        <v>400</v>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>568631262647113771270412</t>
-        </is>
-      </c>
-      <c r="H21" t="n">
-        <v>400</v>
-      </c>
-      <c r="I21" t="n">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>2025-03-05 05:38:36</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0x01,0x90 </t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>0x01,0x90,</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>0x13</t>
-        </is>
-      </c>
-      <c r="F22" t="n">
-        <v>400</v>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>568631262647113771270412</t>
-        </is>
-      </c>
-      <c r="H22" t="n">
-        <v>400</v>
-      </c>
-      <c r="I22" t="n">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>2025-03-05 06:38:36</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0x01,0x90 </t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>0x01,0x90,</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>0x13</t>
-        </is>
-      </c>
-      <c r="F23" t="n">
-        <v>400</v>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>568631262647113771270412</t>
-        </is>
-      </c>
-      <c r="H23" t="n">
-        <v>400</v>
-      </c>
-      <c r="I23" t="n">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>2025-03-05 07:38:36</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0x01,0x90 </t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>0x01,0x90,</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>0x13</t>
-        </is>
-      </c>
-      <c r="F24" t="n">
-        <v>400</v>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>568631262647113771270412</t>
-        </is>
-      </c>
-      <c r="H24" t="n">
-        <v>400</v>
-      </c>
-      <c r="I24" t="n">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>2025-03-05 08:38:36</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0x01,0x90 </t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>0x01,0x90,</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>0x13</t>
-        </is>
-      </c>
-      <c r="F25" t="n">
-        <v>400</v>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>568631262647113771270412</t>
-        </is>
-      </c>
-      <c r="H25" t="n">
-        <v>400</v>
-      </c>
-      <c r="I25" t="n">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>2025-03-05 09:38:36</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0x01,0x90 </t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>0x01,0x90,</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>0x13</t>
-        </is>
-      </c>
-      <c r="F26" t="n">
-        <v>400</v>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>568631262647113771270412</t>
-        </is>
-      </c>
-      <c r="H26" t="n">
-        <v>400</v>
-      </c>
-      <c r="I26" t="n">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>2025-03-05 10:38:36</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0x01,0x90 </t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>0x01,0x90,</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>0x13</t>
-        </is>
-      </c>
-      <c r="F27" t="n">
-        <v>400</v>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>568631262647113771270412</t>
-        </is>
-      </c>
-      <c r="H27" t="n">
-        <v>400</v>
-      </c>
-      <c r="I27" t="n">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>2025-03-05 11:38:36</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0x01,0x90 </t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>0x01,0x90,</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>0x13</t>
-        </is>
-      </c>
-      <c r="F28" t="n">
-        <v>400</v>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>568631262647113771270412</t>
-        </is>
-      </c>
-      <c r="H28" t="n">
-        <v>400</v>
-      </c>
-      <c r="I28" t="n">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>2025-03-05 12:38:36</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0x01,0x90 </t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>0x01,0x90,</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>0x13</t>
-        </is>
-      </c>
-      <c r="F29" t="n">
-        <v>400</v>
-      </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>568631262647113771270412</t>
-        </is>
-      </c>
-      <c r="H29" t="n">
-        <v>400</v>
-      </c>
-      <c r="I29" t="n">
         <v>13</v>
       </c>
     </row>
@@ -4150,7 +4314,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I29"/>
+  <dimension ref="A1:I30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5351,6 +5515,47 @@
         <v>9</v>
       </c>
     </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>2025-03-05 14:31:34</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>0x 9</t>
+        </is>
+      </c>
+      <c r="F30" t="n">
+        <v>400</v>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>568631262647113770680332</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>400</v>
+      </c>
+      <c r="I30" t="n">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/SAG2_sensor_data_with_decimal_filtered_updated.xlsx
+++ b/SAG2_sensor_data_with_decimal_filtered_updated.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I30"/>
+  <dimension ref="A1:I31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1674,12 +1674,1429 @@
         <v>14</v>
       </c>
     </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>2025-03-05 15:18:04</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1b,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>0x14</t>
+        </is>
+      </c>
+      <c r="F31" t="n">
+        <v>400</v>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>568631262647113771335948</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>400</v>
+      </c>
+      <c r="I31" t="n">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I33"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>time</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>总长</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>实际长度</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>和校验</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>总长_DEC</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>ID_DEC</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>实际长度_DEC</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>和校验_DEC</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>45720.34188657408</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F2" t="n">
+        <v>400</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>400</v>
+      </c>
+      <c r="I2" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2025-03-04 09:12:19</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F3" t="n">
+        <v>400</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>400</v>
+      </c>
+      <c r="I3" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>2025-03-04 10:12:19</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F4" t="n">
+        <v>400</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>400</v>
+      </c>
+      <c r="I4" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>2025-03-04 11:12:19</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F5" t="n">
+        <v>400</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>400</v>
+      </c>
+      <c r="I5" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>2025-03-04 12:12:19</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F6" t="n">
+        <v>400</v>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>400</v>
+      </c>
+      <c r="I6" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>2025-03-04 13:12:19</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F7" t="n">
+        <v>400</v>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>400</v>
+      </c>
+      <c r="I7" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>2025-03-04 14:12:19</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F8" t="n">
+        <v>400</v>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>400</v>
+      </c>
+      <c r="I8" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>2025-03-04 15:12:19</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F9" t="n">
+        <v>400</v>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>400</v>
+      </c>
+      <c r="I9" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>2025-03-04 16:12:19</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F10" t="n">
+        <v>400</v>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>400</v>
+      </c>
+      <c r="I10" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>2025-03-04 17:12:19</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F11" t="n">
+        <v>400</v>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>400</v>
+      </c>
+      <c r="I11" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>2025-03-04 18:12:19</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F12" t="n">
+        <v>400</v>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>400</v>
+      </c>
+      <c r="I12" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>2025-03-04 19:12:19</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F13" t="n">
+        <v>400</v>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>400</v>
+      </c>
+      <c r="I13" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>2025-03-04 20:12:19</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F14" t="n">
+        <v>400</v>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>400</v>
+      </c>
+      <c r="I14" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>2025-03-04 21:12:19</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F15" t="n">
+        <v>400</v>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>400</v>
+      </c>
+      <c r="I15" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>2025-03-04 22:12:19</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F16" t="n">
+        <v>400</v>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>400</v>
+      </c>
+      <c r="I16" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>2025-03-04 23:12:19</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F17" t="n">
+        <v>400</v>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>400</v>
+      </c>
+      <c r="I17" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>2025-03-05 00:12:19</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F18" t="n">
+        <v>400</v>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>400</v>
+      </c>
+      <c r="I18" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>2025-03-05 01:12:19</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F19" t="n">
+        <v>400</v>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>400</v>
+      </c>
+      <c r="I19" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>2025-03-05 02:12:19</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F20" t="n">
+        <v>400</v>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>400</v>
+      </c>
+      <c r="I20" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>2025-03-05 03:12:19</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F21" t="n">
+        <v>400</v>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>400</v>
+      </c>
+      <c r="I21" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>2025-03-05 04:12:19</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F22" t="n">
+        <v>400</v>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>400</v>
+      </c>
+      <c r="I22" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>2025-03-05 05:12:19</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F23" t="n">
+        <v>400</v>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>400</v>
+      </c>
+      <c r="I23" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>2025-03-05 06:12:19</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F24" t="n">
+        <v>400</v>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>400</v>
+      </c>
+      <c r="I24" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>2025-03-05 07:12:19</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F25" t="n">
+        <v>400</v>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>400</v>
+      </c>
+      <c r="I25" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>2025-03-05 08:12:19</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F26" t="n">
+        <v>400</v>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>400</v>
+      </c>
+      <c r="I26" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>2025-03-05 09:12:19</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F27" t="n">
+        <v>400</v>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>400</v>
+      </c>
+      <c r="I27" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>2025-03-05 10:12:19</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F28" t="n">
+        <v>400</v>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>400</v>
+      </c>
+      <c r="I28" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>2025-03-05 11:12:19</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F29" t="n">
+        <v>400</v>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>400</v>
+      </c>
+      <c r="I29" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>2025-03-05 12:12:19</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F30" t="n">
+        <v>400</v>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>400</v>
+      </c>
+      <c r="I30" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>2025-03-05 13:12:19</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F31" t="n">
+        <v>400</v>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>400</v>
+      </c>
+      <c r="I31" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>2025-03-05 14:12:19</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F32" t="n">
+        <v>400</v>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>400</v>
+      </c>
+      <c r="I32" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>2025-03-05 15:12:19</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F33" t="n">
+        <v>400</v>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>400</v>
+      </c>
+      <c r="I33" t="n">
+        <v>25</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1742,7 +3159,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45720.34188657408</v>
+        <v>45720.40180555556</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -1751,7 +3168,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -1761,7 +3178,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>0x19</t>
+          <t>0x13</t>
         </is>
       </c>
       <c r="F2" t="n">
@@ -1769,20 +3186,20 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>568631262647113771663628</t>
+          <t>568631262647113771270412</t>
         </is>
       </c>
       <c r="H2" t="n">
         <v>400</v>
       </c>
       <c r="I2" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2025-03-04 09:12:19</t>
+          <t>2025-03-04 10:38:36</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -1792,7 +3209,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -1802,7 +3219,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>0x19</t>
+          <t>0x13</t>
         </is>
       </c>
       <c r="F3" t="n">
@@ -1810,20 +3227,20 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>568631262647113771663628</t>
+          <t>568631262647113771270412</t>
         </is>
       </c>
       <c r="H3" t="n">
         <v>400</v>
       </c>
       <c r="I3" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2025-03-04 10:12:19</t>
+          <t>2025-03-04 11:38:36</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -1833,7 +3250,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -1843,7 +3260,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>0x19</t>
+          <t>0x13</t>
         </is>
       </c>
       <c r="F4" t="n">
@@ -1851,20 +3268,20 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>568631262647113771663628</t>
+          <t>568631262647113771270412</t>
         </is>
       </c>
       <c r="H4" t="n">
         <v>400</v>
       </c>
       <c r="I4" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2025-03-04 11:12:19</t>
+          <t>2025-03-04 12:38:36</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1874,7 +3291,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -1884,7 +3301,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>0x19</t>
+          <t>0x13</t>
         </is>
       </c>
       <c r="F5" t="n">
@@ -1892,20 +3309,20 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>568631262647113771663628</t>
+          <t>568631262647113771270412</t>
         </is>
       </c>
       <c r="H5" t="n">
         <v>400</v>
       </c>
       <c r="I5" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2025-03-04 12:12:19</t>
+          <t>2025-03-04 13:38:36</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1915,7 +3332,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -1925,7 +3342,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>0x19</t>
+          <t>0x13</t>
         </is>
       </c>
       <c r="F6" t="n">
@@ -1933,20 +3350,20 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>568631262647113771663628</t>
+          <t>568631262647113771270412</t>
         </is>
       </c>
       <c r="H6" t="n">
         <v>400</v>
       </c>
       <c r="I6" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2025-03-04 13:12:19</t>
+          <t>2025-03-04 14:38:36</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1956,7 +3373,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -1966,7 +3383,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>0x19</t>
+          <t>0x13</t>
         </is>
       </c>
       <c r="F7" t="n">
@@ -1974,20 +3391,20 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>568631262647113771663628</t>
+          <t>568631262647113771270412</t>
         </is>
       </c>
       <c r="H7" t="n">
         <v>400</v>
       </c>
       <c r="I7" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2025-03-04 14:12:19</t>
+          <t>2025-03-04 15:38:36</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1997,7 +3414,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -2007,7 +3424,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>0x19</t>
+          <t>0x13</t>
         </is>
       </c>
       <c r="F8" t="n">
@@ -2015,20 +3432,20 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>568631262647113771663628</t>
+          <t>568631262647113771270412</t>
         </is>
       </c>
       <c r="H8" t="n">
         <v>400</v>
       </c>
       <c r="I8" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2025-03-04 15:12:19</t>
+          <t>2025-03-04 16:38:36</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -2038,7 +3455,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -2048,7 +3465,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>0x19</t>
+          <t>0x13</t>
         </is>
       </c>
       <c r="F9" t="n">
@@ -2056,20 +3473,20 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>568631262647113771663628</t>
+          <t>568631262647113771270412</t>
         </is>
       </c>
       <c r="H9" t="n">
         <v>400</v>
       </c>
       <c r="I9" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2025-03-04 16:12:19</t>
+          <t>2025-03-04 17:38:36</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -2079,7 +3496,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -2089,7 +3506,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>0x19</t>
+          <t>0x13</t>
         </is>
       </c>
       <c r="F10" t="n">
@@ -2097,20 +3514,20 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>568631262647113771663628</t>
+          <t>568631262647113771270412</t>
         </is>
       </c>
       <c r="H10" t="n">
         <v>400</v>
       </c>
       <c r="I10" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2025-03-04 17:12:19</t>
+          <t>2025-03-04 18:38:36</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -2120,7 +3537,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -2130,7 +3547,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>0x19</t>
+          <t>0x13</t>
         </is>
       </c>
       <c r="F11" t="n">
@@ -2138,20 +3555,20 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>568631262647113771663628</t>
+          <t>568631262647113771270412</t>
         </is>
       </c>
       <c r="H11" t="n">
         <v>400</v>
       </c>
       <c r="I11" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2025-03-04 18:12:19</t>
+          <t>2025-03-04 19:38:36</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2161,7 +3578,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -2171,7 +3588,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>0x19</t>
+          <t>0x13</t>
         </is>
       </c>
       <c r="F12" t="n">
@@ -2179,20 +3596,20 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>568631262647113771663628</t>
+          <t>568631262647113771270412</t>
         </is>
       </c>
       <c r="H12" t="n">
         <v>400</v>
       </c>
       <c r="I12" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2025-03-04 19:12:19</t>
+          <t>2025-03-04 20:38:36</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2202,7 +3619,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -2212,7 +3629,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>0x19</t>
+          <t>0x13</t>
         </is>
       </c>
       <c r="F13" t="n">
@@ -2220,20 +3637,20 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>568631262647113771663628</t>
+          <t>568631262647113771270412</t>
         </is>
       </c>
       <c r="H13" t="n">
         <v>400</v>
       </c>
       <c r="I13" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2025-03-04 20:12:19</t>
+          <t>2025-03-04 21:38:36</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -2243,7 +3660,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -2253,7 +3670,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>0x19</t>
+          <t>0x13</t>
         </is>
       </c>
       <c r="F14" t="n">
@@ -2261,20 +3678,20 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>568631262647113771663628</t>
+          <t>568631262647113771270412</t>
         </is>
       </c>
       <c r="H14" t="n">
         <v>400</v>
       </c>
       <c r="I14" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2025-03-04 21:12:19</t>
+          <t>2025-03-04 22:38:36</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -2284,7 +3701,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -2294,7 +3711,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>0x19</t>
+          <t>0x13</t>
         </is>
       </c>
       <c r="F15" t="n">
@@ -2302,20 +3719,20 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>568631262647113771663628</t>
+          <t>568631262647113771270412</t>
         </is>
       </c>
       <c r="H15" t="n">
         <v>400</v>
       </c>
       <c r="I15" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2025-03-04 22:12:19</t>
+          <t>2025-03-04 23:38:36</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -2325,7 +3742,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -2335,7 +3752,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>0x19</t>
+          <t>0x13</t>
         </is>
       </c>
       <c r="F16" t="n">
@@ -2343,20 +3760,20 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>568631262647113771663628</t>
+          <t>568631262647113771270412</t>
         </is>
       </c>
       <c r="H16" t="n">
         <v>400</v>
       </c>
       <c r="I16" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2025-03-04 23:12:19</t>
+          <t>2025-03-05 00:38:36</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -2366,7 +3783,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -2376,7 +3793,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>0x19</t>
+          <t>0x13</t>
         </is>
       </c>
       <c r="F17" t="n">
@@ -2384,20 +3801,20 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>568631262647113771663628</t>
+          <t>568631262647113771270412</t>
         </is>
       </c>
       <c r="H17" t="n">
         <v>400</v>
       </c>
       <c r="I17" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2025-03-05 00:12:19</t>
+          <t>2025-03-05 01:38:36</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -2407,7 +3824,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -2417,7 +3834,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>0x19</t>
+          <t>0x13</t>
         </is>
       </c>
       <c r="F18" t="n">
@@ -2425,20 +3842,20 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>568631262647113771663628</t>
+          <t>568631262647113771270412</t>
         </is>
       </c>
       <c r="H18" t="n">
         <v>400</v>
       </c>
       <c r="I18" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>2025-03-05 01:12:19</t>
+          <t>2025-03-05 02:38:36</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -2448,7 +3865,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -2458,7 +3875,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>0x19</t>
+          <t>0x13</t>
         </is>
       </c>
       <c r="F19" t="n">
@@ -2466,20 +3883,20 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>568631262647113771663628</t>
+          <t>568631262647113771270412</t>
         </is>
       </c>
       <c r="H19" t="n">
         <v>400</v>
       </c>
       <c r="I19" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2025-03-05 02:12:19</t>
+          <t>2025-03-05 03:38:36</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -2489,7 +3906,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -2499,7 +3916,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>0x19</t>
+          <t>0x13</t>
         </is>
       </c>
       <c r="F20" t="n">
@@ -2507,20 +3924,20 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>568631262647113771663628</t>
+          <t>568631262647113771270412</t>
         </is>
       </c>
       <c r="H20" t="n">
         <v>400</v>
       </c>
       <c r="I20" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>2025-03-05 03:12:19</t>
+          <t>2025-03-05 04:38:36</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -2530,7 +3947,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -2540,7 +3957,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>0x19</t>
+          <t>0x13</t>
         </is>
       </c>
       <c r="F21" t="n">
@@ -2548,20 +3965,20 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>568631262647113771663628</t>
+          <t>568631262647113771270412</t>
         </is>
       </c>
       <c r="H21" t="n">
         <v>400</v>
       </c>
       <c r="I21" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>2025-03-05 04:12:19</t>
+          <t>2025-03-05 05:38:36</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -2571,7 +3988,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -2581,7 +3998,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>0x19</t>
+          <t>0x13</t>
         </is>
       </c>
       <c r="F22" t="n">
@@ -2589,20 +4006,20 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>568631262647113771663628</t>
+          <t>568631262647113771270412</t>
         </is>
       </c>
       <c r="H22" t="n">
         <v>400</v>
       </c>
       <c r="I22" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>2025-03-05 05:12:19</t>
+          <t>2025-03-05 06:38:36</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -2612,7 +4029,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -2622,7 +4039,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>0x19</t>
+          <t>0x13</t>
         </is>
       </c>
       <c r="F23" t="n">
@@ -2630,20 +4047,20 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>568631262647113771663628</t>
+          <t>568631262647113771270412</t>
         </is>
       </c>
       <c r="H23" t="n">
         <v>400</v>
       </c>
       <c r="I23" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>2025-03-05 06:12:19</t>
+          <t>2025-03-05 07:38:36</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -2653,7 +4070,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -2663,7 +4080,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>0x19</t>
+          <t>0x13</t>
         </is>
       </c>
       <c r="F24" t="n">
@@ -2671,20 +4088,20 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>568631262647113771663628</t>
+          <t>568631262647113771270412</t>
         </is>
       </c>
       <c r="H24" t="n">
         <v>400</v>
       </c>
       <c r="I24" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>2025-03-05 07:12:19</t>
+          <t>2025-03-05 08:38:36</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -2694,7 +4111,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -2704,7 +4121,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>0x19</t>
+          <t>0x13</t>
         </is>
       </c>
       <c r="F25" t="n">
@@ -2712,20 +4129,20 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>568631262647113771663628</t>
+          <t>568631262647113771270412</t>
         </is>
       </c>
       <c r="H25" t="n">
         <v>400</v>
       </c>
       <c r="I25" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>2025-03-05 08:12:19</t>
+          <t>2025-03-05 09:38:36</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -2735,7 +4152,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -2745,7 +4162,7 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>0x19</t>
+          <t>0x13</t>
         </is>
       </c>
       <c r="F26" t="n">
@@ -2753,20 +4170,20 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>568631262647113771663628</t>
+          <t>568631262647113771270412</t>
         </is>
       </c>
       <c r="H26" t="n">
         <v>400</v>
       </c>
       <c r="I26" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>2025-03-05 09:12:19</t>
+          <t>2025-03-05 10:38:36</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -2776,7 +4193,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -2786,7 +4203,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>0x19</t>
+          <t>0x13</t>
         </is>
       </c>
       <c r="F27" t="n">
@@ -2794,20 +4211,20 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>568631262647113771663628</t>
+          <t>568631262647113771270412</t>
         </is>
       </c>
       <c r="H27" t="n">
         <v>400</v>
       </c>
       <c r="I27" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>2025-03-05 10:12:19</t>
+          <t>2025-03-05 11:38:36</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -2817,7 +4234,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -2827,7 +4244,7 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>0x19</t>
+          <t>0x13</t>
         </is>
       </c>
       <c r="F28" t="n">
@@ -2835,20 +4252,20 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>568631262647113771663628</t>
+          <t>568631262647113771270412</t>
         </is>
       </c>
       <c r="H28" t="n">
         <v>400</v>
       </c>
       <c r="I28" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>2025-03-05 11:12:19</t>
+          <t>2025-03-05 12:38:36</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -2858,7 +4275,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -2868,7 +4285,7 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>0x19</t>
+          <t>0x13</t>
         </is>
       </c>
       <c r="F29" t="n">
@@ -2876,20 +4293,20 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>568631262647113771663628</t>
+          <t>568631262647113771270412</t>
         </is>
       </c>
       <c r="H29" t="n">
         <v>400</v>
       </c>
       <c r="I29" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>2025-03-05 12:12:19</t>
+          <t>2025-03-05 13:38:36</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -2899,7 +4316,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -2909,7 +4326,7 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>0x19</t>
+          <t>0x13</t>
         </is>
       </c>
       <c r="F30" t="n">
@@ -2917,20 +4334,20 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>568631262647113771663628</t>
+          <t>568631262647113771270412</t>
         </is>
       </c>
       <c r="H30" t="n">
         <v>400</v>
       </c>
       <c r="I30" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>2025-03-05 13:12:19</t>
+          <t>2025-03-05 14:38:36</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -2940,7 +4357,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -2950,7 +4367,7 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>0x19</t>
+          <t>0x13</t>
         </is>
       </c>
       <c r="F31" t="n">
@@ -2958,20 +4375,20 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>568631262647113771663628</t>
+          <t>568631262647113771270412</t>
         </is>
       </c>
       <c r="H31" t="n">
         <v>400</v>
       </c>
       <c r="I31" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>2025-03-05 14:12:19</t>
+          <t>2025-03-05 15:38:36</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -2981,7 +4398,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -2991,7 +4408,7 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>0x19</t>
+          <t>0x13</t>
         </is>
       </c>
       <c r="F32" t="n">
@@ -2999,14 +4416,14 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>568631262647113771663628</t>
+          <t>568631262647113771270412</t>
         </is>
       </c>
       <c r="H32" t="n">
         <v>400</v>
       </c>
       <c r="I32" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -3014,7 +4431,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3077,7 +4494,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45720.40180555556</v>
+        <v>45720.43858796296</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -3086,7 +4503,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -3096,7 +4513,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>0x13</t>
+          <t>0x 9</t>
         </is>
       </c>
       <c r="F2" t="n">
@@ -3104,20 +4521,20 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>568631262647113771270412</t>
+          <t>568631262647113770680332</t>
         </is>
       </c>
       <c r="H2" t="n">
         <v>400</v>
       </c>
       <c r="I2" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2025-03-04 10:38:36</t>
+          <t>2025-03-04 11:31:34</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -3127,7 +4544,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -3137,7 +4554,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>0x13</t>
+          <t>0x 9</t>
         </is>
       </c>
       <c r="F3" t="n">
@@ -3145,20 +4562,20 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>568631262647113771270412</t>
+          <t>568631262647113770680332</t>
         </is>
       </c>
       <c r="H3" t="n">
         <v>400</v>
       </c>
       <c r="I3" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2025-03-04 11:38:36</t>
+          <t>2025-03-04 12:31:34</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -3168,7 +4585,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -3178,7 +4595,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>0x13</t>
+          <t>0x 9</t>
         </is>
       </c>
       <c r="F4" t="n">
@@ -3186,20 +4603,20 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>568631262647113771270412</t>
+          <t>568631262647113770680332</t>
         </is>
       </c>
       <c r="H4" t="n">
         <v>400</v>
       </c>
       <c r="I4" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2025-03-04 12:38:36</t>
+          <t>2025-03-04 13:31:34</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -3209,7 +4626,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -3219,7 +4636,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>0x13</t>
+          <t>0x 9</t>
         </is>
       </c>
       <c r="F5" t="n">
@@ -3227,20 +4644,20 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>568631262647113771270412</t>
+          <t>568631262647113770680332</t>
         </is>
       </c>
       <c r="H5" t="n">
         <v>400</v>
       </c>
       <c r="I5" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2025-03-04 13:38:36</t>
+          <t>2025-03-04 14:31:34</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -3250,7 +4667,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -3260,7 +4677,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>0x13</t>
+          <t>0x 9</t>
         </is>
       </c>
       <c r="F6" t="n">
@@ -3268,20 +4685,20 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>568631262647113771270412</t>
+          <t>568631262647113770680332</t>
         </is>
       </c>
       <c r="H6" t="n">
         <v>400</v>
       </c>
       <c r="I6" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2025-03-04 14:38:36</t>
+          <t>2025-03-04 15:31:34</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -3291,7 +4708,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -3301,7 +4718,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>0x13</t>
+          <t>0x 9</t>
         </is>
       </c>
       <c r="F7" t="n">
@@ -3309,20 +4726,20 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>568631262647113771270412</t>
+          <t>568631262647113770680332</t>
         </is>
       </c>
       <c r="H7" t="n">
         <v>400</v>
       </c>
       <c r="I7" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2025-03-04 15:38:36</t>
+          <t>2025-03-04 16:31:34</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -3332,7 +4749,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -3342,7 +4759,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>0x13</t>
+          <t>0x 9</t>
         </is>
       </c>
       <c r="F8" t="n">
@@ -3350,20 +4767,20 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>568631262647113771270412</t>
+          <t>568631262647113770680332</t>
         </is>
       </c>
       <c r="H8" t="n">
         <v>400</v>
       </c>
       <c r="I8" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2025-03-04 16:38:36</t>
+          <t>2025-03-04 17:31:34</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -3373,7 +4790,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -3383,7 +4800,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>0x13</t>
+          <t>0x 9</t>
         </is>
       </c>
       <c r="F9" t="n">
@@ -3391,20 +4808,20 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>568631262647113771270412</t>
+          <t>568631262647113770680332</t>
         </is>
       </c>
       <c r="H9" t="n">
         <v>400</v>
       </c>
       <c r="I9" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2025-03-04 17:38:36</t>
+          <t>2025-03-04 18:31:34</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -3414,7 +4831,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -3424,7 +4841,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>0x13</t>
+          <t>0x 9</t>
         </is>
       </c>
       <c r="F10" t="n">
@@ -3432,20 +4849,20 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>568631262647113771270412</t>
+          <t>568631262647113770680332</t>
         </is>
       </c>
       <c r="H10" t="n">
         <v>400</v>
       </c>
       <c r="I10" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2025-03-04 18:38:36</t>
+          <t>2025-03-04 19:31:34</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -3455,7 +4872,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -3465,7 +4882,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>0x13</t>
+          <t>0x 9</t>
         </is>
       </c>
       <c r="F11" t="n">
@@ -3473,20 +4890,20 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>568631262647113771270412</t>
+          <t>568631262647113770680332</t>
         </is>
       </c>
       <c r="H11" t="n">
         <v>400</v>
       </c>
       <c r="I11" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2025-03-04 19:38:36</t>
+          <t>2025-03-04 20:31:34</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -3496,7 +4913,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -3506,7 +4923,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>0x13</t>
+          <t>0x 9</t>
         </is>
       </c>
       <c r="F12" t="n">
@@ -3514,20 +4931,20 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>568631262647113771270412</t>
+          <t>568631262647113770680332</t>
         </is>
       </c>
       <c r="H12" t="n">
         <v>400</v>
       </c>
       <c r="I12" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2025-03-04 20:38:36</t>
+          <t>2025-03-04 21:31:34</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -3537,7 +4954,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -3547,7 +4964,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>0x13</t>
+          <t>0x 9</t>
         </is>
       </c>
       <c r="F13" t="n">
@@ -3555,20 +4972,20 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>568631262647113771270412</t>
+          <t>568631262647113770680332</t>
         </is>
       </c>
       <c r="H13" t="n">
         <v>400</v>
       </c>
       <c r="I13" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2025-03-04 21:38:36</t>
+          <t>2025-03-04 22:31:34</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -3578,7 +4995,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -3588,7 +5005,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>0x13</t>
+          <t>0x 9</t>
         </is>
       </c>
       <c r="F14" t="n">
@@ -3596,20 +5013,20 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>568631262647113771270412</t>
+          <t>568631262647113770680332</t>
         </is>
       </c>
       <c r="H14" t="n">
         <v>400</v>
       </c>
       <c r="I14" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2025-03-04 22:38:36</t>
+          <t>2025-03-04 23:31:34</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -3619,7 +5036,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -3629,7 +5046,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>0x13</t>
+          <t>0x 9</t>
         </is>
       </c>
       <c r="F15" t="n">
@@ -3637,20 +5054,20 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>568631262647113771270412</t>
+          <t>568631262647113770680332</t>
         </is>
       </c>
       <c r="H15" t="n">
         <v>400</v>
       </c>
       <c r="I15" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2025-03-04 23:38:36</t>
+          <t>2025-03-05 00:31:34</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -3660,7 +5077,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -3670,7 +5087,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>0x13</t>
+          <t>0x 9</t>
         </is>
       </c>
       <c r="F16" t="n">
@@ -3678,20 +5095,20 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>568631262647113771270412</t>
+          <t>568631262647113770680332</t>
         </is>
       </c>
       <c r="H16" t="n">
         <v>400</v>
       </c>
       <c r="I16" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2025-03-05 00:38:36</t>
+          <t>2025-03-05 01:31:34</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -3701,7 +5118,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -3711,7 +5128,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>0x13</t>
+          <t>0x 9</t>
         </is>
       </c>
       <c r="F17" t="n">
@@ -3719,20 +5136,20 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>568631262647113771270412</t>
+          <t>568631262647113770680332</t>
         </is>
       </c>
       <c r="H17" t="n">
         <v>400</v>
       </c>
       <c r="I17" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2025-03-05 01:38:36</t>
+          <t>2025-03-05 02:31:34</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -3742,7 +5159,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -3752,7 +5169,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>0x13</t>
+          <t>0x 9</t>
         </is>
       </c>
       <c r="F18" t="n">
@@ -3760,20 +5177,20 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>568631262647113771270412</t>
+          <t>568631262647113770680332</t>
         </is>
       </c>
       <c r="H18" t="n">
         <v>400</v>
       </c>
       <c r="I18" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>2025-03-05 02:38:36</t>
+          <t>2025-03-05 03:31:34</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -3783,7 +5200,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -3793,7 +5210,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>0x13</t>
+          <t>0x 9</t>
         </is>
       </c>
       <c r="F19" t="n">
@@ -3801,20 +5218,20 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>568631262647113771270412</t>
+          <t>568631262647113770680332</t>
         </is>
       </c>
       <c r="H19" t="n">
         <v>400</v>
       </c>
       <c r="I19" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2025-03-05 03:38:36</t>
+          <t>2025-03-05 04:31:34</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -3824,7 +5241,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -3834,7 +5251,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>0x13</t>
+          <t>0x 9</t>
         </is>
       </c>
       <c r="F20" t="n">
@@ -3842,20 +5259,20 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>568631262647113771270412</t>
+          <t>568631262647113770680332</t>
         </is>
       </c>
       <c r="H20" t="n">
         <v>400</v>
       </c>
       <c r="I20" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>2025-03-05 04:38:36</t>
+          <t>2025-03-05 05:31:34</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -3865,7 +5282,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -3875,7 +5292,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>0x13</t>
+          <t>0x 9</t>
         </is>
       </c>
       <c r="F21" t="n">
@@ -3883,20 +5300,20 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>568631262647113771270412</t>
+          <t>568631262647113770680332</t>
         </is>
       </c>
       <c r="H21" t="n">
         <v>400</v>
       </c>
       <c r="I21" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>2025-03-05 05:38:36</t>
+          <t>2025-03-05 06:31:34</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -3906,7 +5323,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -3916,7 +5333,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>0x13</t>
+          <t>0x 9</t>
         </is>
       </c>
       <c r="F22" t="n">
@@ -3924,20 +5341,20 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>568631262647113771270412</t>
+          <t>568631262647113770680332</t>
         </is>
       </c>
       <c r="H22" t="n">
         <v>400</v>
       </c>
       <c r="I22" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>2025-03-05 06:38:36</t>
+          <t>2025-03-05 07:31:34</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -3947,7 +5364,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -3957,7 +5374,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>0x13</t>
+          <t>0x 9</t>
         </is>
       </c>
       <c r="F23" t="n">
@@ -3965,20 +5382,20 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>568631262647113771270412</t>
+          <t>568631262647113770680332</t>
         </is>
       </c>
       <c r="H23" t="n">
         <v>400</v>
       </c>
       <c r="I23" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>2025-03-05 07:38:36</t>
+          <t>2025-03-05 08:31:34</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -3988,7 +5405,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -3998,7 +5415,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>0x13</t>
+          <t>0x 9</t>
         </is>
       </c>
       <c r="F24" t="n">
@@ -4006,20 +5423,20 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>568631262647113771270412</t>
+          <t>568631262647113770680332</t>
         </is>
       </c>
       <c r="H24" t="n">
         <v>400</v>
       </c>
       <c r="I24" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>2025-03-05 08:38:36</t>
+          <t>2025-03-05 09:31:34</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -4029,7 +5446,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -4039,7 +5456,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>0x13</t>
+          <t>0x 9</t>
         </is>
       </c>
       <c r="F25" t="n">
@@ -4047,20 +5464,20 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>568631262647113771270412</t>
+          <t>568631262647113770680332</t>
         </is>
       </c>
       <c r="H25" t="n">
         <v>400</v>
       </c>
       <c r="I25" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>2025-03-05 09:38:36</t>
+          <t>2025-03-05 10:31:34</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -4070,7 +5487,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -4080,7 +5497,7 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>0x13</t>
+          <t>0x 9</t>
         </is>
       </c>
       <c r="F26" t="n">
@@ -4088,20 +5505,20 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>568631262647113771270412</t>
+          <t>568631262647113770680332</t>
         </is>
       </c>
       <c r="H26" t="n">
         <v>400</v>
       </c>
       <c r="I26" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>2025-03-05 10:38:36</t>
+          <t>2025-03-05 11:31:34</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -4111,7 +5528,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -4121,7 +5538,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>0x13</t>
+          <t>0x 9</t>
         </is>
       </c>
       <c r="F27" t="n">
@@ -4129,20 +5546,20 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>568631262647113771270412</t>
+          <t>568631262647113770680332</t>
         </is>
       </c>
       <c r="H27" t="n">
         <v>400</v>
       </c>
       <c r="I27" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>2025-03-05 11:38:36</t>
+          <t>2025-03-05 12:31:34</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -4152,7 +5569,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -4162,7 +5579,7 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>0x13</t>
+          <t>0x 9</t>
         </is>
       </c>
       <c r="F28" t="n">
@@ -4170,20 +5587,20 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>568631262647113771270412</t>
+          <t>568631262647113770680332</t>
         </is>
       </c>
       <c r="H28" t="n">
         <v>400</v>
       </c>
       <c r="I28" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>2025-03-05 12:38:36</t>
+          <t>2025-03-05 13:31:34</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -4193,7 +5610,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -4203,7 +5620,7 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>0x13</t>
+          <t>0x 9</t>
         </is>
       </c>
       <c r="F29" t="n">
@@ -4211,20 +5628,20 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>568631262647113771270412</t>
+          <t>568631262647113770680332</t>
         </is>
       </c>
       <c r="H29" t="n">
         <v>400</v>
       </c>
       <c r="I29" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>2025-03-05 13:38:36</t>
+          <t>2025-03-05 14:31:34</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -4234,7 +5651,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -4244,7 +5661,7 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>0x13</t>
+          <t>0x 9</t>
         </is>
       </c>
       <c r="F30" t="n">
@@ -4252,20 +5669,20 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>568631262647113771270412</t>
+          <t>568631262647113770680332</t>
         </is>
       </c>
       <c r="H30" t="n">
         <v>400</v>
       </c>
       <c r="I30" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>2025-03-05 14:38:36</t>
+          <t>2025-03-05 15:31:34</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -4275,7 +5692,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -4285,7 +5702,7 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>0x13</t>
+          <t>0x 9</t>
         </is>
       </c>
       <c r="F31" t="n">
@@ -4293,1266 +5710,13 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>568631262647113771270412</t>
+          <t>568631262647113770680332</t>
         </is>
       </c>
       <c r="H31" t="n">
         <v>400</v>
       </c>
       <c r="I31" t="n">
-        <v>13</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:I30"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>time</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>总长</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>ID</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>实际长度</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>和校验</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>总长_DEC</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>ID_DEC</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>实际长度_DEC</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>和校验_DEC</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>45720.43858796296</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0x01,0x90 </t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>0x01,0x90,</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>0x 9</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>400</v>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>568631262647113770680332</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>400</v>
-      </c>
-      <c r="I2" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>2025-03-04 11:31:34</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0x01,0x90 </t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>0x01,0x90,</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>0x 9</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>400</v>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>568631262647113770680332</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>400</v>
-      </c>
-      <c r="I3" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>2025-03-04 12:31:34</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0x01,0x90 </t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>0x01,0x90,</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>0x 9</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>400</v>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>568631262647113770680332</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>400</v>
-      </c>
-      <c r="I4" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>2025-03-04 13:31:34</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0x01,0x90 </t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>0x01,0x90,</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>0x 9</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>400</v>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>568631262647113770680332</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>400</v>
-      </c>
-      <c r="I5" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>2025-03-04 14:31:34</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0x01,0x90 </t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0x01,0x90,</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>0x 9</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>400</v>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>568631262647113770680332</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>400</v>
-      </c>
-      <c r="I6" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>2025-03-04 15:31:34</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0x01,0x90 </t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>0x01,0x90,</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>0x 9</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>400</v>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>568631262647113770680332</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>400</v>
-      </c>
-      <c r="I7" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>2025-03-04 16:31:34</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0x01,0x90 </t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>0x01,0x90,</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>0x 9</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>400</v>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>568631262647113770680332</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>400</v>
-      </c>
-      <c r="I8" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>2025-03-04 17:31:34</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0x01,0x90 </t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>0x01,0x90,</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>0x 9</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>400</v>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>568631262647113770680332</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>400</v>
-      </c>
-      <c r="I9" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>2025-03-04 18:31:34</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0x01,0x90 </t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>0x01,0x90,</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>0x 9</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>400</v>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>568631262647113770680332</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>400</v>
-      </c>
-      <c r="I10" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>2025-03-04 19:31:34</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0x01,0x90 </t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>0x01,0x90,</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>0x 9</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>400</v>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>568631262647113770680332</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>400</v>
-      </c>
-      <c r="I11" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>2025-03-04 20:31:34</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0x01,0x90 </t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>0x01,0x90,</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>0x 9</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>400</v>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>568631262647113770680332</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>400</v>
-      </c>
-      <c r="I12" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>2025-03-04 21:31:34</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0x01,0x90 </t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>0x01,0x90,</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>0x 9</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>400</v>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>568631262647113770680332</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>400</v>
-      </c>
-      <c r="I13" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>2025-03-04 22:31:34</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0x01,0x90 </t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>0x01,0x90,</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>0x 9</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>400</v>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>568631262647113770680332</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>400</v>
-      </c>
-      <c r="I14" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>2025-03-04 23:31:34</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0x01,0x90 </t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>0x01,0x90,</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>0x 9</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>400</v>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>568631262647113770680332</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>400</v>
-      </c>
-      <c r="I15" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>2025-03-05 00:31:34</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0x01,0x90 </t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>0x01,0x90,</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>0x 9</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
-        <v>400</v>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>568631262647113770680332</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
-        <v>400</v>
-      </c>
-      <c r="I16" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>2025-03-05 01:31:34</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0x01,0x90 </t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>0x01,0x90,</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>0x 9</t>
-        </is>
-      </c>
-      <c r="F17" t="n">
-        <v>400</v>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>568631262647113770680332</t>
-        </is>
-      </c>
-      <c r="H17" t="n">
-        <v>400</v>
-      </c>
-      <c r="I17" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>2025-03-05 02:31:34</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0x01,0x90 </t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>0x01,0x90,</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>0x 9</t>
-        </is>
-      </c>
-      <c r="F18" t="n">
-        <v>400</v>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>568631262647113770680332</t>
-        </is>
-      </c>
-      <c r="H18" t="n">
-        <v>400</v>
-      </c>
-      <c r="I18" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>2025-03-05 03:31:34</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0x01,0x90 </t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>0x01,0x90,</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>0x 9</t>
-        </is>
-      </c>
-      <c r="F19" t="n">
-        <v>400</v>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>568631262647113770680332</t>
-        </is>
-      </c>
-      <c r="H19" t="n">
-        <v>400</v>
-      </c>
-      <c r="I19" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>2025-03-05 04:31:34</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0x01,0x90 </t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>0x01,0x90,</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>0x 9</t>
-        </is>
-      </c>
-      <c r="F20" t="n">
-        <v>400</v>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>568631262647113770680332</t>
-        </is>
-      </c>
-      <c r="H20" t="n">
-        <v>400</v>
-      </c>
-      <c r="I20" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>2025-03-05 05:31:34</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0x01,0x90 </t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>0x01,0x90,</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>0x 9</t>
-        </is>
-      </c>
-      <c r="F21" t="n">
-        <v>400</v>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>568631262647113770680332</t>
-        </is>
-      </c>
-      <c r="H21" t="n">
-        <v>400</v>
-      </c>
-      <c r="I21" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>2025-03-05 06:31:34</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0x01,0x90 </t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>0x01,0x90,</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>0x 9</t>
-        </is>
-      </c>
-      <c r="F22" t="n">
-        <v>400</v>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>568631262647113770680332</t>
-        </is>
-      </c>
-      <c r="H22" t="n">
-        <v>400</v>
-      </c>
-      <c r="I22" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>2025-03-05 07:31:34</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0x01,0x90 </t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>0x01,0x90,</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>0x 9</t>
-        </is>
-      </c>
-      <c r="F23" t="n">
-        <v>400</v>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>568631262647113770680332</t>
-        </is>
-      </c>
-      <c r="H23" t="n">
-        <v>400</v>
-      </c>
-      <c r="I23" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>2025-03-05 08:31:34</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0x01,0x90 </t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>0x01,0x90,</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>0x 9</t>
-        </is>
-      </c>
-      <c r="F24" t="n">
-        <v>400</v>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>568631262647113770680332</t>
-        </is>
-      </c>
-      <c r="H24" t="n">
-        <v>400</v>
-      </c>
-      <c r="I24" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>2025-03-05 09:31:34</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0x01,0x90 </t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>0x01,0x90,</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>0x 9</t>
-        </is>
-      </c>
-      <c r="F25" t="n">
-        <v>400</v>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>568631262647113770680332</t>
-        </is>
-      </c>
-      <c r="H25" t="n">
-        <v>400</v>
-      </c>
-      <c r="I25" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>2025-03-05 10:31:34</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0x01,0x90 </t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>0x01,0x90,</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>0x 9</t>
-        </is>
-      </c>
-      <c r="F26" t="n">
-        <v>400</v>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>568631262647113770680332</t>
-        </is>
-      </c>
-      <c r="H26" t="n">
-        <v>400</v>
-      </c>
-      <c r="I26" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>2025-03-05 11:31:34</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0x01,0x90 </t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>0x01,0x90,</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>0x 9</t>
-        </is>
-      </c>
-      <c r="F27" t="n">
-        <v>400</v>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>568631262647113770680332</t>
-        </is>
-      </c>
-      <c r="H27" t="n">
-        <v>400</v>
-      </c>
-      <c r="I27" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>2025-03-05 12:31:34</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0x01,0x90 </t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>0x01,0x90,</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>0x 9</t>
-        </is>
-      </c>
-      <c r="F28" t="n">
-        <v>400</v>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>568631262647113770680332</t>
-        </is>
-      </c>
-      <c r="H28" t="n">
-        <v>400</v>
-      </c>
-      <c r="I28" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>2025-03-05 13:31:34</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0x01,0x90 </t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>0x01,0x90,</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>0x 9</t>
-        </is>
-      </c>
-      <c r="F29" t="n">
-        <v>400</v>
-      </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>568631262647113770680332</t>
-        </is>
-      </c>
-      <c r="H29" t="n">
-        <v>400</v>
-      </c>
-      <c r="I29" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>2025-03-05 14:31:34</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0x01,0x90 </t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>0x01,0x90,</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>0x 9</t>
-        </is>
-      </c>
-      <c r="F30" t="n">
-        <v>400</v>
-      </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>568631262647113770680332</t>
-        </is>
-      </c>
-      <c r="H30" t="n">
-        <v>400</v>
-      </c>
-      <c r="I30" t="n">
         <v>9</v>
       </c>
     </row>

--- a/SAG2_sensor_data_with_decimal_filtered_updated.xlsx
+++ b/SAG2_sensor_data_with_decimal_filtered_updated.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I31"/>
+  <dimension ref="A1:I32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1715,12 +1715,1470 @@
         <v>14</v>
       </c>
     </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>2025-03-05 16:18:04</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1b,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>0x14</t>
+        </is>
+      </c>
+      <c r="F32" t="n">
+        <v>400</v>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>568631262647113771335948</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>400</v>
+      </c>
+      <c r="I32" t="n">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I34"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>time</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>总长</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>实际长度</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>和校验</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>总长_DEC</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>ID_DEC</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>实际长度_DEC</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>和校验_DEC</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>45720.34188657408</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F2" t="n">
+        <v>400</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>400</v>
+      </c>
+      <c r="I2" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2025-03-04 09:12:19</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F3" t="n">
+        <v>400</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>400</v>
+      </c>
+      <c r="I3" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>2025-03-04 10:12:19</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F4" t="n">
+        <v>400</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>400</v>
+      </c>
+      <c r="I4" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>2025-03-04 11:12:19</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F5" t="n">
+        <v>400</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>400</v>
+      </c>
+      <c r="I5" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>2025-03-04 12:12:19</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F6" t="n">
+        <v>400</v>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>400</v>
+      </c>
+      <c r="I6" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>2025-03-04 13:12:19</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F7" t="n">
+        <v>400</v>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>400</v>
+      </c>
+      <c r="I7" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>2025-03-04 14:12:19</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F8" t="n">
+        <v>400</v>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>400</v>
+      </c>
+      <c r="I8" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>2025-03-04 15:12:19</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F9" t="n">
+        <v>400</v>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>400</v>
+      </c>
+      <c r="I9" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>2025-03-04 16:12:19</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F10" t="n">
+        <v>400</v>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>400</v>
+      </c>
+      <c r="I10" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>2025-03-04 17:12:19</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F11" t="n">
+        <v>400</v>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>400</v>
+      </c>
+      <c r="I11" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>2025-03-04 18:12:19</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F12" t="n">
+        <v>400</v>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>400</v>
+      </c>
+      <c r="I12" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>2025-03-04 19:12:19</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F13" t="n">
+        <v>400</v>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>400</v>
+      </c>
+      <c r="I13" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>2025-03-04 20:12:19</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F14" t="n">
+        <v>400</v>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>400</v>
+      </c>
+      <c r="I14" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>2025-03-04 21:12:19</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F15" t="n">
+        <v>400</v>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>400</v>
+      </c>
+      <c r="I15" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>2025-03-04 22:12:19</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F16" t="n">
+        <v>400</v>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>400</v>
+      </c>
+      <c r="I16" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>2025-03-04 23:12:19</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F17" t="n">
+        <v>400</v>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>400</v>
+      </c>
+      <c r="I17" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>2025-03-05 00:12:19</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F18" t="n">
+        <v>400</v>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>400</v>
+      </c>
+      <c r="I18" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>2025-03-05 01:12:19</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F19" t="n">
+        <v>400</v>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>400</v>
+      </c>
+      <c r="I19" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>2025-03-05 02:12:19</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F20" t="n">
+        <v>400</v>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>400</v>
+      </c>
+      <c r="I20" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>2025-03-05 03:12:19</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F21" t="n">
+        <v>400</v>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>400</v>
+      </c>
+      <c r="I21" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>2025-03-05 04:12:19</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F22" t="n">
+        <v>400</v>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>400</v>
+      </c>
+      <c r="I22" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>2025-03-05 05:12:19</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F23" t="n">
+        <v>400</v>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>400</v>
+      </c>
+      <c r="I23" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>2025-03-05 06:12:19</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F24" t="n">
+        <v>400</v>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>400</v>
+      </c>
+      <c r="I24" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>2025-03-05 07:12:19</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F25" t="n">
+        <v>400</v>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>400</v>
+      </c>
+      <c r="I25" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>2025-03-05 08:12:19</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F26" t="n">
+        <v>400</v>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>400</v>
+      </c>
+      <c r="I26" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>2025-03-05 09:12:19</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F27" t="n">
+        <v>400</v>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>400</v>
+      </c>
+      <c r="I27" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>2025-03-05 10:12:19</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F28" t="n">
+        <v>400</v>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>400</v>
+      </c>
+      <c r="I28" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>2025-03-05 11:12:19</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F29" t="n">
+        <v>400</v>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>400</v>
+      </c>
+      <c r="I29" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>2025-03-05 12:12:19</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F30" t="n">
+        <v>400</v>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>400</v>
+      </c>
+      <c r="I30" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>2025-03-05 13:12:19</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F31" t="n">
+        <v>400</v>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>400</v>
+      </c>
+      <c r="I31" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>2025-03-05 14:12:19</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F32" t="n">
+        <v>400</v>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>400</v>
+      </c>
+      <c r="I32" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>2025-03-05 15:12:19</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F33" t="n">
+        <v>400</v>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>400</v>
+      </c>
+      <c r="I33" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>2025-03-05 16:12:19</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F34" t="n">
+        <v>400</v>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>400</v>
+      </c>
+      <c r="I34" t="n">
+        <v>25</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1783,7 +3241,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45720.34188657408</v>
+        <v>45720.40180555556</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -1792,7 +3250,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -1802,7 +3260,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>0x19</t>
+          <t>0x13</t>
         </is>
       </c>
       <c r="F2" t="n">
@@ -1810,20 +3268,20 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>568631262647113771663628</t>
+          <t>568631262647113771270412</t>
         </is>
       </c>
       <c r="H2" t="n">
         <v>400</v>
       </c>
       <c r="I2" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2025-03-04 09:12:19</t>
+          <t>2025-03-04 10:38:36</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -1833,7 +3291,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -1843,7 +3301,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>0x19</t>
+          <t>0x13</t>
         </is>
       </c>
       <c r="F3" t="n">
@@ -1851,20 +3309,20 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>568631262647113771663628</t>
+          <t>568631262647113771270412</t>
         </is>
       </c>
       <c r="H3" t="n">
         <v>400</v>
       </c>
       <c r="I3" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2025-03-04 10:12:19</t>
+          <t>2025-03-04 11:38:36</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -1874,7 +3332,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -1884,7 +3342,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>0x19</t>
+          <t>0x13</t>
         </is>
       </c>
       <c r="F4" t="n">
@@ -1892,20 +3350,20 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>568631262647113771663628</t>
+          <t>568631262647113771270412</t>
         </is>
       </c>
       <c r="H4" t="n">
         <v>400</v>
       </c>
       <c r="I4" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2025-03-04 11:12:19</t>
+          <t>2025-03-04 12:38:36</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1915,7 +3373,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -1925,7 +3383,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>0x19</t>
+          <t>0x13</t>
         </is>
       </c>
       <c r="F5" t="n">
@@ -1933,20 +3391,20 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>568631262647113771663628</t>
+          <t>568631262647113771270412</t>
         </is>
       </c>
       <c r="H5" t="n">
         <v>400</v>
       </c>
       <c r="I5" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2025-03-04 12:12:19</t>
+          <t>2025-03-04 13:38:36</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1956,7 +3414,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -1966,7 +3424,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>0x19</t>
+          <t>0x13</t>
         </is>
       </c>
       <c r="F6" t="n">
@@ -1974,20 +3432,20 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>568631262647113771663628</t>
+          <t>568631262647113771270412</t>
         </is>
       </c>
       <c r="H6" t="n">
         <v>400</v>
       </c>
       <c r="I6" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2025-03-04 13:12:19</t>
+          <t>2025-03-04 14:38:36</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1997,7 +3455,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -2007,7 +3465,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>0x19</t>
+          <t>0x13</t>
         </is>
       </c>
       <c r="F7" t="n">
@@ -2015,20 +3473,20 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>568631262647113771663628</t>
+          <t>568631262647113771270412</t>
         </is>
       </c>
       <c r="H7" t="n">
         <v>400</v>
       </c>
       <c r="I7" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2025-03-04 14:12:19</t>
+          <t>2025-03-04 15:38:36</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -2038,7 +3496,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -2048,7 +3506,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>0x19</t>
+          <t>0x13</t>
         </is>
       </c>
       <c r="F8" t="n">
@@ -2056,20 +3514,20 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>568631262647113771663628</t>
+          <t>568631262647113771270412</t>
         </is>
       </c>
       <c r="H8" t="n">
         <v>400</v>
       </c>
       <c r="I8" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2025-03-04 15:12:19</t>
+          <t>2025-03-04 16:38:36</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -2079,7 +3537,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -2089,7 +3547,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>0x19</t>
+          <t>0x13</t>
         </is>
       </c>
       <c r="F9" t="n">
@@ -2097,20 +3555,20 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>568631262647113771663628</t>
+          <t>568631262647113771270412</t>
         </is>
       </c>
       <c r="H9" t="n">
         <v>400</v>
       </c>
       <c r="I9" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2025-03-04 16:12:19</t>
+          <t>2025-03-04 17:38:36</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -2120,7 +3578,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -2130,7 +3588,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>0x19</t>
+          <t>0x13</t>
         </is>
       </c>
       <c r="F10" t="n">
@@ -2138,20 +3596,20 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>568631262647113771663628</t>
+          <t>568631262647113771270412</t>
         </is>
       </c>
       <c r="H10" t="n">
         <v>400</v>
       </c>
       <c r="I10" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2025-03-04 17:12:19</t>
+          <t>2025-03-04 18:38:36</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -2161,7 +3619,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -2171,7 +3629,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>0x19</t>
+          <t>0x13</t>
         </is>
       </c>
       <c r="F11" t="n">
@@ -2179,20 +3637,20 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>568631262647113771663628</t>
+          <t>568631262647113771270412</t>
         </is>
       </c>
       <c r="H11" t="n">
         <v>400</v>
       </c>
       <c r="I11" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2025-03-04 18:12:19</t>
+          <t>2025-03-04 19:38:36</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2202,7 +3660,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -2212,7 +3670,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>0x19</t>
+          <t>0x13</t>
         </is>
       </c>
       <c r="F12" t="n">
@@ -2220,20 +3678,20 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>568631262647113771663628</t>
+          <t>568631262647113771270412</t>
         </is>
       </c>
       <c r="H12" t="n">
         <v>400</v>
       </c>
       <c r="I12" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2025-03-04 19:12:19</t>
+          <t>2025-03-04 20:38:36</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2243,7 +3701,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -2253,7 +3711,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>0x19</t>
+          <t>0x13</t>
         </is>
       </c>
       <c r="F13" t="n">
@@ -2261,20 +3719,20 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>568631262647113771663628</t>
+          <t>568631262647113771270412</t>
         </is>
       </c>
       <c r="H13" t="n">
         <v>400</v>
       </c>
       <c r="I13" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2025-03-04 20:12:19</t>
+          <t>2025-03-04 21:38:36</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -2284,7 +3742,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -2294,7 +3752,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>0x19</t>
+          <t>0x13</t>
         </is>
       </c>
       <c r="F14" t="n">
@@ -2302,20 +3760,20 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>568631262647113771663628</t>
+          <t>568631262647113771270412</t>
         </is>
       </c>
       <c r="H14" t="n">
         <v>400</v>
       </c>
       <c r="I14" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2025-03-04 21:12:19</t>
+          <t>2025-03-04 22:38:36</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -2325,7 +3783,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -2335,7 +3793,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>0x19</t>
+          <t>0x13</t>
         </is>
       </c>
       <c r="F15" t="n">
@@ -2343,20 +3801,20 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>568631262647113771663628</t>
+          <t>568631262647113771270412</t>
         </is>
       </c>
       <c r="H15" t="n">
         <v>400</v>
       </c>
       <c r="I15" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2025-03-04 22:12:19</t>
+          <t>2025-03-04 23:38:36</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -2366,7 +3824,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -2376,7 +3834,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>0x19</t>
+          <t>0x13</t>
         </is>
       </c>
       <c r="F16" t="n">
@@ -2384,20 +3842,20 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>568631262647113771663628</t>
+          <t>568631262647113771270412</t>
         </is>
       </c>
       <c r="H16" t="n">
         <v>400</v>
       </c>
       <c r="I16" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2025-03-04 23:12:19</t>
+          <t>2025-03-05 00:38:36</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -2407,7 +3865,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -2417,7 +3875,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>0x19</t>
+          <t>0x13</t>
         </is>
       </c>
       <c r="F17" t="n">
@@ -2425,20 +3883,20 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>568631262647113771663628</t>
+          <t>568631262647113771270412</t>
         </is>
       </c>
       <c r="H17" t="n">
         <v>400</v>
       </c>
       <c r="I17" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2025-03-05 00:12:19</t>
+          <t>2025-03-05 01:38:36</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -2448,7 +3906,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -2458,7 +3916,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>0x19</t>
+          <t>0x13</t>
         </is>
       </c>
       <c r="F18" t="n">
@@ -2466,20 +3924,20 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>568631262647113771663628</t>
+          <t>568631262647113771270412</t>
         </is>
       </c>
       <c r="H18" t="n">
         <v>400</v>
       </c>
       <c r="I18" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>2025-03-05 01:12:19</t>
+          <t>2025-03-05 02:38:36</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -2489,7 +3947,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -2499,7 +3957,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>0x19</t>
+          <t>0x13</t>
         </is>
       </c>
       <c r="F19" t="n">
@@ -2507,20 +3965,20 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>568631262647113771663628</t>
+          <t>568631262647113771270412</t>
         </is>
       </c>
       <c r="H19" t="n">
         <v>400</v>
       </c>
       <c r="I19" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2025-03-05 02:12:19</t>
+          <t>2025-03-05 03:38:36</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -2530,7 +3988,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -2540,7 +3998,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>0x19</t>
+          <t>0x13</t>
         </is>
       </c>
       <c r="F20" t="n">
@@ -2548,20 +4006,20 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>568631262647113771663628</t>
+          <t>568631262647113771270412</t>
         </is>
       </c>
       <c r="H20" t="n">
         <v>400</v>
       </c>
       <c r="I20" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>2025-03-05 03:12:19</t>
+          <t>2025-03-05 04:38:36</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -2571,7 +4029,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -2581,7 +4039,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>0x19</t>
+          <t>0x13</t>
         </is>
       </c>
       <c r="F21" t="n">
@@ -2589,20 +4047,20 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>568631262647113771663628</t>
+          <t>568631262647113771270412</t>
         </is>
       </c>
       <c r="H21" t="n">
         <v>400</v>
       </c>
       <c r="I21" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>2025-03-05 04:12:19</t>
+          <t>2025-03-05 05:38:36</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -2612,7 +4070,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -2622,7 +4080,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>0x19</t>
+          <t>0x13</t>
         </is>
       </c>
       <c r="F22" t="n">
@@ -2630,20 +4088,20 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>568631262647113771663628</t>
+          <t>568631262647113771270412</t>
         </is>
       </c>
       <c r="H22" t="n">
         <v>400</v>
       </c>
       <c r="I22" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>2025-03-05 05:12:19</t>
+          <t>2025-03-05 06:38:36</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -2653,7 +4111,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -2663,7 +4121,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>0x19</t>
+          <t>0x13</t>
         </is>
       </c>
       <c r="F23" t="n">
@@ -2671,20 +4129,20 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>568631262647113771663628</t>
+          <t>568631262647113771270412</t>
         </is>
       </c>
       <c r="H23" t="n">
         <v>400</v>
       </c>
       <c r="I23" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>2025-03-05 06:12:19</t>
+          <t>2025-03-05 07:38:36</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -2694,7 +4152,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -2704,7 +4162,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>0x19</t>
+          <t>0x13</t>
         </is>
       </c>
       <c r="F24" t="n">
@@ -2712,20 +4170,20 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>568631262647113771663628</t>
+          <t>568631262647113771270412</t>
         </is>
       </c>
       <c r="H24" t="n">
         <v>400</v>
       </c>
       <c r="I24" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>2025-03-05 07:12:19</t>
+          <t>2025-03-05 08:38:36</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -2735,7 +4193,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -2745,7 +4203,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>0x19</t>
+          <t>0x13</t>
         </is>
       </c>
       <c r="F25" t="n">
@@ -2753,20 +4211,20 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>568631262647113771663628</t>
+          <t>568631262647113771270412</t>
         </is>
       </c>
       <c r="H25" t="n">
         <v>400</v>
       </c>
       <c r="I25" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>2025-03-05 08:12:19</t>
+          <t>2025-03-05 09:38:36</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -2776,7 +4234,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -2786,7 +4244,7 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>0x19</t>
+          <t>0x13</t>
         </is>
       </c>
       <c r="F26" t="n">
@@ -2794,20 +4252,20 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>568631262647113771663628</t>
+          <t>568631262647113771270412</t>
         </is>
       </c>
       <c r="H26" t="n">
         <v>400</v>
       </c>
       <c r="I26" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>2025-03-05 09:12:19</t>
+          <t>2025-03-05 10:38:36</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -2817,7 +4275,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -2827,7 +4285,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>0x19</t>
+          <t>0x13</t>
         </is>
       </c>
       <c r="F27" t="n">
@@ -2835,20 +4293,20 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>568631262647113771663628</t>
+          <t>568631262647113771270412</t>
         </is>
       </c>
       <c r="H27" t="n">
         <v>400</v>
       </c>
       <c r="I27" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>2025-03-05 10:12:19</t>
+          <t>2025-03-05 11:38:36</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -2858,7 +4316,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -2868,7 +4326,7 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>0x19</t>
+          <t>0x13</t>
         </is>
       </c>
       <c r="F28" t="n">
@@ -2876,20 +4334,20 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>568631262647113771663628</t>
+          <t>568631262647113771270412</t>
         </is>
       </c>
       <c r="H28" t="n">
         <v>400</v>
       </c>
       <c r="I28" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>2025-03-05 11:12:19</t>
+          <t>2025-03-05 12:38:36</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -2899,7 +4357,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -2909,7 +4367,7 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>0x19</t>
+          <t>0x13</t>
         </is>
       </c>
       <c r="F29" t="n">
@@ -2917,20 +4375,20 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>568631262647113771663628</t>
+          <t>568631262647113771270412</t>
         </is>
       </c>
       <c r="H29" t="n">
         <v>400</v>
       </c>
       <c r="I29" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>2025-03-05 12:12:19</t>
+          <t>2025-03-05 13:38:36</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -2940,7 +4398,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -2950,7 +4408,7 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>0x19</t>
+          <t>0x13</t>
         </is>
       </c>
       <c r="F30" t="n">
@@ -2958,20 +4416,20 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>568631262647113771663628</t>
+          <t>568631262647113771270412</t>
         </is>
       </c>
       <c r="H30" t="n">
         <v>400</v>
       </c>
       <c r="I30" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>2025-03-05 13:12:19</t>
+          <t>2025-03-05 14:38:36</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -2981,7 +4439,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -2991,7 +4449,7 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>0x19</t>
+          <t>0x13</t>
         </is>
       </c>
       <c r="F31" t="n">
@@ -2999,20 +4457,20 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>568631262647113771663628</t>
+          <t>568631262647113771270412</t>
         </is>
       </c>
       <c r="H31" t="n">
         <v>400</v>
       </c>
       <c r="I31" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>2025-03-05 14:12:19</t>
+          <t>2025-03-05 15:38:36</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -3022,7 +4480,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -3032,7 +4490,7 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>0x19</t>
+          <t>0x13</t>
         </is>
       </c>
       <c r="F32" t="n">
@@ -3040,20 +4498,20 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>568631262647113771663628</t>
+          <t>568631262647113771270412</t>
         </is>
       </c>
       <c r="H32" t="n">
         <v>400</v>
       </c>
       <c r="I32" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>2025-03-05 15:12:19</t>
+          <t>2025-03-05 16:38:36</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -3063,7 +4521,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -3073,7 +4531,7 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>0x19</t>
+          <t>0x13</t>
         </is>
       </c>
       <c r="F33" t="n">
@@ -3081,14 +4539,14 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>568631262647113771663628</t>
+          <t>568631262647113771270412</t>
         </is>
       </c>
       <c r="H33" t="n">
         <v>400</v>
       </c>
       <c r="I33" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -3096,7 +4554,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3159,7 +4617,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45720.40180555556</v>
+        <v>45720.43858796296</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -3168,7 +4626,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -3178,7 +4636,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>0x13</t>
+          <t>0x 9</t>
         </is>
       </c>
       <c r="F2" t="n">
@@ -3186,20 +4644,20 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>568631262647113771270412</t>
+          <t>568631262647113770680332</t>
         </is>
       </c>
       <c r="H2" t="n">
         <v>400</v>
       </c>
       <c r="I2" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2025-03-04 10:38:36</t>
+          <t>2025-03-04 11:31:34</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -3209,7 +4667,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -3219,7 +4677,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>0x13</t>
+          <t>0x 9</t>
         </is>
       </c>
       <c r="F3" t="n">
@@ -3227,20 +4685,20 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>568631262647113771270412</t>
+          <t>568631262647113770680332</t>
         </is>
       </c>
       <c r="H3" t="n">
         <v>400</v>
       </c>
       <c r="I3" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2025-03-04 11:38:36</t>
+          <t>2025-03-04 12:31:34</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -3250,7 +4708,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -3260,7 +4718,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>0x13</t>
+          <t>0x 9</t>
         </is>
       </c>
       <c r="F4" t="n">
@@ -3268,20 +4726,20 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>568631262647113771270412</t>
+          <t>568631262647113770680332</t>
         </is>
       </c>
       <c r="H4" t="n">
         <v>400</v>
       </c>
       <c r="I4" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2025-03-04 12:38:36</t>
+          <t>2025-03-04 13:31:34</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -3291,7 +4749,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -3301,7 +4759,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>0x13</t>
+          <t>0x 9</t>
         </is>
       </c>
       <c r="F5" t="n">
@@ -3309,20 +4767,20 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>568631262647113771270412</t>
+          <t>568631262647113770680332</t>
         </is>
       </c>
       <c r="H5" t="n">
         <v>400</v>
       </c>
       <c r="I5" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2025-03-04 13:38:36</t>
+          <t>2025-03-04 14:31:34</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -3332,7 +4790,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -3342,7 +4800,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>0x13</t>
+          <t>0x 9</t>
         </is>
       </c>
       <c r="F6" t="n">
@@ -3350,20 +4808,20 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>568631262647113771270412</t>
+          <t>568631262647113770680332</t>
         </is>
       </c>
       <c r="H6" t="n">
         <v>400</v>
       </c>
       <c r="I6" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2025-03-04 14:38:36</t>
+          <t>2025-03-04 15:31:34</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -3373,7 +4831,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -3383,7 +4841,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>0x13</t>
+          <t>0x 9</t>
         </is>
       </c>
       <c r="F7" t="n">
@@ -3391,20 +4849,20 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>568631262647113771270412</t>
+          <t>568631262647113770680332</t>
         </is>
       </c>
       <c r="H7" t="n">
         <v>400</v>
       </c>
       <c r="I7" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2025-03-04 15:38:36</t>
+          <t>2025-03-04 16:31:34</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -3414,7 +4872,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -3424,7 +4882,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>0x13</t>
+          <t>0x 9</t>
         </is>
       </c>
       <c r="F8" t="n">
@@ -3432,20 +4890,20 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>568631262647113771270412</t>
+          <t>568631262647113770680332</t>
         </is>
       </c>
       <c r="H8" t="n">
         <v>400</v>
       </c>
       <c r="I8" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2025-03-04 16:38:36</t>
+          <t>2025-03-04 17:31:34</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -3455,7 +4913,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -3465,7 +4923,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>0x13</t>
+          <t>0x 9</t>
         </is>
       </c>
       <c r="F9" t="n">
@@ -3473,20 +4931,20 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>568631262647113771270412</t>
+          <t>568631262647113770680332</t>
         </is>
       </c>
       <c r="H9" t="n">
         <v>400</v>
       </c>
       <c r="I9" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2025-03-04 17:38:36</t>
+          <t>2025-03-04 18:31:34</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -3496,7 +4954,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -3506,7 +4964,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>0x13</t>
+          <t>0x 9</t>
         </is>
       </c>
       <c r="F10" t="n">
@@ -3514,20 +4972,20 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>568631262647113771270412</t>
+          <t>568631262647113770680332</t>
         </is>
       </c>
       <c r="H10" t="n">
         <v>400</v>
       </c>
       <c r="I10" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2025-03-04 18:38:36</t>
+          <t>2025-03-04 19:31:34</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -3537,7 +4995,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -3547,7 +5005,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>0x13</t>
+          <t>0x 9</t>
         </is>
       </c>
       <c r="F11" t="n">
@@ -3555,20 +5013,20 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>568631262647113771270412</t>
+          <t>568631262647113770680332</t>
         </is>
       </c>
       <c r="H11" t="n">
         <v>400</v>
       </c>
       <c r="I11" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2025-03-04 19:38:36</t>
+          <t>2025-03-04 20:31:34</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -3578,7 +5036,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -3588,7 +5046,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>0x13</t>
+          <t>0x 9</t>
         </is>
       </c>
       <c r="F12" t="n">
@@ -3596,20 +5054,20 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>568631262647113771270412</t>
+          <t>568631262647113770680332</t>
         </is>
       </c>
       <c r="H12" t="n">
         <v>400</v>
       </c>
       <c r="I12" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2025-03-04 20:38:36</t>
+          <t>2025-03-04 21:31:34</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -3619,7 +5077,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -3629,7 +5087,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>0x13</t>
+          <t>0x 9</t>
         </is>
       </c>
       <c r="F13" t="n">
@@ -3637,20 +5095,20 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>568631262647113771270412</t>
+          <t>568631262647113770680332</t>
         </is>
       </c>
       <c r="H13" t="n">
         <v>400</v>
       </c>
       <c r="I13" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2025-03-04 21:38:36</t>
+          <t>2025-03-04 22:31:34</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -3660,7 +5118,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -3670,7 +5128,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>0x13</t>
+          <t>0x 9</t>
         </is>
       </c>
       <c r="F14" t="n">
@@ -3678,20 +5136,20 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>568631262647113771270412</t>
+          <t>568631262647113770680332</t>
         </is>
       </c>
       <c r="H14" t="n">
         <v>400</v>
       </c>
       <c r="I14" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2025-03-04 22:38:36</t>
+          <t>2025-03-04 23:31:34</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -3701,7 +5159,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -3711,7 +5169,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>0x13</t>
+          <t>0x 9</t>
         </is>
       </c>
       <c r="F15" t="n">
@@ -3719,20 +5177,20 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>568631262647113771270412</t>
+          <t>568631262647113770680332</t>
         </is>
       </c>
       <c r="H15" t="n">
         <v>400</v>
       </c>
       <c r="I15" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2025-03-04 23:38:36</t>
+          <t>2025-03-05 00:31:34</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -3742,7 +5200,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -3752,7 +5210,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>0x13</t>
+          <t>0x 9</t>
         </is>
       </c>
       <c r="F16" t="n">
@@ -3760,20 +5218,20 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>568631262647113771270412</t>
+          <t>568631262647113770680332</t>
         </is>
       </c>
       <c r="H16" t="n">
         <v>400</v>
       </c>
       <c r="I16" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2025-03-05 00:38:36</t>
+          <t>2025-03-05 01:31:34</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -3783,7 +5241,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -3793,7 +5251,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>0x13</t>
+          <t>0x 9</t>
         </is>
       </c>
       <c r="F17" t="n">
@@ -3801,20 +5259,20 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>568631262647113771270412</t>
+          <t>568631262647113770680332</t>
         </is>
       </c>
       <c r="H17" t="n">
         <v>400</v>
       </c>
       <c r="I17" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2025-03-05 01:38:36</t>
+          <t>2025-03-05 02:31:34</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -3824,7 +5282,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -3834,7 +5292,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>0x13</t>
+          <t>0x 9</t>
         </is>
       </c>
       <c r="F18" t="n">
@@ -3842,20 +5300,20 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>568631262647113771270412</t>
+          <t>568631262647113770680332</t>
         </is>
       </c>
       <c r="H18" t="n">
         <v>400</v>
       </c>
       <c r="I18" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>2025-03-05 02:38:36</t>
+          <t>2025-03-05 03:31:34</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -3865,7 +5323,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -3875,7 +5333,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>0x13</t>
+          <t>0x 9</t>
         </is>
       </c>
       <c r="F19" t="n">
@@ -3883,20 +5341,20 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>568631262647113771270412</t>
+          <t>568631262647113770680332</t>
         </is>
       </c>
       <c r="H19" t="n">
         <v>400</v>
       </c>
       <c r="I19" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2025-03-05 03:38:36</t>
+          <t>2025-03-05 04:31:34</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -3906,7 +5364,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -3916,7 +5374,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>0x13</t>
+          <t>0x 9</t>
         </is>
       </c>
       <c r="F20" t="n">
@@ -3924,20 +5382,20 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>568631262647113771270412</t>
+          <t>568631262647113770680332</t>
         </is>
       </c>
       <c r="H20" t="n">
         <v>400</v>
       </c>
       <c r="I20" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>2025-03-05 04:38:36</t>
+          <t>2025-03-05 05:31:34</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -3947,7 +5405,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -3957,7 +5415,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>0x13</t>
+          <t>0x 9</t>
         </is>
       </c>
       <c r="F21" t="n">
@@ -3965,20 +5423,20 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>568631262647113771270412</t>
+          <t>568631262647113770680332</t>
         </is>
       </c>
       <c r="H21" t="n">
         <v>400</v>
       </c>
       <c r="I21" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>2025-03-05 05:38:36</t>
+          <t>2025-03-05 06:31:34</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -3988,7 +5446,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -3998,7 +5456,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>0x13</t>
+          <t>0x 9</t>
         </is>
       </c>
       <c r="F22" t="n">
@@ -4006,20 +5464,20 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>568631262647113771270412</t>
+          <t>568631262647113770680332</t>
         </is>
       </c>
       <c r="H22" t="n">
         <v>400</v>
       </c>
       <c r="I22" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>2025-03-05 06:38:36</t>
+          <t>2025-03-05 07:31:34</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -4029,7 +5487,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -4039,7 +5497,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>0x13</t>
+          <t>0x 9</t>
         </is>
       </c>
       <c r="F23" t="n">
@@ -4047,20 +5505,20 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>568631262647113771270412</t>
+          <t>568631262647113770680332</t>
         </is>
       </c>
       <c r="H23" t="n">
         <v>400</v>
       </c>
       <c r="I23" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>2025-03-05 07:38:36</t>
+          <t>2025-03-05 08:31:34</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -4070,7 +5528,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -4080,7 +5538,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>0x13</t>
+          <t>0x 9</t>
         </is>
       </c>
       <c r="F24" t="n">
@@ -4088,20 +5546,20 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>568631262647113771270412</t>
+          <t>568631262647113770680332</t>
         </is>
       </c>
       <c r="H24" t="n">
         <v>400</v>
       </c>
       <c r="I24" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>2025-03-05 08:38:36</t>
+          <t>2025-03-05 09:31:34</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -4111,7 +5569,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -4121,7 +5579,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>0x13</t>
+          <t>0x 9</t>
         </is>
       </c>
       <c r="F25" t="n">
@@ -4129,20 +5587,20 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>568631262647113771270412</t>
+          <t>568631262647113770680332</t>
         </is>
       </c>
       <c r="H25" t="n">
         <v>400</v>
       </c>
       <c r="I25" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>2025-03-05 09:38:36</t>
+          <t>2025-03-05 10:31:34</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -4152,7 +5610,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -4162,7 +5620,7 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>0x13</t>
+          <t>0x 9</t>
         </is>
       </c>
       <c r="F26" t="n">
@@ -4170,20 +5628,20 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>568631262647113771270412</t>
+          <t>568631262647113770680332</t>
         </is>
       </c>
       <c r="H26" t="n">
         <v>400</v>
       </c>
       <c r="I26" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>2025-03-05 10:38:36</t>
+          <t>2025-03-05 11:31:34</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -4193,7 +5651,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -4203,7 +5661,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>0x13</t>
+          <t>0x 9</t>
         </is>
       </c>
       <c r="F27" t="n">
@@ -4211,20 +5669,20 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>568631262647113771270412</t>
+          <t>568631262647113770680332</t>
         </is>
       </c>
       <c r="H27" t="n">
         <v>400</v>
       </c>
       <c r="I27" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>2025-03-05 11:38:36</t>
+          <t>2025-03-05 12:31:34</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -4234,7 +5692,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -4244,7 +5702,7 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>0x13</t>
+          <t>0x 9</t>
         </is>
       </c>
       <c r="F28" t="n">
@@ -4252,20 +5710,20 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>568631262647113771270412</t>
+          <t>568631262647113770680332</t>
         </is>
       </c>
       <c r="H28" t="n">
         <v>400</v>
       </c>
       <c r="I28" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>2025-03-05 12:38:36</t>
+          <t>2025-03-05 13:31:34</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -4275,7 +5733,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -4285,7 +5743,7 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>0x13</t>
+          <t>0x 9</t>
         </is>
       </c>
       <c r="F29" t="n">
@@ -4293,20 +5751,20 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>568631262647113771270412</t>
+          <t>568631262647113770680332</t>
         </is>
       </c>
       <c r="H29" t="n">
         <v>400</v>
       </c>
       <c r="I29" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>2025-03-05 13:38:36</t>
+          <t>2025-03-05 14:31:34</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -4316,7 +5774,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -4326,7 +5784,7 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>0x13</t>
+          <t>0x 9</t>
         </is>
       </c>
       <c r="F30" t="n">
@@ -4334,20 +5792,20 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>568631262647113771270412</t>
+          <t>568631262647113770680332</t>
         </is>
       </c>
       <c r="H30" t="n">
         <v>400</v>
       </c>
       <c r="I30" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>2025-03-05 14:38:36</t>
+          <t>2025-03-05 15:31:34</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -4357,7 +5815,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -4367,7 +5825,7 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>0x13</t>
+          <t>0x 9</t>
         </is>
       </c>
       <c r="F31" t="n">
@@ -4375,20 +5833,20 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>568631262647113771270412</t>
+          <t>568631262647113770680332</t>
         </is>
       </c>
       <c r="H31" t="n">
         <v>400</v>
       </c>
       <c r="I31" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>2025-03-05 15:38:36</t>
+          <t>2025-03-05 16:31:34</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -4398,7 +5856,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -4408,7 +5866,7 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>0x13</t>
+          <t>0x 9</t>
         </is>
       </c>
       <c r="F32" t="n">
@@ -4416,1307 +5874,13 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>568631262647113771270412</t>
+          <t>568631262647113770680332</t>
         </is>
       </c>
       <c r="H32" t="n">
         <v>400</v>
       </c>
       <c r="I32" t="n">
-        <v>13</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:I31"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>time</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>总长</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>ID</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>实际长度</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>和校验</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>总长_DEC</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>ID_DEC</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>实际长度_DEC</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>和校验_DEC</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>45720.43858796296</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0x01,0x90 </t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>0x01,0x90,</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>0x 9</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>400</v>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>568631262647113770680332</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>400</v>
-      </c>
-      <c r="I2" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>2025-03-04 11:31:34</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0x01,0x90 </t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>0x01,0x90,</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>0x 9</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>400</v>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>568631262647113770680332</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>400</v>
-      </c>
-      <c r="I3" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>2025-03-04 12:31:34</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0x01,0x90 </t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>0x01,0x90,</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>0x 9</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>400</v>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>568631262647113770680332</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>400</v>
-      </c>
-      <c r="I4" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>2025-03-04 13:31:34</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0x01,0x90 </t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>0x01,0x90,</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>0x 9</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>400</v>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>568631262647113770680332</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>400</v>
-      </c>
-      <c r="I5" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>2025-03-04 14:31:34</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0x01,0x90 </t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0x01,0x90,</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>0x 9</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>400</v>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>568631262647113770680332</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>400</v>
-      </c>
-      <c r="I6" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>2025-03-04 15:31:34</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0x01,0x90 </t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>0x01,0x90,</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>0x 9</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>400</v>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>568631262647113770680332</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>400</v>
-      </c>
-      <c r="I7" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>2025-03-04 16:31:34</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0x01,0x90 </t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>0x01,0x90,</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>0x 9</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>400</v>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>568631262647113770680332</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>400</v>
-      </c>
-      <c r="I8" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>2025-03-04 17:31:34</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0x01,0x90 </t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>0x01,0x90,</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>0x 9</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>400</v>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>568631262647113770680332</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>400</v>
-      </c>
-      <c r="I9" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>2025-03-04 18:31:34</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0x01,0x90 </t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>0x01,0x90,</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>0x 9</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>400</v>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>568631262647113770680332</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>400</v>
-      </c>
-      <c r="I10" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>2025-03-04 19:31:34</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0x01,0x90 </t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>0x01,0x90,</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>0x 9</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>400</v>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>568631262647113770680332</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>400</v>
-      </c>
-      <c r="I11" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>2025-03-04 20:31:34</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0x01,0x90 </t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>0x01,0x90,</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>0x 9</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>400</v>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>568631262647113770680332</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>400</v>
-      </c>
-      <c r="I12" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>2025-03-04 21:31:34</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0x01,0x90 </t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>0x01,0x90,</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>0x 9</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>400</v>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>568631262647113770680332</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>400</v>
-      </c>
-      <c r="I13" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>2025-03-04 22:31:34</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0x01,0x90 </t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>0x01,0x90,</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>0x 9</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>400</v>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>568631262647113770680332</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>400</v>
-      </c>
-      <c r="I14" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>2025-03-04 23:31:34</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0x01,0x90 </t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>0x01,0x90,</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>0x 9</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>400</v>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>568631262647113770680332</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>400</v>
-      </c>
-      <c r="I15" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>2025-03-05 00:31:34</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0x01,0x90 </t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>0x01,0x90,</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>0x 9</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
-        <v>400</v>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>568631262647113770680332</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
-        <v>400</v>
-      </c>
-      <c r="I16" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>2025-03-05 01:31:34</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0x01,0x90 </t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>0x01,0x90,</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>0x 9</t>
-        </is>
-      </c>
-      <c r="F17" t="n">
-        <v>400</v>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>568631262647113770680332</t>
-        </is>
-      </c>
-      <c r="H17" t="n">
-        <v>400</v>
-      </c>
-      <c r="I17" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>2025-03-05 02:31:34</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0x01,0x90 </t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>0x01,0x90,</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>0x 9</t>
-        </is>
-      </c>
-      <c r="F18" t="n">
-        <v>400</v>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>568631262647113770680332</t>
-        </is>
-      </c>
-      <c r="H18" t="n">
-        <v>400</v>
-      </c>
-      <c r="I18" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>2025-03-05 03:31:34</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0x01,0x90 </t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>0x01,0x90,</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>0x 9</t>
-        </is>
-      </c>
-      <c r="F19" t="n">
-        <v>400</v>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>568631262647113770680332</t>
-        </is>
-      </c>
-      <c r="H19" t="n">
-        <v>400</v>
-      </c>
-      <c r="I19" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>2025-03-05 04:31:34</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0x01,0x90 </t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>0x01,0x90,</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>0x 9</t>
-        </is>
-      </c>
-      <c r="F20" t="n">
-        <v>400</v>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>568631262647113770680332</t>
-        </is>
-      </c>
-      <c r="H20" t="n">
-        <v>400</v>
-      </c>
-      <c r="I20" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>2025-03-05 05:31:34</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0x01,0x90 </t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>0x01,0x90,</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>0x 9</t>
-        </is>
-      </c>
-      <c r="F21" t="n">
-        <v>400</v>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>568631262647113770680332</t>
-        </is>
-      </c>
-      <c r="H21" t="n">
-        <v>400</v>
-      </c>
-      <c r="I21" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>2025-03-05 06:31:34</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0x01,0x90 </t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>0x01,0x90,</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>0x 9</t>
-        </is>
-      </c>
-      <c r="F22" t="n">
-        <v>400</v>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>568631262647113770680332</t>
-        </is>
-      </c>
-      <c r="H22" t="n">
-        <v>400</v>
-      </c>
-      <c r="I22" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>2025-03-05 07:31:34</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0x01,0x90 </t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>0x01,0x90,</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>0x 9</t>
-        </is>
-      </c>
-      <c r="F23" t="n">
-        <v>400</v>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>568631262647113770680332</t>
-        </is>
-      </c>
-      <c r="H23" t="n">
-        <v>400</v>
-      </c>
-      <c r="I23" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>2025-03-05 08:31:34</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0x01,0x90 </t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>0x01,0x90,</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>0x 9</t>
-        </is>
-      </c>
-      <c r="F24" t="n">
-        <v>400</v>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>568631262647113770680332</t>
-        </is>
-      </c>
-      <c r="H24" t="n">
-        <v>400</v>
-      </c>
-      <c r="I24" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>2025-03-05 09:31:34</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0x01,0x90 </t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>0x01,0x90,</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>0x 9</t>
-        </is>
-      </c>
-      <c r="F25" t="n">
-        <v>400</v>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>568631262647113770680332</t>
-        </is>
-      </c>
-      <c r="H25" t="n">
-        <v>400</v>
-      </c>
-      <c r="I25" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>2025-03-05 10:31:34</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0x01,0x90 </t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>0x01,0x90,</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>0x 9</t>
-        </is>
-      </c>
-      <c r="F26" t="n">
-        <v>400</v>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>568631262647113770680332</t>
-        </is>
-      </c>
-      <c r="H26" t="n">
-        <v>400</v>
-      </c>
-      <c r="I26" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>2025-03-05 11:31:34</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0x01,0x90 </t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>0x01,0x90,</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>0x 9</t>
-        </is>
-      </c>
-      <c r="F27" t="n">
-        <v>400</v>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>568631262647113770680332</t>
-        </is>
-      </c>
-      <c r="H27" t="n">
-        <v>400</v>
-      </c>
-      <c r="I27" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>2025-03-05 12:31:34</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0x01,0x90 </t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>0x01,0x90,</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>0x 9</t>
-        </is>
-      </c>
-      <c r="F28" t="n">
-        <v>400</v>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>568631262647113770680332</t>
-        </is>
-      </c>
-      <c r="H28" t="n">
-        <v>400</v>
-      </c>
-      <c r="I28" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>2025-03-05 13:31:34</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0x01,0x90 </t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>0x01,0x90,</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>0x 9</t>
-        </is>
-      </c>
-      <c r="F29" t="n">
-        <v>400</v>
-      </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>568631262647113770680332</t>
-        </is>
-      </c>
-      <c r="H29" t="n">
-        <v>400</v>
-      </c>
-      <c r="I29" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>2025-03-05 14:31:34</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0x01,0x90 </t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>0x01,0x90,</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>0x 9</t>
-        </is>
-      </c>
-      <c r="F30" t="n">
-        <v>400</v>
-      </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>568631262647113770680332</t>
-        </is>
-      </c>
-      <c r="H30" t="n">
-        <v>400</v>
-      </c>
-      <c r="I30" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>2025-03-05 15:31:34</t>
-        </is>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0x01,0x90 </t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>0x01,0x90,</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>0x 9</t>
-        </is>
-      </c>
-      <c r="F31" t="n">
-        <v>400</v>
-      </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>568631262647113770680332</t>
-        </is>
-      </c>
-      <c r="H31" t="n">
-        <v>400</v>
-      </c>
-      <c r="I31" t="n">
         <v>9</v>
       </c>
     </row>

--- a/SAG2_sensor_data_with_decimal_filtered_updated.xlsx
+++ b/SAG2_sensor_data_with_decimal_filtered_updated.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I32"/>
+  <dimension ref="A1:I33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1756,12 +1756,1511 @@
         <v>14</v>
       </c>
     </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>2025-03-05 17:18:04</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1b,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>0x14</t>
+        </is>
+      </c>
+      <c r="F33" t="n">
+        <v>400</v>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>568631262647113771335948</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>400</v>
+      </c>
+      <c r="I33" t="n">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I35"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>time</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>总长</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>实际长度</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>和校验</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>总长_DEC</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>ID_DEC</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>实际长度_DEC</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>和校验_DEC</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>45720.34188657408</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F2" t="n">
+        <v>400</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>400</v>
+      </c>
+      <c r="I2" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2025-03-04 09:12:19</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F3" t="n">
+        <v>400</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>400</v>
+      </c>
+      <c r="I3" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>2025-03-04 10:12:19</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F4" t="n">
+        <v>400</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>400</v>
+      </c>
+      <c r="I4" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>2025-03-04 11:12:19</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F5" t="n">
+        <v>400</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>400</v>
+      </c>
+      <c r="I5" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>2025-03-04 12:12:19</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F6" t="n">
+        <v>400</v>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>400</v>
+      </c>
+      <c r="I6" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>2025-03-04 13:12:19</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F7" t="n">
+        <v>400</v>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>400</v>
+      </c>
+      <c r="I7" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>2025-03-04 14:12:19</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F8" t="n">
+        <v>400</v>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>400</v>
+      </c>
+      <c r="I8" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>2025-03-04 15:12:19</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F9" t="n">
+        <v>400</v>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>400</v>
+      </c>
+      <c r="I9" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>2025-03-04 16:12:19</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F10" t="n">
+        <v>400</v>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>400</v>
+      </c>
+      <c r="I10" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>2025-03-04 17:12:19</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F11" t="n">
+        <v>400</v>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>400</v>
+      </c>
+      <c r="I11" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>2025-03-04 18:12:19</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F12" t="n">
+        <v>400</v>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>400</v>
+      </c>
+      <c r="I12" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>2025-03-04 19:12:19</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F13" t="n">
+        <v>400</v>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>400</v>
+      </c>
+      <c r="I13" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>2025-03-04 20:12:19</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F14" t="n">
+        <v>400</v>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>400</v>
+      </c>
+      <c r="I14" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>2025-03-04 21:12:19</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F15" t="n">
+        <v>400</v>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>400</v>
+      </c>
+      <c r="I15" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>2025-03-04 22:12:19</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F16" t="n">
+        <v>400</v>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>400</v>
+      </c>
+      <c r="I16" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>2025-03-04 23:12:19</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F17" t="n">
+        <v>400</v>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>400</v>
+      </c>
+      <c r="I17" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>2025-03-05 00:12:19</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F18" t="n">
+        <v>400</v>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>400</v>
+      </c>
+      <c r="I18" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>2025-03-05 01:12:19</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F19" t="n">
+        <v>400</v>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>400</v>
+      </c>
+      <c r="I19" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>2025-03-05 02:12:19</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F20" t="n">
+        <v>400</v>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>400</v>
+      </c>
+      <c r="I20" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>2025-03-05 03:12:19</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F21" t="n">
+        <v>400</v>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>400</v>
+      </c>
+      <c r="I21" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>2025-03-05 04:12:19</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F22" t="n">
+        <v>400</v>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>400</v>
+      </c>
+      <c r="I22" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>2025-03-05 05:12:19</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F23" t="n">
+        <v>400</v>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>400</v>
+      </c>
+      <c r="I23" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>2025-03-05 06:12:19</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F24" t="n">
+        <v>400</v>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>400</v>
+      </c>
+      <c r="I24" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>2025-03-05 07:12:19</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F25" t="n">
+        <v>400</v>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>400</v>
+      </c>
+      <c r="I25" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>2025-03-05 08:12:19</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F26" t="n">
+        <v>400</v>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>400</v>
+      </c>
+      <c r="I26" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>2025-03-05 09:12:19</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F27" t="n">
+        <v>400</v>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>400</v>
+      </c>
+      <c r="I27" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>2025-03-05 10:12:19</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F28" t="n">
+        <v>400</v>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>400</v>
+      </c>
+      <c r="I28" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>2025-03-05 11:12:19</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F29" t="n">
+        <v>400</v>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>400</v>
+      </c>
+      <c r="I29" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>2025-03-05 12:12:19</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F30" t="n">
+        <v>400</v>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>400</v>
+      </c>
+      <c r="I30" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>2025-03-05 13:12:19</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F31" t="n">
+        <v>400</v>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>400</v>
+      </c>
+      <c r="I31" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>2025-03-05 14:12:19</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F32" t="n">
+        <v>400</v>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>400</v>
+      </c>
+      <c r="I32" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>2025-03-05 15:12:19</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F33" t="n">
+        <v>400</v>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>400</v>
+      </c>
+      <c r="I33" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>2025-03-05 16:12:19</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F34" t="n">
+        <v>400</v>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>400</v>
+      </c>
+      <c r="I34" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>2025-03-05 17:12:19</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F35" t="n">
+        <v>400</v>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>400</v>
+      </c>
+      <c r="I35" t="n">
+        <v>25</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1824,7 +3323,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45720.34188657408</v>
+        <v>45720.40180555556</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -1833,7 +3332,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -1843,7 +3342,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>0x19</t>
+          <t>0x13</t>
         </is>
       </c>
       <c r="F2" t="n">
@@ -1851,20 +3350,20 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>568631262647113771663628</t>
+          <t>568631262647113771270412</t>
         </is>
       </c>
       <c r="H2" t="n">
         <v>400</v>
       </c>
       <c r="I2" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2025-03-04 09:12:19</t>
+          <t>2025-03-04 10:38:36</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -1874,7 +3373,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -1884,7 +3383,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>0x19</t>
+          <t>0x13</t>
         </is>
       </c>
       <c r="F3" t="n">
@@ -1892,20 +3391,20 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>568631262647113771663628</t>
+          <t>568631262647113771270412</t>
         </is>
       </c>
       <c r="H3" t="n">
         <v>400</v>
       </c>
       <c r="I3" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2025-03-04 10:12:19</t>
+          <t>2025-03-04 11:38:36</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -1915,7 +3414,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -1925,7 +3424,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>0x19</t>
+          <t>0x13</t>
         </is>
       </c>
       <c r="F4" t="n">
@@ -1933,20 +3432,20 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>568631262647113771663628</t>
+          <t>568631262647113771270412</t>
         </is>
       </c>
       <c r="H4" t="n">
         <v>400</v>
       </c>
       <c r="I4" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2025-03-04 11:12:19</t>
+          <t>2025-03-04 12:38:36</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1956,7 +3455,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -1966,7 +3465,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>0x19</t>
+          <t>0x13</t>
         </is>
       </c>
       <c r="F5" t="n">
@@ -1974,20 +3473,20 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>568631262647113771663628</t>
+          <t>568631262647113771270412</t>
         </is>
       </c>
       <c r="H5" t="n">
         <v>400</v>
       </c>
       <c r="I5" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2025-03-04 12:12:19</t>
+          <t>2025-03-04 13:38:36</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1997,7 +3496,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -2007,7 +3506,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>0x19</t>
+          <t>0x13</t>
         </is>
       </c>
       <c r="F6" t="n">
@@ -2015,20 +3514,20 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>568631262647113771663628</t>
+          <t>568631262647113771270412</t>
         </is>
       </c>
       <c r="H6" t="n">
         <v>400</v>
       </c>
       <c r="I6" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2025-03-04 13:12:19</t>
+          <t>2025-03-04 14:38:36</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -2038,7 +3537,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -2048,7 +3547,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>0x19</t>
+          <t>0x13</t>
         </is>
       </c>
       <c r="F7" t="n">
@@ -2056,20 +3555,20 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>568631262647113771663628</t>
+          <t>568631262647113771270412</t>
         </is>
       </c>
       <c r="H7" t="n">
         <v>400</v>
       </c>
       <c r="I7" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2025-03-04 14:12:19</t>
+          <t>2025-03-04 15:38:36</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -2079,7 +3578,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -2089,7 +3588,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>0x19</t>
+          <t>0x13</t>
         </is>
       </c>
       <c r="F8" t="n">
@@ -2097,20 +3596,20 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>568631262647113771663628</t>
+          <t>568631262647113771270412</t>
         </is>
       </c>
       <c r="H8" t="n">
         <v>400</v>
       </c>
       <c r="I8" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2025-03-04 15:12:19</t>
+          <t>2025-03-04 16:38:36</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -2120,7 +3619,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -2130,7 +3629,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>0x19</t>
+          <t>0x13</t>
         </is>
       </c>
       <c r="F9" t="n">
@@ -2138,20 +3637,20 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>568631262647113771663628</t>
+          <t>568631262647113771270412</t>
         </is>
       </c>
       <c r="H9" t="n">
         <v>400</v>
       </c>
       <c r="I9" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2025-03-04 16:12:19</t>
+          <t>2025-03-04 17:38:36</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -2161,7 +3660,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -2171,7 +3670,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>0x19</t>
+          <t>0x13</t>
         </is>
       </c>
       <c r="F10" t="n">
@@ -2179,20 +3678,20 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>568631262647113771663628</t>
+          <t>568631262647113771270412</t>
         </is>
       </c>
       <c r="H10" t="n">
         <v>400</v>
       </c>
       <c r="I10" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2025-03-04 17:12:19</t>
+          <t>2025-03-04 18:38:36</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -2202,7 +3701,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -2212,7 +3711,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>0x19</t>
+          <t>0x13</t>
         </is>
       </c>
       <c r="F11" t="n">
@@ -2220,20 +3719,20 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>568631262647113771663628</t>
+          <t>568631262647113771270412</t>
         </is>
       </c>
       <c r="H11" t="n">
         <v>400</v>
       </c>
       <c r="I11" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2025-03-04 18:12:19</t>
+          <t>2025-03-04 19:38:36</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2243,7 +3742,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -2253,7 +3752,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>0x19</t>
+          <t>0x13</t>
         </is>
       </c>
       <c r="F12" t="n">
@@ -2261,20 +3760,20 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>568631262647113771663628</t>
+          <t>568631262647113771270412</t>
         </is>
       </c>
       <c r="H12" t="n">
         <v>400</v>
       </c>
       <c r="I12" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2025-03-04 19:12:19</t>
+          <t>2025-03-04 20:38:36</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2284,7 +3783,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -2294,7 +3793,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>0x19</t>
+          <t>0x13</t>
         </is>
       </c>
       <c r="F13" t="n">
@@ -2302,20 +3801,20 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>568631262647113771663628</t>
+          <t>568631262647113771270412</t>
         </is>
       </c>
       <c r="H13" t="n">
         <v>400</v>
       </c>
       <c r="I13" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2025-03-04 20:12:19</t>
+          <t>2025-03-04 21:38:36</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -2325,7 +3824,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -2335,7 +3834,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>0x19</t>
+          <t>0x13</t>
         </is>
       </c>
       <c r="F14" t="n">
@@ -2343,20 +3842,20 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>568631262647113771663628</t>
+          <t>568631262647113771270412</t>
         </is>
       </c>
       <c r="H14" t="n">
         <v>400</v>
       </c>
       <c r="I14" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2025-03-04 21:12:19</t>
+          <t>2025-03-04 22:38:36</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -2366,7 +3865,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -2376,7 +3875,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>0x19</t>
+          <t>0x13</t>
         </is>
       </c>
       <c r="F15" t="n">
@@ -2384,20 +3883,20 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>568631262647113771663628</t>
+          <t>568631262647113771270412</t>
         </is>
       </c>
       <c r="H15" t="n">
         <v>400</v>
       </c>
       <c r="I15" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2025-03-04 22:12:19</t>
+          <t>2025-03-04 23:38:36</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -2407,7 +3906,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -2417,7 +3916,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>0x19</t>
+          <t>0x13</t>
         </is>
       </c>
       <c r="F16" t="n">
@@ -2425,20 +3924,20 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>568631262647113771663628</t>
+          <t>568631262647113771270412</t>
         </is>
       </c>
       <c r="H16" t="n">
         <v>400</v>
       </c>
       <c r="I16" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2025-03-04 23:12:19</t>
+          <t>2025-03-05 00:38:36</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -2448,7 +3947,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -2458,7 +3957,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>0x19</t>
+          <t>0x13</t>
         </is>
       </c>
       <c r="F17" t="n">
@@ -2466,20 +3965,20 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>568631262647113771663628</t>
+          <t>568631262647113771270412</t>
         </is>
       </c>
       <c r="H17" t="n">
         <v>400</v>
       </c>
       <c r="I17" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2025-03-05 00:12:19</t>
+          <t>2025-03-05 01:38:36</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -2489,7 +3988,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -2499,7 +3998,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>0x19</t>
+          <t>0x13</t>
         </is>
       </c>
       <c r="F18" t="n">
@@ -2507,20 +4006,20 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>568631262647113771663628</t>
+          <t>568631262647113771270412</t>
         </is>
       </c>
       <c r="H18" t="n">
         <v>400</v>
       </c>
       <c r="I18" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>2025-03-05 01:12:19</t>
+          <t>2025-03-05 02:38:36</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -2530,7 +4029,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -2540,7 +4039,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>0x19</t>
+          <t>0x13</t>
         </is>
       </c>
       <c r="F19" t="n">
@@ -2548,20 +4047,20 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>568631262647113771663628</t>
+          <t>568631262647113771270412</t>
         </is>
       </c>
       <c r="H19" t="n">
         <v>400</v>
       </c>
       <c r="I19" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2025-03-05 02:12:19</t>
+          <t>2025-03-05 03:38:36</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -2571,7 +4070,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -2581,7 +4080,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>0x19</t>
+          <t>0x13</t>
         </is>
       </c>
       <c r="F20" t="n">
@@ -2589,20 +4088,20 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>568631262647113771663628</t>
+          <t>568631262647113771270412</t>
         </is>
       </c>
       <c r="H20" t="n">
         <v>400</v>
       </c>
       <c r="I20" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>2025-03-05 03:12:19</t>
+          <t>2025-03-05 04:38:36</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -2612,7 +4111,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -2622,7 +4121,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>0x19</t>
+          <t>0x13</t>
         </is>
       </c>
       <c r="F21" t="n">
@@ -2630,20 +4129,20 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>568631262647113771663628</t>
+          <t>568631262647113771270412</t>
         </is>
       </c>
       <c r="H21" t="n">
         <v>400</v>
       </c>
       <c r="I21" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>2025-03-05 04:12:19</t>
+          <t>2025-03-05 05:38:36</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -2653,7 +4152,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -2663,7 +4162,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>0x19</t>
+          <t>0x13</t>
         </is>
       </c>
       <c r="F22" t="n">
@@ -2671,20 +4170,20 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>568631262647113771663628</t>
+          <t>568631262647113771270412</t>
         </is>
       </c>
       <c r="H22" t="n">
         <v>400</v>
       </c>
       <c r="I22" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>2025-03-05 05:12:19</t>
+          <t>2025-03-05 06:38:36</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -2694,7 +4193,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -2704,7 +4203,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>0x19</t>
+          <t>0x13</t>
         </is>
       </c>
       <c r="F23" t="n">
@@ -2712,20 +4211,20 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>568631262647113771663628</t>
+          <t>568631262647113771270412</t>
         </is>
       </c>
       <c r="H23" t="n">
         <v>400</v>
       </c>
       <c r="I23" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>2025-03-05 06:12:19</t>
+          <t>2025-03-05 07:38:36</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -2735,7 +4234,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -2745,7 +4244,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>0x19</t>
+          <t>0x13</t>
         </is>
       </c>
       <c r="F24" t="n">
@@ -2753,20 +4252,20 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>568631262647113771663628</t>
+          <t>568631262647113771270412</t>
         </is>
       </c>
       <c r="H24" t="n">
         <v>400</v>
       </c>
       <c r="I24" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>2025-03-05 07:12:19</t>
+          <t>2025-03-05 08:38:36</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -2776,7 +4275,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -2786,7 +4285,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>0x19</t>
+          <t>0x13</t>
         </is>
       </c>
       <c r="F25" t="n">
@@ -2794,20 +4293,20 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>568631262647113771663628</t>
+          <t>568631262647113771270412</t>
         </is>
       </c>
       <c r="H25" t="n">
         <v>400</v>
       </c>
       <c r="I25" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>2025-03-05 08:12:19</t>
+          <t>2025-03-05 09:38:36</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -2817,7 +4316,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -2827,7 +4326,7 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>0x19</t>
+          <t>0x13</t>
         </is>
       </c>
       <c r="F26" t="n">
@@ -2835,20 +4334,20 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>568631262647113771663628</t>
+          <t>568631262647113771270412</t>
         </is>
       </c>
       <c r="H26" t="n">
         <v>400</v>
       </c>
       <c r="I26" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>2025-03-05 09:12:19</t>
+          <t>2025-03-05 10:38:36</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -2858,7 +4357,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -2868,7 +4367,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>0x19</t>
+          <t>0x13</t>
         </is>
       </c>
       <c r="F27" t="n">
@@ -2876,20 +4375,20 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>568631262647113771663628</t>
+          <t>568631262647113771270412</t>
         </is>
       </c>
       <c r="H27" t="n">
         <v>400</v>
       </c>
       <c r="I27" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>2025-03-05 10:12:19</t>
+          <t>2025-03-05 11:38:36</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -2899,7 +4398,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -2909,7 +4408,7 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>0x19</t>
+          <t>0x13</t>
         </is>
       </c>
       <c r="F28" t="n">
@@ -2917,20 +4416,20 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>568631262647113771663628</t>
+          <t>568631262647113771270412</t>
         </is>
       </c>
       <c r="H28" t="n">
         <v>400</v>
       </c>
       <c r="I28" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>2025-03-05 11:12:19</t>
+          <t>2025-03-05 12:38:36</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -2940,7 +4439,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -2950,7 +4449,7 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>0x19</t>
+          <t>0x13</t>
         </is>
       </c>
       <c r="F29" t="n">
@@ -2958,20 +4457,20 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>568631262647113771663628</t>
+          <t>568631262647113771270412</t>
         </is>
       </c>
       <c r="H29" t="n">
         <v>400</v>
       </c>
       <c r="I29" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>2025-03-05 12:12:19</t>
+          <t>2025-03-05 13:38:36</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -2981,7 +4480,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -2991,7 +4490,7 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>0x19</t>
+          <t>0x13</t>
         </is>
       </c>
       <c r="F30" t="n">
@@ -2999,20 +4498,20 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>568631262647113771663628</t>
+          <t>568631262647113771270412</t>
         </is>
       </c>
       <c r="H30" t="n">
         <v>400</v>
       </c>
       <c r="I30" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>2025-03-05 13:12:19</t>
+          <t>2025-03-05 14:38:36</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -3022,7 +4521,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -3032,7 +4531,7 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>0x19</t>
+          <t>0x13</t>
         </is>
       </c>
       <c r="F31" t="n">
@@ -3040,20 +4539,20 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>568631262647113771663628</t>
+          <t>568631262647113771270412</t>
         </is>
       </c>
       <c r="H31" t="n">
         <v>400</v>
       </c>
       <c r="I31" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>2025-03-05 14:12:19</t>
+          <t>2025-03-05 15:38:36</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -3063,7 +4562,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -3073,7 +4572,7 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>0x19</t>
+          <t>0x13</t>
         </is>
       </c>
       <c r="F32" t="n">
@@ -3081,20 +4580,20 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>568631262647113771663628</t>
+          <t>568631262647113771270412</t>
         </is>
       </c>
       <c r="H32" t="n">
         <v>400</v>
       </c>
       <c r="I32" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>2025-03-05 15:12:19</t>
+          <t>2025-03-05 16:38:36</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -3104,7 +4603,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -3114,7 +4613,7 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>0x19</t>
+          <t>0x13</t>
         </is>
       </c>
       <c r="F33" t="n">
@@ -3122,20 +4621,20 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>568631262647113771663628</t>
+          <t>568631262647113771270412</t>
         </is>
       </c>
       <c r="H33" t="n">
         <v>400</v>
       </c>
       <c r="I33" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>2025-03-05 16:12:19</t>
+          <t>2025-03-05 17:38:36</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -3145,7 +4644,7 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -3155,7 +4654,7 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>0x19</t>
+          <t>0x13</t>
         </is>
       </c>
       <c r="F34" t="n">
@@ -3163,14 +4662,14 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>568631262647113771663628</t>
+          <t>568631262647113771270412</t>
         </is>
       </c>
       <c r="H34" t="n">
         <v>400</v>
       </c>
       <c r="I34" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -3178,7 +4677,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3241,7 +4740,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45720.40180555556</v>
+        <v>45720.43858796296</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -3250,7 +4749,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -3260,7 +4759,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>0x13</t>
+          <t>0x 9</t>
         </is>
       </c>
       <c r="F2" t="n">
@@ -3268,20 +4767,20 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>568631262647113771270412</t>
+          <t>568631262647113770680332</t>
         </is>
       </c>
       <c r="H2" t="n">
         <v>400</v>
       </c>
       <c r="I2" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2025-03-04 10:38:36</t>
+          <t>2025-03-04 11:31:34</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -3291,7 +4790,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -3301,7 +4800,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>0x13</t>
+          <t>0x 9</t>
         </is>
       </c>
       <c r="F3" t="n">
@@ -3309,20 +4808,20 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>568631262647113771270412</t>
+          <t>568631262647113770680332</t>
         </is>
       </c>
       <c r="H3" t="n">
         <v>400</v>
       </c>
       <c r="I3" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2025-03-04 11:38:36</t>
+          <t>2025-03-04 12:31:34</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -3332,7 +4831,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -3342,7 +4841,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>0x13</t>
+          <t>0x 9</t>
         </is>
       </c>
       <c r="F4" t="n">
@@ -3350,20 +4849,20 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>568631262647113771270412</t>
+          <t>568631262647113770680332</t>
         </is>
       </c>
       <c r="H4" t="n">
         <v>400</v>
       </c>
       <c r="I4" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2025-03-04 12:38:36</t>
+          <t>2025-03-04 13:31:34</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -3373,7 +4872,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -3383,7 +4882,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>0x13</t>
+          <t>0x 9</t>
         </is>
       </c>
       <c r="F5" t="n">
@@ -3391,20 +4890,20 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>568631262647113771270412</t>
+          <t>568631262647113770680332</t>
         </is>
       </c>
       <c r="H5" t="n">
         <v>400</v>
       </c>
       <c r="I5" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2025-03-04 13:38:36</t>
+          <t>2025-03-04 14:31:34</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -3414,7 +4913,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -3424,7 +4923,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>0x13</t>
+          <t>0x 9</t>
         </is>
       </c>
       <c r="F6" t="n">
@@ -3432,20 +4931,20 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>568631262647113771270412</t>
+          <t>568631262647113770680332</t>
         </is>
       </c>
       <c r="H6" t="n">
         <v>400</v>
       </c>
       <c r="I6" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2025-03-04 14:38:36</t>
+          <t>2025-03-04 15:31:34</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -3455,7 +4954,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -3465,7 +4964,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>0x13</t>
+          <t>0x 9</t>
         </is>
       </c>
       <c r="F7" t="n">
@@ -3473,20 +4972,20 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>568631262647113771270412</t>
+          <t>568631262647113770680332</t>
         </is>
       </c>
       <c r="H7" t="n">
         <v>400</v>
       </c>
       <c r="I7" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2025-03-04 15:38:36</t>
+          <t>2025-03-04 16:31:34</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -3496,7 +4995,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -3506,7 +5005,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>0x13</t>
+          <t>0x 9</t>
         </is>
       </c>
       <c r="F8" t="n">
@@ -3514,20 +5013,20 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>568631262647113771270412</t>
+          <t>568631262647113770680332</t>
         </is>
       </c>
       <c r="H8" t="n">
         <v>400</v>
       </c>
       <c r="I8" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2025-03-04 16:38:36</t>
+          <t>2025-03-04 17:31:34</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -3537,7 +5036,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -3547,7 +5046,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>0x13</t>
+          <t>0x 9</t>
         </is>
       </c>
       <c r="F9" t="n">
@@ -3555,20 +5054,20 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>568631262647113771270412</t>
+          <t>568631262647113770680332</t>
         </is>
       </c>
       <c r="H9" t="n">
         <v>400</v>
       </c>
       <c r="I9" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2025-03-04 17:38:36</t>
+          <t>2025-03-04 18:31:34</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -3578,7 +5077,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -3588,7 +5087,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>0x13</t>
+          <t>0x 9</t>
         </is>
       </c>
       <c r="F10" t="n">
@@ -3596,20 +5095,20 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>568631262647113771270412</t>
+          <t>568631262647113770680332</t>
         </is>
       </c>
       <c r="H10" t="n">
         <v>400</v>
       </c>
       <c r="I10" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2025-03-04 18:38:36</t>
+          <t>2025-03-04 19:31:34</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -3619,7 +5118,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -3629,7 +5128,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>0x13</t>
+          <t>0x 9</t>
         </is>
       </c>
       <c r="F11" t="n">
@@ -3637,20 +5136,20 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>568631262647113771270412</t>
+          <t>568631262647113770680332</t>
         </is>
       </c>
       <c r="H11" t="n">
         <v>400</v>
       </c>
       <c r="I11" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2025-03-04 19:38:36</t>
+          <t>2025-03-04 20:31:34</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -3660,7 +5159,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -3670,7 +5169,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>0x13</t>
+          <t>0x 9</t>
         </is>
       </c>
       <c r="F12" t="n">
@@ -3678,20 +5177,20 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>568631262647113771270412</t>
+          <t>568631262647113770680332</t>
         </is>
       </c>
       <c r="H12" t="n">
         <v>400</v>
       </c>
       <c r="I12" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2025-03-04 20:38:36</t>
+          <t>2025-03-04 21:31:34</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -3701,7 +5200,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -3711,7 +5210,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>0x13</t>
+          <t>0x 9</t>
         </is>
       </c>
       <c r="F13" t="n">
@@ -3719,20 +5218,20 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>568631262647113771270412</t>
+          <t>568631262647113770680332</t>
         </is>
       </c>
       <c r="H13" t="n">
         <v>400</v>
       </c>
       <c r="I13" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2025-03-04 21:38:36</t>
+          <t>2025-03-04 22:31:34</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -3742,7 +5241,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -3752,7 +5251,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>0x13</t>
+          <t>0x 9</t>
         </is>
       </c>
       <c r="F14" t="n">
@@ -3760,20 +5259,20 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>568631262647113771270412</t>
+          <t>568631262647113770680332</t>
         </is>
       </c>
       <c r="H14" t="n">
         <v>400</v>
       </c>
       <c r="I14" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2025-03-04 22:38:36</t>
+          <t>2025-03-04 23:31:34</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -3783,7 +5282,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -3793,7 +5292,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>0x13</t>
+          <t>0x 9</t>
         </is>
       </c>
       <c r="F15" t="n">
@@ -3801,20 +5300,20 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>568631262647113771270412</t>
+          <t>568631262647113770680332</t>
         </is>
       </c>
       <c r="H15" t="n">
         <v>400</v>
       </c>
       <c r="I15" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2025-03-04 23:38:36</t>
+          <t>2025-03-05 00:31:34</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -3824,7 +5323,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -3834,7 +5333,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>0x13</t>
+          <t>0x 9</t>
         </is>
       </c>
       <c r="F16" t="n">
@@ -3842,20 +5341,20 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>568631262647113771270412</t>
+          <t>568631262647113770680332</t>
         </is>
       </c>
       <c r="H16" t="n">
         <v>400</v>
       </c>
       <c r="I16" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2025-03-05 00:38:36</t>
+          <t>2025-03-05 01:31:34</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -3865,7 +5364,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -3875,7 +5374,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>0x13</t>
+          <t>0x 9</t>
         </is>
       </c>
       <c r="F17" t="n">
@@ -3883,20 +5382,20 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>568631262647113771270412</t>
+          <t>568631262647113770680332</t>
         </is>
       </c>
       <c r="H17" t="n">
         <v>400</v>
       </c>
       <c r="I17" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2025-03-05 01:38:36</t>
+          <t>2025-03-05 02:31:34</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -3906,7 +5405,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -3916,7 +5415,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>0x13</t>
+          <t>0x 9</t>
         </is>
       </c>
       <c r="F18" t="n">
@@ -3924,20 +5423,20 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>568631262647113771270412</t>
+          <t>568631262647113770680332</t>
         </is>
       </c>
       <c r="H18" t="n">
         <v>400</v>
       </c>
       <c r="I18" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>2025-03-05 02:38:36</t>
+          <t>2025-03-05 03:31:34</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -3947,7 +5446,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -3957,7 +5456,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>0x13</t>
+          <t>0x 9</t>
         </is>
       </c>
       <c r="F19" t="n">
@@ -3965,20 +5464,20 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>568631262647113771270412</t>
+          <t>568631262647113770680332</t>
         </is>
       </c>
       <c r="H19" t="n">
         <v>400</v>
       </c>
       <c r="I19" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2025-03-05 03:38:36</t>
+          <t>2025-03-05 04:31:34</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -3988,7 +5487,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -3998,7 +5497,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>0x13</t>
+          <t>0x 9</t>
         </is>
       </c>
       <c r="F20" t="n">
@@ -4006,20 +5505,20 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>568631262647113771270412</t>
+          <t>568631262647113770680332</t>
         </is>
       </c>
       <c r="H20" t="n">
         <v>400</v>
       </c>
       <c r="I20" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>2025-03-05 04:38:36</t>
+          <t>2025-03-05 05:31:34</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -4029,7 +5528,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -4039,7 +5538,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>0x13</t>
+          <t>0x 9</t>
         </is>
       </c>
       <c r="F21" t="n">
@@ -4047,20 +5546,20 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>568631262647113771270412</t>
+          <t>568631262647113770680332</t>
         </is>
       </c>
       <c r="H21" t="n">
         <v>400</v>
       </c>
       <c r="I21" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>2025-03-05 05:38:36</t>
+          <t>2025-03-05 06:31:34</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -4070,7 +5569,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -4080,7 +5579,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>0x13</t>
+          <t>0x 9</t>
         </is>
       </c>
       <c r="F22" t="n">
@@ -4088,20 +5587,20 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>568631262647113771270412</t>
+          <t>568631262647113770680332</t>
         </is>
       </c>
       <c r="H22" t="n">
         <v>400</v>
       </c>
       <c r="I22" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>2025-03-05 06:38:36</t>
+          <t>2025-03-05 07:31:34</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -4111,7 +5610,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -4121,7 +5620,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>0x13</t>
+          <t>0x 9</t>
         </is>
       </c>
       <c r="F23" t="n">
@@ -4129,20 +5628,20 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>568631262647113771270412</t>
+          <t>568631262647113770680332</t>
         </is>
       </c>
       <c r="H23" t="n">
         <v>400</v>
       </c>
       <c r="I23" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>2025-03-05 07:38:36</t>
+          <t>2025-03-05 08:31:34</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -4152,7 +5651,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -4162,7 +5661,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>0x13</t>
+          <t>0x 9</t>
         </is>
       </c>
       <c r="F24" t="n">
@@ -4170,20 +5669,20 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>568631262647113771270412</t>
+          <t>568631262647113770680332</t>
         </is>
       </c>
       <c r="H24" t="n">
         <v>400</v>
       </c>
       <c r="I24" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>2025-03-05 08:38:36</t>
+          <t>2025-03-05 09:31:34</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -4193,7 +5692,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -4203,7 +5702,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>0x13</t>
+          <t>0x 9</t>
         </is>
       </c>
       <c r="F25" t="n">
@@ -4211,20 +5710,20 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>568631262647113771270412</t>
+          <t>568631262647113770680332</t>
         </is>
       </c>
       <c r="H25" t="n">
         <v>400</v>
       </c>
       <c r="I25" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>2025-03-05 09:38:36</t>
+          <t>2025-03-05 10:31:34</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -4234,7 +5733,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -4244,7 +5743,7 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>0x13</t>
+          <t>0x 9</t>
         </is>
       </c>
       <c r="F26" t="n">
@@ -4252,20 +5751,20 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>568631262647113771270412</t>
+          <t>568631262647113770680332</t>
         </is>
       </c>
       <c r="H26" t="n">
         <v>400</v>
       </c>
       <c r="I26" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>2025-03-05 10:38:36</t>
+          <t>2025-03-05 11:31:34</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -4275,7 +5774,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -4285,7 +5784,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>0x13</t>
+          <t>0x 9</t>
         </is>
       </c>
       <c r="F27" t="n">
@@ -4293,20 +5792,20 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>568631262647113771270412</t>
+          <t>568631262647113770680332</t>
         </is>
       </c>
       <c r="H27" t="n">
         <v>400</v>
       </c>
       <c r="I27" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>2025-03-05 11:38:36</t>
+          <t>2025-03-05 12:31:34</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -4316,7 +5815,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -4326,7 +5825,7 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>0x13</t>
+          <t>0x 9</t>
         </is>
       </c>
       <c r="F28" t="n">
@@ -4334,20 +5833,20 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>568631262647113771270412</t>
+          <t>568631262647113770680332</t>
         </is>
       </c>
       <c r="H28" t="n">
         <v>400</v>
       </c>
       <c r="I28" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>2025-03-05 12:38:36</t>
+          <t>2025-03-05 13:31:34</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -4357,7 +5856,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -4367,7 +5866,7 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>0x13</t>
+          <t>0x 9</t>
         </is>
       </c>
       <c r="F29" t="n">
@@ -4375,20 +5874,20 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>568631262647113771270412</t>
+          <t>568631262647113770680332</t>
         </is>
       </c>
       <c r="H29" t="n">
         <v>400</v>
       </c>
       <c r="I29" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>2025-03-05 13:38:36</t>
+          <t>2025-03-05 14:31:34</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -4398,7 +5897,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -4408,7 +5907,7 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>0x13</t>
+          <t>0x 9</t>
         </is>
       </c>
       <c r="F30" t="n">
@@ -4416,20 +5915,20 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>568631262647113771270412</t>
+          <t>568631262647113770680332</t>
         </is>
       </c>
       <c r="H30" t="n">
         <v>400</v>
       </c>
       <c r="I30" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>2025-03-05 14:38:36</t>
+          <t>2025-03-05 15:31:34</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -4439,7 +5938,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -4449,7 +5948,7 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>0x13</t>
+          <t>0x 9</t>
         </is>
       </c>
       <c r="F31" t="n">
@@ -4457,20 +5956,20 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>568631262647113771270412</t>
+          <t>568631262647113770680332</t>
         </is>
       </c>
       <c r="H31" t="n">
         <v>400</v>
       </c>
       <c r="I31" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>2025-03-05 15:38:36</t>
+          <t>2025-03-05 16:31:34</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -4480,7 +5979,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -4490,7 +5989,7 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>0x13</t>
+          <t>0x 9</t>
         </is>
       </c>
       <c r="F32" t="n">
@@ -4498,20 +5997,20 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>568631262647113771270412</t>
+          <t>568631262647113770680332</t>
         </is>
       </c>
       <c r="H32" t="n">
         <v>400</v>
       </c>
       <c r="I32" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>2025-03-05 16:38:36</t>
+          <t>2025-03-05 17:31:34</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -4521,7 +6020,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -4531,7 +6030,7 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>0x13</t>
+          <t>0x 9</t>
         </is>
       </c>
       <c r="F33" t="n">
@@ -4539,1348 +6038,13 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>568631262647113771270412</t>
+          <t>568631262647113770680332</t>
         </is>
       </c>
       <c r="H33" t="n">
         <v>400</v>
       </c>
       <c r="I33" t="n">
-        <v>13</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:I32"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>time</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>总长</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>ID</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>实际长度</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>和校验</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>总长_DEC</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>ID_DEC</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>实际长度_DEC</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>和校验_DEC</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>45720.43858796296</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0x01,0x90 </t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>0x01,0x90,</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>0x 9</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>400</v>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>568631262647113770680332</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>400</v>
-      </c>
-      <c r="I2" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>2025-03-04 11:31:34</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0x01,0x90 </t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>0x01,0x90,</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>0x 9</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>400</v>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>568631262647113770680332</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>400</v>
-      </c>
-      <c r="I3" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>2025-03-04 12:31:34</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0x01,0x90 </t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>0x01,0x90,</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>0x 9</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>400</v>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>568631262647113770680332</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>400</v>
-      </c>
-      <c r="I4" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>2025-03-04 13:31:34</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0x01,0x90 </t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>0x01,0x90,</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>0x 9</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>400</v>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>568631262647113770680332</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>400</v>
-      </c>
-      <c r="I5" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>2025-03-04 14:31:34</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0x01,0x90 </t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0x01,0x90,</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>0x 9</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>400</v>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>568631262647113770680332</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>400</v>
-      </c>
-      <c r="I6" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>2025-03-04 15:31:34</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0x01,0x90 </t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>0x01,0x90,</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>0x 9</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>400</v>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>568631262647113770680332</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>400</v>
-      </c>
-      <c r="I7" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>2025-03-04 16:31:34</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0x01,0x90 </t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>0x01,0x90,</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>0x 9</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>400</v>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>568631262647113770680332</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>400</v>
-      </c>
-      <c r="I8" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>2025-03-04 17:31:34</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0x01,0x90 </t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>0x01,0x90,</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>0x 9</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>400</v>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>568631262647113770680332</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>400</v>
-      </c>
-      <c r="I9" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>2025-03-04 18:31:34</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0x01,0x90 </t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>0x01,0x90,</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>0x 9</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>400</v>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>568631262647113770680332</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>400</v>
-      </c>
-      <c r="I10" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>2025-03-04 19:31:34</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0x01,0x90 </t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>0x01,0x90,</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>0x 9</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>400</v>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>568631262647113770680332</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>400</v>
-      </c>
-      <c r="I11" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>2025-03-04 20:31:34</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0x01,0x90 </t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>0x01,0x90,</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>0x 9</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>400</v>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>568631262647113770680332</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>400</v>
-      </c>
-      <c r="I12" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>2025-03-04 21:31:34</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0x01,0x90 </t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>0x01,0x90,</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>0x 9</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>400</v>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>568631262647113770680332</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>400</v>
-      </c>
-      <c r="I13" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>2025-03-04 22:31:34</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0x01,0x90 </t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>0x01,0x90,</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>0x 9</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>400</v>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>568631262647113770680332</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>400</v>
-      </c>
-      <c r="I14" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>2025-03-04 23:31:34</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0x01,0x90 </t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>0x01,0x90,</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>0x 9</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>400</v>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>568631262647113770680332</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>400</v>
-      </c>
-      <c r="I15" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>2025-03-05 00:31:34</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0x01,0x90 </t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>0x01,0x90,</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>0x 9</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
-        <v>400</v>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>568631262647113770680332</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
-        <v>400</v>
-      </c>
-      <c r="I16" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>2025-03-05 01:31:34</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0x01,0x90 </t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>0x01,0x90,</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>0x 9</t>
-        </is>
-      </c>
-      <c r="F17" t="n">
-        <v>400</v>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>568631262647113770680332</t>
-        </is>
-      </c>
-      <c r="H17" t="n">
-        <v>400</v>
-      </c>
-      <c r="I17" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>2025-03-05 02:31:34</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0x01,0x90 </t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>0x01,0x90,</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>0x 9</t>
-        </is>
-      </c>
-      <c r="F18" t="n">
-        <v>400</v>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>568631262647113770680332</t>
-        </is>
-      </c>
-      <c r="H18" t="n">
-        <v>400</v>
-      </c>
-      <c r="I18" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>2025-03-05 03:31:34</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0x01,0x90 </t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>0x01,0x90,</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>0x 9</t>
-        </is>
-      </c>
-      <c r="F19" t="n">
-        <v>400</v>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>568631262647113770680332</t>
-        </is>
-      </c>
-      <c r="H19" t="n">
-        <v>400</v>
-      </c>
-      <c r="I19" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>2025-03-05 04:31:34</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0x01,0x90 </t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>0x01,0x90,</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>0x 9</t>
-        </is>
-      </c>
-      <c r="F20" t="n">
-        <v>400</v>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>568631262647113770680332</t>
-        </is>
-      </c>
-      <c r="H20" t="n">
-        <v>400</v>
-      </c>
-      <c r="I20" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>2025-03-05 05:31:34</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0x01,0x90 </t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>0x01,0x90,</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>0x 9</t>
-        </is>
-      </c>
-      <c r="F21" t="n">
-        <v>400</v>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>568631262647113770680332</t>
-        </is>
-      </c>
-      <c r="H21" t="n">
-        <v>400</v>
-      </c>
-      <c r="I21" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>2025-03-05 06:31:34</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0x01,0x90 </t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>0x01,0x90,</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>0x 9</t>
-        </is>
-      </c>
-      <c r="F22" t="n">
-        <v>400</v>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>568631262647113770680332</t>
-        </is>
-      </c>
-      <c r="H22" t="n">
-        <v>400</v>
-      </c>
-      <c r="I22" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>2025-03-05 07:31:34</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0x01,0x90 </t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>0x01,0x90,</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>0x 9</t>
-        </is>
-      </c>
-      <c r="F23" t="n">
-        <v>400</v>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>568631262647113770680332</t>
-        </is>
-      </c>
-      <c r="H23" t="n">
-        <v>400</v>
-      </c>
-      <c r="I23" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>2025-03-05 08:31:34</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0x01,0x90 </t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>0x01,0x90,</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>0x 9</t>
-        </is>
-      </c>
-      <c r="F24" t="n">
-        <v>400</v>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>568631262647113770680332</t>
-        </is>
-      </c>
-      <c r="H24" t="n">
-        <v>400</v>
-      </c>
-      <c r="I24" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>2025-03-05 09:31:34</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0x01,0x90 </t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>0x01,0x90,</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>0x 9</t>
-        </is>
-      </c>
-      <c r="F25" t="n">
-        <v>400</v>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>568631262647113770680332</t>
-        </is>
-      </c>
-      <c r="H25" t="n">
-        <v>400</v>
-      </c>
-      <c r="I25" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>2025-03-05 10:31:34</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0x01,0x90 </t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>0x01,0x90,</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>0x 9</t>
-        </is>
-      </c>
-      <c r="F26" t="n">
-        <v>400</v>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>568631262647113770680332</t>
-        </is>
-      </c>
-      <c r="H26" t="n">
-        <v>400</v>
-      </c>
-      <c r="I26" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>2025-03-05 11:31:34</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0x01,0x90 </t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>0x01,0x90,</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>0x 9</t>
-        </is>
-      </c>
-      <c r="F27" t="n">
-        <v>400</v>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>568631262647113770680332</t>
-        </is>
-      </c>
-      <c r="H27" t="n">
-        <v>400</v>
-      </c>
-      <c r="I27" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>2025-03-05 12:31:34</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0x01,0x90 </t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>0x01,0x90,</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>0x 9</t>
-        </is>
-      </c>
-      <c r="F28" t="n">
-        <v>400</v>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>568631262647113770680332</t>
-        </is>
-      </c>
-      <c r="H28" t="n">
-        <v>400</v>
-      </c>
-      <c r="I28" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>2025-03-05 13:31:34</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0x01,0x90 </t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>0x01,0x90,</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>0x 9</t>
-        </is>
-      </c>
-      <c r="F29" t="n">
-        <v>400</v>
-      </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>568631262647113770680332</t>
-        </is>
-      </c>
-      <c r="H29" t="n">
-        <v>400</v>
-      </c>
-      <c r="I29" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>2025-03-05 14:31:34</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0x01,0x90 </t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>0x01,0x90,</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>0x 9</t>
-        </is>
-      </c>
-      <c r="F30" t="n">
-        <v>400</v>
-      </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>568631262647113770680332</t>
-        </is>
-      </c>
-      <c r="H30" t="n">
-        <v>400</v>
-      </c>
-      <c r="I30" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>2025-03-05 15:31:34</t>
-        </is>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0x01,0x90 </t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>0x01,0x90,</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>0x 9</t>
-        </is>
-      </c>
-      <c r="F31" t="n">
-        <v>400</v>
-      </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>568631262647113770680332</t>
-        </is>
-      </c>
-      <c r="H31" t="n">
-        <v>400</v>
-      </c>
-      <c r="I31" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>2025-03-05 16:31:34</t>
-        </is>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0x01,0x90 </t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>0x01,0x90,</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>0x 9</t>
-        </is>
-      </c>
-      <c r="F32" t="n">
-        <v>400</v>
-      </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>568631262647113770680332</t>
-        </is>
-      </c>
-      <c r="H32" t="n">
-        <v>400</v>
-      </c>
-      <c r="I32" t="n">
         <v>9</v>
       </c>
     </row>

--- a/SAG2_sensor_data_with_decimal_filtered_updated.xlsx
+++ b/SAG2_sensor_data_with_decimal_filtered_updated.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I33"/>
+  <dimension ref="A1:I34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1797,12 +1797,1552 @@
         <v>14</v>
       </c>
     </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>2025-03-05 18:18:04</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1b,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>0x14</t>
+        </is>
+      </c>
+      <c r="F34" t="n">
+        <v>400</v>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>568631262647113771335948</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>400</v>
+      </c>
+      <c r="I34" t="n">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I36"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>time</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>总长</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>实际长度</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>和校验</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>总长_DEC</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>ID_DEC</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>实际长度_DEC</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>和校验_DEC</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>45720.34188657408</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F2" t="n">
+        <v>400</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>400</v>
+      </c>
+      <c r="I2" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2025-03-04 09:12:19</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F3" t="n">
+        <v>400</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>400</v>
+      </c>
+      <c r="I3" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>2025-03-04 10:12:19</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F4" t="n">
+        <v>400</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>400</v>
+      </c>
+      <c r="I4" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>2025-03-04 11:12:19</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F5" t="n">
+        <v>400</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>400</v>
+      </c>
+      <c r="I5" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>2025-03-04 12:12:19</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F6" t="n">
+        <v>400</v>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>400</v>
+      </c>
+      <c r="I6" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>2025-03-04 13:12:19</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F7" t="n">
+        <v>400</v>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>400</v>
+      </c>
+      <c r="I7" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>2025-03-04 14:12:19</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F8" t="n">
+        <v>400</v>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>400</v>
+      </c>
+      <c r="I8" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>2025-03-04 15:12:19</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F9" t="n">
+        <v>400</v>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>400</v>
+      </c>
+      <c r="I9" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>2025-03-04 16:12:19</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F10" t="n">
+        <v>400</v>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>400</v>
+      </c>
+      <c r="I10" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>2025-03-04 17:12:19</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F11" t="n">
+        <v>400</v>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>400</v>
+      </c>
+      <c r="I11" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>2025-03-04 18:12:19</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F12" t="n">
+        <v>400</v>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>400</v>
+      </c>
+      <c r="I12" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>2025-03-04 19:12:19</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F13" t="n">
+        <v>400</v>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>400</v>
+      </c>
+      <c r="I13" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>2025-03-04 20:12:19</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F14" t="n">
+        <v>400</v>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>400</v>
+      </c>
+      <c r="I14" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>2025-03-04 21:12:19</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F15" t="n">
+        <v>400</v>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>400</v>
+      </c>
+      <c r="I15" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>2025-03-04 22:12:19</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F16" t="n">
+        <v>400</v>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>400</v>
+      </c>
+      <c r="I16" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>2025-03-04 23:12:19</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F17" t="n">
+        <v>400</v>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>400</v>
+      </c>
+      <c r="I17" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>2025-03-05 00:12:19</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F18" t="n">
+        <v>400</v>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>400</v>
+      </c>
+      <c r="I18" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>2025-03-05 01:12:19</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F19" t="n">
+        <v>400</v>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>400</v>
+      </c>
+      <c r="I19" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>2025-03-05 02:12:19</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F20" t="n">
+        <v>400</v>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>400</v>
+      </c>
+      <c r="I20" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>2025-03-05 03:12:19</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F21" t="n">
+        <v>400</v>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>400</v>
+      </c>
+      <c r="I21" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>2025-03-05 04:12:19</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F22" t="n">
+        <v>400</v>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>400</v>
+      </c>
+      <c r="I22" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>2025-03-05 05:12:19</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F23" t="n">
+        <v>400</v>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>400</v>
+      </c>
+      <c r="I23" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>2025-03-05 06:12:19</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F24" t="n">
+        <v>400</v>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>400</v>
+      </c>
+      <c r="I24" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>2025-03-05 07:12:19</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F25" t="n">
+        <v>400</v>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>400</v>
+      </c>
+      <c r="I25" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>2025-03-05 08:12:19</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F26" t="n">
+        <v>400</v>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>400</v>
+      </c>
+      <c r="I26" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>2025-03-05 09:12:19</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F27" t="n">
+        <v>400</v>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>400</v>
+      </c>
+      <c r="I27" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>2025-03-05 10:12:19</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F28" t="n">
+        <v>400</v>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>400</v>
+      </c>
+      <c r="I28" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>2025-03-05 11:12:19</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F29" t="n">
+        <v>400</v>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>400</v>
+      </c>
+      <c r="I29" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>2025-03-05 12:12:19</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F30" t="n">
+        <v>400</v>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>400</v>
+      </c>
+      <c r="I30" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>2025-03-05 13:12:19</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F31" t="n">
+        <v>400</v>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>400</v>
+      </c>
+      <c r="I31" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>2025-03-05 14:12:19</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F32" t="n">
+        <v>400</v>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>400</v>
+      </c>
+      <c r="I32" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>2025-03-05 15:12:19</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F33" t="n">
+        <v>400</v>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>400</v>
+      </c>
+      <c r="I33" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>2025-03-05 16:12:19</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F34" t="n">
+        <v>400</v>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>400</v>
+      </c>
+      <c r="I34" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>2025-03-05 17:12:19</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F35" t="n">
+        <v>400</v>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>400</v>
+      </c>
+      <c r="I35" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>2025-03-05 18:12:19</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F36" t="n">
+        <v>400</v>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>400</v>
+      </c>
+      <c r="I36" t="n">
+        <v>25</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1865,7 +3405,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45720.34188657408</v>
+        <v>45720.40180555556</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -1874,7 +3414,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -1884,7 +3424,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>0x19</t>
+          <t>0x13</t>
         </is>
       </c>
       <c r="F2" t="n">
@@ -1892,20 +3432,20 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>568631262647113771663628</t>
+          <t>568631262647113771270412</t>
         </is>
       </c>
       <c r="H2" t="n">
         <v>400</v>
       </c>
       <c r="I2" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2025-03-04 09:12:19</t>
+          <t>2025-03-04 10:38:36</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -1915,7 +3455,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -1925,7 +3465,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>0x19</t>
+          <t>0x13</t>
         </is>
       </c>
       <c r="F3" t="n">
@@ -1933,20 +3473,20 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>568631262647113771663628</t>
+          <t>568631262647113771270412</t>
         </is>
       </c>
       <c r="H3" t="n">
         <v>400</v>
       </c>
       <c r="I3" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2025-03-04 10:12:19</t>
+          <t>2025-03-04 11:38:36</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -1956,7 +3496,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -1966,7 +3506,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>0x19</t>
+          <t>0x13</t>
         </is>
       </c>
       <c r="F4" t="n">
@@ -1974,20 +3514,20 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>568631262647113771663628</t>
+          <t>568631262647113771270412</t>
         </is>
       </c>
       <c r="H4" t="n">
         <v>400</v>
       </c>
       <c r="I4" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2025-03-04 11:12:19</t>
+          <t>2025-03-04 12:38:36</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1997,7 +3537,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -2007,7 +3547,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>0x19</t>
+          <t>0x13</t>
         </is>
       </c>
       <c r="F5" t="n">
@@ -2015,20 +3555,20 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>568631262647113771663628</t>
+          <t>568631262647113771270412</t>
         </is>
       </c>
       <c r="H5" t="n">
         <v>400</v>
       </c>
       <c r="I5" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2025-03-04 12:12:19</t>
+          <t>2025-03-04 13:38:36</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -2038,7 +3578,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -2048,7 +3588,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>0x19</t>
+          <t>0x13</t>
         </is>
       </c>
       <c r="F6" t="n">
@@ -2056,20 +3596,20 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>568631262647113771663628</t>
+          <t>568631262647113771270412</t>
         </is>
       </c>
       <c r="H6" t="n">
         <v>400</v>
       </c>
       <c r="I6" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2025-03-04 13:12:19</t>
+          <t>2025-03-04 14:38:36</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -2079,7 +3619,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -2089,7 +3629,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>0x19</t>
+          <t>0x13</t>
         </is>
       </c>
       <c r="F7" t="n">
@@ -2097,20 +3637,20 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>568631262647113771663628</t>
+          <t>568631262647113771270412</t>
         </is>
       </c>
       <c r="H7" t="n">
         <v>400</v>
       </c>
       <c r="I7" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2025-03-04 14:12:19</t>
+          <t>2025-03-04 15:38:36</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -2120,7 +3660,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -2130,7 +3670,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>0x19</t>
+          <t>0x13</t>
         </is>
       </c>
       <c r="F8" t="n">
@@ -2138,20 +3678,20 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>568631262647113771663628</t>
+          <t>568631262647113771270412</t>
         </is>
       </c>
       <c r="H8" t="n">
         <v>400</v>
       </c>
       <c r="I8" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2025-03-04 15:12:19</t>
+          <t>2025-03-04 16:38:36</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -2161,7 +3701,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -2171,7 +3711,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>0x19</t>
+          <t>0x13</t>
         </is>
       </c>
       <c r="F9" t="n">
@@ -2179,20 +3719,20 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>568631262647113771663628</t>
+          <t>568631262647113771270412</t>
         </is>
       </c>
       <c r="H9" t="n">
         <v>400</v>
       </c>
       <c r="I9" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2025-03-04 16:12:19</t>
+          <t>2025-03-04 17:38:36</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -2202,7 +3742,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -2212,7 +3752,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>0x19</t>
+          <t>0x13</t>
         </is>
       </c>
       <c r="F10" t="n">
@@ -2220,20 +3760,20 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>568631262647113771663628</t>
+          <t>568631262647113771270412</t>
         </is>
       </c>
       <c r="H10" t="n">
         <v>400</v>
       </c>
       <c r="I10" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2025-03-04 17:12:19</t>
+          <t>2025-03-04 18:38:36</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -2243,7 +3783,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -2253,7 +3793,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>0x19</t>
+          <t>0x13</t>
         </is>
       </c>
       <c r="F11" t="n">
@@ -2261,20 +3801,20 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>568631262647113771663628</t>
+          <t>568631262647113771270412</t>
         </is>
       </c>
       <c r="H11" t="n">
         <v>400</v>
       </c>
       <c r="I11" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2025-03-04 18:12:19</t>
+          <t>2025-03-04 19:38:36</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2284,7 +3824,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -2294,7 +3834,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>0x19</t>
+          <t>0x13</t>
         </is>
       </c>
       <c r="F12" t="n">
@@ -2302,20 +3842,20 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>568631262647113771663628</t>
+          <t>568631262647113771270412</t>
         </is>
       </c>
       <c r="H12" t="n">
         <v>400</v>
       </c>
       <c r="I12" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2025-03-04 19:12:19</t>
+          <t>2025-03-04 20:38:36</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2325,7 +3865,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -2335,7 +3875,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>0x19</t>
+          <t>0x13</t>
         </is>
       </c>
       <c r="F13" t="n">
@@ -2343,20 +3883,20 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>568631262647113771663628</t>
+          <t>568631262647113771270412</t>
         </is>
       </c>
       <c r="H13" t="n">
         <v>400</v>
       </c>
       <c r="I13" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2025-03-04 20:12:19</t>
+          <t>2025-03-04 21:38:36</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -2366,7 +3906,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -2376,7 +3916,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>0x19</t>
+          <t>0x13</t>
         </is>
       </c>
       <c r="F14" t="n">
@@ -2384,20 +3924,20 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>568631262647113771663628</t>
+          <t>568631262647113771270412</t>
         </is>
       </c>
       <c r="H14" t="n">
         <v>400</v>
       </c>
       <c r="I14" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2025-03-04 21:12:19</t>
+          <t>2025-03-04 22:38:36</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -2407,7 +3947,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -2417,7 +3957,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>0x19</t>
+          <t>0x13</t>
         </is>
       </c>
       <c r="F15" t="n">
@@ -2425,20 +3965,20 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>568631262647113771663628</t>
+          <t>568631262647113771270412</t>
         </is>
       </c>
       <c r="H15" t="n">
         <v>400</v>
       </c>
       <c r="I15" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2025-03-04 22:12:19</t>
+          <t>2025-03-04 23:38:36</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -2448,7 +3988,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -2458,7 +3998,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>0x19</t>
+          <t>0x13</t>
         </is>
       </c>
       <c r="F16" t="n">
@@ -2466,20 +4006,20 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>568631262647113771663628</t>
+          <t>568631262647113771270412</t>
         </is>
       </c>
       <c r="H16" t="n">
         <v>400</v>
       </c>
       <c r="I16" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2025-03-04 23:12:19</t>
+          <t>2025-03-05 00:38:36</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -2489,7 +4029,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -2499,7 +4039,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>0x19</t>
+          <t>0x13</t>
         </is>
       </c>
       <c r="F17" t="n">
@@ -2507,20 +4047,20 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>568631262647113771663628</t>
+          <t>568631262647113771270412</t>
         </is>
       </c>
       <c r="H17" t="n">
         <v>400</v>
       </c>
       <c r="I17" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2025-03-05 00:12:19</t>
+          <t>2025-03-05 01:38:36</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -2530,7 +4070,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -2540,7 +4080,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>0x19</t>
+          <t>0x13</t>
         </is>
       </c>
       <c r="F18" t="n">
@@ -2548,20 +4088,20 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>568631262647113771663628</t>
+          <t>568631262647113771270412</t>
         </is>
       </c>
       <c r="H18" t="n">
         <v>400</v>
       </c>
       <c r="I18" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>2025-03-05 01:12:19</t>
+          <t>2025-03-05 02:38:36</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -2571,7 +4111,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -2581,7 +4121,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>0x19</t>
+          <t>0x13</t>
         </is>
       </c>
       <c r="F19" t="n">
@@ -2589,20 +4129,20 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>568631262647113771663628</t>
+          <t>568631262647113771270412</t>
         </is>
       </c>
       <c r="H19" t="n">
         <v>400</v>
       </c>
       <c r="I19" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2025-03-05 02:12:19</t>
+          <t>2025-03-05 03:38:36</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -2612,7 +4152,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -2622,7 +4162,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>0x19</t>
+          <t>0x13</t>
         </is>
       </c>
       <c r="F20" t="n">
@@ -2630,20 +4170,20 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>568631262647113771663628</t>
+          <t>568631262647113771270412</t>
         </is>
       </c>
       <c r="H20" t="n">
         <v>400</v>
       </c>
       <c r="I20" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>2025-03-05 03:12:19</t>
+          <t>2025-03-05 04:38:36</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -2653,7 +4193,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -2663,7 +4203,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>0x19</t>
+          <t>0x13</t>
         </is>
       </c>
       <c r="F21" t="n">
@@ -2671,20 +4211,20 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>568631262647113771663628</t>
+          <t>568631262647113771270412</t>
         </is>
       </c>
       <c r="H21" t="n">
         <v>400</v>
       </c>
       <c r="I21" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>2025-03-05 04:12:19</t>
+          <t>2025-03-05 05:38:36</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -2694,7 +4234,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -2704,7 +4244,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>0x19</t>
+          <t>0x13</t>
         </is>
       </c>
       <c r="F22" t="n">
@@ -2712,20 +4252,20 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>568631262647113771663628</t>
+          <t>568631262647113771270412</t>
         </is>
       </c>
       <c r="H22" t="n">
         <v>400</v>
       </c>
       <c r="I22" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>2025-03-05 05:12:19</t>
+          <t>2025-03-05 06:38:36</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -2735,7 +4275,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -2745,7 +4285,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>0x19</t>
+          <t>0x13</t>
         </is>
       </c>
       <c r="F23" t="n">
@@ -2753,20 +4293,20 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>568631262647113771663628</t>
+          <t>568631262647113771270412</t>
         </is>
       </c>
       <c r="H23" t="n">
         <v>400</v>
       </c>
       <c r="I23" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>2025-03-05 06:12:19</t>
+          <t>2025-03-05 07:38:36</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -2776,7 +4316,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -2786,7 +4326,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>0x19</t>
+          <t>0x13</t>
         </is>
       </c>
       <c r="F24" t="n">
@@ -2794,20 +4334,20 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>568631262647113771663628</t>
+          <t>568631262647113771270412</t>
         </is>
       </c>
       <c r="H24" t="n">
         <v>400</v>
       </c>
       <c r="I24" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>2025-03-05 07:12:19</t>
+          <t>2025-03-05 08:38:36</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -2817,7 +4357,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -2827,7 +4367,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>0x19</t>
+          <t>0x13</t>
         </is>
       </c>
       <c r="F25" t="n">
@@ -2835,20 +4375,20 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>568631262647113771663628</t>
+          <t>568631262647113771270412</t>
         </is>
       </c>
       <c r="H25" t="n">
         <v>400</v>
       </c>
       <c r="I25" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>2025-03-05 08:12:19</t>
+          <t>2025-03-05 09:38:36</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -2858,7 +4398,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -2868,7 +4408,7 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>0x19</t>
+          <t>0x13</t>
         </is>
       </c>
       <c r="F26" t="n">
@@ -2876,20 +4416,20 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>568631262647113771663628</t>
+          <t>568631262647113771270412</t>
         </is>
       </c>
       <c r="H26" t="n">
         <v>400</v>
       </c>
       <c r="I26" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>2025-03-05 09:12:19</t>
+          <t>2025-03-05 10:38:36</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -2899,7 +4439,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -2909,7 +4449,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>0x19</t>
+          <t>0x13</t>
         </is>
       </c>
       <c r="F27" t="n">
@@ -2917,20 +4457,20 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>568631262647113771663628</t>
+          <t>568631262647113771270412</t>
         </is>
       </c>
       <c r="H27" t="n">
         <v>400</v>
       </c>
       <c r="I27" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>2025-03-05 10:12:19</t>
+          <t>2025-03-05 11:38:36</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -2940,7 +4480,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -2950,7 +4490,7 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>0x19</t>
+          <t>0x13</t>
         </is>
       </c>
       <c r="F28" t="n">
@@ -2958,20 +4498,20 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>568631262647113771663628</t>
+          <t>568631262647113771270412</t>
         </is>
       </c>
       <c r="H28" t="n">
         <v>400</v>
       </c>
       <c r="I28" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>2025-03-05 11:12:19</t>
+          <t>2025-03-05 12:38:36</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -2981,7 +4521,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -2991,7 +4531,7 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>0x19</t>
+          <t>0x13</t>
         </is>
       </c>
       <c r="F29" t="n">
@@ -2999,20 +4539,20 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>568631262647113771663628</t>
+          <t>568631262647113771270412</t>
         </is>
       </c>
       <c r="H29" t="n">
         <v>400</v>
       </c>
       <c r="I29" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>2025-03-05 12:12:19</t>
+          <t>2025-03-05 13:38:36</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -3022,7 +4562,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -3032,7 +4572,7 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>0x19</t>
+          <t>0x13</t>
         </is>
       </c>
       <c r="F30" t="n">
@@ -3040,20 +4580,20 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>568631262647113771663628</t>
+          <t>568631262647113771270412</t>
         </is>
       </c>
       <c r="H30" t="n">
         <v>400</v>
       </c>
       <c r="I30" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>2025-03-05 13:12:19</t>
+          <t>2025-03-05 14:38:36</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -3063,7 +4603,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -3073,7 +4613,7 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>0x19</t>
+          <t>0x13</t>
         </is>
       </c>
       <c r="F31" t="n">
@@ -3081,20 +4621,20 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>568631262647113771663628</t>
+          <t>568631262647113771270412</t>
         </is>
       </c>
       <c r="H31" t="n">
         <v>400</v>
       </c>
       <c r="I31" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>2025-03-05 14:12:19</t>
+          <t>2025-03-05 15:38:36</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -3104,7 +4644,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -3114,7 +4654,7 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>0x19</t>
+          <t>0x13</t>
         </is>
       </c>
       <c r="F32" t="n">
@@ -3122,20 +4662,20 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>568631262647113771663628</t>
+          <t>568631262647113771270412</t>
         </is>
       </c>
       <c r="H32" t="n">
         <v>400</v>
       </c>
       <c r="I32" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>2025-03-05 15:12:19</t>
+          <t>2025-03-05 16:38:36</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -3145,7 +4685,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -3155,7 +4695,7 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>0x19</t>
+          <t>0x13</t>
         </is>
       </c>
       <c r="F33" t="n">
@@ -3163,20 +4703,20 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>568631262647113771663628</t>
+          <t>568631262647113771270412</t>
         </is>
       </c>
       <c r="H33" t="n">
         <v>400</v>
       </c>
       <c r="I33" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>2025-03-05 16:12:19</t>
+          <t>2025-03-05 17:38:36</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -3186,7 +4726,7 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -3196,7 +4736,7 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>0x19</t>
+          <t>0x13</t>
         </is>
       </c>
       <c r="F34" t="n">
@@ -3204,20 +4744,20 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>568631262647113771663628</t>
+          <t>568631262647113771270412</t>
         </is>
       </c>
       <c r="H34" t="n">
         <v>400</v>
       </c>
       <c r="I34" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>2025-03-05 17:12:19</t>
+          <t>2025-03-05 18:38:36</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -3227,7 +4767,7 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -3237,7 +4777,7 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>0x19</t>
+          <t>0x13</t>
         </is>
       </c>
       <c r="F35" t="n">
@@ -3245,14 +4785,14 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>568631262647113771663628</t>
+          <t>568631262647113771270412</t>
         </is>
       </c>
       <c r="H35" t="n">
         <v>400</v>
       </c>
       <c r="I35" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -3260,7 +4800,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3323,7 +4863,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45720.40180555556</v>
+        <v>45720.43858796296</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -3332,7 +4872,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -3342,7 +4882,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>0x13</t>
+          <t>0x 9</t>
         </is>
       </c>
       <c r="F2" t="n">
@@ -3350,20 +4890,20 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>568631262647113771270412</t>
+          <t>568631262647113770680332</t>
         </is>
       </c>
       <c r="H2" t="n">
         <v>400</v>
       </c>
       <c r="I2" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2025-03-04 10:38:36</t>
+          <t>2025-03-04 11:31:34</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -3373,7 +4913,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -3383,7 +4923,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>0x13</t>
+          <t>0x 9</t>
         </is>
       </c>
       <c r="F3" t="n">
@@ -3391,20 +4931,20 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>568631262647113771270412</t>
+          <t>568631262647113770680332</t>
         </is>
       </c>
       <c r="H3" t="n">
         <v>400</v>
       </c>
       <c r="I3" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2025-03-04 11:38:36</t>
+          <t>2025-03-04 12:31:34</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -3414,7 +4954,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -3424,7 +4964,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>0x13</t>
+          <t>0x 9</t>
         </is>
       </c>
       <c r="F4" t="n">
@@ -3432,20 +4972,20 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>568631262647113771270412</t>
+          <t>568631262647113770680332</t>
         </is>
       </c>
       <c r="H4" t="n">
         <v>400</v>
       </c>
       <c r="I4" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2025-03-04 12:38:36</t>
+          <t>2025-03-04 13:31:34</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -3455,7 +4995,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -3465,7 +5005,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>0x13</t>
+          <t>0x 9</t>
         </is>
       </c>
       <c r="F5" t="n">
@@ -3473,20 +5013,20 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>568631262647113771270412</t>
+          <t>568631262647113770680332</t>
         </is>
       </c>
       <c r="H5" t="n">
         <v>400</v>
       </c>
       <c r="I5" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2025-03-04 13:38:36</t>
+          <t>2025-03-04 14:31:34</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -3496,7 +5036,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -3506,7 +5046,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>0x13</t>
+          <t>0x 9</t>
         </is>
       </c>
       <c r="F6" t="n">
@@ -3514,20 +5054,20 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>568631262647113771270412</t>
+          <t>568631262647113770680332</t>
         </is>
       </c>
       <c r="H6" t="n">
         <v>400</v>
       </c>
       <c r="I6" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2025-03-04 14:38:36</t>
+          <t>2025-03-04 15:31:34</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -3537,7 +5077,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -3547,7 +5087,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>0x13</t>
+          <t>0x 9</t>
         </is>
       </c>
       <c r="F7" t="n">
@@ -3555,20 +5095,20 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>568631262647113771270412</t>
+          <t>568631262647113770680332</t>
         </is>
       </c>
       <c r="H7" t="n">
         <v>400</v>
       </c>
       <c r="I7" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2025-03-04 15:38:36</t>
+          <t>2025-03-04 16:31:34</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -3578,7 +5118,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -3588,7 +5128,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>0x13</t>
+          <t>0x 9</t>
         </is>
       </c>
       <c r="F8" t="n">
@@ -3596,20 +5136,20 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>568631262647113771270412</t>
+          <t>568631262647113770680332</t>
         </is>
       </c>
       <c r="H8" t="n">
         <v>400</v>
       </c>
       <c r="I8" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2025-03-04 16:38:36</t>
+          <t>2025-03-04 17:31:34</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -3619,7 +5159,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -3629,7 +5169,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>0x13</t>
+          <t>0x 9</t>
         </is>
       </c>
       <c r="F9" t="n">
@@ -3637,20 +5177,20 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>568631262647113771270412</t>
+          <t>568631262647113770680332</t>
         </is>
       </c>
       <c r="H9" t="n">
         <v>400</v>
       </c>
       <c r="I9" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2025-03-04 17:38:36</t>
+          <t>2025-03-04 18:31:34</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -3660,7 +5200,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -3670,7 +5210,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>0x13</t>
+          <t>0x 9</t>
         </is>
       </c>
       <c r="F10" t="n">
@@ -3678,20 +5218,20 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>568631262647113771270412</t>
+          <t>568631262647113770680332</t>
         </is>
       </c>
       <c r="H10" t="n">
         <v>400</v>
       </c>
       <c r="I10" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2025-03-04 18:38:36</t>
+          <t>2025-03-04 19:31:34</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -3701,7 +5241,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -3711,7 +5251,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>0x13</t>
+          <t>0x 9</t>
         </is>
       </c>
       <c r="F11" t="n">
@@ -3719,20 +5259,20 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>568631262647113771270412</t>
+          <t>568631262647113770680332</t>
         </is>
       </c>
       <c r="H11" t="n">
         <v>400</v>
       </c>
       <c r="I11" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2025-03-04 19:38:36</t>
+          <t>2025-03-04 20:31:34</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -3742,7 +5282,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -3752,7 +5292,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>0x13</t>
+          <t>0x 9</t>
         </is>
       </c>
       <c r="F12" t="n">
@@ -3760,20 +5300,20 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>568631262647113771270412</t>
+          <t>568631262647113770680332</t>
         </is>
       </c>
       <c r="H12" t="n">
         <v>400</v>
       </c>
       <c r="I12" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2025-03-04 20:38:36</t>
+          <t>2025-03-04 21:31:34</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -3783,7 +5323,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -3793,7 +5333,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>0x13</t>
+          <t>0x 9</t>
         </is>
       </c>
       <c r="F13" t="n">
@@ -3801,20 +5341,20 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>568631262647113771270412</t>
+          <t>568631262647113770680332</t>
         </is>
       </c>
       <c r="H13" t="n">
         <v>400</v>
       </c>
       <c r="I13" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2025-03-04 21:38:36</t>
+          <t>2025-03-04 22:31:34</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -3824,7 +5364,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -3834,7 +5374,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>0x13</t>
+          <t>0x 9</t>
         </is>
       </c>
       <c r="F14" t="n">
@@ -3842,20 +5382,20 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>568631262647113771270412</t>
+          <t>568631262647113770680332</t>
         </is>
       </c>
       <c r="H14" t="n">
         <v>400</v>
       </c>
       <c r="I14" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2025-03-04 22:38:36</t>
+          <t>2025-03-04 23:31:34</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -3865,7 +5405,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -3875,7 +5415,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>0x13</t>
+          <t>0x 9</t>
         </is>
       </c>
       <c r="F15" t="n">
@@ -3883,20 +5423,20 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>568631262647113771270412</t>
+          <t>568631262647113770680332</t>
         </is>
       </c>
       <c r="H15" t="n">
         <v>400</v>
       </c>
       <c r="I15" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2025-03-04 23:38:36</t>
+          <t>2025-03-05 00:31:34</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -3906,7 +5446,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -3916,7 +5456,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>0x13</t>
+          <t>0x 9</t>
         </is>
       </c>
       <c r="F16" t="n">
@@ -3924,20 +5464,20 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>568631262647113771270412</t>
+          <t>568631262647113770680332</t>
         </is>
       </c>
       <c r="H16" t="n">
         <v>400</v>
       </c>
       <c r="I16" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2025-03-05 00:38:36</t>
+          <t>2025-03-05 01:31:34</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -3947,7 +5487,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -3957,7 +5497,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>0x13</t>
+          <t>0x 9</t>
         </is>
       </c>
       <c r="F17" t="n">
@@ -3965,20 +5505,20 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>568631262647113771270412</t>
+          <t>568631262647113770680332</t>
         </is>
       </c>
       <c r="H17" t="n">
         <v>400</v>
       </c>
       <c r="I17" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2025-03-05 01:38:36</t>
+          <t>2025-03-05 02:31:34</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -3988,7 +5528,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -3998,7 +5538,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>0x13</t>
+          <t>0x 9</t>
         </is>
       </c>
       <c r="F18" t="n">
@@ -4006,20 +5546,20 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>568631262647113771270412</t>
+          <t>568631262647113770680332</t>
         </is>
       </c>
       <c r="H18" t="n">
         <v>400</v>
       </c>
       <c r="I18" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>2025-03-05 02:38:36</t>
+          <t>2025-03-05 03:31:34</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -4029,7 +5569,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -4039,7 +5579,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>0x13</t>
+          <t>0x 9</t>
         </is>
       </c>
       <c r="F19" t="n">
@@ -4047,20 +5587,20 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>568631262647113771270412</t>
+          <t>568631262647113770680332</t>
         </is>
       </c>
       <c r="H19" t="n">
         <v>400</v>
       </c>
       <c r="I19" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2025-03-05 03:38:36</t>
+          <t>2025-03-05 04:31:34</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -4070,7 +5610,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -4080,7 +5620,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>0x13</t>
+          <t>0x 9</t>
         </is>
       </c>
       <c r="F20" t="n">
@@ -4088,20 +5628,20 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>568631262647113771270412</t>
+          <t>568631262647113770680332</t>
         </is>
       </c>
       <c r="H20" t="n">
         <v>400</v>
       </c>
       <c r="I20" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>2025-03-05 04:38:36</t>
+          <t>2025-03-05 05:31:34</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -4111,7 +5651,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -4121,7 +5661,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>0x13</t>
+          <t>0x 9</t>
         </is>
       </c>
       <c r="F21" t="n">
@@ -4129,20 +5669,20 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>568631262647113771270412</t>
+          <t>568631262647113770680332</t>
         </is>
       </c>
       <c r="H21" t="n">
         <v>400</v>
       </c>
       <c r="I21" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>2025-03-05 05:38:36</t>
+          <t>2025-03-05 06:31:34</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -4152,7 +5692,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -4162,7 +5702,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>0x13</t>
+          <t>0x 9</t>
         </is>
       </c>
       <c r="F22" t="n">
@@ -4170,20 +5710,20 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>568631262647113771270412</t>
+          <t>568631262647113770680332</t>
         </is>
       </c>
       <c r="H22" t="n">
         <v>400</v>
       </c>
       <c r="I22" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>2025-03-05 06:38:36</t>
+          <t>2025-03-05 07:31:34</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -4193,7 +5733,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -4203,7 +5743,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>0x13</t>
+          <t>0x 9</t>
         </is>
       </c>
       <c r="F23" t="n">
@@ -4211,20 +5751,20 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>568631262647113771270412</t>
+          <t>568631262647113770680332</t>
         </is>
       </c>
       <c r="H23" t="n">
         <v>400</v>
       </c>
       <c r="I23" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>2025-03-05 07:38:36</t>
+          <t>2025-03-05 08:31:34</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -4234,7 +5774,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -4244,7 +5784,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>0x13</t>
+          <t>0x 9</t>
         </is>
       </c>
       <c r="F24" t="n">
@@ -4252,20 +5792,20 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>568631262647113771270412</t>
+          <t>568631262647113770680332</t>
         </is>
       </c>
       <c r="H24" t="n">
         <v>400</v>
       </c>
       <c r="I24" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>2025-03-05 08:38:36</t>
+          <t>2025-03-05 09:31:34</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -4275,7 +5815,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -4285,7 +5825,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>0x13</t>
+          <t>0x 9</t>
         </is>
       </c>
       <c r="F25" t="n">
@@ -4293,20 +5833,20 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>568631262647113771270412</t>
+          <t>568631262647113770680332</t>
         </is>
       </c>
       <c r="H25" t="n">
         <v>400</v>
       </c>
       <c r="I25" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>2025-03-05 09:38:36</t>
+          <t>2025-03-05 10:31:34</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -4316,7 +5856,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -4326,7 +5866,7 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>0x13</t>
+          <t>0x 9</t>
         </is>
       </c>
       <c r="F26" t="n">
@@ -4334,20 +5874,20 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>568631262647113771270412</t>
+          <t>568631262647113770680332</t>
         </is>
       </c>
       <c r="H26" t="n">
         <v>400</v>
       </c>
       <c r="I26" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>2025-03-05 10:38:36</t>
+          <t>2025-03-05 11:31:34</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -4357,7 +5897,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -4367,7 +5907,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>0x13</t>
+          <t>0x 9</t>
         </is>
       </c>
       <c r="F27" t="n">
@@ -4375,20 +5915,20 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>568631262647113771270412</t>
+          <t>568631262647113770680332</t>
         </is>
       </c>
       <c r="H27" t="n">
         <v>400</v>
       </c>
       <c r="I27" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>2025-03-05 11:38:36</t>
+          <t>2025-03-05 12:31:34</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -4398,7 +5938,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -4408,7 +5948,7 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>0x13</t>
+          <t>0x 9</t>
         </is>
       </c>
       <c r="F28" t="n">
@@ -4416,20 +5956,20 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>568631262647113771270412</t>
+          <t>568631262647113770680332</t>
         </is>
       </c>
       <c r="H28" t="n">
         <v>400</v>
       </c>
       <c r="I28" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>2025-03-05 12:38:36</t>
+          <t>2025-03-05 13:31:34</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -4439,7 +5979,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -4449,7 +5989,7 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>0x13</t>
+          <t>0x 9</t>
         </is>
       </c>
       <c r="F29" t="n">
@@ -4457,20 +5997,20 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>568631262647113771270412</t>
+          <t>568631262647113770680332</t>
         </is>
       </c>
       <c r="H29" t="n">
         <v>400</v>
       </c>
       <c r="I29" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>2025-03-05 13:38:36</t>
+          <t>2025-03-05 14:31:34</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -4480,7 +6020,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -4490,7 +6030,7 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>0x13</t>
+          <t>0x 9</t>
         </is>
       </c>
       <c r="F30" t="n">
@@ -4498,20 +6038,20 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>568631262647113771270412</t>
+          <t>568631262647113770680332</t>
         </is>
       </c>
       <c r="H30" t="n">
         <v>400</v>
       </c>
       <c r="I30" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>2025-03-05 14:38:36</t>
+          <t>2025-03-05 15:31:34</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -4521,7 +6061,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -4531,7 +6071,7 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>0x13</t>
+          <t>0x 9</t>
         </is>
       </c>
       <c r="F31" t="n">
@@ -4539,20 +6079,20 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>568631262647113771270412</t>
+          <t>568631262647113770680332</t>
         </is>
       </c>
       <c r="H31" t="n">
         <v>400</v>
       </c>
       <c r="I31" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>2025-03-05 15:38:36</t>
+          <t>2025-03-05 16:31:34</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -4562,7 +6102,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -4572,7 +6112,7 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>0x13</t>
+          <t>0x 9</t>
         </is>
       </c>
       <c r="F32" t="n">
@@ -4580,20 +6120,20 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>568631262647113771270412</t>
+          <t>568631262647113770680332</t>
         </is>
       </c>
       <c r="H32" t="n">
         <v>400</v>
       </c>
       <c r="I32" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>2025-03-05 16:38:36</t>
+          <t>2025-03-05 17:31:34</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -4603,7 +6143,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -4613,7 +6153,7 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>0x13</t>
+          <t>0x 9</t>
         </is>
       </c>
       <c r="F33" t="n">
@@ -4621,20 +6161,20 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>568631262647113771270412</t>
+          <t>568631262647113770680332</t>
         </is>
       </c>
       <c r="H33" t="n">
         <v>400</v>
       </c>
       <c r="I33" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>2025-03-05 17:38:36</t>
+          <t>2025-03-05 18:31:34</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -4644,7 +6184,7 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -4654,7 +6194,7 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>0x13</t>
+          <t>0x 9</t>
         </is>
       </c>
       <c r="F34" t="n">
@@ -4662,1389 +6202,13 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>568631262647113771270412</t>
+          <t>568631262647113770680332</t>
         </is>
       </c>
       <c r="H34" t="n">
         <v>400</v>
       </c>
       <c r="I34" t="n">
-        <v>13</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:I33"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>time</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>总长</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>ID</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>实际长度</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>和校验</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>总长_DEC</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>ID_DEC</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>实际长度_DEC</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>和校验_DEC</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>45720.43858796296</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0x01,0x90 </t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>0x01,0x90,</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>0x 9</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>400</v>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>568631262647113770680332</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>400</v>
-      </c>
-      <c r="I2" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>2025-03-04 11:31:34</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0x01,0x90 </t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>0x01,0x90,</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>0x 9</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>400</v>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>568631262647113770680332</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>400</v>
-      </c>
-      <c r="I3" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>2025-03-04 12:31:34</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0x01,0x90 </t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>0x01,0x90,</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>0x 9</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>400</v>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>568631262647113770680332</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>400</v>
-      </c>
-      <c r="I4" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>2025-03-04 13:31:34</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0x01,0x90 </t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>0x01,0x90,</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>0x 9</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>400</v>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>568631262647113770680332</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>400</v>
-      </c>
-      <c r="I5" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>2025-03-04 14:31:34</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0x01,0x90 </t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0x01,0x90,</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>0x 9</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>400</v>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>568631262647113770680332</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>400</v>
-      </c>
-      <c r="I6" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>2025-03-04 15:31:34</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0x01,0x90 </t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>0x01,0x90,</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>0x 9</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>400</v>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>568631262647113770680332</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>400</v>
-      </c>
-      <c r="I7" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>2025-03-04 16:31:34</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0x01,0x90 </t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>0x01,0x90,</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>0x 9</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>400</v>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>568631262647113770680332</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>400</v>
-      </c>
-      <c r="I8" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>2025-03-04 17:31:34</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0x01,0x90 </t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>0x01,0x90,</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>0x 9</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>400</v>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>568631262647113770680332</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>400</v>
-      </c>
-      <c r="I9" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>2025-03-04 18:31:34</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0x01,0x90 </t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>0x01,0x90,</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>0x 9</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>400</v>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>568631262647113770680332</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>400</v>
-      </c>
-      <c r="I10" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>2025-03-04 19:31:34</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0x01,0x90 </t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>0x01,0x90,</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>0x 9</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>400</v>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>568631262647113770680332</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>400</v>
-      </c>
-      <c r="I11" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>2025-03-04 20:31:34</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0x01,0x90 </t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>0x01,0x90,</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>0x 9</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>400</v>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>568631262647113770680332</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>400</v>
-      </c>
-      <c r="I12" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>2025-03-04 21:31:34</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0x01,0x90 </t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>0x01,0x90,</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>0x 9</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>400</v>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>568631262647113770680332</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>400</v>
-      </c>
-      <c r="I13" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>2025-03-04 22:31:34</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0x01,0x90 </t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>0x01,0x90,</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>0x 9</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>400</v>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>568631262647113770680332</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>400</v>
-      </c>
-      <c r="I14" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>2025-03-04 23:31:34</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0x01,0x90 </t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>0x01,0x90,</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>0x 9</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>400</v>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>568631262647113770680332</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>400</v>
-      </c>
-      <c r="I15" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>2025-03-05 00:31:34</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0x01,0x90 </t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>0x01,0x90,</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>0x 9</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
-        <v>400</v>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>568631262647113770680332</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
-        <v>400</v>
-      </c>
-      <c r="I16" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>2025-03-05 01:31:34</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0x01,0x90 </t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>0x01,0x90,</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>0x 9</t>
-        </is>
-      </c>
-      <c r="F17" t="n">
-        <v>400</v>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>568631262647113770680332</t>
-        </is>
-      </c>
-      <c r="H17" t="n">
-        <v>400</v>
-      </c>
-      <c r="I17" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>2025-03-05 02:31:34</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0x01,0x90 </t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>0x01,0x90,</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>0x 9</t>
-        </is>
-      </c>
-      <c r="F18" t="n">
-        <v>400</v>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>568631262647113770680332</t>
-        </is>
-      </c>
-      <c r="H18" t="n">
-        <v>400</v>
-      </c>
-      <c r="I18" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>2025-03-05 03:31:34</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0x01,0x90 </t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>0x01,0x90,</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>0x 9</t>
-        </is>
-      </c>
-      <c r="F19" t="n">
-        <v>400</v>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>568631262647113770680332</t>
-        </is>
-      </c>
-      <c r="H19" t="n">
-        <v>400</v>
-      </c>
-      <c r="I19" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>2025-03-05 04:31:34</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0x01,0x90 </t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>0x01,0x90,</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>0x 9</t>
-        </is>
-      </c>
-      <c r="F20" t="n">
-        <v>400</v>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>568631262647113770680332</t>
-        </is>
-      </c>
-      <c r="H20" t="n">
-        <v>400</v>
-      </c>
-      <c r="I20" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>2025-03-05 05:31:34</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0x01,0x90 </t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>0x01,0x90,</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>0x 9</t>
-        </is>
-      </c>
-      <c r="F21" t="n">
-        <v>400</v>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>568631262647113770680332</t>
-        </is>
-      </c>
-      <c r="H21" t="n">
-        <v>400</v>
-      </c>
-      <c r="I21" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>2025-03-05 06:31:34</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0x01,0x90 </t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>0x01,0x90,</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>0x 9</t>
-        </is>
-      </c>
-      <c r="F22" t="n">
-        <v>400</v>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>568631262647113770680332</t>
-        </is>
-      </c>
-      <c r="H22" t="n">
-        <v>400</v>
-      </c>
-      <c r="I22" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>2025-03-05 07:31:34</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0x01,0x90 </t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>0x01,0x90,</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>0x 9</t>
-        </is>
-      </c>
-      <c r="F23" t="n">
-        <v>400</v>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>568631262647113770680332</t>
-        </is>
-      </c>
-      <c r="H23" t="n">
-        <v>400</v>
-      </c>
-      <c r="I23" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>2025-03-05 08:31:34</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0x01,0x90 </t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>0x01,0x90,</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>0x 9</t>
-        </is>
-      </c>
-      <c r="F24" t="n">
-        <v>400</v>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>568631262647113770680332</t>
-        </is>
-      </c>
-      <c r="H24" t="n">
-        <v>400</v>
-      </c>
-      <c r="I24" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>2025-03-05 09:31:34</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0x01,0x90 </t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>0x01,0x90,</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>0x 9</t>
-        </is>
-      </c>
-      <c r="F25" t="n">
-        <v>400</v>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>568631262647113770680332</t>
-        </is>
-      </c>
-      <c r="H25" t="n">
-        <v>400</v>
-      </c>
-      <c r="I25" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>2025-03-05 10:31:34</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0x01,0x90 </t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>0x01,0x90,</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>0x 9</t>
-        </is>
-      </c>
-      <c r="F26" t="n">
-        <v>400</v>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>568631262647113770680332</t>
-        </is>
-      </c>
-      <c r="H26" t="n">
-        <v>400</v>
-      </c>
-      <c r="I26" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>2025-03-05 11:31:34</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0x01,0x90 </t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>0x01,0x90,</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>0x 9</t>
-        </is>
-      </c>
-      <c r="F27" t="n">
-        <v>400</v>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>568631262647113770680332</t>
-        </is>
-      </c>
-      <c r="H27" t="n">
-        <v>400</v>
-      </c>
-      <c r="I27" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>2025-03-05 12:31:34</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0x01,0x90 </t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>0x01,0x90,</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>0x 9</t>
-        </is>
-      </c>
-      <c r="F28" t="n">
-        <v>400</v>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>568631262647113770680332</t>
-        </is>
-      </c>
-      <c r="H28" t="n">
-        <v>400</v>
-      </c>
-      <c r="I28" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>2025-03-05 13:31:34</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0x01,0x90 </t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>0x01,0x90,</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>0x 9</t>
-        </is>
-      </c>
-      <c r="F29" t="n">
-        <v>400</v>
-      </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>568631262647113770680332</t>
-        </is>
-      </c>
-      <c r="H29" t="n">
-        <v>400</v>
-      </c>
-      <c r="I29" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>2025-03-05 14:31:34</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0x01,0x90 </t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>0x01,0x90,</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>0x 9</t>
-        </is>
-      </c>
-      <c r="F30" t="n">
-        <v>400</v>
-      </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>568631262647113770680332</t>
-        </is>
-      </c>
-      <c r="H30" t="n">
-        <v>400</v>
-      </c>
-      <c r="I30" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>2025-03-05 15:31:34</t>
-        </is>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0x01,0x90 </t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>0x01,0x90,</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>0x 9</t>
-        </is>
-      </c>
-      <c r="F31" t="n">
-        <v>400</v>
-      </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>568631262647113770680332</t>
-        </is>
-      </c>
-      <c r="H31" t="n">
-        <v>400</v>
-      </c>
-      <c r="I31" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>2025-03-05 16:31:34</t>
-        </is>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0x01,0x90 </t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>0x01,0x90,</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>0x 9</t>
-        </is>
-      </c>
-      <c r="F32" t="n">
-        <v>400</v>
-      </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>568631262647113770680332</t>
-        </is>
-      </c>
-      <c r="H32" t="n">
-        <v>400</v>
-      </c>
-      <c r="I32" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>2025-03-05 17:31:34</t>
-        </is>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0x01,0x90 </t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>0x01,0x90,</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>0x 9</t>
-        </is>
-      </c>
-      <c r="F33" t="n">
-        <v>400</v>
-      </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>568631262647113770680332</t>
-        </is>
-      </c>
-      <c r="H33" t="n">
-        <v>400</v>
-      </c>
-      <c r="I33" t="n">
         <v>9</v>
       </c>
     </row>

--- a/SAG2_sensor_data_with_decimal_filtered_updated.xlsx
+++ b/SAG2_sensor_data_with_decimal_filtered_updated.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I34"/>
+  <dimension ref="A1:I35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1838,12 +1838,1593 @@
         <v>14</v>
       </c>
     </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>2025-03-05 19:18:04</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1b,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>0x14</t>
+        </is>
+      </c>
+      <c r="F35" t="n">
+        <v>400</v>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>568631262647113771335948</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>400</v>
+      </c>
+      <c r="I35" t="n">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I37"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>time</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>总长</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>实际长度</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>和校验</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>总长_DEC</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>ID_DEC</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>实际长度_DEC</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>和校验_DEC</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>45720.34188657408</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F2" t="n">
+        <v>400</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>400</v>
+      </c>
+      <c r="I2" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2025-03-04 09:12:19</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F3" t="n">
+        <v>400</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>400</v>
+      </c>
+      <c r="I3" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>2025-03-04 10:12:19</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F4" t="n">
+        <v>400</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>400</v>
+      </c>
+      <c r="I4" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>2025-03-04 11:12:19</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F5" t="n">
+        <v>400</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>400</v>
+      </c>
+      <c r="I5" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>2025-03-04 12:12:19</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F6" t="n">
+        <v>400</v>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>400</v>
+      </c>
+      <c r="I6" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>2025-03-04 13:12:19</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F7" t="n">
+        <v>400</v>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>400</v>
+      </c>
+      <c r="I7" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>2025-03-04 14:12:19</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F8" t="n">
+        <v>400</v>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>400</v>
+      </c>
+      <c r="I8" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>2025-03-04 15:12:19</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F9" t="n">
+        <v>400</v>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>400</v>
+      </c>
+      <c r="I9" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>2025-03-04 16:12:19</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F10" t="n">
+        <v>400</v>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>400</v>
+      </c>
+      <c r="I10" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>2025-03-04 17:12:19</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F11" t="n">
+        <v>400</v>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>400</v>
+      </c>
+      <c r="I11" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>2025-03-04 18:12:19</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F12" t="n">
+        <v>400</v>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>400</v>
+      </c>
+      <c r="I12" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>2025-03-04 19:12:19</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F13" t="n">
+        <v>400</v>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>400</v>
+      </c>
+      <c r="I13" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>2025-03-04 20:12:19</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F14" t="n">
+        <v>400</v>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>400</v>
+      </c>
+      <c r="I14" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>2025-03-04 21:12:19</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F15" t="n">
+        <v>400</v>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>400</v>
+      </c>
+      <c r="I15" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>2025-03-04 22:12:19</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F16" t="n">
+        <v>400</v>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>400</v>
+      </c>
+      <c r="I16" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>2025-03-04 23:12:19</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F17" t="n">
+        <v>400</v>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>400</v>
+      </c>
+      <c r="I17" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>2025-03-05 00:12:19</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F18" t="n">
+        <v>400</v>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>400</v>
+      </c>
+      <c r="I18" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>2025-03-05 01:12:19</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F19" t="n">
+        <v>400</v>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>400</v>
+      </c>
+      <c r="I19" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>2025-03-05 02:12:19</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F20" t="n">
+        <v>400</v>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>400</v>
+      </c>
+      <c r="I20" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>2025-03-05 03:12:19</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F21" t="n">
+        <v>400</v>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>400</v>
+      </c>
+      <c r="I21" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>2025-03-05 04:12:19</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F22" t="n">
+        <v>400</v>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>400</v>
+      </c>
+      <c r="I22" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>2025-03-05 05:12:19</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F23" t="n">
+        <v>400</v>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>400</v>
+      </c>
+      <c r="I23" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>2025-03-05 06:12:19</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F24" t="n">
+        <v>400</v>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>400</v>
+      </c>
+      <c r="I24" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>2025-03-05 07:12:19</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F25" t="n">
+        <v>400</v>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>400</v>
+      </c>
+      <c r="I25" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>2025-03-05 08:12:19</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F26" t="n">
+        <v>400</v>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>400</v>
+      </c>
+      <c r="I26" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>2025-03-05 09:12:19</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F27" t="n">
+        <v>400</v>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>400</v>
+      </c>
+      <c r="I27" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>2025-03-05 10:12:19</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F28" t="n">
+        <v>400</v>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>400</v>
+      </c>
+      <c r="I28" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>2025-03-05 11:12:19</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F29" t="n">
+        <v>400</v>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>400</v>
+      </c>
+      <c r="I29" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>2025-03-05 12:12:19</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F30" t="n">
+        <v>400</v>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>400</v>
+      </c>
+      <c r="I30" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>2025-03-05 13:12:19</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F31" t="n">
+        <v>400</v>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>400</v>
+      </c>
+      <c r="I31" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>2025-03-05 14:12:19</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F32" t="n">
+        <v>400</v>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>400</v>
+      </c>
+      <c r="I32" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>2025-03-05 15:12:19</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F33" t="n">
+        <v>400</v>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>400</v>
+      </c>
+      <c r="I33" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>2025-03-05 16:12:19</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F34" t="n">
+        <v>400</v>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>400</v>
+      </c>
+      <c r="I34" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>2025-03-05 17:12:19</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F35" t="n">
+        <v>400</v>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>400</v>
+      </c>
+      <c r="I35" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>2025-03-05 18:12:19</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F36" t="n">
+        <v>400</v>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>400</v>
+      </c>
+      <c r="I36" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>2025-03-05 19:12:19</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F37" t="n">
+        <v>400</v>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>400</v>
+      </c>
+      <c r="I37" t="n">
+        <v>25</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1906,7 +3487,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45720.34188657408</v>
+        <v>45720.40180555556</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -1915,7 +3496,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -1925,7 +3506,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>0x19</t>
+          <t>0x13</t>
         </is>
       </c>
       <c r="F2" t="n">
@@ -1933,20 +3514,20 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>568631262647113771663628</t>
+          <t>568631262647113771270412</t>
         </is>
       </c>
       <c r="H2" t="n">
         <v>400</v>
       </c>
       <c r="I2" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2025-03-04 09:12:19</t>
+          <t>2025-03-04 10:38:36</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -1956,7 +3537,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -1966,7 +3547,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>0x19</t>
+          <t>0x13</t>
         </is>
       </c>
       <c r="F3" t="n">
@@ -1974,20 +3555,20 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>568631262647113771663628</t>
+          <t>568631262647113771270412</t>
         </is>
       </c>
       <c r="H3" t="n">
         <v>400</v>
       </c>
       <c r="I3" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2025-03-04 10:12:19</t>
+          <t>2025-03-04 11:38:36</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -1997,7 +3578,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -2007,7 +3588,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>0x19</t>
+          <t>0x13</t>
         </is>
       </c>
       <c r="F4" t="n">
@@ -2015,20 +3596,20 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>568631262647113771663628</t>
+          <t>568631262647113771270412</t>
         </is>
       </c>
       <c r="H4" t="n">
         <v>400</v>
       </c>
       <c r="I4" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2025-03-04 11:12:19</t>
+          <t>2025-03-04 12:38:36</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -2038,7 +3619,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -2048,7 +3629,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>0x19</t>
+          <t>0x13</t>
         </is>
       </c>
       <c r="F5" t="n">
@@ -2056,20 +3637,20 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>568631262647113771663628</t>
+          <t>568631262647113771270412</t>
         </is>
       </c>
       <c r="H5" t="n">
         <v>400</v>
       </c>
       <c r="I5" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2025-03-04 12:12:19</t>
+          <t>2025-03-04 13:38:36</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -2079,7 +3660,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -2089,7 +3670,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>0x19</t>
+          <t>0x13</t>
         </is>
       </c>
       <c r="F6" t="n">
@@ -2097,20 +3678,20 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>568631262647113771663628</t>
+          <t>568631262647113771270412</t>
         </is>
       </c>
       <c r="H6" t="n">
         <v>400</v>
       </c>
       <c r="I6" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2025-03-04 13:12:19</t>
+          <t>2025-03-04 14:38:36</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -2120,7 +3701,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -2130,7 +3711,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>0x19</t>
+          <t>0x13</t>
         </is>
       </c>
       <c r="F7" t="n">
@@ -2138,20 +3719,20 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>568631262647113771663628</t>
+          <t>568631262647113771270412</t>
         </is>
       </c>
       <c r="H7" t="n">
         <v>400</v>
       </c>
       <c r="I7" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2025-03-04 14:12:19</t>
+          <t>2025-03-04 15:38:36</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -2161,7 +3742,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -2171,7 +3752,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>0x19</t>
+          <t>0x13</t>
         </is>
       </c>
       <c r="F8" t="n">
@@ -2179,20 +3760,20 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>568631262647113771663628</t>
+          <t>568631262647113771270412</t>
         </is>
       </c>
       <c r="H8" t="n">
         <v>400</v>
       </c>
       <c r="I8" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2025-03-04 15:12:19</t>
+          <t>2025-03-04 16:38:36</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -2202,7 +3783,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -2212,7 +3793,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>0x19</t>
+          <t>0x13</t>
         </is>
       </c>
       <c r="F9" t="n">
@@ -2220,20 +3801,20 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>568631262647113771663628</t>
+          <t>568631262647113771270412</t>
         </is>
       </c>
       <c r="H9" t="n">
         <v>400</v>
       </c>
       <c r="I9" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2025-03-04 16:12:19</t>
+          <t>2025-03-04 17:38:36</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -2243,7 +3824,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -2253,7 +3834,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>0x19</t>
+          <t>0x13</t>
         </is>
       </c>
       <c r="F10" t="n">
@@ -2261,20 +3842,20 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>568631262647113771663628</t>
+          <t>568631262647113771270412</t>
         </is>
       </c>
       <c r="H10" t="n">
         <v>400</v>
       </c>
       <c r="I10" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2025-03-04 17:12:19</t>
+          <t>2025-03-04 18:38:36</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -2284,7 +3865,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -2294,7 +3875,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>0x19</t>
+          <t>0x13</t>
         </is>
       </c>
       <c r="F11" t="n">
@@ -2302,20 +3883,20 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>568631262647113771663628</t>
+          <t>568631262647113771270412</t>
         </is>
       </c>
       <c r="H11" t="n">
         <v>400</v>
       </c>
       <c r="I11" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2025-03-04 18:12:19</t>
+          <t>2025-03-04 19:38:36</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2325,7 +3906,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -2335,7 +3916,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>0x19</t>
+          <t>0x13</t>
         </is>
       </c>
       <c r="F12" t="n">
@@ -2343,20 +3924,20 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>568631262647113771663628</t>
+          <t>568631262647113771270412</t>
         </is>
       </c>
       <c r="H12" t="n">
         <v>400</v>
       </c>
       <c r="I12" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2025-03-04 19:12:19</t>
+          <t>2025-03-04 20:38:36</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2366,7 +3947,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -2376,7 +3957,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>0x19</t>
+          <t>0x13</t>
         </is>
       </c>
       <c r="F13" t="n">
@@ -2384,20 +3965,20 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>568631262647113771663628</t>
+          <t>568631262647113771270412</t>
         </is>
       </c>
       <c r="H13" t="n">
         <v>400</v>
       </c>
       <c r="I13" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2025-03-04 20:12:19</t>
+          <t>2025-03-04 21:38:36</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -2407,7 +3988,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -2417,7 +3998,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>0x19</t>
+          <t>0x13</t>
         </is>
       </c>
       <c r="F14" t="n">
@@ -2425,20 +4006,20 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>568631262647113771663628</t>
+          <t>568631262647113771270412</t>
         </is>
       </c>
       <c r="H14" t="n">
         <v>400</v>
       </c>
       <c r="I14" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2025-03-04 21:12:19</t>
+          <t>2025-03-04 22:38:36</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -2448,7 +4029,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -2458,7 +4039,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>0x19</t>
+          <t>0x13</t>
         </is>
       </c>
       <c r="F15" t="n">
@@ -2466,20 +4047,20 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>568631262647113771663628</t>
+          <t>568631262647113771270412</t>
         </is>
       </c>
       <c r="H15" t="n">
         <v>400</v>
       </c>
       <c r="I15" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2025-03-04 22:12:19</t>
+          <t>2025-03-04 23:38:36</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -2489,7 +4070,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -2499,7 +4080,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>0x19</t>
+          <t>0x13</t>
         </is>
       </c>
       <c r="F16" t="n">
@@ -2507,20 +4088,20 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>568631262647113771663628</t>
+          <t>568631262647113771270412</t>
         </is>
       </c>
       <c r="H16" t="n">
         <v>400</v>
       </c>
       <c r="I16" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2025-03-04 23:12:19</t>
+          <t>2025-03-05 00:38:36</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -2530,7 +4111,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -2540,7 +4121,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>0x19</t>
+          <t>0x13</t>
         </is>
       </c>
       <c r="F17" t="n">
@@ -2548,20 +4129,20 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>568631262647113771663628</t>
+          <t>568631262647113771270412</t>
         </is>
       </c>
       <c r="H17" t="n">
         <v>400</v>
       </c>
       <c r="I17" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2025-03-05 00:12:19</t>
+          <t>2025-03-05 01:38:36</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -2571,7 +4152,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -2581,7 +4162,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>0x19</t>
+          <t>0x13</t>
         </is>
       </c>
       <c r="F18" t="n">
@@ -2589,20 +4170,20 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>568631262647113771663628</t>
+          <t>568631262647113771270412</t>
         </is>
       </c>
       <c r="H18" t="n">
         <v>400</v>
       </c>
       <c r="I18" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>2025-03-05 01:12:19</t>
+          <t>2025-03-05 02:38:36</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -2612,7 +4193,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -2622,7 +4203,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>0x19</t>
+          <t>0x13</t>
         </is>
       </c>
       <c r="F19" t="n">
@@ -2630,20 +4211,20 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>568631262647113771663628</t>
+          <t>568631262647113771270412</t>
         </is>
       </c>
       <c r="H19" t="n">
         <v>400</v>
       </c>
       <c r="I19" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2025-03-05 02:12:19</t>
+          <t>2025-03-05 03:38:36</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -2653,7 +4234,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -2663,7 +4244,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>0x19</t>
+          <t>0x13</t>
         </is>
       </c>
       <c r="F20" t="n">
@@ -2671,20 +4252,20 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>568631262647113771663628</t>
+          <t>568631262647113771270412</t>
         </is>
       </c>
       <c r="H20" t="n">
         <v>400</v>
       </c>
       <c r="I20" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>2025-03-05 03:12:19</t>
+          <t>2025-03-05 04:38:36</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -2694,7 +4275,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -2704,7 +4285,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>0x19</t>
+          <t>0x13</t>
         </is>
       </c>
       <c r="F21" t="n">
@@ -2712,20 +4293,20 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>568631262647113771663628</t>
+          <t>568631262647113771270412</t>
         </is>
       </c>
       <c r="H21" t="n">
         <v>400</v>
       </c>
       <c r="I21" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>2025-03-05 04:12:19</t>
+          <t>2025-03-05 05:38:36</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -2735,7 +4316,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -2745,7 +4326,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>0x19</t>
+          <t>0x13</t>
         </is>
       </c>
       <c r="F22" t="n">
@@ -2753,20 +4334,20 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>568631262647113771663628</t>
+          <t>568631262647113771270412</t>
         </is>
       </c>
       <c r="H22" t="n">
         <v>400</v>
       </c>
       <c r="I22" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>2025-03-05 05:12:19</t>
+          <t>2025-03-05 06:38:36</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -2776,7 +4357,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -2786,7 +4367,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>0x19</t>
+          <t>0x13</t>
         </is>
       </c>
       <c r="F23" t="n">
@@ -2794,20 +4375,20 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>568631262647113771663628</t>
+          <t>568631262647113771270412</t>
         </is>
       </c>
       <c r="H23" t="n">
         <v>400</v>
       </c>
       <c r="I23" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>2025-03-05 06:12:19</t>
+          <t>2025-03-05 07:38:36</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -2817,7 +4398,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -2827,7 +4408,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>0x19</t>
+          <t>0x13</t>
         </is>
       </c>
       <c r="F24" t="n">
@@ -2835,20 +4416,20 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>568631262647113771663628</t>
+          <t>568631262647113771270412</t>
         </is>
       </c>
       <c r="H24" t="n">
         <v>400</v>
       </c>
       <c r="I24" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>2025-03-05 07:12:19</t>
+          <t>2025-03-05 08:38:36</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -2858,7 +4439,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -2868,7 +4449,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>0x19</t>
+          <t>0x13</t>
         </is>
       </c>
       <c r="F25" t="n">
@@ -2876,20 +4457,20 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>568631262647113771663628</t>
+          <t>568631262647113771270412</t>
         </is>
       </c>
       <c r="H25" t="n">
         <v>400</v>
       </c>
       <c r="I25" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>2025-03-05 08:12:19</t>
+          <t>2025-03-05 09:38:36</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -2899,7 +4480,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -2909,7 +4490,7 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>0x19</t>
+          <t>0x13</t>
         </is>
       </c>
       <c r="F26" t="n">
@@ -2917,20 +4498,20 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>568631262647113771663628</t>
+          <t>568631262647113771270412</t>
         </is>
       </c>
       <c r="H26" t="n">
         <v>400</v>
       </c>
       <c r="I26" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>2025-03-05 09:12:19</t>
+          <t>2025-03-05 10:38:36</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -2940,7 +4521,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -2950,7 +4531,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>0x19</t>
+          <t>0x13</t>
         </is>
       </c>
       <c r="F27" t="n">
@@ -2958,20 +4539,20 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>568631262647113771663628</t>
+          <t>568631262647113771270412</t>
         </is>
       </c>
       <c r="H27" t="n">
         <v>400</v>
       </c>
       <c r="I27" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>2025-03-05 10:12:19</t>
+          <t>2025-03-05 11:38:36</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -2981,7 +4562,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -2991,7 +4572,7 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>0x19</t>
+          <t>0x13</t>
         </is>
       </c>
       <c r="F28" t="n">
@@ -2999,20 +4580,20 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>568631262647113771663628</t>
+          <t>568631262647113771270412</t>
         </is>
       </c>
       <c r="H28" t="n">
         <v>400</v>
       </c>
       <c r="I28" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>2025-03-05 11:12:19</t>
+          <t>2025-03-05 12:38:36</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -3022,7 +4603,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -3032,7 +4613,7 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>0x19</t>
+          <t>0x13</t>
         </is>
       </c>
       <c r="F29" t="n">
@@ -3040,20 +4621,20 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>568631262647113771663628</t>
+          <t>568631262647113771270412</t>
         </is>
       </c>
       <c r="H29" t="n">
         <v>400</v>
       </c>
       <c r="I29" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>2025-03-05 12:12:19</t>
+          <t>2025-03-05 13:38:36</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -3063,7 +4644,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -3073,7 +4654,7 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>0x19</t>
+          <t>0x13</t>
         </is>
       </c>
       <c r="F30" t="n">
@@ -3081,20 +4662,20 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>568631262647113771663628</t>
+          <t>568631262647113771270412</t>
         </is>
       </c>
       <c r="H30" t="n">
         <v>400</v>
       </c>
       <c r="I30" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>2025-03-05 13:12:19</t>
+          <t>2025-03-05 14:38:36</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -3104,7 +4685,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -3114,7 +4695,7 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>0x19</t>
+          <t>0x13</t>
         </is>
       </c>
       <c r="F31" t="n">
@@ -3122,20 +4703,20 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>568631262647113771663628</t>
+          <t>568631262647113771270412</t>
         </is>
       </c>
       <c r="H31" t="n">
         <v>400</v>
       </c>
       <c r="I31" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>2025-03-05 14:12:19</t>
+          <t>2025-03-05 15:38:36</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -3145,7 +4726,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -3155,7 +4736,7 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>0x19</t>
+          <t>0x13</t>
         </is>
       </c>
       <c r="F32" t="n">
@@ -3163,20 +4744,20 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>568631262647113771663628</t>
+          <t>568631262647113771270412</t>
         </is>
       </c>
       <c r="H32" t="n">
         <v>400</v>
       </c>
       <c r="I32" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>2025-03-05 15:12:19</t>
+          <t>2025-03-05 16:38:36</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -3186,7 +4767,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -3196,7 +4777,7 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>0x19</t>
+          <t>0x13</t>
         </is>
       </c>
       <c r="F33" t="n">
@@ -3204,20 +4785,20 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>568631262647113771663628</t>
+          <t>568631262647113771270412</t>
         </is>
       </c>
       <c r="H33" t="n">
         <v>400</v>
       </c>
       <c r="I33" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>2025-03-05 16:12:19</t>
+          <t>2025-03-05 17:38:36</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -3227,7 +4808,7 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -3237,7 +4818,7 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>0x19</t>
+          <t>0x13</t>
         </is>
       </c>
       <c r="F34" t="n">
@@ -3245,20 +4826,20 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>568631262647113771663628</t>
+          <t>568631262647113771270412</t>
         </is>
       </c>
       <c r="H34" t="n">
         <v>400</v>
       </c>
       <c r="I34" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>2025-03-05 17:12:19</t>
+          <t>2025-03-05 18:38:36</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -3268,7 +4849,7 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -3278,7 +4859,7 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>0x19</t>
+          <t>0x13</t>
         </is>
       </c>
       <c r="F35" t="n">
@@ -3286,20 +4867,20 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>568631262647113771663628</t>
+          <t>568631262647113771270412</t>
         </is>
       </c>
       <c r="H35" t="n">
         <v>400</v>
       </c>
       <c r="I35" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>2025-03-05 18:12:19</t>
+          <t>2025-03-05 19:38:36</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -3309,7 +4890,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -3319,7 +4900,7 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>0x19</t>
+          <t>0x13</t>
         </is>
       </c>
       <c r="F36" t="n">
@@ -3327,14 +4908,14 @@
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>568631262647113771663628</t>
+          <t>568631262647113771270412</t>
         </is>
       </c>
       <c r="H36" t="n">
         <v>400</v>
       </c>
       <c r="I36" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -3342,7 +4923,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3405,7 +4986,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45720.40180555556</v>
+        <v>45720.43858796296</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -3414,7 +4995,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -3424,7 +5005,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>0x13</t>
+          <t>0x 9</t>
         </is>
       </c>
       <c r="F2" t="n">
@@ -3432,20 +5013,20 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>568631262647113771270412</t>
+          <t>568631262647113770680332</t>
         </is>
       </c>
       <c r="H2" t="n">
         <v>400</v>
       </c>
       <c r="I2" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2025-03-04 10:38:36</t>
+          <t>2025-03-04 11:31:34</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -3455,7 +5036,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -3465,7 +5046,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>0x13</t>
+          <t>0x 9</t>
         </is>
       </c>
       <c r="F3" t="n">
@@ -3473,20 +5054,20 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>568631262647113771270412</t>
+          <t>568631262647113770680332</t>
         </is>
       </c>
       <c r="H3" t="n">
         <v>400</v>
       </c>
       <c r="I3" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2025-03-04 11:38:36</t>
+          <t>2025-03-04 12:31:34</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -3496,7 +5077,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -3506,7 +5087,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>0x13</t>
+          <t>0x 9</t>
         </is>
       </c>
       <c r="F4" t="n">
@@ -3514,20 +5095,20 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>568631262647113771270412</t>
+          <t>568631262647113770680332</t>
         </is>
       </c>
       <c r="H4" t="n">
         <v>400</v>
       </c>
       <c r="I4" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2025-03-04 12:38:36</t>
+          <t>2025-03-04 13:31:34</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -3537,7 +5118,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -3547,7 +5128,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>0x13</t>
+          <t>0x 9</t>
         </is>
       </c>
       <c r="F5" t="n">
@@ -3555,20 +5136,20 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>568631262647113771270412</t>
+          <t>568631262647113770680332</t>
         </is>
       </c>
       <c r="H5" t="n">
         <v>400</v>
       </c>
       <c r="I5" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2025-03-04 13:38:36</t>
+          <t>2025-03-04 14:31:34</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -3578,7 +5159,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -3588,7 +5169,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>0x13</t>
+          <t>0x 9</t>
         </is>
       </c>
       <c r="F6" t="n">
@@ -3596,20 +5177,20 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>568631262647113771270412</t>
+          <t>568631262647113770680332</t>
         </is>
       </c>
       <c r="H6" t="n">
         <v>400</v>
       </c>
       <c r="I6" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2025-03-04 14:38:36</t>
+          <t>2025-03-04 15:31:34</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -3619,7 +5200,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -3629,7 +5210,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>0x13</t>
+          <t>0x 9</t>
         </is>
       </c>
       <c r="F7" t="n">
@@ -3637,20 +5218,20 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>568631262647113771270412</t>
+          <t>568631262647113770680332</t>
         </is>
       </c>
       <c r="H7" t="n">
         <v>400</v>
       </c>
       <c r="I7" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2025-03-04 15:38:36</t>
+          <t>2025-03-04 16:31:34</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -3660,7 +5241,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -3670,7 +5251,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>0x13</t>
+          <t>0x 9</t>
         </is>
       </c>
       <c r="F8" t="n">
@@ -3678,20 +5259,20 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>568631262647113771270412</t>
+          <t>568631262647113770680332</t>
         </is>
       </c>
       <c r="H8" t="n">
         <v>400</v>
       </c>
       <c r="I8" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2025-03-04 16:38:36</t>
+          <t>2025-03-04 17:31:34</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -3701,7 +5282,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -3711,7 +5292,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>0x13</t>
+          <t>0x 9</t>
         </is>
       </c>
       <c r="F9" t="n">
@@ -3719,20 +5300,20 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>568631262647113771270412</t>
+          <t>568631262647113770680332</t>
         </is>
       </c>
       <c r="H9" t="n">
         <v>400</v>
       </c>
       <c r="I9" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2025-03-04 17:38:36</t>
+          <t>2025-03-04 18:31:34</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -3742,7 +5323,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -3752,7 +5333,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>0x13</t>
+          <t>0x 9</t>
         </is>
       </c>
       <c r="F10" t="n">
@@ -3760,20 +5341,20 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>568631262647113771270412</t>
+          <t>568631262647113770680332</t>
         </is>
       </c>
       <c r="H10" t="n">
         <v>400</v>
       </c>
       <c r="I10" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2025-03-04 18:38:36</t>
+          <t>2025-03-04 19:31:34</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -3783,7 +5364,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -3793,7 +5374,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>0x13</t>
+          <t>0x 9</t>
         </is>
       </c>
       <c r="F11" t="n">
@@ -3801,20 +5382,20 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>568631262647113771270412</t>
+          <t>568631262647113770680332</t>
         </is>
       </c>
       <c r="H11" t="n">
         <v>400</v>
       </c>
       <c r="I11" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2025-03-04 19:38:36</t>
+          <t>2025-03-04 20:31:34</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -3824,7 +5405,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -3834,7 +5415,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>0x13</t>
+          <t>0x 9</t>
         </is>
       </c>
       <c r="F12" t="n">
@@ -3842,20 +5423,20 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>568631262647113771270412</t>
+          <t>568631262647113770680332</t>
         </is>
       </c>
       <c r="H12" t="n">
         <v>400</v>
       </c>
       <c r="I12" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2025-03-04 20:38:36</t>
+          <t>2025-03-04 21:31:34</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -3865,7 +5446,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -3875,7 +5456,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>0x13</t>
+          <t>0x 9</t>
         </is>
       </c>
       <c r="F13" t="n">
@@ -3883,20 +5464,20 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>568631262647113771270412</t>
+          <t>568631262647113770680332</t>
         </is>
       </c>
       <c r="H13" t="n">
         <v>400</v>
       </c>
       <c r="I13" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2025-03-04 21:38:36</t>
+          <t>2025-03-04 22:31:34</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -3906,7 +5487,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -3916,7 +5497,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>0x13</t>
+          <t>0x 9</t>
         </is>
       </c>
       <c r="F14" t="n">
@@ -3924,20 +5505,20 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>568631262647113771270412</t>
+          <t>568631262647113770680332</t>
         </is>
       </c>
       <c r="H14" t="n">
         <v>400</v>
       </c>
       <c r="I14" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2025-03-04 22:38:36</t>
+          <t>2025-03-04 23:31:34</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -3947,7 +5528,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -3957,7 +5538,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>0x13</t>
+          <t>0x 9</t>
         </is>
       </c>
       <c r="F15" t="n">
@@ -3965,20 +5546,20 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>568631262647113771270412</t>
+          <t>568631262647113770680332</t>
         </is>
       </c>
       <c r="H15" t="n">
         <v>400</v>
       </c>
       <c r="I15" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2025-03-04 23:38:36</t>
+          <t>2025-03-05 00:31:34</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -3988,7 +5569,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -3998,7 +5579,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>0x13</t>
+          <t>0x 9</t>
         </is>
       </c>
       <c r="F16" t="n">
@@ -4006,20 +5587,20 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>568631262647113771270412</t>
+          <t>568631262647113770680332</t>
         </is>
       </c>
       <c r="H16" t="n">
         <v>400</v>
       </c>
       <c r="I16" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2025-03-05 00:38:36</t>
+          <t>2025-03-05 01:31:34</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -4029,7 +5610,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -4039,7 +5620,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>0x13</t>
+          <t>0x 9</t>
         </is>
       </c>
       <c r="F17" t="n">
@@ -4047,20 +5628,20 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>568631262647113771270412</t>
+          <t>568631262647113770680332</t>
         </is>
       </c>
       <c r="H17" t="n">
         <v>400</v>
       </c>
       <c r="I17" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2025-03-05 01:38:36</t>
+          <t>2025-03-05 02:31:34</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -4070,7 +5651,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -4080,7 +5661,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>0x13</t>
+          <t>0x 9</t>
         </is>
       </c>
       <c r="F18" t="n">
@@ -4088,20 +5669,20 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>568631262647113771270412</t>
+          <t>568631262647113770680332</t>
         </is>
       </c>
       <c r="H18" t="n">
         <v>400</v>
       </c>
       <c r="I18" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>2025-03-05 02:38:36</t>
+          <t>2025-03-05 03:31:34</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -4111,7 +5692,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -4121,7 +5702,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>0x13</t>
+          <t>0x 9</t>
         </is>
       </c>
       <c r="F19" t="n">
@@ -4129,20 +5710,20 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>568631262647113771270412</t>
+          <t>568631262647113770680332</t>
         </is>
       </c>
       <c r="H19" t="n">
         <v>400</v>
       </c>
       <c r="I19" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2025-03-05 03:38:36</t>
+          <t>2025-03-05 04:31:34</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -4152,7 +5733,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -4162,7 +5743,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>0x13</t>
+          <t>0x 9</t>
         </is>
       </c>
       <c r="F20" t="n">
@@ -4170,20 +5751,20 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>568631262647113771270412</t>
+          <t>568631262647113770680332</t>
         </is>
       </c>
       <c r="H20" t="n">
         <v>400</v>
       </c>
       <c r="I20" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>2025-03-05 04:38:36</t>
+          <t>2025-03-05 05:31:34</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -4193,7 +5774,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -4203,7 +5784,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>0x13</t>
+          <t>0x 9</t>
         </is>
       </c>
       <c r="F21" t="n">
@@ -4211,20 +5792,20 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>568631262647113771270412</t>
+          <t>568631262647113770680332</t>
         </is>
       </c>
       <c r="H21" t="n">
         <v>400</v>
       </c>
       <c r="I21" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>2025-03-05 05:38:36</t>
+          <t>2025-03-05 06:31:34</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -4234,7 +5815,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -4244,7 +5825,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>0x13</t>
+          <t>0x 9</t>
         </is>
       </c>
       <c r="F22" t="n">
@@ -4252,20 +5833,20 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>568631262647113771270412</t>
+          <t>568631262647113770680332</t>
         </is>
       </c>
       <c r="H22" t="n">
         <v>400</v>
       </c>
       <c r="I22" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>2025-03-05 06:38:36</t>
+          <t>2025-03-05 07:31:34</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -4275,7 +5856,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -4285,7 +5866,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>0x13</t>
+          <t>0x 9</t>
         </is>
       </c>
       <c r="F23" t="n">
@@ -4293,20 +5874,20 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>568631262647113771270412</t>
+          <t>568631262647113770680332</t>
         </is>
       </c>
       <c r="H23" t="n">
         <v>400</v>
       </c>
       <c r="I23" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>2025-03-05 07:38:36</t>
+          <t>2025-03-05 08:31:34</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -4316,7 +5897,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -4326,7 +5907,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>0x13</t>
+          <t>0x 9</t>
         </is>
       </c>
       <c r="F24" t="n">
@@ -4334,20 +5915,20 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>568631262647113771270412</t>
+          <t>568631262647113770680332</t>
         </is>
       </c>
       <c r="H24" t="n">
         <v>400</v>
       </c>
       <c r="I24" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>2025-03-05 08:38:36</t>
+          <t>2025-03-05 09:31:34</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -4357,7 +5938,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -4367,7 +5948,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>0x13</t>
+          <t>0x 9</t>
         </is>
       </c>
       <c r="F25" t="n">
@@ -4375,20 +5956,20 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>568631262647113771270412</t>
+          <t>568631262647113770680332</t>
         </is>
       </c>
       <c r="H25" t="n">
         <v>400</v>
       </c>
       <c r="I25" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>2025-03-05 09:38:36</t>
+          <t>2025-03-05 10:31:34</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -4398,7 +5979,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -4408,7 +5989,7 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>0x13</t>
+          <t>0x 9</t>
         </is>
       </c>
       <c r="F26" t="n">
@@ -4416,20 +5997,20 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>568631262647113771270412</t>
+          <t>568631262647113770680332</t>
         </is>
       </c>
       <c r="H26" t="n">
         <v>400</v>
       </c>
       <c r="I26" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>2025-03-05 10:38:36</t>
+          <t>2025-03-05 11:31:34</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -4439,7 +6020,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -4449,7 +6030,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>0x13</t>
+          <t>0x 9</t>
         </is>
       </c>
       <c r="F27" t="n">
@@ -4457,20 +6038,20 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>568631262647113771270412</t>
+          <t>568631262647113770680332</t>
         </is>
       </c>
       <c r="H27" t="n">
         <v>400</v>
       </c>
       <c r="I27" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>2025-03-05 11:38:36</t>
+          <t>2025-03-05 12:31:34</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -4480,7 +6061,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -4490,7 +6071,7 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>0x13</t>
+          <t>0x 9</t>
         </is>
       </c>
       <c r="F28" t="n">
@@ -4498,20 +6079,20 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>568631262647113771270412</t>
+          <t>568631262647113770680332</t>
         </is>
       </c>
       <c r="H28" t="n">
         <v>400</v>
       </c>
       <c r="I28" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>2025-03-05 12:38:36</t>
+          <t>2025-03-05 13:31:34</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -4521,7 +6102,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -4531,7 +6112,7 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>0x13</t>
+          <t>0x 9</t>
         </is>
       </c>
       <c r="F29" t="n">
@@ -4539,20 +6120,20 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>568631262647113771270412</t>
+          <t>568631262647113770680332</t>
         </is>
       </c>
       <c r="H29" t="n">
         <v>400</v>
       </c>
       <c r="I29" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>2025-03-05 13:38:36</t>
+          <t>2025-03-05 14:31:34</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -4562,7 +6143,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -4572,7 +6153,7 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>0x13</t>
+          <t>0x 9</t>
         </is>
       </c>
       <c r="F30" t="n">
@@ -4580,20 +6161,20 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>568631262647113771270412</t>
+          <t>568631262647113770680332</t>
         </is>
       </c>
       <c r="H30" t="n">
         <v>400</v>
       </c>
       <c r="I30" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>2025-03-05 14:38:36</t>
+          <t>2025-03-05 15:31:34</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -4603,7 +6184,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -4613,7 +6194,7 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>0x13</t>
+          <t>0x 9</t>
         </is>
       </c>
       <c r="F31" t="n">
@@ -4621,20 +6202,20 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>568631262647113771270412</t>
+          <t>568631262647113770680332</t>
         </is>
       </c>
       <c r="H31" t="n">
         <v>400</v>
       </c>
       <c r="I31" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>2025-03-05 15:38:36</t>
+          <t>2025-03-05 16:31:34</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -4644,7 +6225,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -4654,7 +6235,7 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>0x13</t>
+          <t>0x 9</t>
         </is>
       </c>
       <c r="F32" t="n">
@@ -4662,20 +6243,20 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>568631262647113771270412</t>
+          <t>568631262647113770680332</t>
         </is>
       </c>
       <c r="H32" t="n">
         <v>400</v>
       </c>
       <c r="I32" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>2025-03-05 16:38:36</t>
+          <t>2025-03-05 17:31:34</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -4685,7 +6266,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -4695,7 +6276,7 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>0x13</t>
+          <t>0x 9</t>
         </is>
       </c>
       <c r="F33" t="n">
@@ -4703,20 +6284,20 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>568631262647113771270412</t>
+          <t>568631262647113770680332</t>
         </is>
       </c>
       <c r="H33" t="n">
         <v>400</v>
       </c>
       <c r="I33" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>2025-03-05 17:38:36</t>
+          <t>2025-03-05 18:31:34</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -4726,7 +6307,7 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -4736,7 +6317,7 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>0x13</t>
+          <t>0x 9</t>
         </is>
       </c>
       <c r="F34" t="n">
@@ -4744,20 +6325,20 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>568631262647113771270412</t>
+          <t>568631262647113770680332</t>
         </is>
       </c>
       <c r="H34" t="n">
         <v>400</v>
       </c>
       <c r="I34" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>2025-03-05 18:38:36</t>
+          <t>2025-03-05 19:31:34</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -4767,7 +6348,7 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -4777,7 +6358,7 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>0x13</t>
+          <t>0x 9</t>
         </is>
       </c>
       <c r="F35" t="n">
@@ -4785,1430 +6366,13 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>568631262647113771270412</t>
+          <t>568631262647113770680332</t>
         </is>
       </c>
       <c r="H35" t="n">
         <v>400</v>
       </c>
       <c r="I35" t="n">
-        <v>13</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:I34"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>time</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>总长</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>ID</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>实际长度</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>和校验</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>总长_DEC</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>ID_DEC</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>实际长度_DEC</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>和校验_DEC</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>45720.43858796296</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0x01,0x90 </t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>0x01,0x90,</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>0x 9</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>400</v>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>568631262647113770680332</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>400</v>
-      </c>
-      <c r="I2" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>2025-03-04 11:31:34</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0x01,0x90 </t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>0x01,0x90,</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>0x 9</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>400</v>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>568631262647113770680332</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>400</v>
-      </c>
-      <c r="I3" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>2025-03-04 12:31:34</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0x01,0x90 </t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>0x01,0x90,</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>0x 9</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>400</v>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>568631262647113770680332</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>400</v>
-      </c>
-      <c r="I4" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>2025-03-04 13:31:34</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0x01,0x90 </t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>0x01,0x90,</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>0x 9</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>400</v>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>568631262647113770680332</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>400</v>
-      </c>
-      <c r="I5" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>2025-03-04 14:31:34</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0x01,0x90 </t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0x01,0x90,</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>0x 9</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>400</v>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>568631262647113770680332</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>400</v>
-      </c>
-      <c r="I6" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>2025-03-04 15:31:34</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0x01,0x90 </t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>0x01,0x90,</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>0x 9</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>400</v>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>568631262647113770680332</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>400</v>
-      </c>
-      <c r="I7" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>2025-03-04 16:31:34</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0x01,0x90 </t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>0x01,0x90,</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>0x 9</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>400</v>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>568631262647113770680332</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>400</v>
-      </c>
-      <c r="I8" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>2025-03-04 17:31:34</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0x01,0x90 </t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>0x01,0x90,</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>0x 9</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>400</v>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>568631262647113770680332</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>400</v>
-      </c>
-      <c r="I9" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>2025-03-04 18:31:34</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0x01,0x90 </t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>0x01,0x90,</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>0x 9</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>400</v>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>568631262647113770680332</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>400</v>
-      </c>
-      <c r="I10" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>2025-03-04 19:31:34</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0x01,0x90 </t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>0x01,0x90,</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>0x 9</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>400</v>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>568631262647113770680332</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>400</v>
-      </c>
-      <c r="I11" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>2025-03-04 20:31:34</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0x01,0x90 </t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>0x01,0x90,</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>0x 9</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>400</v>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>568631262647113770680332</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>400</v>
-      </c>
-      <c r="I12" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>2025-03-04 21:31:34</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0x01,0x90 </t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>0x01,0x90,</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>0x 9</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>400</v>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>568631262647113770680332</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>400</v>
-      </c>
-      <c r="I13" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>2025-03-04 22:31:34</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0x01,0x90 </t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>0x01,0x90,</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>0x 9</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>400</v>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>568631262647113770680332</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>400</v>
-      </c>
-      <c r="I14" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>2025-03-04 23:31:34</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0x01,0x90 </t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>0x01,0x90,</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>0x 9</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>400</v>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>568631262647113770680332</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>400</v>
-      </c>
-      <c r="I15" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>2025-03-05 00:31:34</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0x01,0x90 </t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>0x01,0x90,</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>0x 9</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
-        <v>400</v>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>568631262647113770680332</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
-        <v>400</v>
-      </c>
-      <c r="I16" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>2025-03-05 01:31:34</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0x01,0x90 </t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>0x01,0x90,</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>0x 9</t>
-        </is>
-      </c>
-      <c r="F17" t="n">
-        <v>400</v>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>568631262647113770680332</t>
-        </is>
-      </c>
-      <c r="H17" t="n">
-        <v>400</v>
-      </c>
-      <c r="I17" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>2025-03-05 02:31:34</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0x01,0x90 </t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>0x01,0x90,</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>0x 9</t>
-        </is>
-      </c>
-      <c r="F18" t="n">
-        <v>400</v>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>568631262647113770680332</t>
-        </is>
-      </c>
-      <c r="H18" t="n">
-        <v>400</v>
-      </c>
-      <c r="I18" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>2025-03-05 03:31:34</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0x01,0x90 </t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>0x01,0x90,</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>0x 9</t>
-        </is>
-      </c>
-      <c r="F19" t="n">
-        <v>400</v>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>568631262647113770680332</t>
-        </is>
-      </c>
-      <c r="H19" t="n">
-        <v>400</v>
-      </c>
-      <c r="I19" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>2025-03-05 04:31:34</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0x01,0x90 </t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>0x01,0x90,</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>0x 9</t>
-        </is>
-      </c>
-      <c r="F20" t="n">
-        <v>400</v>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>568631262647113770680332</t>
-        </is>
-      </c>
-      <c r="H20" t="n">
-        <v>400</v>
-      </c>
-      <c r="I20" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>2025-03-05 05:31:34</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0x01,0x90 </t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>0x01,0x90,</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>0x 9</t>
-        </is>
-      </c>
-      <c r="F21" t="n">
-        <v>400</v>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>568631262647113770680332</t>
-        </is>
-      </c>
-      <c r="H21" t="n">
-        <v>400</v>
-      </c>
-      <c r="I21" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>2025-03-05 06:31:34</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0x01,0x90 </t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>0x01,0x90,</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>0x 9</t>
-        </is>
-      </c>
-      <c r="F22" t="n">
-        <v>400</v>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>568631262647113770680332</t>
-        </is>
-      </c>
-      <c r="H22" t="n">
-        <v>400</v>
-      </c>
-      <c r="I22" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>2025-03-05 07:31:34</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0x01,0x90 </t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>0x01,0x90,</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>0x 9</t>
-        </is>
-      </c>
-      <c r="F23" t="n">
-        <v>400</v>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>568631262647113770680332</t>
-        </is>
-      </c>
-      <c r="H23" t="n">
-        <v>400</v>
-      </c>
-      <c r="I23" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>2025-03-05 08:31:34</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0x01,0x90 </t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>0x01,0x90,</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>0x 9</t>
-        </is>
-      </c>
-      <c r="F24" t="n">
-        <v>400</v>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>568631262647113770680332</t>
-        </is>
-      </c>
-      <c r="H24" t="n">
-        <v>400</v>
-      </c>
-      <c r="I24" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>2025-03-05 09:31:34</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0x01,0x90 </t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>0x01,0x90,</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>0x 9</t>
-        </is>
-      </c>
-      <c r="F25" t="n">
-        <v>400</v>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>568631262647113770680332</t>
-        </is>
-      </c>
-      <c r="H25" t="n">
-        <v>400</v>
-      </c>
-      <c r="I25" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>2025-03-05 10:31:34</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0x01,0x90 </t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>0x01,0x90,</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>0x 9</t>
-        </is>
-      </c>
-      <c r="F26" t="n">
-        <v>400</v>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>568631262647113770680332</t>
-        </is>
-      </c>
-      <c r="H26" t="n">
-        <v>400</v>
-      </c>
-      <c r="I26" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>2025-03-05 11:31:34</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0x01,0x90 </t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>0x01,0x90,</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>0x 9</t>
-        </is>
-      </c>
-      <c r="F27" t="n">
-        <v>400</v>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>568631262647113770680332</t>
-        </is>
-      </c>
-      <c r="H27" t="n">
-        <v>400</v>
-      </c>
-      <c r="I27" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>2025-03-05 12:31:34</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0x01,0x90 </t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>0x01,0x90,</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>0x 9</t>
-        </is>
-      </c>
-      <c r="F28" t="n">
-        <v>400</v>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>568631262647113770680332</t>
-        </is>
-      </c>
-      <c r="H28" t="n">
-        <v>400</v>
-      </c>
-      <c r="I28" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>2025-03-05 13:31:34</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0x01,0x90 </t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>0x01,0x90,</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>0x 9</t>
-        </is>
-      </c>
-      <c r="F29" t="n">
-        <v>400</v>
-      </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>568631262647113770680332</t>
-        </is>
-      </c>
-      <c r="H29" t="n">
-        <v>400</v>
-      </c>
-      <c r="I29" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>2025-03-05 14:31:34</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0x01,0x90 </t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>0x01,0x90,</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>0x 9</t>
-        </is>
-      </c>
-      <c r="F30" t="n">
-        <v>400</v>
-      </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>568631262647113770680332</t>
-        </is>
-      </c>
-      <c r="H30" t="n">
-        <v>400</v>
-      </c>
-      <c r="I30" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>2025-03-05 15:31:34</t>
-        </is>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0x01,0x90 </t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>0x01,0x90,</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>0x 9</t>
-        </is>
-      </c>
-      <c r="F31" t="n">
-        <v>400</v>
-      </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>568631262647113770680332</t>
-        </is>
-      </c>
-      <c r="H31" t="n">
-        <v>400</v>
-      </c>
-      <c r="I31" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>2025-03-05 16:31:34</t>
-        </is>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0x01,0x90 </t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>0x01,0x90,</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>0x 9</t>
-        </is>
-      </c>
-      <c r="F32" t="n">
-        <v>400</v>
-      </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>568631262647113770680332</t>
-        </is>
-      </c>
-      <c r="H32" t="n">
-        <v>400</v>
-      </c>
-      <c r="I32" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>2025-03-05 17:31:34</t>
-        </is>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0x01,0x90 </t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>0x01,0x90,</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>0x 9</t>
-        </is>
-      </c>
-      <c r="F33" t="n">
-        <v>400</v>
-      </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>568631262647113770680332</t>
-        </is>
-      </c>
-      <c r="H33" t="n">
-        <v>400</v>
-      </c>
-      <c r="I33" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>2025-03-05 18:31:34</t>
-        </is>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0x01,0x90 </t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>0x01,0x90,</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>0x 9</t>
-        </is>
-      </c>
-      <c r="F34" t="n">
-        <v>400</v>
-      </c>
-      <c r="G34" t="inlineStr">
-        <is>
-          <t>568631262647113770680332</t>
-        </is>
-      </c>
-      <c r="H34" t="n">
-        <v>400</v>
-      </c>
-      <c r="I34" t="n">
         <v>9</v>
       </c>
     </row>

--- a/SAG2_sensor_data_with_decimal_filtered_updated.xlsx
+++ b/SAG2_sensor_data_with_decimal_filtered_updated.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I35"/>
+  <dimension ref="A1:I36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1879,12 +1879,1634 @@
         <v>14</v>
       </c>
     </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>2025-03-05 20:18:04</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1b,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>0x14</t>
+        </is>
+      </c>
+      <c r="F36" t="n">
+        <v>400</v>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>568631262647113771335948</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>400</v>
+      </c>
+      <c r="I36" t="n">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I38"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>time</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>总长</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>实际长度</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>和校验</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>总长_DEC</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>ID_DEC</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>实际长度_DEC</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>和校验_DEC</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>45720.34188657408</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F2" t="n">
+        <v>400</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>400</v>
+      </c>
+      <c r="I2" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2025-03-04 09:12:19</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F3" t="n">
+        <v>400</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>400</v>
+      </c>
+      <c r="I3" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>2025-03-04 10:12:19</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F4" t="n">
+        <v>400</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>400</v>
+      </c>
+      <c r="I4" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>2025-03-04 11:12:19</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F5" t="n">
+        <v>400</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>400</v>
+      </c>
+      <c r="I5" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>2025-03-04 12:12:19</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F6" t="n">
+        <v>400</v>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>400</v>
+      </c>
+      <c r="I6" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>2025-03-04 13:12:19</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F7" t="n">
+        <v>400</v>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>400</v>
+      </c>
+      <c r="I7" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>2025-03-04 14:12:19</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F8" t="n">
+        <v>400</v>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>400</v>
+      </c>
+      <c r="I8" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>2025-03-04 15:12:19</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F9" t="n">
+        <v>400</v>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>400</v>
+      </c>
+      <c r="I9" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>2025-03-04 16:12:19</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F10" t="n">
+        <v>400</v>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>400</v>
+      </c>
+      <c r="I10" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>2025-03-04 17:12:19</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F11" t="n">
+        <v>400</v>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>400</v>
+      </c>
+      <c r="I11" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>2025-03-04 18:12:19</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F12" t="n">
+        <v>400</v>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>400</v>
+      </c>
+      <c r="I12" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>2025-03-04 19:12:19</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F13" t="n">
+        <v>400</v>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>400</v>
+      </c>
+      <c r="I13" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>2025-03-04 20:12:19</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F14" t="n">
+        <v>400</v>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>400</v>
+      </c>
+      <c r="I14" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>2025-03-04 21:12:19</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F15" t="n">
+        <v>400</v>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>400</v>
+      </c>
+      <c r="I15" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>2025-03-04 22:12:19</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F16" t="n">
+        <v>400</v>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>400</v>
+      </c>
+      <c r="I16" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>2025-03-04 23:12:19</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F17" t="n">
+        <v>400</v>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>400</v>
+      </c>
+      <c r="I17" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>2025-03-05 00:12:19</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F18" t="n">
+        <v>400</v>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>400</v>
+      </c>
+      <c r="I18" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>2025-03-05 01:12:19</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F19" t="n">
+        <v>400</v>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>400</v>
+      </c>
+      <c r="I19" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>2025-03-05 02:12:19</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F20" t="n">
+        <v>400</v>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>400</v>
+      </c>
+      <c r="I20" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>2025-03-05 03:12:19</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F21" t="n">
+        <v>400</v>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>400</v>
+      </c>
+      <c r="I21" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>2025-03-05 04:12:19</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F22" t="n">
+        <v>400</v>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>400</v>
+      </c>
+      <c r="I22" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>2025-03-05 05:12:19</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F23" t="n">
+        <v>400</v>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>400</v>
+      </c>
+      <c r="I23" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>2025-03-05 06:12:19</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F24" t="n">
+        <v>400</v>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>400</v>
+      </c>
+      <c r="I24" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>2025-03-05 07:12:19</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F25" t="n">
+        <v>400</v>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>400</v>
+      </c>
+      <c r="I25" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>2025-03-05 08:12:19</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F26" t="n">
+        <v>400</v>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>400</v>
+      </c>
+      <c r="I26" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>2025-03-05 09:12:19</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F27" t="n">
+        <v>400</v>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>400</v>
+      </c>
+      <c r="I27" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>2025-03-05 10:12:19</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F28" t="n">
+        <v>400</v>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>400</v>
+      </c>
+      <c r="I28" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>2025-03-05 11:12:19</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F29" t="n">
+        <v>400</v>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>400</v>
+      </c>
+      <c r="I29" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>2025-03-05 12:12:19</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F30" t="n">
+        <v>400</v>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>400</v>
+      </c>
+      <c r="I30" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>2025-03-05 13:12:19</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F31" t="n">
+        <v>400</v>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>400</v>
+      </c>
+      <c r="I31" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>2025-03-05 14:12:19</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F32" t="n">
+        <v>400</v>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>400</v>
+      </c>
+      <c r="I32" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>2025-03-05 15:12:19</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F33" t="n">
+        <v>400</v>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>400</v>
+      </c>
+      <c r="I33" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>2025-03-05 16:12:19</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F34" t="n">
+        <v>400</v>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>400</v>
+      </c>
+      <c r="I34" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>2025-03-05 17:12:19</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F35" t="n">
+        <v>400</v>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>400</v>
+      </c>
+      <c r="I35" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>2025-03-05 18:12:19</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F36" t="n">
+        <v>400</v>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>400</v>
+      </c>
+      <c r="I36" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>2025-03-05 19:12:19</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F37" t="n">
+        <v>400</v>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>400</v>
+      </c>
+      <c r="I37" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>2025-03-05 20:12:19</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F38" t="n">
+        <v>400</v>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>400</v>
+      </c>
+      <c r="I38" t="n">
+        <v>25</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1947,7 +3569,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45720.34188657408</v>
+        <v>45720.40180555556</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -1956,7 +3578,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -1966,7 +3588,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>0x19</t>
+          <t>0x13</t>
         </is>
       </c>
       <c r="F2" t="n">
@@ -1974,20 +3596,20 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>568631262647113771663628</t>
+          <t>568631262647113771270412</t>
         </is>
       </c>
       <c r="H2" t="n">
         <v>400</v>
       </c>
       <c r="I2" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2025-03-04 09:12:19</t>
+          <t>2025-03-04 10:38:36</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -1997,7 +3619,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -2007,7 +3629,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>0x19</t>
+          <t>0x13</t>
         </is>
       </c>
       <c r="F3" t="n">
@@ -2015,20 +3637,20 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>568631262647113771663628</t>
+          <t>568631262647113771270412</t>
         </is>
       </c>
       <c r="H3" t="n">
         <v>400</v>
       </c>
       <c r="I3" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2025-03-04 10:12:19</t>
+          <t>2025-03-04 11:38:36</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -2038,7 +3660,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -2048,7 +3670,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>0x19</t>
+          <t>0x13</t>
         </is>
       </c>
       <c r="F4" t="n">
@@ -2056,20 +3678,20 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>568631262647113771663628</t>
+          <t>568631262647113771270412</t>
         </is>
       </c>
       <c r="H4" t="n">
         <v>400</v>
       </c>
       <c r="I4" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2025-03-04 11:12:19</t>
+          <t>2025-03-04 12:38:36</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -2079,7 +3701,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -2089,7 +3711,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>0x19</t>
+          <t>0x13</t>
         </is>
       </c>
       <c r="F5" t="n">
@@ -2097,20 +3719,20 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>568631262647113771663628</t>
+          <t>568631262647113771270412</t>
         </is>
       </c>
       <c r="H5" t="n">
         <v>400</v>
       </c>
       <c r="I5" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2025-03-04 12:12:19</t>
+          <t>2025-03-04 13:38:36</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -2120,7 +3742,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -2130,7 +3752,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>0x19</t>
+          <t>0x13</t>
         </is>
       </c>
       <c r="F6" t="n">
@@ -2138,20 +3760,20 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>568631262647113771663628</t>
+          <t>568631262647113771270412</t>
         </is>
       </c>
       <c r="H6" t="n">
         <v>400</v>
       </c>
       <c r="I6" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2025-03-04 13:12:19</t>
+          <t>2025-03-04 14:38:36</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -2161,7 +3783,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -2171,7 +3793,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>0x19</t>
+          <t>0x13</t>
         </is>
       </c>
       <c r="F7" t="n">
@@ -2179,20 +3801,20 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>568631262647113771663628</t>
+          <t>568631262647113771270412</t>
         </is>
       </c>
       <c r="H7" t="n">
         <v>400</v>
       </c>
       <c r="I7" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2025-03-04 14:12:19</t>
+          <t>2025-03-04 15:38:36</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -2202,7 +3824,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -2212,7 +3834,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>0x19</t>
+          <t>0x13</t>
         </is>
       </c>
       <c r="F8" t="n">
@@ -2220,20 +3842,20 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>568631262647113771663628</t>
+          <t>568631262647113771270412</t>
         </is>
       </c>
       <c r="H8" t="n">
         <v>400</v>
       </c>
       <c r="I8" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2025-03-04 15:12:19</t>
+          <t>2025-03-04 16:38:36</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -2243,7 +3865,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -2253,7 +3875,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>0x19</t>
+          <t>0x13</t>
         </is>
       </c>
       <c r="F9" t="n">
@@ -2261,20 +3883,20 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>568631262647113771663628</t>
+          <t>568631262647113771270412</t>
         </is>
       </c>
       <c r="H9" t="n">
         <v>400</v>
       </c>
       <c r="I9" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2025-03-04 16:12:19</t>
+          <t>2025-03-04 17:38:36</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -2284,7 +3906,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -2294,7 +3916,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>0x19</t>
+          <t>0x13</t>
         </is>
       </c>
       <c r="F10" t="n">
@@ -2302,20 +3924,20 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>568631262647113771663628</t>
+          <t>568631262647113771270412</t>
         </is>
       </c>
       <c r="H10" t="n">
         <v>400</v>
       </c>
       <c r="I10" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2025-03-04 17:12:19</t>
+          <t>2025-03-04 18:38:36</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -2325,7 +3947,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -2335,7 +3957,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>0x19</t>
+          <t>0x13</t>
         </is>
       </c>
       <c r="F11" t="n">
@@ -2343,20 +3965,20 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>568631262647113771663628</t>
+          <t>568631262647113771270412</t>
         </is>
       </c>
       <c r="H11" t="n">
         <v>400</v>
       </c>
       <c r="I11" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2025-03-04 18:12:19</t>
+          <t>2025-03-04 19:38:36</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2366,7 +3988,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -2376,7 +3998,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>0x19</t>
+          <t>0x13</t>
         </is>
       </c>
       <c r="F12" t="n">
@@ -2384,20 +4006,20 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>568631262647113771663628</t>
+          <t>568631262647113771270412</t>
         </is>
       </c>
       <c r="H12" t="n">
         <v>400</v>
       </c>
       <c r="I12" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2025-03-04 19:12:19</t>
+          <t>2025-03-04 20:38:36</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2407,7 +4029,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -2417,7 +4039,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>0x19</t>
+          <t>0x13</t>
         </is>
       </c>
       <c r="F13" t="n">
@@ -2425,20 +4047,20 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>568631262647113771663628</t>
+          <t>568631262647113771270412</t>
         </is>
       </c>
       <c r="H13" t="n">
         <v>400</v>
       </c>
       <c r="I13" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2025-03-04 20:12:19</t>
+          <t>2025-03-04 21:38:36</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -2448,7 +4070,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -2458,7 +4080,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>0x19</t>
+          <t>0x13</t>
         </is>
       </c>
       <c r="F14" t="n">
@@ -2466,20 +4088,20 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>568631262647113771663628</t>
+          <t>568631262647113771270412</t>
         </is>
       </c>
       <c r="H14" t="n">
         <v>400</v>
       </c>
       <c r="I14" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2025-03-04 21:12:19</t>
+          <t>2025-03-04 22:38:36</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -2489,7 +4111,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -2499,7 +4121,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>0x19</t>
+          <t>0x13</t>
         </is>
       </c>
       <c r="F15" t="n">
@@ -2507,20 +4129,20 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>568631262647113771663628</t>
+          <t>568631262647113771270412</t>
         </is>
       </c>
       <c r="H15" t="n">
         <v>400</v>
       </c>
       <c r="I15" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2025-03-04 22:12:19</t>
+          <t>2025-03-04 23:38:36</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -2530,7 +4152,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -2540,7 +4162,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>0x19</t>
+          <t>0x13</t>
         </is>
       </c>
       <c r="F16" t="n">
@@ -2548,20 +4170,20 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>568631262647113771663628</t>
+          <t>568631262647113771270412</t>
         </is>
       </c>
       <c r="H16" t="n">
         <v>400</v>
       </c>
       <c r="I16" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2025-03-04 23:12:19</t>
+          <t>2025-03-05 00:38:36</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -2571,7 +4193,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -2581,7 +4203,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>0x19</t>
+          <t>0x13</t>
         </is>
       </c>
       <c r="F17" t="n">
@@ -2589,20 +4211,20 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>568631262647113771663628</t>
+          <t>568631262647113771270412</t>
         </is>
       </c>
       <c r="H17" t="n">
         <v>400</v>
       </c>
       <c r="I17" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2025-03-05 00:12:19</t>
+          <t>2025-03-05 01:38:36</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -2612,7 +4234,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -2622,7 +4244,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>0x19</t>
+          <t>0x13</t>
         </is>
       </c>
       <c r="F18" t="n">
@@ -2630,20 +4252,20 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>568631262647113771663628</t>
+          <t>568631262647113771270412</t>
         </is>
       </c>
       <c r="H18" t="n">
         <v>400</v>
       </c>
       <c r="I18" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>2025-03-05 01:12:19</t>
+          <t>2025-03-05 02:38:36</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -2653,7 +4275,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -2663,7 +4285,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>0x19</t>
+          <t>0x13</t>
         </is>
       </c>
       <c r="F19" t="n">
@@ -2671,20 +4293,20 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>568631262647113771663628</t>
+          <t>568631262647113771270412</t>
         </is>
       </c>
       <c r="H19" t="n">
         <v>400</v>
       </c>
       <c r="I19" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2025-03-05 02:12:19</t>
+          <t>2025-03-05 03:38:36</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -2694,7 +4316,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -2704,7 +4326,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>0x19</t>
+          <t>0x13</t>
         </is>
       </c>
       <c r="F20" t="n">
@@ -2712,20 +4334,20 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>568631262647113771663628</t>
+          <t>568631262647113771270412</t>
         </is>
       </c>
       <c r="H20" t="n">
         <v>400</v>
       </c>
       <c r="I20" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>2025-03-05 03:12:19</t>
+          <t>2025-03-05 04:38:36</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -2735,7 +4357,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -2745,7 +4367,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>0x19</t>
+          <t>0x13</t>
         </is>
       </c>
       <c r="F21" t="n">
@@ -2753,20 +4375,20 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>568631262647113771663628</t>
+          <t>568631262647113771270412</t>
         </is>
       </c>
       <c r="H21" t="n">
         <v>400</v>
       </c>
       <c r="I21" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>2025-03-05 04:12:19</t>
+          <t>2025-03-05 05:38:36</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -2776,7 +4398,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -2786,7 +4408,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>0x19</t>
+          <t>0x13</t>
         </is>
       </c>
       <c r="F22" t="n">
@@ -2794,20 +4416,20 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>568631262647113771663628</t>
+          <t>568631262647113771270412</t>
         </is>
       </c>
       <c r="H22" t="n">
         <v>400</v>
       </c>
       <c r="I22" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>2025-03-05 05:12:19</t>
+          <t>2025-03-05 06:38:36</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -2817,7 +4439,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -2827,7 +4449,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>0x19</t>
+          <t>0x13</t>
         </is>
       </c>
       <c r="F23" t="n">
@@ -2835,20 +4457,20 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>568631262647113771663628</t>
+          <t>568631262647113771270412</t>
         </is>
       </c>
       <c r="H23" t="n">
         <v>400</v>
       </c>
       <c r="I23" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>2025-03-05 06:12:19</t>
+          <t>2025-03-05 07:38:36</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -2858,7 +4480,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -2868,7 +4490,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>0x19</t>
+          <t>0x13</t>
         </is>
       </c>
       <c r="F24" t="n">
@@ -2876,20 +4498,20 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>568631262647113771663628</t>
+          <t>568631262647113771270412</t>
         </is>
       </c>
       <c r="H24" t="n">
         <v>400</v>
       </c>
       <c r="I24" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>2025-03-05 07:12:19</t>
+          <t>2025-03-05 08:38:36</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -2899,7 +4521,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -2909,7 +4531,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>0x19</t>
+          <t>0x13</t>
         </is>
       </c>
       <c r="F25" t="n">
@@ -2917,20 +4539,20 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>568631262647113771663628</t>
+          <t>568631262647113771270412</t>
         </is>
       </c>
       <c r="H25" t="n">
         <v>400</v>
       </c>
       <c r="I25" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>2025-03-05 08:12:19</t>
+          <t>2025-03-05 09:38:36</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -2940,7 +4562,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -2950,7 +4572,7 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>0x19</t>
+          <t>0x13</t>
         </is>
       </c>
       <c r="F26" t="n">
@@ -2958,20 +4580,20 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>568631262647113771663628</t>
+          <t>568631262647113771270412</t>
         </is>
       </c>
       <c r="H26" t="n">
         <v>400</v>
       </c>
       <c r="I26" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>2025-03-05 09:12:19</t>
+          <t>2025-03-05 10:38:36</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -2981,7 +4603,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -2991,7 +4613,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>0x19</t>
+          <t>0x13</t>
         </is>
       </c>
       <c r="F27" t="n">
@@ -2999,20 +4621,20 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>568631262647113771663628</t>
+          <t>568631262647113771270412</t>
         </is>
       </c>
       <c r="H27" t="n">
         <v>400</v>
       </c>
       <c r="I27" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>2025-03-05 10:12:19</t>
+          <t>2025-03-05 11:38:36</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -3022,7 +4644,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -3032,7 +4654,7 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>0x19</t>
+          <t>0x13</t>
         </is>
       </c>
       <c r="F28" t="n">
@@ -3040,20 +4662,20 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>568631262647113771663628</t>
+          <t>568631262647113771270412</t>
         </is>
       </c>
       <c r="H28" t="n">
         <v>400</v>
       </c>
       <c r="I28" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>2025-03-05 11:12:19</t>
+          <t>2025-03-05 12:38:36</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -3063,7 +4685,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -3073,7 +4695,7 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>0x19</t>
+          <t>0x13</t>
         </is>
       </c>
       <c r="F29" t="n">
@@ -3081,20 +4703,20 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>568631262647113771663628</t>
+          <t>568631262647113771270412</t>
         </is>
       </c>
       <c r="H29" t="n">
         <v>400</v>
       </c>
       <c r="I29" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>2025-03-05 12:12:19</t>
+          <t>2025-03-05 13:38:36</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -3104,7 +4726,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -3114,7 +4736,7 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>0x19</t>
+          <t>0x13</t>
         </is>
       </c>
       <c r="F30" t="n">
@@ -3122,20 +4744,20 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>568631262647113771663628</t>
+          <t>568631262647113771270412</t>
         </is>
       </c>
       <c r="H30" t="n">
         <v>400</v>
       </c>
       <c r="I30" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>2025-03-05 13:12:19</t>
+          <t>2025-03-05 14:38:36</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -3145,7 +4767,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -3155,7 +4777,7 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>0x19</t>
+          <t>0x13</t>
         </is>
       </c>
       <c r="F31" t="n">
@@ -3163,20 +4785,20 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>568631262647113771663628</t>
+          <t>568631262647113771270412</t>
         </is>
       </c>
       <c r="H31" t="n">
         <v>400</v>
       </c>
       <c r="I31" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>2025-03-05 14:12:19</t>
+          <t>2025-03-05 15:38:36</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -3186,7 +4808,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -3196,7 +4818,7 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>0x19</t>
+          <t>0x13</t>
         </is>
       </c>
       <c r="F32" t="n">
@@ -3204,20 +4826,20 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>568631262647113771663628</t>
+          <t>568631262647113771270412</t>
         </is>
       </c>
       <c r="H32" t="n">
         <v>400</v>
       </c>
       <c r="I32" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>2025-03-05 15:12:19</t>
+          <t>2025-03-05 16:38:36</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -3227,7 +4849,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -3237,7 +4859,7 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>0x19</t>
+          <t>0x13</t>
         </is>
       </c>
       <c r="F33" t="n">
@@ -3245,20 +4867,20 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>568631262647113771663628</t>
+          <t>568631262647113771270412</t>
         </is>
       </c>
       <c r="H33" t="n">
         <v>400</v>
       </c>
       <c r="I33" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>2025-03-05 16:12:19</t>
+          <t>2025-03-05 17:38:36</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -3268,7 +4890,7 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -3278,7 +4900,7 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>0x19</t>
+          <t>0x13</t>
         </is>
       </c>
       <c r="F34" t="n">
@@ -3286,20 +4908,20 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>568631262647113771663628</t>
+          <t>568631262647113771270412</t>
         </is>
       </c>
       <c r="H34" t="n">
         <v>400</v>
       </c>
       <c r="I34" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>2025-03-05 17:12:19</t>
+          <t>2025-03-05 18:38:36</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -3309,7 +4931,7 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -3319,7 +4941,7 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>0x19</t>
+          <t>0x13</t>
         </is>
       </c>
       <c r="F35" t="n">
@@ -3327,20 +4949,20 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>568631262647113771663628</t>
+          <t>568631262647113771270412</t>
         </is>
       </c>
       <c r="H35" t="n">
         <v>400</v>
       </c>
       <c r="I35" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>2025-03-05 18:12:19</t>
+          <t>2025-03-05 19:38:36</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -3350,7 +4972,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -3360,7 +4982,7 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>0x19</t>
+          <t>0x13</t>
         </is>
       </c>
       <c r="F36" t="n">
@@ -3368,20 +4990,20 @@
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>568631262647113771663628</t>
+          <t>568631262647113771270412</t>
         </is>
       </c>
       <c r="H36" t="n">
         <v>400</v>
       </c>
       <c r="I36" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>2025-03-05 19:12:19</t>
+          <t>2025-03-05 20:38:36</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -3391,7 +5013,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -3401,7 +5023,7 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>0x19</t>
+          <t>0x13</t>
         </is>
       </c>
       <c r="F37" t="n">
@@ -3409,14 +5031,14 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>568631262647113771663628</t>
+          <t>568631262647113771270412</t>
         </is>
       </c>
       <c r="H37" t="n">
         <v>400</v>
       </c>
       <c r="I37" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -3424,7 +5046,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3487,7 +5109,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45720.40180555556</v>
+        <v>45720.43858796296</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -3496,7 +5118,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -3506,7 +5128,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>0x13</t>
+          <t>0x 9</t>
         </is>
       </c>
       <c r="F2" t="n">
@@ -3514,20 +5136,20 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>568631262647113771270412</t>
+          <t>568631262647113770680332</t>
         </is>
       </c>
       <c r="H2" t="n">
         <v>400</v>
       </c>
       <c r="I2" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2025-03-04 10:38:36</t>
+          <t>2025-03-04 11:31:34</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -3537,7 +5159,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -3547,7 +5169,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>0x13</t>
+          <t>0x 9</t>
         </is>
       </c>
       <c r="F3" t="n">
@@ -3555,20 +5177,20 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>568631262647113771270412</t>
+          <t>568631262647113770680332</t>
         </is>
       </c>
       <c r="H3" t="n">
         <v>400</v>
       </c>
       <c r="I3" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2025-03-04 11:38:36</t>
+          <t>2025-03-04 12:31:34</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -3578,7 +5200,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -3588,7 +5210,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>0x13</t>
+          <t>0x 9</t>
         </is>
       </c>
       <c r="F4" t="n">
@@ -3596,20 +5218,20 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>568631262647113771270412</t>
+          <t>568631262647113770680332</t>
         </is>
       </c>
       <c r="H4" t="n">
         <v>400</v>
       </c>
       <c r="I4" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2025-03-04 12:38:36</t>
+          <t>2025-03-04 13:31:34</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -3619,7 +5241,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -3629,7 +5251,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>0x13</t>
+          <t>0x 9</t>
         </is>
       </c>
       <c r="F5" t="n">
@@ -3637,20 +5259,20 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>568631262647113771270412</t>
+          <t>568631262647113770680332</t>
         </is>
       </c>
       <c r="H5" t="n">
         <v>400</v>
       </c>
       <c r="I5" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2025-03-04 13:38:36</t>
+          <t>2025-03-04 14:31:34</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -3660,7 +5282,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -3670,7 +5292,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>0x13</t>
+          <t>0x 9</t>
         </is>
       </c>
       <c r="F6" t="n">
@@ -3678,20 +5300,20 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>568631262647113771270412</t>
+          <t>568631262647113770680332</t>
         </is>
       </c>
       <c r="H6" t="n">
         <v>400</v>
       </c>
       <c r="I6" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2025-03-04 14:38:36</t>
+          <t>2025-03-04 15:31:34</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -3701,7 +5323,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -3711,7 +5333,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>0x13</t>
+          <t>0x 9</t>
         </is>
       </c>
       <c r="F7" t="n">
@@ -3719,20 +5341,20 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>568631262647113771270412</t>
+          <t>568631262647113770680332</t>
         </is>
       </c>
       <c r="H7" t="n">
         <v>400</v>
       </c>
       <c r="I7" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2025-03-04 15:38:36</t>
+          <t>2025-03-04 16:31:34</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -3742,7 +5364,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -3752,7 +5374,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>0x13</t>
+          <t>0x 9</t>
         </is>
       </c>
       <c r="F8" t="n">
@@ -3760,20 +5382,20 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>568631262647113771270412</t>
+          <t>568631262647113770680332</t>
         </is>
       </c>
       <c r="H8" t="n">
         <v>400</v>
       </c>
       <c r="I8" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2025-03-04 16:38:36</t>
+          <t>2025-03-04 17:31:34</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -3783,7 +5405,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -3793,7 +5415,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>0x13</t>
+          <t>0x 9</t>
         </is>
       </c>
       <c r="F9" t="n">
@@ -3801,20 +5423,20 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>568631262647113771270412</t>
+          <t>568631262647113770680332</t>
         </is>
       </c>
       <c r="H9" t="n">
         <v>400</v>
       </c>
       <c r="I9" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2025-03-04 17:38:36</t>
+          <t>2025-03-04 18:31:34</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -3824,7 +5446,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -3834,7 +5456,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>0x13</t>
+          <t>0x 9</t>
         </is>
       </c>
       <c r="F10" t="n">
@@ -3842,20 +5464,20 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>568631262647113771270412</t>
+          <t>568631262647113770680332</t>
         </is>
       </c>
       <c r="H10" t="n">
         <v>400</v>
       </c>
       <c r="I10" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2025-03-04 18:38:36</t>
+          <t>2025-03-04 19:31:34</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -3865,7 +5487,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -3875,7 +5497,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>0x13</t>
+          <t>0x 9</t>
         </is>
       </c>
       <c r="F11" t="n">
@@ -3883,20 +5505,20 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>568631262647113771270412</t>
+          <t>568631262647113770680332</t>
         </is>
       </c>
       <c r="H11" t="n">
         <v>400</v>
       </c>
       <c r="I11" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2025-03-04 19:38:36</t>
+          <t>2025-03-04 20:31:34</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -3906,7 +5528,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -3916,7 +5538,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>0x13</t>
+          <t>0x 9</t>
         </is>
       </c>
       <c r="F12" t="n">
@@ -3924,20 +5546,20 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>568631262647113771270412</t>
+          <t>568631262647113770680332</t>
         </is>
       </c>
       <c r="H12" t="n">
         <v>400</v>
       </c>
       <c r="I12" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2025-03-04 20:38:36</t>
+          <t>2025-03-04 21:31:34</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -3947,7 +5569,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -3957,7 +5579,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>0x13</t>
+          <t>0x 9</t>
         </is>
       </c>
       <c r="F13" t="n">
@@ -3965,20 +5587,20 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>568631262647113771270412</t>
+          <t>568631262647113770680332</t>
         </is>
       </c>
       <c r="H13" t="n">
         <v>400</v>
       </c>
       <c r="I13" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2025-03-04 21:38:36</t>
+          <t>2025-03-04 22:31:34</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -3988,7 +5610,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -3998,7 +5620,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>0x13</t>
+          <t>0x 9</t>
         </is>
       </c>
       <c r="F14" t="n">
@@ -4006,20 +5628,20 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>568631262647113771270412</t>
+          <t>568631262647113770680332</t>
         </is>
       </c>
       <c r="H14" t="n">
         <v>400</v>
       </c>
       <c r="I14" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2025-03-04 22:38:36</t>
+          <t>2025-03-04 23:31:34</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -4029,7 +5651,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -4039,7 +5661,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>0x13</t>
+          <t>0x 9</t>
         </is>
       </c>
       <c r="F15" t="n">
@@ -4047,20 +5669,20 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>568631262647113771270412</t>
+          <t>568631262647113770680332</t>
         </is>
       </c>
       <c r="H15" t="n">
         <v>400</v>
       </c>
       <c r="I15" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2025-03-04 23:38:36</t>
+          <t>2025-03-05 00:31:34</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -4070,7 +5692,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -4080,7 +5702,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>0x13</t>
+          <t>0x 9</t>
         </is>
       </c>
       <c r="F16" t="n">
@@ -4088,20 +5710,20 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>568631262647113771270412</t>
+          <t>568631262647113770680332</t>
         </is>
       </c>
       <c r="H16" t="n">
         <v>400</v>
       </c>
       <c r="I16" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2025-03-05 00:38:36</t>
+          <t>2025-03-05 01:31:34</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -4111,7 +5733,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -4121,7 +5743,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>0x13</t>
+          <t>0x 9</t>
         </is>
       </c>
       <c r="F17" t="n">
@@ -4129,20 +5751,20 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>568631262647113771270412</t>
+          <t>568631262647113770680332</t>
         </is>
       </c>
       <c r="H17" t="n">
         <v>400</v>
       </c>
       <c r="I17" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2025-03-05 01:38:36</t>
+          <t>2025-03-05 02:31:34</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -4152,7 +5774,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -4162,7 +5784,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>0x13</t>
+          <t>0x 9</t>
         </is>
       </c>
       <c r="F18" t="n">
@@ -4170,20 +5792,20 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>568631262647113771270412</t>
+          <t>568631262647113770680332</t>
         </is>
       </c>
       <c r="H18" t="n">
         <v>400</v>
       </c>
       <c r="I18" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>2025-03-05 02:38:36</t>
+          <t>2025-03-05 03:31:34</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -4193,7 +5815,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -4203,7 +5825,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>0x13</t>
+          <t>0x 9</t>
         </is>
       </c>
       <c r="F19" t="n">
@@ -4211,20 +5833,20 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>568631262647113771270412</t>
+          <t>568631262647113770680332</t>
         </is>
       </c>
       <c r="H19" t="n">
         <v>400</v>
       </c>
       <c r="I19" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2025-03-05 03:38:36</t>
+          <t>2025-03-05 04:31:34</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -4234,7 +5856,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -4244,7 +5866,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>0x13</t>
+          <t>0x 9</t>
         </is>
       </c>
       <c r="F20" t="n">
@@ -4252,20 +5874,20 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>568631262647113771270412</t>
+          <t>568631262647113770680332</t>
         </is>
       </c>
       <c r="H20" t="n">
         <v>400</v>
       </c>
       <c r="I20" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>2025-03-05 04:38:36</t>
+          <t>2025-03-05 05:31:34</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -4275,7 +5897,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -4285,7 +5907,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>0x13</t>
+          <t>0x 9</t>
         </is>
       </c>
       <c r="F21" t="n">
@@ -4293,20 +5915,20 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>568631262647113771270412</t>
+          <t>568631262647113770680332</t>
         </is>
       </c>
       <c r="H21" t="n">
         <v>400</v>
       </c>
       <c r="I21" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>2025-03-05 05:38:36</t>
+          <t>2025-03-05 06:31:34</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -4316,7 +5938,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -4326,7 +5948,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>0x13</t>
+          <t>0x 9</t>
         </is>
       </c>
       <c r="F22" t="n">
@@ -4334,20 +5956,20 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>568631262647113771270412</t>
+          <t>568631262647113770680332</t>
         </is>
       </c>
       <c r="H22" t="n">
         <v>400</v>
       </c>
       <c r="I22" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>2025-03-05 06:38:36</t>
+          <t>2025-03-05 07:31:34</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -4357,7 +5979,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -4367,7 +5989,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>0x13</t>
+          <t>0x 9</t>
         </is>
       </c>
       <c r="F23" t="n">
@@ -4375,20 +5997,20 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>568631262647113771270412</t>
+          <t>568631262647113770680332</t>
         </is>
       </c>
       <c r="H23" t="n">
         <v>400</v>
       </c>
       <c r="I23" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>2025-03-05 07:38:36</t>
+          <t>2025-03-05 08:31:34</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -4398,7 +6020,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -4408,7 +6030,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>0x13</t>
+          <t>0x 9</t>
         </is>
       </c>
       <c r="F24" t="n">
@@ -4416,20 +6038,20 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>568631262647113771270412</t>
+          <t>568631262647113770680332</t>
         </is>
       </c>
       <c r="H24" t="n">
         <v>400</v>
       </c>
       <c r="I24" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>2025-03-05 08:38:36</t>
+          <t>2025-03-05 09:31:34</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -4439,7 +6061,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -4449,7 +6071,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>0x13</t>
+          <t>0x 9</t>
         </is>
       </c>
       <c r="F25" t="n">
@@ -4457,20 +6079,20 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>568631262647113771270412</t>
+          <t>568631262647113770680332</t>
         </is>
       </c>
       <c r="H25" t="n">
         <v>400</v>
       </c>
       <c r="I25" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>2025-03-05 09:38:36</t>
+          <t>2025-03-05 10:31:34</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -4480,7 +6102,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -4490,7 +6112,7 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>0x13</t>
+          <t>0x 9</t>
         </is>
       </c>
       <c r="F26" t="n">
@@ -4498,20 +6120,20 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>568631262647113771270412</t>
+          <t>568631262647113770680332</t>
         </is>
       </c>
       <c r="H26" t="n">
         <v>400</v>
       </c>
       <c r="I26" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>2025-03-05 10:38:36</t>
+          <t>2025-03-05 11:31:34</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -4521,7 +6143,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -4531,7 +6153,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>0x13</t>
+          <t>0x 9</t>
         </is>
       </c>
       <c r="F27" t="n">
@@ -4539,20 +6161,20 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>568631262647113771270412</t>
+          <t>568631262647113770680332</t>
         </is>
       </c>
       <c r="H27" t="n">
         <v>400</v>
       </c>
       <c r="I27" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>2025-03-05 11:38:36</t>
+          <t>2025-03-05 12:31:34</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -4562,7 +6184,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -4572,7 +6194,7 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>0x13</t>
+          <t>0x 9</t>
         </is>
       </c>
       <c r="F28" t="n">
@@ -4580,20 +6202,20 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>568631262647113771270412</t>
+          <t>568631262647113770680332</t>
         </is>
       </c>
       <c r="H28" t="n">
         <v>400</v>
       </c>
       <c r="I28" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>2025-03-05 12:38:36</t>
+          <t>2025-03-05 13:31:34</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -4603,7 +6225,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -4613,7 +6235,7 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>0x13</t>
+          <t>0x 9</t>
         </is>
       </c>
       <c r="F29" t="n">
@@ -4621,20 +6243,20 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>568631262647113771270412</t>
+          <t>568631262647113770680332</t>
         </is>
       </c>
       <c r="H29" t="n">
         <v>400</v>
       </c>
       <c r="I29" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>2025-03-05 13:38:36</t>
+          <t>2025-03-05 14:31:34</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -4644,7 +6266,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -4654,7 +6276,7 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>0x13</t>
+          <t>0x 9</t>
         </is>
       </c>
       <c r="F30" t="n">
@@ -4662,20 +6284,20 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>568631262647113771270412</t>
+          <t>568631262647113770680332</t>
         </is>
       </c>
       <c r="H30" t="n">
         <v>400</v>
       </c>
       <c r="I30" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>2025-03-05 14:38:36</t>
+          <t>2025-03-05 15:31:34</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -4685,7 +6307,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -4695,7 +6317,7 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>0x13</t>
+          <t>0x 9</t>
         </is>
       </c>
       <c r="F31" t="n">
@@ -4703,20 +6325,20 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>568631262647113771270412</t>
+          <t>568631262647113770680332</t>
         </is>
       </c>
       <c r="H31" t="n">
         <v>400</v>
       </c>
       <c r="I31" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>2025-03-05 15:38:36</t>
+          <t>2025-03-05 16:31:34</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -4726,7 +6348,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -4736,7 +6358,7 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>0x13</t>
+          <t>0x 9</t>
         </is>
       </c>
       <c r="F32" t="n">
@@ -4744,20 +6366,20 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>568631262647113771270412</t>
+          <t>568631262647113770680332</t>
         </is>
       </c>
       <c r="H32" t="n">
         <v>400</v>
       </c>
       <c r="I32" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>2025-03-05 16:38:36</t>
+          <t>2025-03-05 17:31:34</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -4767,7 +6389,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -4777,7 +6399,7 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>0x13</t>
+          <t>0x 9</t>
         </is>
       </c>
       <c r="F33" t="n">
@@ -4785,20 +6407,20 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>568631262647113771270412</t>
+          <t>568631262647113770680332</t>
         </is>
       </c>
       <c r="H33" t="n">
         <v>400</v>
       </c>
       <c r="I33" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>2025-03-05 17:38:36</t>
+          <t>2025-03-05 18:31:34</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -4808,7 +6430,7 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -4818,7 +6440,7 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>0x13</t>
+          <t>0x 9</t>
         </is>
       </c>
       <c r="F34" t="n">
@@ -4826,20 +6448,20 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>568631262647113771270412</t>
+          <t>568631262647113770680332</t>
         </is>
       </c>
       <c r="H34" t="n">
         <v>400</v>
       </c>
       <c r="I34" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>2025-03-05 18:38:36</t>
+          <t>2025-03-05 19:31:34</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -4849,7 +6471,7 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -4859,7 +6481,7 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>0x13</t>
+          <t>0x 9</t>
         </is>
       </c>
       <c r="F35" t="n">
@@ -4867,20 +6489,20 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>568631262647113771270412</t>
+          <t>568631262647113770680332</t>
         </is>
       </c>
       <c r="H35" t="n">
         <v>400</v>
       </c>
       <c r="I35" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>2025-03-05 19:38:36</t>
+          <t>2025-03-05 20:31:34</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -4890,7 +6512,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -4900,7 +6522,7 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>0x13</t>
+          <t>0x 9</t>
         </is>
       </c>
       <c r="F36" t="n">
@@ -4908,1471 +6530,13 @@
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>568631262647113771270412</t>
+          <t>568631262647113770680332</t>
         </is>
       </c>
       <c r="H36" t="n">
         <v>400</v>
       </c>
       <c r="I36" t="n">
-        <v>13</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:I35"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>time</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>总长</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>ID</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>实际长度</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>和校验</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>总长_DEC</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>ID_DEC</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>实际长度_DEC</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>和校验_DEC</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>45720.43858796296</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0x01,0x90 </t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>0x01,0x90,</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>0x 9</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>400</v>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>568631262647113770680332</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>400</v>
-      </c>
-      <c r="I2" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>2025-03-04 11:31:34</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0x01,0x90 </t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>0x01,0x90,</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>0x 9</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>400</v>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>568631262647113770680332</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>400</v>
-      </c>
-      <c r="I3" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>2025-03-04 12:31:34</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0x01,0x90 </t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>0x01,0x90,</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>0x 9</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>400</v>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>568631262647113770680332</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>400</v>
-      </c>
-      <c r="I4" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>2025-03-04 13:31:34</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0x01,0x90 </t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>0x01,0x90,</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>0x 9</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>400</v>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>568631262647113770680332</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>400</v>
-      </c>
-      <c r="I5" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>2025-03-04 14:31:34</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0x01,0x90 </t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0x01,0x90,</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>0x 9</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>400</v>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>568631262647113770680332</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>400</v>
-      </c>
-      <c r="I6" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>2025-03-04 15:31:34</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0x01,0x90 </t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>0x01,0x90,</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>0x 9</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>400</v>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>568631262647113770680332</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>400</v>
-      </c>
-      <c r="I7" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>2025-03-04 16:31:34</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0x01,0x90 </t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>0x01,0x90,</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>0x 9</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>400</v>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>568631262647113770680332</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>400</v>
-      </c>
-      <c r="I8" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>2025-03-04 17:31:34</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0x01,0x90 </t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>0x01,0x90,</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>0x 9</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>400</v>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>568631262647113770680332</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>400</v>
-      </c>
-      <c r="I9" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>2025-03-04 18:31:34</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0x01,0x90 </t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>0x01,0x90,</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>0x 9</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>400</v>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>568631262647113770680332</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>400</v>
-      </c>
-      <c r="I10" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>2025-03-04 19:31:34</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0x01,0x90 </t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>0x01,0x90,</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>0x 9</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>400</v>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>568631262647113770680332</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>400</v>
-      </c>
-      <c r="I11" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>2025-03-04 20:31:34</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0x01,0x90 </t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>0x01,0x90,</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>0x 9</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>400</v>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>568631262647113770680332</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>400</v>
-      </c>
-      <c r="I12" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>2025-03-04 21:31:34</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0x01,0x90 </t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>0x01,0x90,</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>0x 9</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>400</v>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>568631262647113770680332</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>400</v>
-      </c>
-      <c r="I13" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>2025-03-04 22:31:34</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0x01,0x90 </t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>0x01,0x90,</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>0x 9</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>400</v>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>568631262647113770680332</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>400</v>
-      </c>
-      <c r="I14" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>2025-03-04 23:31:34</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0x01,0x90 </t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>0x01,0x90,</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>0x 9</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>400</v>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>568631262647113770680332</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>400</v>
-      </c>
-      <c r="I15" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>2025-03-05 00:31:34</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0x01,0x90 </t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>0x01,0x90,</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>0x 9</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
-        <v>400</v>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>568631262647113770680332</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
-        <v>400</v>
-      </c>
-      <c r="I16" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>2025-03-05 01:31:34</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0x01,0x90 </t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>0x01,0x90,</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>0x 9</t>
-        </is>
-      </c>
-      <c r="F17" t="n">
-        <v>400</v>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>568631262647113770680332</t>
-        </is>
-      </c>
-      <c r="H17" t="n">
-        <v>400</v>
-      </c>
-      <c r="I17" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>2025-03-05 02:31:34</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0x01,0x90 </t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>0x01,0x90,</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>0x 9</t>
-        </is>
-      </c>
-      <c r="F18" t="n">
-        <v>400</v>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>568631262647113770680332</t>
-        </is>
-      </c>
-      <c r="H18" t="n">
-        <v>400</v>
-      </c>
-      <c r="I18" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>2025-03-05 03:31:34</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0x01,0x90 </t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>0x01,0x90,</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>0x 9</t>
-        </is>
-      </c>
-      <c r="F19" t="n">
-        <v>400</v>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>568631262647113770680332</t>
-        </is>
-      </c>
-      <c r="H19" t="n">
-        <v>400</v>
-      </c>
-      <c r="I19" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>2025-03-05 04:31:34</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0x01,0x90 </t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>0x01,0x90,</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>0x 9</t>
-        </is>
-      </c>
-      <c r="F20" t="n">
-        <v>400</v>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>568631262647113770680332</t>
-        </is>
-      </c>
-      <c r="H20" t="n">
-        <v>400</v>
-      </c>
-      <c r="I20" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>2025-03-05 05:31:34</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0x01,0x90 </t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>0x01,0x90,</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>0x 9</t>
-        </is>
-      </c>
-      <c r="F21" t="n">
-        <v>400</v>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>568631262647113770680332</t>
-        </is>
-      </c>
-      <c r="H21" t="n">
-        <v>400</v>
-      </c>
-      <c r="I21" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>2025-03-05 06:31:34</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0x01,0x90 </t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>0x01,0x90,</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>0x 9</t>
-        </is>
-      </c>
-      <c r="F22" t="n">
-        <v>400</v>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>568631262647113770680332</t>
-        </is>
-      </c>
-      <c r="H22" t="n">
-        <v>400</v>
-      </c>
-      <c r="I22" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>2025-03-05 07:31:34</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0x01,0x90 </t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>0x01,0x90,</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>0x 9</t>
-        </is>
-      </c>
-      <c r="F23" t="n">
-        <v>400</v>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>568631262647113770680332</t>
-        </is>
-      </c>
-      <c r="H23" t="n">
-        <v>400</v>
-      </c>
-      <c r="I23" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>2025-03-05 08:31:34</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0x01,0x90 </t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>0x01,0x90,</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>0x 9</t>
-        </is>
-      </c>
-      <c r="F24" t="n">
-        <v>400</v>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>568631262647113770680332</t>
-        </is>
-      </c>
-      <c r="H24" t="n">
-        <v>400</v>
-      </c>
-      <c r="I24" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>2025-03-05 09:31:34</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0x01,0x90 </t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>0x01,0x90,</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>0x 9</t>
-        </is>
-      </c>
-      <c r="F25" t="n">
-        <v>400</v>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>568631262647113770680332</t>
-        </is>
-      </c>
-      <c r="H25" t="n">
-        <v>400</v>
-      </c>
-      <c r="I25" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>2025-03-05 10:31:34</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0x01,0x90 </t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>0x01,0x90,</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>0x 9</t>
-        </is>
-      </c>
-      <c r="F26" t="n">
-        <v>400</v>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>568631262647113770680332</t>
-        </is>
-      </c>
-      <c r="H26" t="n">
-        <v>400</v>
-      </c>
-      <c r="I26" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>2025-03-05 11:31:34</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0x01,0x90 </t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>0x01,0x90,</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>0x 9</t>
-        </is>
-      </c>
-      <c r="F27" t="n">
-        <v>400</v>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>568631262647113770680332</t>
-        </is>
-      </c>
-      <c r="H27" t="n">
-        <v>400</v>
-      </c>
-      <c r="I27" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>2025-03-05 12:31:34</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0x01,0x90 </t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>0x01,0x90,</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>0x 9</t>
-        </is>
-      </c>
-      <c r="F28" t="n">
-        <v>400</v>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>568631262647113770680332</t>
-        </is>
-      </c>
-      <c r="H28" t="n">
-        <v>400</v>
-      </c>
-      <c r="I28" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>2025-03-05 13:31:34</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0x01,0x90 </t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>0x01,0x90,</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>0x 9</t>
-        </is>
-      </c>
-      <c r="F29" t="n">
-        <v>400</v>
-      </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>568631262647113770680332</t>
-        </is>
-      </c>
-      <c r="H29" t="n">
-        <v>400</v>
-      </c>
-      <c r="I29" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>2025-03-05 14:31:34</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0x01,0x90 </t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>0x01,0x90,</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>0x 9</t>
-        </is>
-      </c>
-      <c r="F30" t="n">
-        <v>400</v>
-      </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>568631262647113770680332</t>
-        </is>
-      </c>
-      <c r="H30" t="n">
-        <v>400</v>
-      </c>
-      <c r="I30" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>2025-03-05 15:31:34</t>
-        </is>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0x01,0x90 </t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>0x01,0x90,</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>0x 9</t>
-        </is>
-      </c>
-      <c r="F31" t="n">
-        <v>400</v>
-      </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>568631262647113770680332</t>
-        </is>
-      </c>
-      <c r="H31" t="n">
-        <v>400</v>
-      </c>
-      <c r="I31" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>2025-03-05 16:31:34</t>
-        </is>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0x01,0x90 </t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>0x01,0x90,</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>0x 9</t>
-        </is>
-      </c>
-      <c r="F32" t="n">
-        <v>400</v>
-      </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>568631262647113770680332</t>
-        </is>
-      </c>
-      <c r="H32" t="n">
-        <v>400</v>
-      </c>
-      <c r="I32" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>2025-03-05 17:31:34</t>
-        </is>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0x01,0x90 </t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>0x01,0x90,</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>0x 9</t>
-        </is>
-      </c>
-      <c r="F33" t="n">
-        <v>400</v>
-      </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>568631262647113770680332</t>
-        </is>
-      </c>
-      <c r="H33" t="n">
-        <v>400</v>
-      </c>
-      <c r="I33" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>2025-03-05 18:31:34</t>
-        </is>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0x01,0x90 </t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>0x01,0x90,</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>0x 9</t>
-        </is>
-      </c>
-      <c r="F34" t="n">
-        <v>400</v>
-      </c>
-      <c r="G34" t="inlineStr">
-        <is>
-          <t>568631262647113770680332</t>
-        </is>
-      </c>
-      <c r="H34" t="n">
-        <v>400</v>
-      </c>
-      <c r="I34" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>2025-03-05 19:31:34</t>
-        </is>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0x01,0x90 </t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>0x01,0x90,</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>0x 9</t>
-        </is>
-      </c>
-      <c r="F35" t="n">
-        <v>400</v>
-      </c>
-      <c r="G35" t="inlineStr">
-        <is>
-          <t>568631262647113770680332</t>
-        </is>
-      </c>
-      <c r="H35" t="n">
-        <v>400</v>
-      </c>
-      <c r="I35" t="n">
         <v>9</v>
       </c>
     </row>

--- a/SAG2_sensor_data_with_decimal_filtered_updated.xlsx
+++ b/SAG2_sensor_data_with_decimal_filtered_updated.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I36"/>
+  <dimension ref="A1:I37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1920,12 +1920,1675 @@
         <v>14</v>
       </c>
     </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>2025-03-05 21:18:04</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1b,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>0x14</t>
+        </is>
+      </c>
+      <c r="F37" t="n">
+        <v>400</v>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>568631262647113771335948</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>400</v>
+      </c>
+      <c r="I37" t="n">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I39"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>time</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>总长</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>实际长度</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>和校验</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>总长_DEC</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>ID_DEC</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>实际长度_DEC</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>和校验_DEC</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>45720.34188657408</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F2" t="n">
+        <v>400</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>400</v>
+      </c>
+      <c r="I2" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2025-03-04 09:12:19</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F3" t="n">
+        <v>400</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>400</v>
+      </c>
+      <c r="I3" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>2025-03-04 10:12:19</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F4" t="n">
+        <v>400</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>400</v>
+      </c>
+      <c r="I4" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>2025-03-04 11:12:19</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F5" t="n">
+        <v>400</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>400</v>
+      </c>
+      <c r="I5" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>2025-03-04 12:12:19</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F6" t="n">
+        <v>400</v>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>400</v>
+      </c>
+      <c r="I6" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>2025-03-04 13:12:19</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F7" t="n">
+        <v>400</v>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>400</v>
+      </c>
+      <c r="I7" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>2025-03-04 14:12:19</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F8" t="n">
+        <v>400</v>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>400</v>
+      </c>
+      <c r="I8" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>2025-03-04 15:12:19</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F9" t="n">
+        <v>400</v>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>400</v>
+      </c>
+      <c r="I9" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>2025-03-04 16:12:19</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F10" t="n">
+        <v>400</v>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>400</v>
+      </c>
+      <c r="I10" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>2025-03-04 17:12:19</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F11" t="n">
+        <v>400</v>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>400</v>
+      </c>
+      <c r="I11" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>2025-03-04 18:12:19</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F12" t="n">
+        <v>400</v>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>400</v>
+      </c>
+      <c r="I12" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>2025-03-04 19:12:19</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F13" t="n">
+        <v>400</v>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>400</v>
+      </c>
+      <c r="I13" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>2025-03-04 20:12:19</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F14" t="n">
+        <v>400</v>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>400</v>
+      </c>
+      <c r="I14" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>2025-03-04 21:12:19</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F15" t="n">
+        <v>400</v>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>400</v>
+      </c>
+      <c r="I15" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>2025-03-04 22:12:19</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F16" t="n">
+        <v>400</v>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>400</v>
+      </c>
+      <c r="I16" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>2025-03-04 23:12:19</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F17" t="n">
+        <v>400</v>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>400</v>
+      </c>
+      <c r="I17" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>2025-03-05 00:12:19</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F18" t="n">
+        <v>400</v>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>400</v>
+      </c>
+      <c r="I18" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>2025-03-05 01:12:19</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F19" t="n">
+        <v>400</v>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>400</v>
+      </c>
+      <c r="I19" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>2025-03-05 02:12:19</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F20" t="n">
+        <v>400</v>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>400</v>
+      </c>
+      <c r="I20" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>2025-03-05 03:12:19</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F21" t="n">
+        <v>400</v>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>400</v>
+      </c>
+      <c r="I21" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>2025-03-05 04:12:19</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F22" t="n">
+        <v>400</v>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>400</v>
+      </c>
+      <c r="I22" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>2025-03-05 05:12:19</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F23" t="n">
+        <v>400</v>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>400</v>
+      </c>
+      <c r="I23" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>2025-03-05 06:12:19</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F24" t="n">
+        <v>400</v>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>400</v>
+      </c>
+      <c r="I24" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>2025-03-05 07:12:19</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F25" t="n">
+        <v>400</v>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>400</v>
+      </c>
+      <c r="I25" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>2025-03-05 08:12:19</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F26" t="n">
+        <v>400</v>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>400</v>
+      </c>
+      <c r="I26" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>2025-03-05 09:12:19</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F27" t="n">
+        <v>400</v>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>400</v>
+      </c>
+      <c r="I27" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>2025-03-05 10:12:19</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F28" t="n">
+        <v>400</v>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>400</v>
+      </c>
+      <c r="I28" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>2025-03-05 11:12:19</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F29" t="n">
+        <v>400</v>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>400</v>
+      </c>
+      <c r="I29" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>2025-03-05 12:12:19</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F30" t="n">
+        <v>400</v>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>400</v>
+      </c>
+      <c r="I30" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>2025-03-05 13:12:19</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F31" t="n">
+        <v>400</v>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>400</v>
+      </c>
+      <c r="I31" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>2025-03-05 14:12:19</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F32" t="n">
+        <v>400</v>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>400</v>
+      </c>
+      <c r="I32" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>2025-03-05 15:12:19</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F33" t="n">
+        <v>400</v>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>400</v>
+      </c>
+      <c r="I33" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>2025-03-05 16:12:19</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F34" t="n">
+        <v>400</v>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>400</v>
+      </c>
+      <c r="I34" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>2025-03-05 17:12:19</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F35" t="n">
+        <v>400</v>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>400</v>
+      </c>
+      <c r="I35" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>2025-03-05 18:12:19</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F36" t="n">
+        <v>400</v>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>400</v>
+      </c>
+      <c r="I36" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>2025-03-05 19:12:19</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F37" t="n">
+        <v>400</v>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>400</v>
+      </c>
+      <c r="I37" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>2025-03-05 20:12:19</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F38" t="n">
+        <v>400</v>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>400</v>
+      </c>
+      <c r="I38" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>2025-03-05 21:12:19</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F39" t="n">
+        <v>400</v>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>400</v>
+      </c>
+      <c r="I39" t="n">
+        <v>25</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1988,7 +3651,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45720.34188657408</v>
+        <v>45720.40180555556</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -1997,7 +3660,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -2007,7 +3670,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>0x19</t>
+          <t>0x13</t>
         </is>
       </c>
       <c r="F2" t="n">
@@ -2015,20 +3678,20 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>568631262647113771663628</t>
+          <t>568631262647113771270412</t>
         </is>
       </c>
       <c r="H2" t="n">
         <v>400</v>
       </c>
       <c r="I2" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2025-03-04 09:12:19</t>
+          <t>2025-03-04 10:38:36</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -2038,7 +3701,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -2048,7 +3711,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>0x19</t>
+          <t>0x13</t>
         </is>
       </c>
       <c r="F3" t="n">
@@ -2056,20 +3719,20 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>568631262647113771663628</t>
+          <t>568631262647113771270412</t>
         </is>
       </c>
       <c r="H3" t="n">
         <v>400</v>
       </c>
       <c r="I3" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2025-03-04 10:12:19</t>
+          <t>2025-03-04 11:38:36</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -2079,7 +3742,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -2089,7 +3752,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>0x19</t>
+          <t>0x13</t>
         </is>
       </c>
       <c r="F4" t="n">
@@ -2097,20 +3760,20 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>568631262647113771663628</t>
+          <t>568631262647113771270412</t>
         </is>
       </c>
       <c r="H4" t="n">
         <v>400</v>
       </c>
       <c r="I4" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2025-03-04 11:12:19</t>
+          <t>2025-03-04 12:38:36</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -2120,7 +3783,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -2130,7 +3793,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>0x19</t>
+          <t>0x13</t>
         </is>
       </c>
       <c r="F5" t="n">
@@ -2138,20 +3801,20 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>568631262647113771663628</t>
+          <t>568631262647113771270412</t>
         </is>
       </c>
       <c r="H5" t="n">
         <v>400</v>
       </c>
       <c r="I5" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2025-03-04 12:12:19</t>
+          <t>2025-03-04 13:38:36</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -2161,7 +3824,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -2171,7 +3834,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>0x19</t>
+          <t>0x13</t>
         </is>
       </c>
       <c r="F6" t="n">
@@ -2179,20 +3842,20 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>568631262647113771663628</t>
+          <t>568631262647113771270412</t>
         </is>
       </c>
       <c r="H6" t="n">
         <v>400</v>
       </c>
       <c r="I6" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2025-03-04 13:12:19</t>
+          <t>2025-03-04 14:38:36</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -2202,7 +3865,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -2212,7 +3875,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>0x19</t>
+          <t>0x13</t>
         </is>
       </c>
       <c r="F7" t="n">
@@ -2220,20 +3883,20 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>568631262647113771663628</t>
+          <t>568631262647113771270412</t>
         </is>
       </c>
       <c r="H7" t="n">
         <v>400</v>
       </c>
       <c r="I7" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2025-03-04 14:12:19</t>
+          <t>2025-03-04 15:38:36</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -2243,7 +3906,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -2253,7 +3916,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>0x19</t>
+          <t>0x13</t>
         </is>
       </c>
       <c r="F8" t="n">
@@ -2261,20 +3924,20 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>568631262647113771663628</t>
+          <t>568631262647113771270412</t>
         </is>
       </c>
       <c r="H8" t="n">
         <v>400</v>
       </c>
       <c r="I8" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2025-03-04 15:12:19</t>
+          <t>2025-03-04 16:38:36</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -2284,7 +3947,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -2294,7 +3957,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>0x19</t>
+          <t>0x13</t>
         </is>
       </c>
       <c r="F9" t="n">
@@ -2302,20 +3965,20 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>568631262647113771663628</t>
+          <t>568631262647113771270412</t>
         </is>
       </c>
       <c r="H9" t="n">
         <v>400</v>
       </c>
       <c r="I9" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2025-03-04 16:12:19</t>
+          <t>2025-03-04 17:38:36</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -2325,7 +3988,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -2335,7 +3998,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>0x19</t>
+          <t>0x13</t>
         </is>
       </c>
       <c r="F10" t="n">
@@ -2343,20 +4006,20 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>568631262647113771663628</t>
+          <t>568631262647113771270412</t>
         </is>
       </c>
       <c r="H10" t="n">
         <v>400</v>
       </c>
       <c r="I10" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2025-03-04 17:12:19</t>
+          <t>2025-03-04 18:38:36</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -2366,7 +4029,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -2376,7 +4039,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>0x19</t>
+          <t>0x13</t>
         </is>
       </c>
       <c r="F11" t="n">
@@ -2384,20 +4047,20 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>568631262647113771663628</t>
+          <t>568631262647113771270412</t>
         </is>
       </c>
       <c r="H11" t="n">
         <v>400</v>
       </c>
       <c r="I11" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2025-03-04 18:12:19</t>
+          <t>2025-03-04 19:38:36</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2407,7 +4070,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -2417,7 +4080,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>0x19</t>
+          <t>0x13</t>
         </is>
       </c>
       <c r="F12" t="n">
@@ -2425,20 +4088,20 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>568631262647113771663628</t>
+          <t>568631262647113771270412</t>
         </is>
       </c>
       <c r="H12" t="n">
         <v>400</v>
       </c>
       <c r="I12" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2025-03-04 19:12:19</t>
+          <t>2025-03-04 20:38:36</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2448,7 +4111,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -2458,7 +4121,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>0x19</t>
+          <t>0x13</t>
         </is>
       </c>
       <c r="F13" t="n">
@@ -2466,20 +4129,20 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>568631262647113771663628</t>
+          <t>568631262647113771270412</t>
         </is>
       </c>
       <c r="H13" t="n">
         <v>400</v>
       </c>
       <c r="I13" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2025-03-04 20:12:19</t>
+          <t>2025-03-04 21:38:36</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -2489,7 +4152,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -2499,7 +4162,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>0x19</t>
+          <t>0x13</t>
         </is>
       </c>
       <c r="F14" t="n">
@@ -2507,20 +4170,20 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>568631262647113771663628</t>
+          <t>568631262647113771270412</t>
         </is>
       </c>
       <c r="H14" t="n">
         <v>400</v>
       </c>
       <c r="I14" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2025-03-04 21:12:19</t>
+          <t>2025-03-04 22:38:36</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -2530,7 +4193,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -2540,7 +4203,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>0x19</t>
+          <t>0x13</t>
         </is>
       </c>
       <c r="F15" t="n">
@@ -2548,20 +4211,20 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>568631262647113771663628</t>
+          <t>568631262647113771270412</t>
         </is>
       </c>
       <c r="H15" t="n">
         <v>400</v>
       </c>
       <c r="I15" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2025-03-04 22:12:19</t>
+          <t>2025-03-04 23:38:36</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -2571,7 +4234,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -2581,7 +4244,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>0x19</t>
+          <t>0x13</t>
         </is>
       </c>
       <c r="F16" t="n">
@@ -2589,20 +4252,20 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>568631262647113771663628</t>
+          <t>568631262647113771270412</t>
         </is>
       </c>
       <c r="H16" t="n">
         <v>400</v>
       </c>
       <c r="I16" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2025-03-04 23:12:19</t>
+          <t>2025-03-05 00:38:36</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -2612,7 +4275,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -2622,7 +4285,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>0x19</t>
+          <t>0x13</t>
         </is>
       </c>
       <c r="F17" t="n">
@@ -2630,20 +4293,20 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>568631262647113771663628</t>
+          <t>568631262647113771270412</t>
         </is>
       </c>
       <c r="H17" t="n">
         <v>400</v>
       </c>
       <c r="I17" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2025-03-05 00:12:19</t>
+          <t>2025-03-05 01:38:36</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -2653,7 +4316,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -2663,7 +4326,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>0x19</t>
+          <t>0x13</t>
         </is>
       </c>
       <c r="F18" t="n">
@@ -2671,20 +4334,20 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>568631262647113771663628</t>
+          <t>568631262647113771270412</t>
         </is>
       </c>
       <c r="H18" t="n">
         <v>400</v>
       </c>
       <c r="I18" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>2025-03-05 01:12:19</t>
+          <t>2025-03-05 02:38:36</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -2694,7 +4357,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -2704,7 +4367,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>0x19</t>
+          <t>0x13</t>
         </is>
       </c>
       <c r="F19" t="n">
@@ -2712,20 +4375,20 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>568631262647113771663628</t>
+          <t>568631262647113771270412</t>
         </is>
       </c>
       <c r="H19" t="n">
         <v>400</v>
       </c>
       <c r="I19" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2025-03-05 02:12:19</t>
+          <t>2025-03-05 03:38:36</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -2735,7 +4398,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -2745,7 +4408,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>0x19</t>
+          <t>0x13</t>
         </is>
       </c>
       <c r="F20" t="n">
@@ -2753,20 +4416,20 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>568631262647113771663628</t>
+          <t>568631262647113771270412</t>
         </is>
       </c>
       <c r="H20" t="n">
         <v>400</v>
       </c>
       <c r="I20" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>2025-03-05 03:12:19</t>
+          <t>2025-03-05 04:38:36</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -2776,7 +4439,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -2786,7 +4449,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>0x19</t>
+          <t>0x13</t>
         </is>
       </c>
       <c r="F21" t="n">
@@ -2794,20 +4457,20 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>568631262647113771663628</t>
+          <t>568631262647113771270412</t>
         </is>
       </c>
       <c r="H21" t="n">
         <v>400</v>
       </c>
       <c r="I21" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>2025-03-05 04:12:19</t>
+          <t>2025-03-05 05:38:36</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -2817,7 +4480,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -2827,7 +4490,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>0x19</t>
+          <t>0x13</t>
         </is>
       </c>
       <c r="F22" t="n">
@@ -2835,20 +4498,20 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>568631262647113771663628</t>
+          <t>568631262647113771270412</t>
         </is>
       </c>
       <c r="H22" t="n">
         <v>400</v>
       </c>
       <c r="I22" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>2025-03-05 05:12:19</t>
+          <t>2025-03-05 06:38:36</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -2858,7 +4521,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -2868,7 +4531,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>0x19</t>
+          <t>0x13</t>
         </is>
       </c>
       <c r="F23" t="n">
@@ -2876,20 +4539,20 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>568631262647113771663628</t>
+          <t>568631262647113771270412</t>
         </is>
       </c>
       <c r="H23" t="n">
         <v>400</v>
       </c>
       <c r="I23" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>2025-03-05 06:12:19</t>
+          <t>2025-03-05 07:38:36</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -2899,7 +4562,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -2909,7 +4572,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>0x19</t>
+          <t>0x13</t>
         </is>
       </c>
       <c r="F24" t="n">
@@ -2917,20 +4580,20 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>568631262647113771663628</t>
+          <t>568631262647113771270412</t>
         </is>
       </c>
       <c r="H24" t="n">
         <v>400</v>
       </c>
       <c r="I24" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>2025-03-05 07:12:19</t>
+          <t>2025-03-05 08:38:36</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -2940,7 +4603,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -2950,7 +4613,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>0x19</t>
+          <t>0x13</t>
         </is>
       </c>
       <c r="F25" t="n">
@@ -2958,20 +4621,20 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>568631262647113771663628</t>
+          <t>568631262647113771270412</t>
         </is>
       </c>
       <c r="H25" t="n">
         <v>400</v>
       </c>
       <c r="I25" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>2025-03-05 08:12:19</t>
+          <t>2025-03-05 09:38:36</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -2981,7 +4644,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -2991,7 +4654,7 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>0x19</t>
+          <t>0x13</t>
         </is>
       </c>
       <c r="F26" t="n">
@@ -2999,20 +4662,20 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>568631262647113771663628</t>
+          <t>568631262647113771270412</t>
         </is>
       </c>
       <c r="H26" t="n">
         <v>400</v>
       </c>
       <c r="I26" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>2025-03-05 09:12:19</t>
+          <t>2025-03-05 10:38:36</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -3022,7 +4685,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -3032,7 +4695,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>0x19</t>
+          <t>0x13</t>
         </is>
       </c>
       <c r="F27" t="n">
@@ -3040,20 +4703,20 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>568631262647113771663628</t>
+          <t>568631262647113771270412</t>
         </is>
       </c>
       <c r="H27" t="n">
         <v>400</v>
       </c>
       <c r="I27" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>2025-03-05 10:12:19</t>
+          <t>2025-03-05 11:38:36</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -3063,7 +4726,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -3073,7 +4736,7 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>0x19</t>
+          <t>0x13</t>
         </is>
       </c>
       <c r="F28" t="n">
@@ -3081,20 +4744,20 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>568631262647113771663628</t>
+          <t>568631262647113771270412</t>
         </is>
       </c>
       <c r="H28" t="n">
         <v>400</v>
       </c>
       <c r="I28" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>2025-03-05 11:12:19</t>
+          <t>2025-03-05 12:38:36</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -3104,7 +4767,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -3114,7 +4777,7 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>0x19</t>
+          <t>0x13</t>
         </is>
       </c>
       <c r="F29" t="n">
@@ -3122,20 +4785,20 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>568631262647113771663628</t>
+          <t>568631262647113771270412</t>
         </is>
       </c>
       <c r="H29" t="n">
         <v>400</v>
       </c>
       <c r="I29" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>2025-03-05 12:12:19</t>
+          <t>2025-03-05 13:38:36</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -3145,7 +4808,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -3155,7 +4818,7 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>0x19</t>
+          <t>0x13</t>
         </is>
       </c>
       <c r="F30" t="n">
@@ -3163,20 +4826,20 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>568631262647113771663628</t>
+          <t>568631262647113771270412</t>
         </is>
       </c>
       <c r="H30" t="n">
         <v>400</v>
       </c>
       <c r="I30" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>2025-03-05 13:12:19</t>
+          <t>2025-03-05 14:38:36</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -3186,7 +4849,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -3196,7 +4859,7 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>0x19</t>
+          <t>0x13</t>
         </is>
       </c>
       <c r="F31" t="n">
@@ -3204,20 +4867,20 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>568631262647113771663628</t>
+          <t>568631262647113771270412</t>
         </is>
       </c>
       <c r="H31" t="n">
         <v>400</v>
       </c>
       <c r="I31" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>2025-03-05 14:12:19</t>
+          <t>2025-03-05 15:38:36</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -3227,7 +4890,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -3237,7 +4900,7 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>0x19</t>
+          <t>0x13</t>
         </is>
       </c>
       <c r="F32" t="n">
@@ -3245,20 +4908,20 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>568631262647113771663628</t>
+          <t>568631262647113771270412</t>
         </is>
       </c>
       <c r="H32" t="n">
         <v>400</v>
       </c>
       <c r="I32" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>2025-03-05 15:12:19</t>
+          <t>2025-03-05 16:38:36</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -3268,7 +4931,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -3278,7 +4941,7 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>0x19</t>
+          <t>0x13</t>
         </is>
       </c>
       <c r="F33" t="n">
@@ -3286,20 +4949,20 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>568631262647113771663628</t>
+          <t>568631262647113771270412</t>
         </is>
       </c>
       <c r="H33" t="n">
         <v>400</v>
       </c>
       <c r="I33" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>2025-03-05 16:12:19</t>
+          <t>2025-03-05 17:38:36</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -3309,7 +4972,7 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -3319,7 +4982,7 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>0x19</t>
+          <t>0x13</t>
         </is>
       </c>
       <c r="F34" t="n">
@@ -3327,20 +4990,20 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>568631262647113771663628</t>
+          <t>568631262647113771270412</t>
         </is>
       </c>
       <c r="H34" t="n">
         <v>400</v>
       </c>
       <c r="I34" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>2025-03-05 17:12:19</t>
+          <t>2025-03-05 18:38:36</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -3350,7 +5013,7 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -3360,7 +5023,7 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>0x19</t>
+          <t>0x13</t>
         </is>
       </c>
       <c r="F35" t="n">
@@ -3368,20 +5031,20 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>568631262647113771663628</t>
+          <t>568631262647113771270412</t>
         </is>
       </c>
       <c r="H35" t="n">
         <v>400</v>
       </c>
       <c r="I35" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>2025-03-05 18:12:19</t>
+          <t>2025-03-05 19:38:36</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -3391,7 +5054,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -3401,7 +5064,7 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>0x19</t>
+          <t>0x13</t>
         </is>
       </c>
       <c r="F36" t="n">
@@ -3409,20 +5072,20 @@
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>568631262647113771663628</t>
+          <t>568631262647113771270412</t>
         </is>
       </c>
       <c r="H36" t="n">
         <v>400</v>
       </c>
       <c r="I36" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>2025-03-05 19:12:19</t>
+          <t>2025-03-05 20:38:36</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -3432,7 +5095,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -3442,7 +5105,7 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>0x19</t>
+          <t>0x13</t>
         </is>
       </c>
       <c r="F37" t="n">
@@ -3450,20 +5113,20 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>568631262647113771663628</t>
+          <t>568631262647113771270412</t>
         </is>
       </c>
       <c r="H37" t="n">
         <v>400</v>
       </c>
       <c r="I37" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>2025-03-05 20:12:19</t>
+          <t>2025-03-05 21:38:36</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -3473,7 +5136,7 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -3483,7 +5146,7 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>0x19</t>
+          <t>0x13</t>
         </is>
       </c>
       <c r="F38" t="n">
@@ -3491,14 +5154,14 @@
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>568631262647113771663628</t>
+          <t>568631262647113771270412</t>
         </is>
       </c>
       <c r="H38" t="n">
         <v>400</v>
       </c>
       <c r="I38" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -3506,7 +5169,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3569,7 +5232,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45720.40180555556</v>
+        <v>45720.43858796296</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -3578,7 +5241,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -3588,7 +5251,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>0x13</t>
+          <t>0x 9</t>
         </is>
       </c>
       <c r="F2" t="n">
@@ -3596,20 +5259,20 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>568631262647113771270412</t>
+          <t>568631262647113770680332</t>
         </is>
       </c>
       <c r="H2" t="n">
         <v>400</v>
       </c>
       <c r="I2" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2025-03-04 10:38:36</t>
+          <t>2025-03-04 11:31:34</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -3619,7 +5282,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -3629,7 +5292,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>0x13</t>
+          <t>0x 9</t>
         </is>
       </c>
       <c r="F3" t="n">
@@ -3637,20 +5300,20 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>568631262647113771270412</t>
+          <t>568631262647113770680332</t>
         </is>
       </c>
       <c r="H3" t="n">
         <v>400</v>
       </c>
       <c r="I3" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2025-03-04 11:38:36</t>
+          <t>2025-03-04 12:31:34</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -3660,7 +5323,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -3670,7 +5333,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>0x13</t>
+          <t>0x 9</t>
         </is>
       </c>
       <c r="F4" t="n">
@@ -3678,20 +5341,20 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>568631262647113771270412</t>
+          <t>568631262647113770680332</t>
         </is>
       </c>
       <c r="H4" t="n">
         <v>400</v>
       </c>
       <c r="I4" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2025-03-04 12:38:36</t>
+          <t>2025-03-04 13:31:34</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -3701,7 +5364,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -3711,7 +5374,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>0x13</t>
+          <t>0x 9</t>
         </is>
       </c>
       <c r="F5" t="n">
@@ -3719,20 +5382,20 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>568631262647113771270412</t>
+          <t>568631262647113770680332</t>
         </is>
       </c>
       <c r="H5" t="n">
         <v>400</v>
       </c>
       <c r="I5" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2025-03-04 13:38:36</t>
+          <t>2025-03-04 14:31:34</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -3742,7 +5405,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -3752,7 +5415,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>0x13</t>
+          <t>0x 9</t>
         </is>
       </c>
       <c r="F6" t="n">
@@ -3760,20 +5423,20 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>568631262647113771270412</t>
+          <t>568631262647113770680332</t>
         </is>
       </c>
       <c r="H6" t="n">
         <v>400</v>
       </c>
       <c r="I6" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2025-03-04 14:38:36</t>
+          <t>2025-03-04 15:31:34</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -3783,7 +5446,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -3793,7 +5456,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>0x13</t>
+          <t>0x 9</t>
         </is>
       </c>
       <c r="F7" t="n">
@@ -3801,20 +5464,20 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>568631262647113771270412</t>
+          <t>568631262647113770680332</t>
         </is>
       </c>
       <c r="H7" t="n">
         <v>400</v>
       </c>
       <c r="I7" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2025-03-04 15:38:36</t>
+          <t>2025-03-04 16:31:34</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -3824,7 +5487,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -3834,7 +5497,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>0x13</t>
+          <t>0x 9</t>
         </is>
       </c>
       <c r="F8" t="n">
@@ -3842,20 +5505,20 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>568631262647113771270412</t>
+          <t>568631262647113770680332</t>
         </is>
       </c>
       <c r="H8" t="n">
         <v>400</v>
       </c>
       <c r="I8" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2025-03-04 16:38:36</t>
+          <t>2025-03-04 17:31:34</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -3865,7 +5528,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -3875,7 +5538,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>0x13</t>
+          <t>0x 9</t>
         </is>
       </c>
       <c r="F9" t="n">
@@ -3883,20 +5546,20 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>568631262647113771270412</t>
+          <t>568631262647113770680332</t>
         </is>
       </c>
       <c r="H9" t="n">
         <v>400</v>
       </c>
       <c r="I9" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2025-03-04 17:38:36</t>
+          <t>2025-03-04 18:31:34</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -3906,7 +5569,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -3916,7 +5579,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>0x13</t>
+          <t>0x 9</t>
         </is>
       </c>
       <c r="F10" t="n">
@@ -3924,20 +5587,20 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>568631262647113771270412</t>
+          <t>568631262647113770680332</t>
         </is>
       </c>
       <c r="H10" t="n">
         <v>400</v>
       </c>
       <c r="I10" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2025-03-04 18:38:36</t>
+          <t>2025-03-04 19:31:34</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -3947,7 +5610,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -3957,7 +5620,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>0x13</t>
+          <t>0x 9</t>
         </is>
       </c>
       <c r="F11" t="n">
@@ -3965,20 +5628,20 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>568631262647113771270412</t>
+          <t>568631262647113770680332</t>
         </is>
       </c>
       <c r="H11" t="n">
         <v>400</v>
       </c>
       <c r="I11" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2025-03-04 19:38:36</t>
+          <t>2025-03-04 20:31:34</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -3988,7 +5651,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -3998,7 +5661,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>0x13</t>
+          <t>0x 9</t>
         </is>
       </c>
       <c r="F12" t="n">
@@ -4006,20 +5669,20 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>568631262647113771270412</t>
+          <t>568631262647113770680332</t>
         </is>
       </c>
       <c r="H12" t="n">
         <v>400</v>
       </c>
       <c r="I12" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2025-03-04 20:38:36</t>
+          <t>2025-03-04 21:31:34</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -4029,7 +5692,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -4039,7 +5702,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>0x13</t>
+          <t>0x 9</t>
         </is>
       </c>
       <c r="F13" t="n">
@@ -4047,20 +5710,20 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>568631262647113771270412</t>
+          <t>568631262647113770680332</t>
         </is>
       </c>
       <c r="H13" t="n">
         <v>400</v>
       </c>
       <c r="I13" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2025-03-04 21:38:36</t>
+          <t>2025-03-04 22:31:34</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -4070,7 +5733,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -4080,7 +5743,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>0x13</t>
+          <t>0x 9</t>
         </is>
       </c>
       <c r="F14" t="n">
@@ -4088,20 +5751,20 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>568631262647113771270412</t>
+          <t>568631262647113770680332</t>
         </is>
       </c>
       <c r="H14" t="n">
         <v>400</v>
       </c>
       <c r="I14" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2025-03-04 22:38:36</t>
+          <t>2025-03-04 23:31:34</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -4111,7 +5774,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -4121,7 +5784,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>0x13</t>
+          <t>0x 9</t>
         </is>
       </c>
       <c r="F15" t="n">
@@ -4129,20 +5792,20 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>568631262647113771270412</t>
+          <t>568631262647113770680332</t>
         </is>
       </c>
       <c r="H15" t="n">
         <v>400</v>
       </c>
       <c r="I15" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2025-03-04 23:38:36</t>
+          <t>2025-03-05 00:31:34</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -4152,7 +5815,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -4162,7 +5825,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>0x13</t>
+          <t>0x 9</t>
         </is>
       </c>
       <c r="F16" t="n">
@@ -4170,20 +5833,20 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>568631262647113771270412</t>
+          <t>568631262647113770680332</t>
         </is>
       </c>
       <c r="H16" t="n">
         <v>400</v>
       </c>
       <c r="I16" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2025-03-05 00:38:36</t>
+          <t>2025-03-05 01:31:34</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -4193,7 +5856,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -4203,7 +5866,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>0x13</t>
+          <t>0x 9</t>
         </is>
       </c>
       <c r="F17" t="n">
@@ -4211,20 +5874,20 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>568631262647113771270412</t>
+          <t>568631262647113770680332</t>
         </is>
       </c>
       <c r="H17" t="n">
         <v>400</v>
       </c>
       <c r="I17" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2025-03-05 01:38:36</t>
+          <t>2025-03-05 02:31:34</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -4234,7 +5897,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -4244,7 +5907,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>0x13</t>
+          <t>0x 9</t>
         </is>
       </c>
       <c r="F18" t="n">
@@ -4252,20 +5915,20 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>568631262647113771270412</t>
+          <t>568631262647113770680332</t>
         </is>
       </c>
       <c r="H18" t="n">
         <v>400</v>
       </c>
       <c r="I18" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>2025-03-05 02:38:36</t>
+          <t>2025-03-05 03:31:34</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -4275,7 +5938,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -4285,7 +5948,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>0x13</t>
+          <t>0x 9</t>
         </is>
       </c>
       <c r="F19" t="n">
@@ -4293,20 +5956,20 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>568631262647113771270412</t>
+          <t>568631262647113770680332</t>
         </is>
       </c>
       <c r="H19" t="n">
         <v>400</v>
       </c>
       <c r="I19" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2025-03-05 03:38:36</t>
+          <t>2025-03-05 04:31:34</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -4316,7 +5979,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -4326,7 +5989,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>0x13</t>
+          <t>0x 9</t>
         </is>
       </c>
       <c r="F20" t="n">
@@ -4334,20 +5997,20 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>568631262647113771270412</t>
+          <t>568631262647113770680332</t>
         </is>
       </c>
       <c r="H20" t="n">
         <v>400</v>
       </c>
       <c r="I20" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>2025-03-05 04:38:36</t>
+          <t>2025-03-05 05:31:34</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -4357,7 +6020,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -4367,7 +6030,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>0x13</t>
+          <t>0x 9</t>
         </is>
       </c>
       <c r="F21" t="n">
@@ -4375,20 +6038,20 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>568631262647113771270412</t>
+          <t>568631262647113770680332</t>
         </is>
       </c>
       <c r="H21" t="n">
         <v>400</v>
       </c>
       <c r="I21" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>2025-03-05 05:38:36</t>
+          <t>2025-03-05 06:31:34</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -4398,7 +6061,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -4408,7 +6071,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>0x13</t>
+          <t>0x 9</t>
         </is>
       </c>
       <c r="F22" t="n">
@@ -4416,20 +6079,20 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>568631262647113771270412</t>
+          <t>568631262647113770680332</t>
         </is>
       </c>
       <c r="H22" t="n">
         <v>400</v>
       </c>
       <c r="I22" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>2025-03-05 06:38:36</t>
+          <t>2025-03-05 07:31:34</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -4439,7 +6102,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -4449,7 +6112,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>0x13</t>
+          <t>0x 9</t>
         </is>
       </c>
       <c r="F23" t="n">
@@ -4457,20 +6120,20 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>568631262647113771270412</t>
+          <t>568631262647113770680332</t>
         </is>
       </c>
       <c r="H23" t="n">
         <v>400</v>
       </c>
       <c r="I23" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>2025-03-05 07:38:36</t>
+          <t>2025-03-05 08:31:34</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -4480,7 +6143,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -4490,7 +6153,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>0x13</t>
+          <t>0x 9</t>
         </is>
       </c>
       <c r="F24" t="n">
@@ -4498,20 +6161,20 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>568631262647113771270412</t>
+          <t>568631262647113770680332</t>
         </is>
       </c>
       <c r="H24" t="n">
         <v>400</v>
       </c>
       <c r="I24" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>2025-03-05 08:38:36</t>
+          <t>2025-03-05 09:31:34</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -4521,7 +6184,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -4531,7 +6194,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>0x13</t>
+          <t>0x 9</t>
         </is>
       </c>
       <c r="F25" t="n">
@@ -4539,20 +6202,20 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>568631262647113771270412</t>
+          <t>568631262647113770680332</t>
         </is>
       </c>
       <c r="H25" t="n">
         <v>400</v>
       </c>
       <c r="I25" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>2025-03-05 09:38:36</t>
+          <t>2025-03-05 10:31:34</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -4562,7 +6225,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -4572,7 +6235,7 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>0x13</t>
+          <t>0x 9</t>
         </is>
       </c>
       <c r="F26" t="n">
@@ -4580,20 +6243,20 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>568631262647113771270412</t>
+          <t>568631262647113770680332</t>
         </is>
       </c>
       <c r="H26" t="n">
         <v>400</v>
       </c>
       <c r="I26" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>2025-03-05 10:38:36</t>
+          <t>2025-03-05 11:31:34</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -4603,7 +6266,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -4613,7 +6276,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>0x13</t>
+          <t>0x 9</t>
         </is>
       </c>
       <c r="F27" t="n">
@@ -4621,20 +6284,20 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>568631262647113771270412</t>
+          <t>568631262647113770680332</t>
         </is>
       </c>
       <c r="H27" t="n">
         <v>400</v>
       </c>
       <c r="I27" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>2025-03-05 11:38:36</t>
+          <t>2025-03-05 12:31:34</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -4644,7 +6307,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -4654,7 +6317,7 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>0x13</t>
+          <t>0x 9</t>
         </is>
       </c>
       <c r="F28" t="n">
@@ -4662,20 +6325,20 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>568631262647113771270412</t>
+          <t>568631262647113770680332</t>
         </is>
       </c>
       <c r="H28" t="n">
         <v>400</v>
       </c>
       <c r="I28" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>2025-03-05 12:38:36</t>
+          <t>2025-03-05 13:31:34</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -4685,7 +6348,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -4695,7 +6358,7 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>0x13</t>
+          <t>0x 9</t>
         </is>
       </c>
       <c r="F29" t="n">
@@ -4703,20 +6366,20 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>568631262647113771270412</t>
+          <t>568631262647113770680332</t>
         </is>
       </c>
       <c r="H29" t="n">
         <v>400</v>
       </c>
       <c r="I29" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>2025-03-05 13:38:36</t>
+          <t>2025-03-05 14:31:34</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -4726,7 +6389,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -4736,7 +6399,7 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>0x13</t>
+          <t>0x 9</t>
         </is>
       </c>
       <c r="F30" t="n">
@@ -4744,20 +6407,20 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>568631262647113771270412</t>
+          <t>568631262647113770680332</t>
         </is>
       </c>
       <c r="H30" t="n">
         <v>400</v>
       </c>
       <c r="I30" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>2025-03-05 14:38:36</t>
+          <t>2025-03-05 15:31:34</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -4767,7 +6430,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -4777,7 +6440,7 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>0x13</t>
+          <t>0x 9</t>
         </is>
       </c>
       <c r="F31" t="n">
@@ -4785,20 +6448,20 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>568631262647113771270412</t>
+          <t>568631262647113770680332</t>
         </is>
       </c>
       <c r="H31" t="n">
         <v>400</v>
       </c>
       <c r="I31" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>2025-03-05 15:38:36</t>
+          <t>2025-03-05 16:31:34</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -4808,7 +6471,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -4818,7 +6481,7 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>0x13</t>
+          <t>0x 9</t>
         </is>
       </c>
       <c r="F32" t="n">
@@ -4826,20 +6489,20 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>568631262647113771270412</t>
+          <t>568631262647113770680332</t>
         </is>
       </c>
       <c r="H32" t="n">
         <v>400</v>
       </c>
       <c r="I32" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>2025-03-05 16:38:36</t>
+          <t>2025-03-05 17:31:34</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -4849,7 +6512,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -4859,7 +6522,7 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>0x13</t>
+          <t>0x 9</t>
         </is>
       </c>
       <c r="F33" t="n">
@@ -4867,20 +6530,20 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>568631262647113771270412</t>
+          <t>568631262647113770680332</t>
         </is>
       </c>
       <c r="H33" t="n">
         <v>400</v>
       </c>
       <c r="I33" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>2025-03-05 17:38:36</t>
+          <t>2025-03-05 18:31:34</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -4890,7 +6553,7 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -4900,7 +6563,7 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>0x13</t>
+          <t>0x 9</t>
         </is>
       </c>
       <c r="F34" t="n">
@@ -4908,20 +6571,20 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>568631262647113771270412</t>
+          <t>568631262647113770680332</t>
         </is>
       </c>
       <c r="H34" t="n">
         <v>400</v>
       </c>
       <c r="I34" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>2025-03-05 18:38:36</t>
+          <t>2025-03-05 19:31:34</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -4931,7 +6594,7 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -4941,7 +6604,7 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>0x13</t>
+          <t>0x 9</t>
         </is>
       </c>
       <c r="F35" t="n">
@@ -4949,20 +6612,20 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>568631262647113771270412</t>
+          <t>568631262647113770680332</t>
         </is>
       </c>
       <c r="H35" t="n">
         <v>400</v>
       </c>
       <c r="I35" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>2025-03-05 19:38:36</t>
+          <t>2025-03-05 20:31:34</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -4972,7 +6635,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -4982,7 +6645,7 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>0x13</t>
+          <t>0x 9</t>
         </is>
       </c>
       <c r="F36" t="n">
@@ -4990,20 +6653,20 @@
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>568631262647113771270412</t>
+          <t>568631262647113770680332</t>
         </is>
       </c>
       <c r="H36" t="n">
         <v>400</v>
       </c>
       <c r="I36" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>2025-03-05 20:38:36</t>
+          <t>2025-03-05 21:31:34</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -5013,7 +6676,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -5023,7 +6686,7 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>0x13</t>
+          <t>0x 9</t>
         </is>
       </c>
       <c r="F37" t="n">
@@ -5031,1512 +6694,13 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>568631262647113771270412</t>
+          <t>568631262647113770680332</t>
         </is>
       </c>
       <c r="H37" t="n">
         <v>400</v>
       </c>
       <c r="I37" t="n">
-        <v>13</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:I36"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>time</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>总长</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>ID</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>实际长度</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>和校验</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>总长_DEC</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>ID_DEC</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>实际长度_DEC</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>和校验_DEC</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>45720.43858796296</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0x01,0x90 </t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>0x01,0x90,</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>0x 9</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>400</v>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>568631262647113770680332</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>400</v>
-      </c>
-      <c r="I2" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>2025-03-04 11:31:34</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0x01,0x90 </t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>0x01,0x90,</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>0x 9</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>400</v>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>568631262647113770680332</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>400</v>
-      </c>
-      <c r="I3" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>2025-03-04 12:31:34</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0x01,0x90 </t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>0x01,0x90,</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>0x 9</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>400</v>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>568631262647113770680332</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>400</v>
-      </c>
-      <c r="I4" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>2025-03-04 13:31:34</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0x01,0x90 </t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>0x01,0x90,</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>0x 9</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>400</v>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>568631262647113770680332</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>400</v>
-      </c>
-      <c r="I5" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>2025-03-04 14:31:34</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0x01,0x90 </t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0x01,0x90,</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>0x 9</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>400</v>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>568631262647113770680332</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>400</v>
-      </c>
-      <c r="I6" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>2025-03-04 15:31:34</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0x01,0x90 </t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>0x01,0x90,</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>0x 9</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>400</v>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>568631262647113770680332</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>400</v>
-      </c>
-      <c r="I7" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>2025-03-04 16:31:34</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0x01,0x90 </t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>0x01,0x90,</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>0x 9</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>400</v>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>568631262647113770680332</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>400</v>
-      </c>
-      <c r="I8" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>2025-03-04 17:31:34</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0x01,0x90 </t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>0x01,0x90,</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>0x 9</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>400</v>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>568631262647113770680332</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>400</v>
-      </c>
-      <c r="I9" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>2025-03-04 18:31:34</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0x01,0x90 </t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>0x01,0x90,</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>0x 9</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>400</v>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>568631262647113770680332</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>400</v>
-      </c>
-      <c r="I10" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>2025-03-04 19:31:34</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0x01,0x90 </t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>0x01,0x90,</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>0x 9</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>400</v>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>568631262647113770680332</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>400</v>
-      </c>
-      <c r="I11" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>2025-03-04 20:31:34</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0x01,0x90 </t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>0x01,0x90,</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>0x 9</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>400</v>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>568631262647113770680332</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>400</v>
-      </c>
-      <c r="I12" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>2025-03-04 21:31:34</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0x01,0x90 </t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>0x01,0x90,</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>0x 9</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>400</v>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>568631262647113770680332</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>400</v>
-      </c>
-      <c r="I13" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>2025-03-04 22:31:34</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0x01,0x90 </t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>0x01,0x90,</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>0x 9</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>400</v>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>568631262647113770680332</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>400</v>
-      </c>
-      <c r="I14" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>2025-03-04 23:31:34</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0x01,0x90 </t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>0x01,0x90,</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>0x 9</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>400</v>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>568631262647113770680332</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>400</v>
-      </c>
-      <c r="I15" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>2025-03-05 00:31:34</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0x01,0x90 </t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>0x01,0x90,</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>0x 9</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
-        <v>400</v>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>568631262647113770680332</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
-        <v>400</v>
-      </c>
-      <c r="I16" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>2025-03-05 01:31:34</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0x01,0x90 </t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>0x01,0x90,</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>0x 9</t>
-        </is>
-      </c>
-      <c r="F17" t="n">
-        <v>400</v>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>568631262647113770680332</t>
-        </is>
-      </c>
-      <c r="H17" t="n">
-        <v>400</v>
-      </c>
-      <c r="I17" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>2025-03-05 02:31:34</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0x01,0x90 </t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>0x01,0x90,</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>0x 9</t>
-        </is>
-      </c>
-      <c r="F18" t="n">
-        <v>400</v>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>568631262647113770680332</t>
-        </is>
-      </c>
-      <c r="H18" t="n">
-        <v>400</v>
-      </c>
-      <c r="I18" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>2025-03-05 03:31:34</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0x01,0x90 </t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>0x01,0x90,</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>0x 9</t>
-        </is>
-      </c>
-      <c r="F19" t="n">
-        <v>400</v>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>568631262647113770680332</t>
-        </is>
-      </c>
-      <c r="H19" t="n">
-        <v>400</v>
-      </c>
-      <c r="I19" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>2025-03-05 04:31:34</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0x01,0x90 </t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>0x01,0x90,</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>0x 9</t>
-        </is>
-      </c>
-      <c r="F20" t="n">
-        <v>400</v>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>568631262647113770680332</t>
-        </is>
-      </c>
-      <c r="H20" t="n">
-        <v>400</v>
-      </c>
-      <c r="I20" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>2025-03-05 05:31:34</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0x01,0x90 </t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>0x01,0x90,</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>0x 9</t>
-        </is>
-      </c>
-      <c r="F21" t="n">
-        <v>400</v>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>568631262647113770680332</t>
-        </is>
-      </c>
-      <c r="H21" t="n">
-        <v>400</v>
-      </c>
-      <c r="I21" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>2025-03-05 06:31:34</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0x01,0x90 </t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>0x01,0x90,</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>0x 9</t>
-        </is>
-      </c>
-      <c r="F22" t="n">
-        <v>400</v>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>568631262647113770680332</t>
-        </is>
-      </c>
-      <c r="H22" t="n">
-        <v>400</v>
-      </c>
-      <c r="I22" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>2025-03-05 07:31:34</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0x01,0x90 </t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>0x01,0x90,</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>0x 9</t>
-        </is>
-      </c>
-      <c r="F23" t="n">
-        <v>400</v>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>568631262647113770680332</t>
-        </is>
-      </c>
-      <c r="H23" t="n">
-        <v>400</v>
-      </c>
-      <c r="I23" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>2025-03-05 08:31:34</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0x01,0x90 </t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>0x01,0x90,</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>0x 9</t>
-        </is>
-      </c>
-      <c r="F24" t="n">
-        <v>400</v>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>568631262647113770680332</t>
-        </is>
-      </c>
-      <c r="H24" t="n">
-        <v>400</v>
-      </c>
-      <c r="I24" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>2025-03-05 09:31:34</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0x01,0x90 </t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>0x01,0x90,</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>0x 9</t>
-        </is>
-      </c>
-      <c r="F25" t="n">
-        <v>400</v>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>568631262647113770680332</t>
-        </is>
-      </c>
-      <c r="H25" t="n">
-        <v>400</v>
-      </c>
-      <c r="I25" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>2025-03-05 10:31:34</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0x01,0x90 </t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>0x01,0x90,</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>0x 9</t>
-        </is>
-      </c>
-      <c r="F26" t="n">
-        <v>400</v>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>568631262647113770680332</t>
-        </is>
-      </c>
-      <c r="H26" t="n">
-        <v>400</v>
-      </c>
-      <c r="I26" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>2025-03-05 11:31:34</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0x01,0x90 </t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>0x01,0x90,</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>0x 9</t>
-        </is>
-      </c>
-      <c r="F27" t="n">
-        <v>400</v>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>568631262647113770680332</t>
-        </is>
-      </c>
-      <c r="H27" t="n">
-        <v>400</v>
-      </c>
-      <c r="I27" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>2025-03-05 12:31:34</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0x01,0x90 </t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>0x01,0x90,</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>0x 9</t>
-        </is>
-      </c>
-      <c r="F28" t="n">
-        <v>400</v>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>568631262647113770680332</t>
-        </is>
-      </c>
-      <c r="H28" t="n">
-        <v>400</v>
-      </c>
-      <c r="I28" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>2025-03-05 13:31:34</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0x01,0x90 </t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>0x01,0x90,</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>0x 9</t>
-        </is>
-      </c>
-      <c r="F29" t="n">
-        <v>400</v>
-      </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>568631262647113770680332</t>
-        </is>
-      </c>
-      <c r="H29" t="n">
-        <v>400</v>
-      </c>
-      <c r="I29" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>2025-03-05 14:31:34</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0x01,0x90 </t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>0x01,0x90,</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>0x 9</t>
-        </is>
-      </c>
-      <c r="F30" t="n">
-        <v>400</v>
-      </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>568631262647113770680332</t>
-        </is>
-      </c>
-      <c r="H30" t="n">
-        <v>400</v>
-      </c>
-      <c r="I30" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>2025-03-05 15:31:34</t>
-        </is>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0x01,0x90 </t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>0x01,0x90,</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>0x 9</t>
-        </is>
-      </c>
-      <c r="F31" t="n">
-        <v>400</v>
-      </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>568631262647113770680332</t>
-        </is>
-      </c>
-      <c r="H31" t="n">
-        <v>400</v>
-      </c>
-      <c r="I31" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>2025-03-05 16:31:34</t>
-        </is>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0x01,0x90 </t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>0x01,0x90,</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>0x 9</t>
-        </is>
-      </c>
-      <c r="F32" t="n">
-        <v>400</v>
-      </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>568631262647113770680332</t>
-        </is>
-      </c>
-      <c r="H32" t="n">
-        <v>400</v>
-      </c>
-      <c r="I32" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>2025-03-05 17:31:34</t>
-        </is>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0x01,0x90 </t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>0x01,0x90,</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>0x 9</t>
-        </is>
-      </c>
-      <c r="F33" t="n">
-        <v>400</v>
-      </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>568631262647113770680332</t>
-        </is>
-      </c>
-      <c r="H33" t="n">
-        <v>400</v>
-      </c>
-      <c r="I33" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>2025-03-05 18:31:34</t>
-        </is>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0x01,0x90 </t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>0x01,0x90,</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>0x 9</t>
-        </is>
-      </c>
-      <c r="F34" t="n">
-        <v>400</v>
-      </c>
-      <c r="G34" t="inlineStr">
-        <is>
-          <t>568631262647113770680332</t>
-        </is>
-      </c>
-      <c r="H34" t="n">
-        <v>400</v>
-      </c>
-      <c r="I34" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>2025-03-05 19:31:34</t>
-        </is>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0x01,0x90 </t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>0x01,0x90,</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>0x 9</t>
-        </is>
-      </c>
-      <c r="F35" t="n">
-        <v>400</v>
-      </c>
-      <c r="G35" t="inlineStr">
-        <is>
-          <t>568631262647113770680332</t>
-        </is>
-      </c>
-      <c r="H35" t="n">
-        <v>400</v>
-      </c>
-      <c r="I35" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>2025-03-05 20:31:34</t>
-        </is>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0x01,0x90 </t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>0x01,0x90,</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>0x 9</t>
-        </is>
-      </c>
-      <c r="F36" t="n">
-        <v>400</v>
-      </c>
-      <c r="G36" t="inlineStr">
-        <is>
-          <t>568631262647113770680332</t>
-        </is>
-      </c>
-      <c r="H36" t="n">
-        <v>400</v>
-      </c>
-      <c r="I36" t="n">
         <v>9</v>
       </c>
     </row>

--- a/SAG2_sensor_data_with_decimal_filtered_updated.xlsx
+++ b/SAG2_sensor_data_with_decimal_filtered_updated.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I37"/>
+  <dimension ref="A1:I38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1961,12 +1961,1716 @@
         <v>14</v>
       </c>
     </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>2025-03-05 22:18:04</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1b,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>0x14</t>
+        </is>
+      </c>
+      <c r="F38" t="n">
+        <v>400</v>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>568631262647113771335948</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>400</v>
+      </c>
+      <c r="I38" t="n">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I40"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>time</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>总长</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>实际长度</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>和校验</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>总长_DEC</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>ID_DEC</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>实际长度_DEC</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>和校验_DEC</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>45720.34188657408</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F2" t="n">
+        <v>400</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>400</v>
+      </c>
+      <c r="I2" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2025-03-04 09:12:19</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F3" t="n">
+        <v>400</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>400</v>
+      </c>
+      <c r="I3" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>2025-03-04 10:12:19</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F4" t="n">
+        <v>400</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>400</v>
+      </c>
+      <c r="I4" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>2025-03-04 11:12:19</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F5" t="n">
+        <v>400</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>400</v>
+      </c>
+      <c r="I5" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>2025-03-04 12:12:19</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F6" t="n">
+        <v>400</v>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>400</v>
+      </c>
+      <c r="I6" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>2025-03-04 13:12:19</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F7" t="n">
+        <v>400</v>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>400</v>
+      </c>
+      <c r="I7" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>2025-03-04 14:12:19</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F8" t="n">
+        <v>400</v>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>400</v>
+      </c>
+      <c r="I8" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>2025-03-04 15:12:19</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F9" t="n">
+        <v>400</v>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>400</v>
+      </c>
+      <c r="I9" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>2025-03-04 16:12:19</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F10" t="n">
+        <v>400</v>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>400</v>
+      </c>
+      <c r="I10" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>2025-03-04 17:12:19</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F11" t="n">
+        <v>400</v>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>400</v>
+      </c>
+      <c r="I11" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>2025-03-04 18:12:19</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F12" t="n">
+        <v>400</v>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>400</v>
+      </c>
+      <c r="I12" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>2025-03-04 19:12:19</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F13" t="n">
+        <v>400</v>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>400</v>
+      </c>
+      <c r="I13" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>2025-03-04 20:12:19</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F14" t="n">
+        <v>400</v>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>400</v>
+      </c>
+      <c r="I14" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>2025-03-04 21:12:19</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F15" t="n">
+        <v>400</v>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>400</v>
+      </c>
+      <c r="I15" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>2025-03-04 22:12:19</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F16" t="n">
+        <v>400</v>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>400</v>
+      </c>
+      <c r="I16" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>2025-03-04 23:12:19</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F17" t="n">
+        <v>400</v>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>400</v>
+      </c>
+      <c r="I17" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>2025-03-05 00:12:19</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F18" t="n">
+        <v>400</v>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>400</v>
+      </c>
+      <c r="I18" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>2025-03-05 01:12:19</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F19" t="n">
+        <v>400</v>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>400</v>
+      </c>
+      <c r="I19" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>2025-03-05 02:12:19</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F20" t="n">
+        <v>400</v>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>400</v>
+      </c>
+      <c r="I20" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>2025-03-05 03:12:19</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F21" t="n">
+        <v>400</v>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>400</v>
+      </c>
+      <c r="I21" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>2025-03-05 04:12:19</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F22" t="n">
+        <v>400</v>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>400</v>
+      </c>
+      <c r="I22" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>2025-03-05 05:12:19</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F23" t="n">
+        <v>400</v>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>400</v>
+      </c>
+      <c r="I23" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>2025-03-05 06:12:19</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F24" t="n">
+        <v>400</v>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>400</v>
+      </c>
+      <c r="I24" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>2025-03-05 07:12:19</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F25" t="n">
+        <v>400</v>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>400</v>
+      </c>
+      <c r="I25" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>2025-03-05 08:12:19</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F26" t="n">
+        <v>400</v>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>400</v>
+      </c>
+      <c r="I26" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>2025-03-05 09:12:19</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F27" t="n">
+        <v>400</v>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>400</v>
+      </c>
+      <c r="I27" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>2025-03-05 10:12:19</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F28" t="n">
+        <v>400</v>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>400</v>
+      </c>
+      <c r="I28" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>2025-03-05 11:12:19</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F29" t="n">
+        <v>400</v>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>400</v>
+      </c>
+      <c r="I29" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>2025-03-05 12:12:19</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F30" t="n">
+        <v>400</v>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>400</v>
+      </c>
+      <c r="I30" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>2025-03-05 13:12:19</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F31" t="n">
+        <v>400</v>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>400</v>
+      </c>
+      <c r="I31" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>2025-03-05 14:12:19</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F32" t="n">
+        <v>400</v>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>400</v>
+      </c>
+      <c r="I32" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>2025-03-05 15:12:19</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F33" t="n">
+        <v>400</v>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>400</v>
+      </c>
+      <c r="I33" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>2025-03-05 16:12:19</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F34" t="n">
+        <v>400</v>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>400</v>
+      </c>
+      <c r="I34" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>2025-03-05 17:12:19</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F35" t="n">
+        <v>400</v>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>400</v>
+      </c>
+      <c r="I35" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>2025-03-05 18:12:19</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F36" t="n">
+        <v>400</v>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>400</v>
+      </c>
+      <c r="I36" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>2025-03-05 19:12:19</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F37" t="n">
+        <v>400</v>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>400</v>
+      </c>
+      <c r="I37" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>2025-03-05 20:12:19</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F38" t="n">
+        <v>400</v>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>400</v>
+      </c>
+      <c r="I38" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>2025-03-05 21:12:19</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F39" t="n">
+        <v>400</v>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>400</v>
+      </c>
+      <c r="I39" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>2025-03-05 22:12:19</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F40" t="n">
+        <v>400</v>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>400</v>
+      </c>
+      <c r="I40" t="n">
+        <v>25</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2029,7 +3733,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45720.34188657408</v>
+        <v>45720.40180555556</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -2038,7 +3742,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -2048,7 +3752,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>0x19</t>
+          <t>0x13</t>
         </is>
       </c>
       <c r="F2" t="n">
@@ -2056,20 +3760,20 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>568631262647113771663628</t>
+          <t>568631262647113771270412</t>
         </is>
       </c>
       <c r="H2" t="n">
         <v>400</v>
       </c>
       <c r="I2" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2025-03-04 09:12:19</t>
+          <t>2025-03-04 10:38:36</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -2079,7 +3783,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -2089,7 +3793,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>0x19</t>
+          <t>0x13</t>
         </is>
       </c>
       <c r="F3" t="n">
@@ -2097,20 +3801,20 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>568631262647113771663628</t>
+          <t>568631262647113771270412</t>
         </is>
       </c>
       <c r="H3" t="n">
         <v>400</v>
       </c>
       <c r="I3" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2025-03-04 10:12:19</t>
+          <t>2025-03-04 11:38:36</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -2120,7 +3824,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -2130,7 +3834,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>0x19</t>
+          <t>0x13</t>
         </is>
       </c>
       <c r="F4" t="n">
@@ -2138,20 +3842,20 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>568631262647113771663628</t>
+          <t>568631262647113771270412</t>
         </is>
       </c>
       <c r="H4" t="n">
         <v>400</v>
       </c>
       <c r="I4" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2025-03-04 11:12:19</t>
+          <t>2025-03-04 12:38:36</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -2161,7 +3865,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -2171,7 +3875,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>0x19</t>
+          <t>0x13</t>
         </is>
       </c>
       <c r="F5" t="n">
@@ -2179,20 +3883,20 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>568631262647113771663628</t>
+          <t>568631262647113771270412</t>
         </is>
       </c>
       <c r="H5" t="n">
         <v>400</v>
       </c>
       <c r="I5" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2025-03-04 12:12:19</t>
+          <t>2025-03-04 13:38:36</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -2202,7 +3906,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -2212,7 +3916,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>0x19</t>
+          <t>0x13</t>
         </is>
       </c>
       <c r="F6" t="n">
@@ -2220,20 +3924,20 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>568631262647113771663628</t>
+          <t>568631262647113771270412</t>
         </is>
       </c>
       <c r="H6" t="n">
         <v>400</v>
       </c>
       <c r="I6" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2025-03-04 13:12:19</t>
+          <t>2025-03-04 14:38:36</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -2243,7 +3947,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -2253,7 +3957,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>0x19</t>
+          <t>0x13</t>
         </is>
       </c>
       <c r="F7" t="n">
@@ -2261,20 +3965,20 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>568631262647113771663628</t>
+          <t>568631262647113771270412</t>
         </is>
       </c>
       <c r="H7" t="n">
         <v>400</v>
       </c>
       <c r="I7" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2025-03-04 14:12:19</t>
+          <t>2025-03-04 15:38:36</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -2284,7 +3988,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -2294,7 +3998,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>0x19</t>
+          <t>0x13</t>
         </is>
       </c>
       <c r="F8" t="n">
@@ -2302,20 +4006,20 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>568631262647113771663628</t>
+          <t>568631262647113771270412</t>
         </is>
       </c>
       <c r="H8" t="n">
         <v>400</v>
       </c>
       <c r="I8" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2025-03-04 15:12:19</t>
+          <t>2025-03-04 16:38:36</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -2325,7 +4029,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -2335,7 +4039,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>0x19</t>
+          <t>0x13</t>
         </is>
       </c>
       <c r="F9" t="n">
@@ -2343,20 +4047,20 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>568631262647113771663628</t>
+          <t>568631262647113771270412</t>
         </is>
       </c>
       <c r="H9" t="n">
         <v>400</v>
       </c>
       <c r="I9" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2025-03-04 16:12:19</t>
+          <t>2025-03-04 17:38:36</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -2366,7 +4070,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -2376,7 +4080,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>0x19</t>
+          <t>0x13</t>
         </is>
       </c>
       <c r="F10" t="n">
@@ -2384,20 +4088,20 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>568631262647113771663628</t>
+          <t>568631262647113771270412</t>
         </is>
       </c>
       <c r="H10" t="n">
         <v>400</v>
       </c>
       <c r="I10" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2025-03-04 17:12:19</t>
+          <t>2025-03-04 18:38:36</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -2407,7 +4111,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -2417,7 +4121,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>0x19</t>
+          <t>0x13</t>
         </is>
       </c>
       <c r="F11" t="n">
@@ -2425,20 +4129,20 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>568631262647113771663628</t>
+          <t>568631262647113771270412</t>
         </is>
       </c>
       <c r="H11" t="n">
         <v>400</v>
       </c>
       <c r="I11" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2025-03-04 18:12:19</t>
+          <t>2025-03-04 19:38:36</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2448,7 +4152,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -2458,7 +4162,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>0x19</t>
+          <t>0x13</t>
         </is>
       </c>
       <c r="F12" t="n">
@@ -2466,20 +4170,20 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>568631262647113771663628</t>
+          <t>568631262647113771270412</t>
         </is>
       </c>
       <c r="H12" t="n">
         <v>400</v>
       </c>
       <c r="I12" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2025-03-04 19:12:19</t>
+          <t>2025-03-04 20:38:36</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2489,7 +4193,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -2499,7 +4203,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>0x19</t>
+          <t>0x13</t>
         </is>
       </c>
       <c r="F13" t="n">
@@ -2507,20 +4211,20 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>568631262647113771663628</t>
+          <t>568631262647113771270412</t>
         </is>
       </c>
       <c r="H13" t="n">
         <v>400</v>
       </c>
       <c r="I13" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2025-03-04 20:12:19</t>
+          <t>2025-03-04 21:38:36</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -2530,7 +4234,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -2540,7 +4244,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>0x19</t>
+          <t>0x13</t>
         </is>
       </c>
       <c r="F14" t="n">
@@ -2548,20 +4252,20 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>568631262647113771663628</t>
+          <t>568631262647113771270412</t>
         </is>
       </c>
       <c r="H14" t="n">
         <v>400</v>
       </c>
       <c r="I14" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2025-03-04 21:12:19</t>
+          <t>2025-03-04 22:38:36</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -2571,7 +4275,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -2581,7 +4285,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>0x19</t>
+          <t>0x13</t>
         </is>
       </c>
       <c r="F15" t="n">
@@ -2589,20 +4293,20 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>568631262647113771663628</t>
+          <t>568631262647113771270412</t>
         </is>
       </c>
       <c r="H15" t="n">
         <v>400</v>
       </c>
       <c r="I15" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2025-03-04 22:12:19</t>
+          <t>2025-03-04 23:38:36</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -2612,7 +4316,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -2622,7 +4326,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>0x19</t>
+          <t>0x13</t>
         </is>
       </c>
       <c r="F16" t="n">
@@ -2630,20 +4334,20 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>568631262647113771663628</t>
+          <t>568631262647113771270412</t>
         </is>
       </c>
       <c r="H16" t="n">
         <v>400</v>
       </c>
       <c r="I16" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2025-03-04 23:12:19</t>
+          <t>2025-03-05 00:38:36</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -2653,7 +4357,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -2663,7 +4367,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>0x19</t>
+          <t>0x13</t>
         </is>
       </c>
       <c r="F17" t="n">
@@ -2671,20 +4375,20 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>568631262647113771663628</t>
+          <t>568631262647113771270412</t>
         </is>
       </c>
       <c r="H17" t="n">
         <v>400</v>
       </c>
       <c r="I17" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2025-03-05 00:12:19</t>
+          <t>2025-03-05 01:38:36</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -2694,7 +4398,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -2704,7 +4408,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>0x19</t>
+          <t>0x13</t>
         </is>
       </c>
       <c r="F18" t="n">
@@ -2712,20 +4416,20 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>568631262647113771663628</t>
+          <t>568631262647113771270412</t>
         </is>
       </c>
       <c r="H18" t="n">
         <v>400</v>
       </c>
       <c r="I18" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>2025-03-05 01:12:19</t>
+          <t>2025-03-05 02:38:36</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -2735,7 +4439,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -2745,7 +4449,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>0x19</t>
+          <t>0x13</t>
         </is>
       </c>
       <c r="F19" t="n">
@@ -2753,20 +4457,20 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>568631262647113771663628</t>
+          <t>568631262647113771270412</t>
         </is>
       </c>
       <c r="H19" t="n">
         <v>400</v>
       </c>
       <c r="I19" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2025-03-05 02:12:19</t>
+          <t>2025-03-05 03:38:36</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -2776,7 +4480,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -2786,7 +4490,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>0x19</t>
+          <t>0x13</t>
         </is>
       </c>
       <c r="F20" t="n">
@@ -2794,20 +4498,20 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>568631262647113771663628</t>
+          <t>568631262647113771270412</t>
         </is>
       </c>
       <c r="H20" t="n">
         <v>400</v>
       </c>
       <c r="I20" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>2025-03-05 03:12:19</t>
+          <t>2025-03-05 04:38:36</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -2817,7 +4521,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -2827,7 +4531,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>0x19</t>
+          <t>0x13</t>
         </is>
       </c>
       <c r="F21" t="n">
@@ -2835,20 +4539,20 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>568631262647113771663628</t>
+          <t>568631262647113771270412</t>
         </is>
       </c>
       <c r="H21" t="n">
         <v>400</v>
       </c>
       <c r="I21" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>2025-03-05 04:12:19</t>
+          <t>2025-03-05 05:38:36</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -2858,7 +4562,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -2868,7 +4572,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>0x19</t>
+          <t>0x13</t>
         </is>
       </c>
       <c r="F22" t="n">
@@ -2876,20 +4580,20 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>568631262647113771663628</t>
+          <t>568631262647113771270412</t>
         </is>
       </c>
       <c r="H22" t="n">
         <v>400</v>
       </c>
       <c r="I22" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>2025-03-05 05:12:19</t>
+          <t>2025-03-05 06:38:36</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -2899,7 +4603,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -2909,7 +4613,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>0x19</t>
+          <t>0x13</t>
         </is>
       </c>
       <c r="F23" t="n">
@@ -2917,20 +4621,20 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>568631262647113771663628</t>
+          <t>568631262647113771270412</t>
         </is>
       </c>
       <c r="H23" t="n">
         <v>400</v>
       </c>
       <c r="I23" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>2025-03-05 06:12:19</t>
+          <t>2025-03-05 07:38:36</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -2940,7 +4644,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -2950,7 +4654,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>0x19</t>
+          <t>0x13</t>
         </is>
       </c>
       <c r="F24" t="n">
@@ -2958,20 +4662,20 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>568631262647113771663628</t>
+          <t>568631262647113771270412</t>
         </is>
       </c>
       <c r="H24" t="n">
         <v>400</v>
       </c>
       <c r="I24" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>2025-03-05 07:12:19</t>
+          <t>2025-03-05 08:38:36</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -2981,7 +4685,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -2991,7 +4695,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>0x19</t>
+          <t>0x13</t>
         </is>
       </c>
       <c r="F25" t="n">
@@ -2999,20 +4703,20 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>568631262647113771663628</t>
+          <t>568631262647113771270412</t>
         </is>
       </c>
       <c r="H25" t="n">
         <v>400</v>
       </c>
       <c r="I25" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>2025-03-05 08:12:19</t>
+          <t>2025-03-05 09:38:36</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -3022,7 +4726,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -3032,7 +4736,7 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>0x19</t>
+          <t>0x13</t>
         </is>
       </c>
       <c r="F26" t="n">
@@ -3040,20 +4744,20 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>568631262647113771663628</t>
+          <t>568631262647113771270412</t>
         </is>
       </c>
       <c r="H26" t="n">
         <v>400</v>
       </c>
       <c r="I26" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>2025-03-05 09:12:19</t>
+          <t>2025-03-05 10:38:36</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -3063,7 +4767,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -3073,7 +4777,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>0x19</t>
+          <t>0x13</t>
         </is>
       </c>
       <c r="F27" t="n">
@@ -3081,20 +4785,20 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>568631262647113771663628</t>
+          <t>568631262647113771270412</t>
         </is>
       </c>
       <c r="H27" t="n">
         <v>400</v>
       </c>
       <c r="I27" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>2025-03-05 10:12:19</t>
+          <t>2025-03-05 11:38:36</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -3104,7 +4808,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -3114,7 +4818,7 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>0x19</t>
+          <t>0x13</t>
         </is>
       </c>
       <c r="F28" t="n">
@@ -3122,20 +4826,20 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>568631262647113771663628</t>
+          <t>568631262647113771270412</t>
         </is>
       </c>
       <c r="H28" t="n">
         <v>400</v>
       </c>
       <c r="I28" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>2025-03-05 11:12:19</t>
+          <t>2025-03-05 12:38:36</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -3145,7 +4849,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -3155,7 +4859,7 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>0x19</t>
+          <t>0x13</t>
         </is>
       </c>
       <c r="F29" t="n">
@@ -3163,20 +4867,20 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>568631262647113771663628</t>
+          <t>568631262647113771270412</t>
         </is>
       </c>
       <c r="H29" t="n">
         <v>400</v>
       </c>
       <c r="I29" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>2025-03-05 12:12:19</t>
+          <t>2025-03-05 13:38:36</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -3186,7 +4890,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -3196,7 +4900,7 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>0x19</t>
+          <t>0x13</t>
         </is>
       </c>
       <c r="F30" t="n">
@@ -3204,20 +4908,20 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>568631262647113771663628</t>
+          <t>568631262647113771270412</t>
         </is>
       </c>
       <c r="H30" t="n">
         <v>400</v>
       </c>
       <c r="I30" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>2025-03-05 13:12:19</t>
+          <t>2025-03-05 14:38:36</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -3227,7 +4931,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -3237,7 +4941,7 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>0x19</t>
+          <t>0x13</t>
         </is>
       </c>
       <c r="F31" t="n">
@@ -3245,20 +4949,20 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>568631262647113771663628</t>
+          <t>568631262647113771270412</t>
         </is>
       </c>
       <c r="H31" t="n">
         <v>400</v>
       </c>
       <c r="I31" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>2025-03-05 14:12:19</t>
+          <t>2025-03-05 15:38:36</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -3268,7 +4972,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -3278,7 +4982,7 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>0x19</t>
+          <t>0x13</t>
         </is>
       </c>
       <c r="F32" t="n">
@@ -3286,20 +4990,20 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>568631262647113771663628</t>
+          <t>568631262647113771270412</t>
         </is>
       </c>
       <c r="H32" t="n">
         <v>400</v>
       </c>
       <c r="I32" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>2025-03-05 15:12:19</t>
+          <t>2025-03-05 16:38:36</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -3309,7 +5013,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -3319,7 +5023,7 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>0x19</t>
+          <t>0x13</t>
         </is>
       </c>
       <c r="F33" t="n">
@@ -3327,20 +5031,20 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>568631262647113771663628</t>
+          <t>568631262647113771270412</t>
         </is>
       </c>
       <c r="H33" t="n">
         <v>400</v>
       </c>
       <c r="I33" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>2025-03-05 16:12:19</t>
+          <t>2025-03-05 17:38:36</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -3350,7 +5054,7 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -3360,7 +5064,7 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>0x19</t>
+          <t>0x13</t>
         </is>
       </c>
       <c r="F34" t="n">
@@ -3368,20 +5072,20 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>568631262647113771663628</t>
+          <t>568631262647113771270412</t>
         </is>
       </c>
       <c r="H34" t="n">
         <v>400</v>
       </c>
       <c r="I34" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>2025-03-05 17:12:19</t>
+          <t>2025-03-05 18:38:36</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -3391,7 +5095,7 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -3401,7 +5105,7 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>0x19</t>
+          <t>0x13</t>
         </is>
       </c>
       <c r="F35" t="n">
@@ -3409,20 +5113,20 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>568631262647113771663628</t>
+          <t>568631262647113771270412</t>
         </is>
       </c>
       <c r="H35" t="n">
         <v>400</v>
       </c>
       <c r="I35" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>2025-03-05 18:12:19</t>
+          <t>2025-03-05 19:38:36</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -3432,7 +5136,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -3442,7 +5146,7 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>0x19</t>
+          <t>0x13</t>
         </is>
       </c>
       <c r="F36" t="n">
@@ -3450,20 +5154,20 @@
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>568631262647113771663628</t>
+          <t>568631262647113771270412</t>
         </is>
       </c>
       <c r="H36" t="n">
         <v>400</v>
       </c>
       <c r="I36" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>2025-03-05 19:12:19</t>
+          <t>2025-03-05 20:38:36</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -3473,7 +5177,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -3483,7 +5187,7 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>0x19</t>
+          <t>0x13</t>
         </is>
       </c>
       <c r="F37" t="n">
@@ -3491,20 +5195,20 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>568631262647113771663628</t>
+          <t>568631262647113771270412</t>
         </is>
       </c>
       <c r="H37" t="n">
         <v>400</v>
       </c>
       <c r="I37" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>2025-03-05 20:12:19</t>
+          <t>2025-03-05 21:38:36</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -3514,7 +5218,7 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -3524,7 +5228,7 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>0x19</t>
+          <t>0x13</t>
         </is>
       </c>
       <c r="F38" t="n">
@@ -3532,20 +5236,20 @@
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>568631262647113771663628</t>
+          <t>568631262647113771270412</t>
         </is>
       </c>
       <c r="H38" t="n">
         <v>400</v>
       </c>
       <c r="I38" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>2025-03-05 21:12:19</t>
+          <t>2025-03-05 22:38:36</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -3555,7 +5259,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -3565,7 +5269,7 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>0x19</t>
+          <t>0x13</t>
         </is>
       </c>
       <c r="F39" t="n">
@@ -3573,14 +5277,14 @@
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>568631262647113771663628</t>
+          <t>568631262647113771270412</t>
         </is>
       </c>
       <c r="H39" t="n">
         <v>400</v>
       </c>
       <c r="I39" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -3588,7 +5292,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3651,7 +5355,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45720.40180555556</v>
+        <v>45720.43858796296</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -3660,7 +5364,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -3670,7 +5374,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>0x13</t>
+          <t>0x 9</t>
         </is>
       </c>
       <c r="F2" t="n">
@@ -3678,20 +5382,20 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>568631262647113771270412</t>
+          <t>568631262647113770680332</t>
         </is>
       </c>
       <c r="H2" t="n">
         <v>400</v>
       </c>
       <c r="I2" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2025-03-04 10:38:36</t>
+          <t>2025-03-04 11:31:34</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -3701,7 +5405,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -3711,7 +5415,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>0x13</t>
+          <t>0x 9</t>
         </is>
       </c>
       <c r="F3" t="n">
@@ -3719,20 +5423,20 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>568631262647113771270412</t>
+          <t>568631262647113770680332</t>
         </is>
       </c>
       <c r="H3" t="n">
         <v>400</v>
       </c>
       <c r="I3" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2025-03-04 11:38:36</t>
+          <t>2025-03-04 12:31:34</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -3742,7 +5446,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -3752,7 +5456,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>0x13</t>
+          <t>0x 9</t>
         </is>
       </c>
       <c r="F4" t="n">
@@ -3760,20 +5464,20 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>568631262647113771270412</t>
+          <t>568631262647113770680332</t>
         </is>
       </c>
       <c r="H4" t="n">
         <v>400</v>
       </c>
       <c r="I4" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2025-03-04 12:38:36</t>
+          <t>2025-03-04 13:31:34</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -3783,7 +5487,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -3793,7 +5497,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>0x13</t>
+          <t>0x 9</t>
         </is>
       </c>
       <c r="F5" t="n">
@@ -3801,20 +5505,20 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>568631262647113771270412</t>
+          <t>568631262647113770680332</t>
         </is>
       </c>
       <c r="H5" t="n">
         <v>400</v>
       </c>
       <c r="I5" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2025-03-04 13:38:36</t>
+          <t>2025-03-04 14:31:34</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -3824,7 +5528,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -3834,7 +5538,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>0x13</t>
+          <t>0x 9</t>
         </is>
       </c>
       <c r="F6" t="n">
@@ -3842,20 +5546,20 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>568631262647113771270412</t>
+          <t>568631262647113770680332</t>
         </is>
       </c>
       <c r="H6" t="n">
         <v>400</v>
       </c>
       <c r="I6" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2025-03-04 14:38:36</t>
+          <t>2025-03-04 15:31:34</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -3865,7 +5569,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -3875,7 +5579,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>0x13</t>
+          <t>0x 9</t>
         </is>
       </c>
       <c r="F7" t="n">
@@ -3883,20 +5587,20 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>568631262647113771270412</t>
+          <t>568631262647113770680332</t>
         </is>
       </c>
       <c r="H7" t="n">
         <v>400</v>
       </c>
       <c r="I7" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2025-03-04 15:38:36</t>
+          <t>2025-03-04 16:31:34</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -3906,7 +5610,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -3916,7 +5620,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>0x13</t>
+          <t>0x 9</t>
         </is>
       </c>
       <c r="F8" t="n">
@@ -3924,20 +5628,20 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>568631262647113771270412</t>
+          <t>568631262647113770680332</t>
         </is>
       </c>
       <c r="H8" t="n">
         <v>400</v>
       </c>
       <c r="I8" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2025-03-04 16:38:36</t>
+          <t>2025-03-04 17:31:34</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -3947,7 +5651,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -3957,7 +5661,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>0x13</t>
+          <t>0x 9</t>
         </is>
       </c>
       <c r="F9" t="n">
@@ -3965,20 +5669,20 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>568631262647113771270412</t>
+          <t>568631262647113770680332</t>
         </is>
       </c>
       <c r="H9" t="n">
         <v>400</v>
       </c>
       <c r="I9" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2025-03-04 17:38:36</t>
+          <t>2025-03-04 18:31:34</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -3988,7 +5692,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -3998,7 +5702,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>0x13</t>
+          <t>0x 9</t>
         </is>
       </c>
       <c r="F10" t="n">
@@ -4006,20 +5710,20 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>568631262647113771270412</t>
+          <t>568631262647113770680332</t>
         </is>
       </c>
       <c r="H10" t="n">
         <v>400</v>
       </c>
       <c r="I10" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2025-03-04 18:38:36</t>
+          <t>2025-03-04 19:31:34</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -4029,7 +5733,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -4039,7 +5743,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>0x13</t>
+          <t>0x 9</t>
         </is>
       </c>
       <c r="F11" t="n">
@@ -4047,20 +5751,20 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>568631262647113771270412</t>
+          <t>568631262647113770680332</t>
         </is>
       </c>
       <c r="H11" t="n">
         <v>400</v>
       </c>
       <c r="I11" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2025-03-04 19:38:36</t>
+          <t>2025-03-04 20:31:34</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -4070,7 +5774,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -4080,7 +5784,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>0x13</t>
+          <t>0x 9</t>
         </is>
       </c>
       <c r="F12" t="n">
@@ -4088,20 +5792,20 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>568631262647113771270412</t>
+          <t>568631262647113770680332</t>
         </is>
       </c>
       <c r="H12" t="n">
         <v>400</v>
       </c>
       <c r="I12" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2025-03-04 20:38:36</t>
+          <t>2025-03-04 21:31:34</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -4111,7 +5815,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -4121,7 +5825,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>0x13</t>
+          <t>0x 9</t>
         </is>
       </c>
       <c r="F13" t="n">
@@ -4129,20 +5833,20 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>568631262647113771270412</t>
+          <t>568631262647113770680332</t>
         </is>
       </c>
       <c r="H13" t="n">
         <v>400</v>
       </c>
       <c r="I13" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2025-03-04 21:38:36</t>
+          <t>2025-03-04 22:31:34</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -4152,7 +5856,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -4162,7 +5866,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>0x13</t>
+          <t>0x 9</t>
         </is>
       </c>
       <c r="F14" t="n">
@@ -4170,20 +5874,20 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>568631262647113771270412</t>
+          <t>568631262647113770680332</t>
         </is>
       </c>
       <c r="H14" t="n">
         <v>400</v>
       </c>
       <c r="I14" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2025-03-04 22:38:36</t>
+          <t>2025-03-04 23:31:34</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -4193,7 +5897,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -4203,7 +5907,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>0x13</t>
+          <t>0x 9</t>
         </is>
       </c>
       <c r="F15" t="n">
@@ -4211,20 +5915,20 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>568631262647113771270412</t>
+          <t>568631262647113770680332</t>
         </is>
       </c>
       <c r="H15" t="n">
         <v>400</v>
       </c>
       <c r="I15" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2025-03-04 23:38:36</t>
+          <t>2025-03-05 00:31:34</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -4234,7 +5938,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -4244,7 +5948,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>0x13</t>
+          <t>0x 9</t>
         </is>
       </c>
       <c r="F16" t="n">
@@ -4252,20 +5956,20 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>568631262647113771270412</t>
+          <t>568631262647113770680332</t>
         </is>
       </c>
       <c r="H16" t="n">
         <v>400</v>
       </c>
       <c r="I16" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2025-03-05 00:38:36</t>
+          <t>2025-03-05 01:31:34</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -4275,7 +5979,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -4285,7 +5989,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>0x13</t>
+          <t>0x 9</t>
         </is>
       </c>
       <c r="F17" t="n">
@@ -4293,20 +5997,20 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>568631262647113771270412</t>
+          <t>568631262647113770680332</t>
         </is>
       </c>
       <c r="H17" t="n">
         <v>400</v>
       </c>
       <c r="I17" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2025-03-05 01:38:36</t>
+          <t>2025-03-05 02:31:34</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -4316,7 +6020,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -4326,7 +6030,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>0x13</t>
+          <t>0x 9</t>
         </is>
       </c>
       <c r="F18" t="n">
@@ -4334,20 +6038,20 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>568631262647113771270412</t>
+          <t>568631262647113770680332</t>
         </is>
       </c>
       <c r="H18" t="n">
         <v>400</v>
       </c>
       <c r="I18" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>2025-03-05 02:38:36</t>
+          <t>2025-03-05 03:31:34</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -4357,7 +6061,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -4367,7 +6071,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>0x13</t>
+          <t>0x 9</t>
         </is>
       </c>
       <c r="F19" t="n">
@@ -4375,20 +6079,20 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>568631262647113771270412</t>
+          <t>568631262647113770680332</t>
         </is>
       </c>
       <c r="H19" t="n">
         <v>400</v>
       </c>
       <c r="I19" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2025-03-05 03:38:36</t>
+          <t>2025-03-05 04:31:34</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -4398,7 +6102,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -4408,7 +6112,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>0x13</t>
+          <t>0x 9</t>
         </is>
       </c>
       <c r="F20" t="n">
@@ -4416,20 +6120,20 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>568631262647113771270412</t>
+          <t>568631262647113770680332</t>
         </is>
       </c>
       <c r="H20" t="n">
         <v>400</v>
       </c>
       <c r="I20" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>2025-03-05 04:38:36</t>
+          <t>2025-03-05 05:31:34</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -4439,7 +6143,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -4449,7 +6153,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>0x13</t>
+          <t>0x 9</t>
         </is>
       </c>
       <c r="F21" t="n">
@@ -4457,20 +6161,20 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>568631262647113771270412</t>
+          <t>568631262647113770680332</t>
         </is>
       </c>
       <c r="H21" t="n">
         <v>400</v>
       </c>
       <c r="I21" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>2025-03-05 05:38:36</t>
+          <t>2025-03-05 06:31:34</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -4480,7 +6184,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -4490,7 +6194,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>0x13</t>
+          <t>0x 9</t>
         </is>
       </c>
       <c r="F22" t="n">
@@ -4498,20 +6202,20 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>568631262647113771270412</t>
+          <t>568631262647113770680332</t>
         </is>
       </c>
       <c r="H22" t="n">
         <v>400</v>
       </c>
       <c r="I22" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>2025-03-05 06:38:36</t>
+          <t>2025-03-05 07:31:34</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -4521,7 +6225,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -4531,7 +6235,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>0x13</t>
+          <t>0x 9</t>
         </is>
       </c>
       <c r="F23" t="n">
@@ -4539,20 +6243,20 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>568631262647113771270412</t>
+          <t>568631262647113770680332</t>
         </is>
       </c>
       <c r="H23" t="n">
         <v>400</v>
       </c>
       <c r="I23" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>2025-03-05 07:38:36</t>
+          <t>2025-03-05 08:31:34</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -4562,7 +6266,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -4572,7 +6276,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>0x13</t>
+          <t>0x 9</t>
         </is>
       </c>
       <c r="F24" t="n">
@@ -4580,20 +6284,20 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>568631262647113771270412</t>
+          <t>568631262647113770680332</t>
         </is>
       </c>
       <c r="H24" t="n">
         <v>400</v>
       </c>
       <c r="I24" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>2025-03-05 08:38:36</t>
+          <t>2025-03-05 09:31:34</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -4603,7 +6307,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -4613,7 +6317,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>0x13</t>
+          <t>0x 9</t>
         </is>
       </c>
       <c r="F25" t="n">
@@ -4621,20 +6325,20 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>568631262647113771270412</t>
+          <t>568631262647113770680332</t>
         </is>
       </c>
       <c r="H25" t="n">
         <v>400</v>
       </c>
       <c r="I25" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>2025-03-05 09:38:36</t>
+          <t>2025-03-05 10:31:34</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -4644,7 +6348,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -4654,7 +6358,7 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>0x13</t>
+          <t>0x 9</t>
         </is>
       </c>
       <c r="F26" t="n">
@@ -4662,20 +6366,20 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>568631262647113771270412</t>
+          <t>568631262647113770680332</t>
         </is>
       </c>
       <c r="H26" t="n">
         <v>400</v>
       </c>
       <c r="I26" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>2025-03-05 10:38:36</t>
+          <t>2025-03-05 11:31:34</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -4685,7 +6389,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -4695,7 +6399,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>0x13</t>
+          <t>0x 9</t>
         </is>
       </c>
       <c r="F27" t="n">
@@ -4703,20 +6407,20 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>568631262647113771270412</t>
+          <t>568631262647113770680332</t>
         </is>
       </c>
       <c r="H27" t="n">
         <v>400</v>
       </c>
       <c r="I27" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>2025-03-05 11:38:36</t>
+          <t>2025-03-05 12:31:34</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -4726,7 +6430,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -4736,7 +6440,7 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>0x13</t>
+          <t>0x 9</t>
         </is>
       </c>
       <c r="F28" t="n">
@@ -4744,20 +6448,20 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>568631262647113771270412</t>
+          <t>568631262647113770680332</t>
         </is>
       </c>
       <c r="H28" t="n">
         <v>400</v>
       </c>
       <c r="I28" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>2025-03-05 12:38:36</t>
+          <t>2025-03-05 13:31:34</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -4767,7 +6471,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -4777,7 +6481,7 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>0x13</t>
+          <t>0x 9</t>
         </is>
       </c>
       <c r="F29" t="n">
@@ -4785,20 +6489,20 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>568631262647113771270412</t>
+          <t>568631262647113770680332</t>
         </is>
       </c>
       <c r="H29" t="n">
         <v>400</v>
       </c>
       <c r="I29" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>2025-03-05 13:38:36</t>
+          <t>2025-03-05 14:31:34</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -4808,7 +6512,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -4818,7 +6522,7 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>0x13</t>
+          <t>0x 9</t>
         </is>
       </c>
       <c r="F30" t="n">
@@ -4826,20 +6530,20 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>568631262647113771270412</t>
+          <t>568631262647113770680332</t>
         </is>
       </c>
       <c r="H30" t="n">
         <v>400</v>
       </c>
       <c r="I30" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>2025-03-05 14:38:36</t>
+          <t>2025-03-05 15:31:34</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -4849,7 +6553,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -4859,7 +6563,7 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>0x13</t>
+          <t>0x 9</t>
         </is>
       </c>
       <c r="F31" t="n">
@@ -4867,20 +6571,20 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>568631262647113771270412</t>
+          <t>568631262647113770680332</t>
         </is>
       </c>
       <c r="H31" t="n">
         <v>400</v>
       </c>
       <c r="I31" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>2025-03-05 15:38:36</t>
+          <t>2025-03-05 16:31:34</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -4890,7 +6594,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -4900,7 +6604,7 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>0x13</t>
+          <t>0x 9</t>
         </is>
       </c>
       <c r="F32" t="n">
@@ -4908,20 +6612,20 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>568631262647113771270412</t>
+          <t>568631262647113770680332</t>
         </is>
       </c>
       <c r="H32" t="n">
         <v>400</v>
       </c>
       <c r="I32" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>2025-03-05 16:38:36</t>
+          <t>2025-03-05 17:31:34</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -4931,7 +6635,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -4941,7 +6645,7 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>0x13</t>
+          <t>0x 9</t>
         </is>
       </c>
       <c r="F33" t="n">
@@ -4949,20 +6653,20 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>568631262647113771270412</t>
+          <t>568631262647113770680332</t>
         </is>
       </c>
       <c r="H33" t="n">
         <v>400</v>
       </c>
       <c r="I33" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>2025-03-05 17:38:36</t>
+          <t>2025-03-05 18:31:34</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -4972,7 +6676,7 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -4982,7 +6686,7 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>0x13</t>
+          <t>0x 9</t>
         </is>
       </c>
       <c r="F34" t="n">
@@ -4990,20 +6694,20 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>568631262647113771270412</t>
+          <t>568631262647113770680332</t>
         </is>
       </c>
       <c r="H34" t="n">
         <v>400</v>
       </c>
       <c r="I34" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>2025-03-05 18:38:36</t>
+          <t>2025-03-05 19:31:34</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -5013,7 +6717,7 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -5023,7 +6727,7 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>0x13</t>
+          <t>0x 9</t>
         </is>
       </c>
       <c r="F35" t="n">
@@ -5031,20 +6735,20 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>568631262647113771270412</t>
+          <t>568631262647113770680332</t>
         </is>
       </c>
       <c r="H35" t="n">
         <v>400</v>
       </c>
       <c r="I35" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>2025-03-05 19:38:36</t>
+          <t>2025-03-05 20:31:34</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -5054,7 +6758,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -5064,7 +6768,7 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>0x13</t>
+          <t>0x 9</t>
         </is>
       </c>
       <c r="F36" t="n">
@@ -5072,20 +6776,20 @@
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>568631262647113771270412</t>
+          <t>568631262647113770680332</t>
         </is>
       </c>
       <c r="H36" t="n">
         <v>400</v>
       </c>
       <c r="I36" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>2025-03-05 20:38:36</t>
+          <t>2025-03-05 21:31:34</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -5095,7 +6799,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -5105,7 +6809,7 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>0x13</t>
+          <t>0x 9</t>
         </is>
       </c>
       <c r="F37" t="n">
@@ -5113,20 +6817,20 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>568631262647113771270412</t>
+          <t>568631262647113770680332</t>
         </is>
       </c>
       <c r="H37" t="n">
         <v>400</v>
       </c>
       <c r="I37" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>2025-03-05 21:38:36</t>
+          <t>2025-03-05 22:31:34</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -5136,7 +6840,7 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -5146,7 +6850,7 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>0x13</t>
+          <t>0x 9</t>
         </is>
       </c>
       <c r="F38" t="n">
@@ -5154,1553 +6858,13 @@
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>568631262647113771270412</t>
+          <t>568631262647113770680332</t>
         </is>
       </c>
       <c r="H38" t="n">
         <v>400</v>
       </c>
       <c r="I38" t="n">
-        <v>13</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:I37"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>time</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>总长</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>ID</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>实际长度</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>和校验</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>总长_DEC</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>ID_DEC</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>实际长度_DEC</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>和校验_DEC</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>45720.43858796296</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0x01,0x90 </t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>0x01,0x90,</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>0x 9</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>400</v>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>568631262647113770680332</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>400</v>
-      </c>
-      <c r="I2" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>2025-03-04 11:31:34</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0x01,0x90 </t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>0x01,0x90,</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>0x 9</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>400</v>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>568631262647113770680332</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>400</v>
-      </c>
-      <c r="I3" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>2025-03-04 12:31:34</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0x01,0x90 </t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>0x01,0x90,</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>0x 9</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>400</v>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>568631262647113770680332</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>400</v>
-      </c>
-      <c r="I4" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>2025-03-04 13:31:34</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0x01,0x90 </t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>0x01,0x90,</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>0x 9</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>400</v>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>568631262647113770680332</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>400</v>
-      </c>
-      <c r="I5" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>2025-03-04 14:31:34</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0x01,0x90 </t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0x01,0x90,</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>0x 9</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>400</v>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>568631262647113770680332</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>400</v>
-      </c>
-      <c r="I6" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>2025-03-04 15:31:34</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0x01,0x90 </t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>0x01,0x90,</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>0x 9</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>400</v>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>568631262647113770680332</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>400</v>
-      </c>
-      <c r="I7" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>2025-03-04 16:31:34</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0x01,0x90 </t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>0x01,0x90,</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>0x 9</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>400</v>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>568631262647113770680332</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>400</v>
-      </c>
-      <c r="I8" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>2025-03-04 17:31:34</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0x01,0x90 </t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>0x01,0x90,</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>0x 9</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>400</v>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>568631262647113770680332</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>400</v>
-      </c>
-      <c r="I9" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>2025-03-04 18:31:34</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0x01,0x90 </t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>0x01,0x90,</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>0x 9</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>400</v>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>568631262647113770680332</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>400</v>
-      </c>
-      <c r="I10" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>2025-03-04 19:31:34</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0x01,0x90 </t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>0x01,0x90,</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>0x 9</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>400</v>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>568631262647113770680332</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>400</v>
-      </c>
-      <c r="I11" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>2025-03-04 20:31:34</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0x01,0x90 </t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>0x01,0x90,</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>0x 9</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>400</v>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>568631262647113770680332</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>400</v>
-      </c>
-      <c r="I12" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>2025-03-04 21:31:34</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0x01,0x90 </t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>0x01,0x90,</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>0x 9</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>400</v>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>568631262647113770680332</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>400</v>
-      </c>
-      <c r="I13" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>2025-03-04 22:31:34</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0x01,0x90 </t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>0x01,0x90,</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>0x 9</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>400</v>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>568631262647113770680332</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>400</v>
-      </c>
-      <c r="I14" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>2025-03-04 23:31:34</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0x01,0x90 </t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>0x01,0x90,</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>0x 9</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>400</v>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>568631262647113770680332</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>400</v>
-      </c>
-      <c r="I15" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>2025-03-05 00:31:34</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0x01,0x90 </t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>0x01,0x90,</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>0x 9</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
-        <v>400</v>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>568631262647113770680332</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
-        <v>400</v>
-      </c>
-      <c r="I16" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>2025-03-05 01:31:34</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0x01,0x90 </t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>0x01,0x90,</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>0x 9</t>
-        </is>
-      </c>
-      <c r="F17" t="n">
-        <v>400</v>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>568631262647113770680332</t>
-        </is>
-      </c>
-      <c r="H17" t="n">
-        <v>400</v>
-      </c>
-      <c r="I17" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>2025-03-05 02:31:34</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0x01,0x90 </t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>0x01,0x90,</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>0x 9</t>
-        </is>
-      </c>
-      <c r="F18" t="n">
-        <v>400</v>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>568631262647113770680332</t>
-        </is>
-      </c>
-      <c r="H18" t="n">
-        <v>400</v>
-      </c>
-      <c r="I18" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>2025-03-05 03:31:34</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0x01,0x90 </t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>0x01,0x90,</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>0x 9</t>
-        </is>
-      </c>
-      <c r="F19" t="n">
-        <v>400</v>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>568631262647113770680332</t>
-        </is>
-      </c>
-      <c r="H19" t="n">
-        <v>400</v>
-      </c>
-      <c r="I19" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>2025-03-05 04:31:34</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0x01,0x90 </t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>0x01,0x90,</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>0x 9</t>
-        </is>
-      </c>
-      <c r="F20" t="n">
-        <v>400</v>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>568631262647113770680332</t>
-        </is>
-      </c>
-      <c r="H20" t="n">
-        <v>400</v>
-      </c>
-      <c r="I20" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>2025-03-05 05:31:34</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0x01,0x90 </t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>0x01,0x90,</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>0x 9</t>
-        </is>
-      </c>
-      <c r="F21" t="n">
-        <v>400</v>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>568631262647113770680332</t>
-        </is>
-      </c>
-      <c r="H21" t="n">
-        <v>400</v>
-      </c>
-      <c r="I21" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>2025-03-05 06:31:34</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0x01,0x90 </t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>0x01,0x90,</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>0x 9</t>
-        </is>
-      </c>
-      <c r="F22" t="n">
-        <v>400</v>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>568631262647113770680332</t>
-        </is>
-      </c>
-      <c r="H22" t="n">
-        <v>400</v>
-      </c>
-      <c r="I22" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>2025-03-05 07:31:34</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0x01,0x90 </t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>0x01,0x90,</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>0x 9</t>
-        </is>
-      </c>
-      <c r="F23" t="n">
-        <v>400</v>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>568631262647113770680332</t>
-        </is>
-      </c>
-      <c r="H23" t="n">
-        <v>400</v>
-      </c>
-      <c r="I23" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>2025-03-05 08:31:34</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0x01,0x90 </t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>0x01,0x90,</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>0x 9</t>
-        </is>
-      </c>
-      <c r="F24" t="n">
-        <v>400</v>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>568631262647113770680332</t>
-        </is>
-      </c>
-      <c r="H24" t="n">
-        <v>400</v>
-      </c>
-      <c r="I24" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>2025-03-05 09:31:34</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0x01,0x90 </t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>0x01,0x90,</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>0x 9</t>
-        </is>
-      </c>
-      <c r="F25" t="n">
-        <v>400</v>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>568631262647113770680332</t>
-        </is>
-      </c>
-      <c r="H25" t="n">
-        <v>400</v>
-      </c>
-      <c r="I25" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>2025-03-05 10:31:34</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0x01,0x90 </t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>0x01,0x90,</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>0x 9</t>
-        </is>
-      </c>
-      <c r="F26" t="n">
-        <v>400</v>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>568631262647113770680332</t>
-        </is>
-      </c>
-      <c r="H26" t="n">
-        <v>400</v>
-      </c>
-      <c r="I26" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>2025-03-05 11:31:34</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0x01,0x90 </t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>0x01,0x90,</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>0x 9</t>
-        </is>
-      </c>
-      <c r="F27" t="n">
-        <v>400</v>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>568631262647113770680332</t>
-        </is>
-      </c>
-      <c r="H27" t="n">
-        <v>400</v>
-      </c>
-      <c r="I27" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>2025-03-05 12:31:34</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0x01,0x90 </t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>0x01,0x90,</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>0x 9</t>
-        </is>
-      </c>
-      <c r="F28" t="n">
-        <v>400</v>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>568631262647113770680332</t>
-        </is>
-      </c>
-      <c r="H28" t="n">
-        <v>400</v>
-      </c>
-      <c r="I28" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>2025-03-05 13:31:34</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0x01,0x90 </t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>0x01,0x90,</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>0x 9</t>
-        </is>
-      </c>
-      <c r="F29" t="n">
-        <v>400</v>
-      </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>568631262647113770680332</t>
-        </is>
-      </c>
-      <c r="H29" t="n">
-        <v>400</v>
-      </c>
-      <c r="I29" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>2025-03-05 14:31:34</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0x01,0x90 </t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>0x01,0x90,</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>0x 9</t>
-        </is>
-      </c>
-      <c r="F30" t="n">
-        <v>400</v>
-      </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>568631262647113770680332</t>
-        </is>
-      </c>
-      <c r="H30" t="n">
-        <v>400</v>
-      </c>
-      <c r="I30" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>2025-03-05 15:31:34</t>
-        </is>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0x01,0x90 </t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>0x01,0x90,</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>0x 9</t>
-        </is>
-      </c>
-      <c r="F31" t="n">
-        <v>400</v>
-      </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>568631262647113770680332</t>
-        </is>
-      </c>
-      <c r="H31" t="n">
-        <v>400</v>
-      </c>
-      <c r="I31" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>2025-03-05 16:31:34</t>
-        </is>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0x01,0x90 </t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>0x01,0x90,</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>0x 9</t>
-        </is>
-      </c>
-      <c r="F32" t="n">
-        <v>400</v>
-      </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>568631262647113770680332</t>
-        </is>
-      </c>
-      <c r="H32" t="n">
-        <v>400</v>
-      </c>
-      <c r="I32" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>2025-03-05 17:31:34</t>
-        </is>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0x01,0x90 </t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>0x01,0x90,</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>0x 9</t>
-        </is>
-      </c>
-      <c r="F33" t="n">
-        <v>400</v>
-      </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>568631262647113770680332</t>
-        </is>
-      </c>
-      <c r="H33" t="n">
-        <v>400</v>
-      </c>
-      <c r="I33" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>2025-03-05 18:31:34</t>
-        </is>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0x01,0x90 </t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>0x01,0x90,</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>0x 9</t>
-        </is>
-      </c>
-      <c r="F34" t="n">
-        <v>400</v>
-      </c>
-      <c r="G34" t="inlineStr">
-        <is>
-          <t>568631262647113770680332</t>
-        </is>
-      </c>
-      <c r="H34" t="n">
-        <v>400</v>
-      </c>
-      <c r="I34" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>2025-03-05 19:31:34</t>
-        </is>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0x01,0x90 </t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>0x01,0x90,</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>0x 9</t>
-        </is>
-      </c>
-      <c r="F35" t="n">
-        <v>400</v>
-      </c>
-      <c r="G35" t="inlineStr">
-        <is>
-          <t>568631262647113770680332</t>
-        </is>
-      </c>
-      <c r="H35" t="n">
-        <v>400</v>
-      </c>
-      <c r="I35" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>2025-03-05 20:31:34</t>
-        </is>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0x01,0x90 </t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>0x01,0x90,</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>0x 9</t>
-        </is>
-      </c>
-      <c r="F36" t="n">
-        <v>400</v>
-      </c>
-      <c r="G36" t="inlineStr">
-        <is>
-          <t>568631262647113770680332</t>
-        </is>
-      </c>
-      <c r="H36" t="n">
-        <v>400</v>
-      </c>
-      <c r="I36" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>2025-03-05 21:31:34</t>
-        </is>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0x01,0x90 </t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>0x01,0x90,</t>
-        </is>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>0x 9</t>
-        </is>
-      </c>
-      <c r="F37" t="n">
-        <v>400</v>
-      </c>
-      <c r="G37" t="inlineStr">
-        <is>
-          <t>568631262647113770680332</t>
-        </is>
-      </c>
-      <c r="H37" t="n">
-        <v>400</v>
-      </c>
-      <c r="I37" t="n">
         <v>9</v>
       </c>
     </row>

--- a/SAG2_sensor_data_with_decimal_filtered_updated.xlsx
+++ b/SAG2_sensor_data_with_decimal_filtered_updated.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I38"/>
+  <dimension ref="A1:I39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2002,12 +2002,1757 @@
         <v>14</v>
       </c>
     </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>2025-03-05 23:18:04</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1b,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>0x14</t>
+        </is>
+      </c>
+      <c r="F39" t="n">
+        <v>400</v>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>568631262647113771335948</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>400</v>
+      </c>
+      <c r="I39" t="n">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I41"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>time</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>总长</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>实际长度</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>和校验</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>总长_DEC</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>ID_DEC</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>实际长度_DEC</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>和校验_DEC</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>45720.34188657408</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F2" t="n">
+        <v>400</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>400</v>
+      </c>
+      <c r="I2" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2025-03-04 09:12:19</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F3" t="n">
+        <v>400</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>400</v>
+      </c>
+      <c r="I3" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>2025-03-04 10:12:19</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F4" t="n">
+        <v>400</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>400</v>
+      </c>
+      <c r="I4" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>2025-03-04 11:12:19</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F5" t="n">
+        <v>400</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>400</v>
+      </c>
+      <c r="I5" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>2025-03-04 12:12:19</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F6" t="n">
+        <v>400</v>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>400</v>
+      </c>
+      <c r="I6" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>2025-03-04 13:12:19</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F7" t="n">
+        <v>400</v>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>400</v>
+      </c>
+      <c r="I7" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>2025-03-04 14:12:19</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F8" t="n">
+        <v>400</v>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>400</v>
+      </c>
+      <c r="I8" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>2025-03-04 15:12:19</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F9" t="n">
+        <v>400</v>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>400</v>
+      </c>
+      <c r="I9" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>2025-03-04 16:12:19</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F10" t="n">
+        <v>400</v>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>400</v>
+      </c>
+      <c r="I10" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>2025-03-04 17:12:19</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F11" t="n">
+        <v>400</v>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>400</v>
+      </c>
+      <c r="I11" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>2025-03-04 18:12:19</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F12" t="n">
+        <v>400</v>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>400</v>
+      </c>
+      <c r="I12" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>2025-03-04 19:12:19</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F13" t="n">
+        <v>400</v>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>400</v>
+      </c>
+      <c r="I13" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>2025-03-04 20:12:19</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F14" t="n">
+        <v>400</v>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>400</v>
+      </c>
+      <c r="I14" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>2025-03-04 21:12:19</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F15" t="n">
+        <v>400</v>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>400</v>
+      </c>
+      <c r="I15" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>2025-03-04 22:12:19</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F16" t="n">
+        <v>400</v>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>400</v>
+      </c>
+      <c r="I16" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>2025-03-04 23:12:19</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F17" t="n">
+        <v>400</v>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>400</v>
+      </c>
+      <c r="I17" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>2025-03-05 00:12:19</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F18" t="n">
+        <v>400</v>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>400</v>
+      </c>
+      <c r="I18" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>2025-03-05 01:12:19</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F19" t="n">
+        <v>400</v>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>400</v>
+      </c>
+      <c r="I19" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>2025-03-05 02:12:19</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F20" t="n">
+        <v>400</v>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>400</v>
+      </c>
+      <c r="I20" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>2025-03-05 03:12:19</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F21" t="n">
+        <v>400</v>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>400</v>
+      </c>
+      <c r="I21" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>2025-03-05 04:12:19</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F22" t="n">
+        <v>400</v>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>400</v>
+      </c>
+      <c r="I22" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>2025-03-05 05:12:19</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F23" t="n">
+        <v>400</v>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>400</v>
+      </c>
+      <c r="I23" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>2025-03-05 06:12:19</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F24" t="n">
+        <v>400</v>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>400</v>
+      </c>
+      <c r="I24" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>2025-03-05 07:12:19</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F25" t="n">
+        <v>400</v>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>400</v>
+      </c>
+      <c r="I25" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>2025-03-05 08:12:19</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F26" t="n">
+        <v>400</v>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>400</v>
+      </c>
+      <c r="I26" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>2025-03-05 09:12:19</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F27" t="n">
+        <v>400</v>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>400</v>
+      </c>
+      <c r="I27" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>2025-03-05 10:12:19</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F28" t="n">
+        <v>400</v>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>400</v>
+      </c>
+      <c r="I28" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>2025-03-05 11:12:19</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F29" t="n">
+        <v>400</v>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>400</v>
+      </c>
+      <c r="I29" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>2025-03-05 12:12:19</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F30" t="n">
+        <v>400</v>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>400</v>
+      </c>
+      <c r="I30" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>2025-03-05 13:12:19</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F31" t="n">
+        <v>400</v>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>400</v>
+      </c>
+      <c r="I31" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>2025-03-05 14:12:19</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F32" t="n">
+        <v>400</v>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>400</v>
+      </c>
+      <c r="I32" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>2025-03-05 15:12:19</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F33" t="n">
+        <v>400</v>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>400</v>
+      </c>
+      <c r="I33" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>2025-03-05 16:12:19</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F34" t="n">
+        <v>400</v>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>400</v>
+      </c>
+      <c r="I34" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>2025-03-05 17:12:19</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F35" t="n">
+        <v>400</v>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>400</v>
+      </c>
+      <c r="I35" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>2025-03-05 18:12:19</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F36" t="n">
+        <v>400</v>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>400</v>
+      </c>
+      <c r="I36" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>2025-03-05 19:12:19</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F37" t="n">
+        <v>400</v>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>400</v>
+      </c>
+      <c r="I37" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>2025-03-05 20:12:19</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F38" t="n">
+        <v>400</v>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>400</v>
+      </c>
+      <c r="I38" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>2025-03-05 21:12:19</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F39" t="n">
+        <v>400</v>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>400</v>
+      </c>
+      <c r="I39" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>2025-03-05 22:12:19</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F40" t="n">
+        <v>400</v>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>400</v>
+      </c>
+      <c r="I40" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>2025-03-05 23:12:19</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F41" t="n">
+        <v>400</v>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>400</v>
+      </c>
+      <c r="I41" t="n">
+        <v>25</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2070,7 +3815,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45720.34188657408</v>
+        <v>45720.40180555556</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -2079,7 +3824,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -2089,7 +3834,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>0x19</t>
+          <t>0x13</t>
         </is>
       </c>
       <c r="F2" t="n">
@@ -2097,20 +3842,20 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>568631262647113771663628</t>
+          <t>568631262647113771270412</t>
         </is>
       </c>
       <c r="H2" t="n">
         <v>400</v>
       </c>
       <c r="I2" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2025-03-04 09:12:19</t>
+          <t>2025-03-04 10:38:36</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -2120,7 +3865,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -2130,7 +3875,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>0x19</t>
+          <t>0x13</t>
         </is>
       </c>
       <c r="F3" t="n">
@@ -2138,20 +3883,20 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>568631262647113771663628</t>
+          <t>568631262647113771270412</t>
         </is>
       </c>
       <c r="H3" t="n">
         <v>400</v>
       </c>
       <c r="I3" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2025-03-04 10:12:19</t>
+          <t>2025-03-04 11:38:36</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -2161,7 +3906,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -2171,7 +3916,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>0x19</t>
+          <t>0x13</t>
         </is>
       </c>
       <c r="F4" t="n">
@@ -2179,20 +3924,20 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>568631262647113771663628</t>
+          <t>568631262647113771270412</t>
         </is>
       </c>
       <c r="H4" t="n">
         <v>400</v>
       </c>
       <c r="I4" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2025-03-04 11:12:19</t>
+          <t>2025-03-04 12:38:36</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -2202,7 +3947,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -2212,7 +3957,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>0x19</t>
+          <t>0x13</t>
         </is>
       </c>
       <c r="F5" t="n">
@@ -2220,20 +3965,20 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>568631262647113771663628</t>
+          <t>568631262647113771270412</t>
         </is>
       </c>
       <c r="H5" t="n">
         <v>400</v>
       </c>
       <c r="I5" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2025-03-04 12:12:19</t>
+          <t>2025-03-04 13:38:36</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -2243,7 +3988,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -2253,7 +3998,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>0x19</t>
+          <t>0x13</t>
         </is>
       </c>
       <c r="F6" t="n">
@@ -2261,20 +4006,20 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>568631262647113771663628</t>
+          <t>568631262647113771270412</t>
         </is>
       </c>
       <c r="H6" t="n">
         <v>400</v>
       </c>
       <c r="I6" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2025-03-04 13:12:19</t>
+          <t>2025-03-04 14:38:36</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -2284,7 +4029,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -2294,7 +4039,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>0x19</t>
+          <t>0x13</t>
         </is>
       </c>
       <c r="F7" t="n">
@@ -2302,20 +4047,20 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>568631262647113771663628</t>
+          <t>568631262647113771270412</t>
         </is>
       </c>
       <c r="H7" t="n">
         <v>400</v>
       </c>
       <c r="I7" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2025-03-04 14:12:19</t>
+          <t>2025-03-04 15:38:36</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -2325,7 +4070,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -2335,7 +4080,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>0x19</t>
+          <t>0x13</t>
         </is>
       </c>
       <c r="F8" t="n">
@@ -2343,20 +4088,20 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>568631262647113771663628</t>
+          <t>568631262647113771270412</t>
         </is>
       </c>
       <c r="H8" t="n">
         <v>400</v>
       </c>
       <c r="I8" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2025-03-04 15:12:19</t>
+          <t>2025-03-04 16:38:36</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -2366,7 +4111,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -2376,7 +4121,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>0x19</t>
+          <t>0x13</t>
         </is>
       </c>
       <c r="F9" t="n">
@@ -2384,20 +4129,20 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>568631262647113771663628</t>
+          <t>568631262647113771270412</t>
         </is>
       </c>
       <c r="H9" t="n">
         <v>400</v>
       </c>
       <c r="I9" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2025-03-04 16:12:19</t>
+          <t>2025-03-04 17:38:36</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -2407,7 +4152,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -2417,7 +4162,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>0x19</t>
+          <t>0x13</t>
         </is>
       </c>
       <c r="F10" t="n">
@@ -2425,20 +4170,20 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>568631262647113771663628</t>
+          <t>568631262647113771270412</t>
         </is>
       </c>
       <c r="H10" t="n">
         <v>400</v>
       </c>
       <c r="I10" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2025-03-04 17:12:19</t>
+          <t>2025-03-04 18:38:36</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -2448,7 +4193,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -2458,7 +4203,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>0x19</t>
+          <t>0x13</t>
         </is>
       </c>
       <c r="F11" t="n">
@@ -2466,20 +4211,20 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>568631262647113771663628</t>
+          <t>568631262647113771270412</t>
         </is>
       </c>
       <c r="H11" t="n">
         <v>400</v>
       </c>
       <c r="I11" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2025-03-04 18:12:19</t>
+          <t>2025-03-04 19:38:36</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2489,7 +4234,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -2499,7 +4244,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>0x19</t>
+          <t>0x13</t>
         </is>
       </c>
       <c r="F12" t="n">
@@ -2507,20 +4252,20 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>568631262647113771663628</t>
+          <t>568631262647113771270412</t>
         </is>
       </c>
       <c r="H12" t="n">
         <v>400</v>
       </c>
       <c r="I12" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2025-03-04 19:12:19</t>
+          <t>2025-03-04 20:38:36</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2530,7 +4275,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -2540,7 +4285,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>0x19</t>
+          <t>0x13</t>
         </is>
       </c>
       <c r="F13" t="n">
@@ -2548,20 +4293,20 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>568631262647113771663628</t>
+          <t>568631262647113771270412</t>
         </is>
       </c>
       <c r="H13" t="n">
         <v>400</v>
       </c>
       <c r="I13" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2025-03-04 20:12:19</t>
+          <t>2025-03-04 21:38:36</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -2571,7 +4316,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -2581,7 +4326,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>0x19</t>
+          <t>0x13</t>
         </is>
       </c>
       <c r="F14" t="n">
@@ -2589,20 +4334,20 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>568631262647113771663628</t>
+          <t>568631262647113771270412</t>
         </is>
       </c>
       <c r="H14" t="n">
         <v>400</v>
       </c>
       <c r="I14" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2025-03-04 21:12:19</t>
+          <t>2025-03-04 22:38:36</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -2612,7 +4357,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -2622,7 +4367,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>0x19</t>
+          <t>0x13</t>
         </is>
       </c>
       <c r="F15" t="n">
@@ -2630,20 +4375,20 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>568631262647113771663628</t>
+          <t>568631262647113771270412</t>
         </is>
       </c>
       <c r="H15" t="n">
         <v>400</v>
       </c>
       <c r="I15" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2025-03-04 22:12:19</t>
+          <t>2025-03-04 23:38:36</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -2653,7 +4398,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -2663,7 +4408,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>0x19</t>
+          <t>0x13</t>
         </is>
       </c>
       <c r="F16" t="n">
@@ -2671,20 +4416,20 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>568631262647113771663628</t>
+          <t>568631262647113771270412</t>
         </is>
       </c>
       <c r="H16" t="n">
         <v>400</v>
       </c>
       <c r="I16" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2025-03-04 23:12:19</t>
+          <t>2025-03-05 00:38:36</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -2694,7 +4439,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -2704,7 +4449,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>0x19</t>
+          <t>0x13</t>
         </is>
       </c>
       <c r="F17" t="n">
@@ -2712,20 +4457,20 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>568631262647113771663628</t>
+          <t>568631262647113771270412</t>
         </is>
       </c>
       <c r="H17" t="n">
         <v>400</v>
       </c>
       <c r="I17" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2025-03-05 00:12:19</t>
+          <t>2025-03-05 01:38:36</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -2735,7 +4480,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -2745,7 +4490,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>0x19</t>
+          <t>0x13</t>
         </is>
       </c>
       <c r="F18" t="n">
@@ -2753,20 +4498,20 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>568631262647113771663628</t>
+          <t>568631262647113771270412</t>
         </is>
       </c>
       <c r="H18" t="n">
         <v>400</v>
       </c>
       <c r="I18" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>2025-03-05 01:12:19</t>
+          <t>2025-03-05 02:38:36</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -2776,7 +4521,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -2786,7 +4531,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>0x19</t>
+          <t>0x13</t>
         </is>
       </c>
       <c r="F19" t="n">
@@ -2794,20 +4539,20 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>568631262647113771663628</t>
+          <t>568631262647113771270412</t>
         </is>
       </c>
       <c r="H19" t="n">
         <v>400</v>
       </c>
       <c r="I19" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2025-03-05 02:12:19</t>
+          <t>2025-03-05 03:38:36</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -2817,7 +4562,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -2827,7 +4572,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>0x19</t>
+          <t>0x13</t>
         </is>
       </c>
       <c r="F20" t="n">
@@ -2835,20 +4580,20 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>568631262647113771663628</t>
+          <t>568631262647113771270412</t>
         </is>
       </c>
       <c r="H20" t="n">
         <v>400</v>
       </c>
       <c r="I20" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>2025-03-05 03:12:19</t>
+          <t>2025-03-05 04:38:36</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -2858,7 +4603,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -2868,7 +4613,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>0x19</t>
+          <t>0x13</t>
         </is>
       </c>
       <c r="F21" t="n">
@@ -2876,20 +4621,20 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>568631262647113771663628</t>
+          <t>568631262647113771270412</t>
         </is>
       </c>
       <c r="H21" t="n">
         <v>400</v>
       </c>
       <c r="I21" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>2025-03-05 04:12:19</t>
+          <t>2025-03-05 05:38:36</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -2899,7 +4644,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -2909,7 +4654,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>0x19</t>
+          <t>0x13</t>
         </is>
       </c>
       <c r="F22" t="n">
@@ -2917,20 +4662,20 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>568631262647113771663628</t>
+          <t>568631262647113771270412</t>
         </is>
       </c>
       <c r="H22" t="n">
         <v>400</v>
       </c>
       <c r="I22" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>2025-03-05 05:12:19</t>
+          <t>2025-03-05 06:38:36</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -2940,7 +4685,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -2950,7 +4695,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>0x19</t>
+          <t>0x13</t>
         </is>
       </c>
       <c r="F23" t="n">
@@ -2958,20 +4703,20 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>568631262647113771663628</t>
+          <t>568631262647113771270412</t>
         </is>
       </c>
       <c r="H23" t="n">
         <v>400</v>
       </c>
       <c r="I23" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>2025-03-05 06:12:19</t>
+          <t>2025-03-05 07:38:36</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -2981,7 +4726,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -2991,7 +4736,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>0x19</t>
+          <t>0x13</t>
         </is>
       </c>
       <c r="F24" t="n">
@@ -2999,20 +4744,20 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>568631262647113771663628</t>
+          <t>568631262647113771270412</t>
         </is>
       </c>
       <c r="H24" t="n">
         <v>400</v>
       </c>
       <c r="I24" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>2025-03-05 07:12:19</t>
+          <t>2025-03-05 08:38:36</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -3022,7 +4767,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -3032,7 +4777,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>0x19</t>
+          <t>0x13</t>
         </is>
       </c>
       <c r="F25" t="n">
@@ -3040,20 +4785,20 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>568631262647113771663628</t>
+          <t>568631262647113771270412</t>
         </is>
       </c>
       <c r="H25" t="n">
         <v>400</v>
       </c>
       <c r="I25" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>2025-03-05 08:12:19</t>
+          <t>2025-03-05 09:38:36</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -3063,7 +4808,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -3073,7 +4818,7 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>0x19</t>
+          <t>0x13</t>
         </is>
       </c>
       <c r="F26" t="n">
@@ -3081,20 +4826,20 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>568631262647113771663628</t>
+          <t>568631262647113771270412</t>
         </is>
       </c>
       <c r="H26" t="n">
         <v>400</v>
       </c>
       <c r="I26" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>2025-03-05 09:12:19</t>
+          <t>2025-03-05 10:38:36</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -3104,7 +4849,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -3114,7 +4859,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>0x19</t>
+          <t>0x13</t>
         </is>
       </c>
       <c r="F27" t="n">
@@ -3122,20 +4867,20 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>568631262647113771663628</t>
+          <t>568631262647113771270412</t>
         </is>
       </c>
       <c r="H27" t="n">
         <v>400</v>
       </c>
       <c r="I27" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>2025-03-05 10:12:19</t>
+          <t>2025-03-05 11:38:36</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -3145,7 +4890,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -3155,7 +4900,7 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>0x19</t>
+          <t>0x13</t>
         </is>
       </c>
       <c r="F28" t="n">
@@ -3163,20 +4908,20 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>568631262647113771663628</t>
+          <t>568631262647113771270412</t>
         </is>
       </c>
       <c r="H28" t="n">
         <v>400</v>
       </c>
       <c r="I28" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>2025-03-05 11:12:19</t>
+          <t>2025-03-05 12:38:36</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -3186,7 +4931,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -3196,7 +4941,7 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>0x19</t>
+          <t>0x13</t>
         </is>
       </c>
       <c r="F29" t="n">
@@ -3204,20 +4949,20 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>568631262647113771663628</t>
+          <t>568631262647113771270412</t>
         </is>
       </c>
       <c r="H29" t="n">
         <v>400</v>
       </c>
       <c r="I29" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>2025-03-05 12:12:19</t>
+          <t>2025-03-05 13:38:36</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -3227,7 +4972,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -3237,7 +4982,7 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>0x19</t>
+          <t>0x13</t>
         </is>
       </c>
       <c r="F30" t="n">
@@ -3245,20 +4990,20 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>568631262647113771663628</t>
+          <t>568631262647113771270412</t>
         </is>
       </c>
       <c r="H30" t="n">
         <v>400</v>
       </c>
       <c r="I30" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>2025-03-05 13:12:19</t>
+          <t>2025-03-05 14:38:36</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -3268,7 +5013,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -3278,7 +5023,7 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>0x19</t>
+          <t>0x13</t>
         </is>
       </c>
       <c r="F31" t="n">
@@ -3286,20 +5031,20 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>568631262647113771663628</t>
+          <t>568631262647113771270412</t>
         </is>
       </c>
       <c r="H31" t="n">
         <v>400</v>
       </c>
       <c r="I31" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>2025-03-05 14:12:19</t>
+          <t>2025-03-05 15:38:36</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -3309,7 +5054,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -3319,7 +5064,7 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>0x19</t>
+          <t>0x13</t>
         </is>
       </c>
       <c r="F32" t="n">
@@ -3327,20 +5072,20 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>568631262647113771663628</t>
+          <t>568631262647113771270412</t>
         </is>
       </c>
       <c r="H32" t="n">
         <v>400</v>
       </c>
       <c r="I32" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>2025-03-05 15:12:19</t>
+          <t>2025-03-05 16:38:36</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -3350,7 +5095,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -3360,7 +5105,7 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>0x19</t>
+          <t>0x13</t>
         </is>
       </c>
       <c r="F33" t="n">
@@ -3368,20 +5113,20 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>568631262647113771663628</t>
+          <t>568631262647113771270412</t>
         </is>
       </c>
       <c r="H33" t="n">
         <v>400</v>
       </c>
       <c r="I33" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>2025-03-05 16:12:19</t>
+          <t>2025-03-05 17:38:36</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -3391,7 +5136,7 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -3401,7 +5146,7 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>0x19</t>
+          <t>0x13</t>
         </is>
       </c>
       <c r="F34" t="n">
@@ -3409,20 +5154,20 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>568631262647113771663628</t>
+          <t>568631262647113771270412</t>
         </is>
       </c>
       <c r="H34" t="n">
         <v>400</v>
       </c>
       <c r="I34" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>2025-03-05 17:12:19</t>
+          <t>2025-03-05 18:38:36</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -3432,7 +5177,7 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -3442,7 +5187,7 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>0x19</t>
+          <t>0x13</t>
         </is>
       </c>
       <c r="F35" t="n">
@@ -3450,20 +5195,20 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>568631262647113771663628</t>
+          <t>568631262647113771270412</t>
         </is>
       </c>
       <c r="H35" t="n">
         <v>400</v>
       </c>
       <c r="I35" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>2025-03-05 18:12:19</t>
+          <t>2025-03-05 19:38:36</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -3473,7 +5218,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -3483,7 +5228,7 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>0x19</t>
+          <t>0x13</t>
         </is>
       </c>
       <c r="F36" t="n">
@@ -3491,20 +5236,20 @@
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>568631262647113771663628</t>
+          <t>568631262647113771270412</t>
         </is>
       </c>
       <c r="H36" t="n">
         <v>400</v>
       </c>
       <c r="I36" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>2025-03-05 19:12:19</t>
+          <t>2025-03-05 20:38:36</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -3514,7 +5259,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -3524,7 +5269,7 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>0x19</t>
+          <t>0x13</t>
         </is>
       </c>
       <c r="F37" t="n">
@@ -3532,20 +5277,20 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>568631262647113771663628</t>
+          <t>568631262647113771270412</t>
         </is>
       </c>
       <c r="H37" t="n">
         <v>400</v>
       </c>
       <c r="I37" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>2025-03-05 20:12:19</t>
+          <t>2025-03-05 21:38:36</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -3555,7 +5300,7 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -3565,7 +5310,7 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>0x19</t>
+          <t>0x13</t>
         </is>
       </c>
       <c r="F38" t="n">
@@ -3573,20 +5318,20 @@
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>568631262647113771663628</t>
+          <t>568631262647113771270412</t>
         </is>
       </c>
       <c r="H38" t="n">
         <v>400</v>
       </c>
       <c r="I38" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>2025-03-05 21:12:19</t>
+          <t>2025-03-05 22:38:36</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -3596,7 +5341,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -3606,7 +5351,7 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>0x19</t>
+          <t>0x13</t>
         </is>
       </c>
       <c r="F39" t="n">
@@ -3614,20 +5359,20 @@
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>568631262647113771663628</t>
+          <t>568631262647113771270412</t>
         </is>
       </c>
       <c r="H39" t="n">
         <v>400</v>
       </c>
       <c r="I39" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>2025-03-05 22:12:19</t>
+          <t>2025-03-05 23:38:36</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -3637,7 +5382,7 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -3647,7 +5392,7 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>0x19</t>
+          <t>0x13</t>
         </is>
       </c>
       <c r="F40" t="n">
@@ -3655,14 +5400,14 @@
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>568631262647113771663628</t>
+          <t>568631262647113771270412</t>
         </is>
       </c>
       <c r="H40" t="n">
         <v>400</v>
       </c>
       <c r="I40" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -3670,7 +5415,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3733,7 +5478,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45720.40180555556</v>
+        <v>45720.43858796296</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -3742,7 +5487,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -3752,7 +5497,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>0x13</t>
+          <t>0x 9</t>
         </is>
       </c>
       <c r="F2" t="n">
@@ -3760,20 +5505,20 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>568631262647113771270412</t>
+          <t>568631262647113770680332</t>
         </is>
       </c>
       <c r="H2" t="n">
         <v>400</v>
       </c>
       <c r="I2" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2025-03-04 10:38:36</t>
+          <t>2025-03-04 11:31:34</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -3783,7 +5528,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -3793,7 +5538,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>0x13</t>
+          <t>0x 9</t>
         </is>
       </c>
       <c r="F3" t="n">
@@ -3801,20 +5546,20 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>568631262647113771270412</t>
+          <t>568631262647113770680332</t>
         </is>
       </c>
       <c r="H3" t="n">
         <v>400</v>
       </c>
       <c r="I3" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2025-03-04 11:38:36</t>
+          <t>2025-03-04 12:31:34</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -3824,7 +5569,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -3834,7 +5579,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>0x13</t>
+          <t>0x 9</t>
         </is>
       </c>
       <c r="F4" t="n">
@@ -3842,20 +5587,20 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>568631262647113771270412</t>
+          <t>568631262647113770680332</t>
         </is>
       </c>
       <c r="H4" t="n">
         <v>400</v>
       </c>
       <c r="I4" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2025-03-04 12:38:36</t>
+          <t>2025-03-04 13:31:34</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -3865,7 +5610,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -3875,7 +5620,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>0x13</t>
+          <t>0x 9</t>
         </is>
       </c>
       <c r="F5" t="n">
@@ -3883,20 +5628,20 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>568631262647113771270412</t>
+          <t>568631262647113770680332</t>
         </is>
       </c>
       <c r="H5" t="n">
         <v>400</v>
       </c>
       <c r="I5" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2025-03-04 13:38:36</t>
+          <t>2025-03-04 14:31:34</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -3906,7 +5651,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -3916,7 +5661,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>0x13</t>
+          <t>0x 9</t>
         </is>
       </c>
       <c r="F6" t="n">
@@ -3924,20 +5669,20 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>568631262647113771270412</t>
+          <t>568631262647113770680332</t>
         </is>
       </c>
       <c r="H6" t="n">
         <v>400</v>
       </c>
       <c r="I6" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2025-03-04 14:38:36</t>
+          <t>2025-03-04 15:31:34</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -3947,7 +5692,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -3957,7 +5702,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>0x13</t>
+          <t>0x 9</t>
         </is>
       </c>
       <c r="F7" t="n">
@@ -3965,20 +5710,20 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>568631262647113771270412</t>
+          <t>568631262647113770680332</t>
         </is>
       </c>
       <c r="H7" t="n">
         <v>400</v>
       </c>
       <c r="I7" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2025-03-04 15:38:36</t>
+          <t>2025-03-04 16:31:34</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -3988,7 +5733,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -3998,7 +5743,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>0x13</t>
+          <t>0x 9</t>
         </is>
       </c>
       <c r="F8" t="n">
@@ -4006,20 +5751,20 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>568631262647113771270412</t>
+          <t>568631262647113770680332</t>
         </is>
       </c>
       <c r="H8" t="n">
         <v>400</v>
       </c>
       <c r="I8" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2025-03-04 16:38:36</t>
+          <t>2025-03-04 17:31:34</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -4029,7 +5774,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -4039,7 +5784,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>0x13</t>
+          <t>0x 9</t>
         </is>
       </c>
       <c r="F9" t="n">
@@ -4047,20 +5792,20 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>568631262647113771270412</t>
+          <t>568631262647113770680332</t>
         </is>
       </c>
       <c r="H9" t="n">
         <v>400</v>
       </c>
       <c r="I9" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2025-03-04 17:38:36</t>
+          <t>2025-03-04 18:31:34</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -4070,7 +5815,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -4080,7 +5825,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>0x13</t>
+          <t>0x 9</t>
         </is>
       </c>
       <c r="F10" t="n">
@@ -4088,20 +5833,20 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>568631262647113771270412</t>
+          <t>568631262647113770680332</t>
         </is>
       </c>
       <c r="H10" t="n">
         <v>400</v>
       </c>
       <c r="I10" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2025-03-04 18:38:36</t>
+          <t>2025-03-04 19:31:34</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -4111,7 +5856,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -4121,7 +5866,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>0x13</t>
+          <t>0x 9</t>
         </is>
       </c>
       <c r="F11" t="n">
@@ -4129,20 +5874,20 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>568631262647113771270412</t>
+          <t>568631262647113770680332</t>
         </is>
       </c>
       <c r="H11" t="n">
         <v>400</v>
       </c>
       <c r="I11" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2025-03-04 19:38:36</t>
+          <t>2025-03-04 20:31:34</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -4152,7 +5897,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -4162,7 +5907,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>0x13</t>
+          <t>0x 9</t>
         </is>
       </c>
       <c r="F12" t="n">
@@ -4170,20 +5915,20 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>568631262647113771270412</t>
+          <t>568631262647113770680332</t>
         </is>
       </c>
       <c r="H12" t="n">
         <v>400</v>
       </c>
       <c r="I12" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2025-03-04 20:38:36</t>
+          <t>2025-03-04 21:31:34</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -4193,7 +5938,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -4203,7 +5948,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>0x13</t>
+          <t>0x 9</t>
         </is>
       </c>
       <c r="F13" t="n">
@@ -4211,20 +5956,20 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>568631262647113771270412</t>
+          <t>568631262647113770680332</t>
         </is>
       </c>
       <c r="H13" t="n">
         <v>400</v>
       </c>
       <c r="I13" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2025-03-04 21:38:36</t>
+          <t>2025-03-04 22:31:34</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -4234,7 +5979,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -4244,7 +5989,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>0x13</t>
+          <t>0x 9</t>
         </is>
       </c>
       <c r="F14" t="n">
@@ -4252,20 +5997,20 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>568631262647113771270412</t>
+          <t>568631262647113770680332</t>
         </is>
       </c>
       <c r="H14" t="n">
         <v>400</v>
       </c>
       <c r="I14" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2025-03-04 22:38:36</t>
+          <t>2025-03-04 23:31:34</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -4275,7 +6020,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -4285,7 +6030,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>0x13</t>
+          <t>0x 9</t>
         </is>
       </c>
       <c r="F15" t="n">
@@ -4293,20 +6038,20 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>568631262647113771270412</t>
+          <t>568631262647113770680332</t>
         </is>
       </c>
       <c r="H15" t="n">
         <v>400</v>
       </c>
       <c r="I15" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2025-03-04 23:38:36</t>
+          <t>2025-03-05 00:31:34</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -4316,7 +6061,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -4326,7 +6071,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>0x13</t>
+          <t>0x 9</t>
         </is>
       </c>
       <c r="F16" t="n">
@@ -4334,20 +6079,20 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>568631262647113771270412</t>
+          <t>568631262647113770680332</t>
         </is>
       </c>
       <c r="H16" t="n">
         <v>400</v>
       </c>
       <c r="I16" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2025-03-05 00:38:36</t>
+          <t>2025-03-05 01:31:34</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -4357,7 +6102,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -4367,7 +6112,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>0x13</t>
+          <t>0x 9</t>
         </is>
       </c>
       <c r="F17" t="n">
@@ -4375,20 +6120,20 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>568631262647113771270412</t>
+          <t>568631262647113770680332</t>
         </is>
       </c>
       <c r="H17" t="n">
         <v>400</v>
       </c>
       <c r="I17" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2025-03-05 01:38:36</t>
+          <t>2025-03-05 02:31:34</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -4398,7 +6143,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -4408,7 +6153,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>0x13</t>
+          <t>0x 9</t>
         </is>
       </c>
       <c r="F18" t="n">
@@ -4416,20 +6161,20 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>568631262647113771270412</t>
+          <t>568631262647113770680332</t>
         </is>
       </c>
       <c r="H18" t="n">
         <v>400</v>
       </c>
       <c r="I18" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>2025-03-05 02:38:36</t>
+          <t>2025-03-05 03:31:34</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -4439,7 +6184,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -4449,7 +6194,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>0x13</t>
+          <t>0x 9</t>
         </is>
       </c>
       <c r="F19" t="n">
@@ -4457,20 +6202,20 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>568631262647113771270412</t>
+          <t>568631262647113770680332</t>
         </is>
       </c>
       <c r="H19" t="n">
         <v>400</v>
       </c>
       <c r="I19" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2025-03-05 03:38:36</t>
+          <t>2025-03-05 04:31:34</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -4480,7 +6225,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -4490,7 +6235,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>0x13</t>
+          <t>0x 9</t>
         </is>
       </c>
       <c r="F20" t="n">
@@ -4498,20 +6243,20 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>568631262647113771270412</t>
+          <t>568631262647113770680332</t>
         </is>
       </c>
       <c r="H20" t="n">
         <v>400</v>
       </c>
       <c r="I20" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>2025-03-05 04:38:36</t>
+          <t>2025-03-05 05:31:34</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -4521,7 +6266,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -4531,7 +6276,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>0x13</t>
+          <t>0x 9</t>
         </is>
       </c>
       <c r="F21" t="n">
@@ -4539,20 +6284,20 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>568631262647113771270412</t>
+          <t>568631262647113770680332</t>
         </is>
       </c>
       <c r="H21" t="n">
         <v>400</v>
       </c>
       <c r="I21" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>2025-03-05 05:38:36</t>
+          <t>2025-03-05 06:31:34</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -4562,7 +6307,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -4572,7 +6317,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>0x13</t>
+          <t>0x 9</t>
         </is>
       </c>
       <c r="F22" t="n">
@@ -4580,20 +6325,20 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>568631262647113771270412</t>
+          <t>568631262647113770680332</t>
         </is>
       </c>
       <c r="H22" t="n">
         <v>400</v>
       </c>
       <c r="I22" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>2025-03-05 06:38:36</t>
+          <t>2025-03-05 07:31:34</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -4603,7 +6348,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -4613,7 +6358,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>0x13</t>
+          <t>0x 9</t>
         </is>
       </c>
       <c r="F23" t="n">
@@ -4621,20 +6366,20 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>568631262647113771270412</t>
+          <t>568631262647113770680332</t>
         </is>
       </c>
       <c r="H23" t="n">
         <v>400</v>
       </c>
       <c r="I23" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>2025-03-05 07:38:36</t>
+          <t>2025-03-05 08:31:34</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -4644,7 +6389,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -4654,7 +6399,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>0x13</t>
+          <t>0x 9</t>
         </is>
       </c>
       <c r="F24" t="n">
@@ -4662,20 +6407,20 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>568631262647113771270412</t>
+          <t>568631262647113770680332</t>
         </is>
       </c>
       <c r="H24" t="n">
         <v>400</v>
       </c>
       <c r="I24" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>2025-03-05 08:38:36</t>
+          <t>2025-03-05 09:31:34</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -4685,7 +6430,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -4695,7 +6440,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>0x13</t>
+          <t>0x 9</t>
         </is>
       </c>
       <c r="F25" t="n">
@@ -4703,20 +6448,20 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>568631262647113771270412</t>
+          <t>568631262647113770680332</t>
         </is>
       </c>
       <c r="H25" t="n">
         <v>400</v>
       </c>
       <c r="I25" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>2025-03-05 09:38:36</t>
+          <t>2025-03-05 10:31:34</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -4726,7 +6471,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -4736,7 +6481,7 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>0x13</t>
+          <t>0x 9</t>
         </is>
       </c>
       <c r="F26" t="n">
@@ -4744,20 +6489,20 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>568631262647113771270412</t>
+          <t>568631262647113770680332</t>
         </is>
       </c>
       <c r="H26" t="n">
         <v>400</v>
       </c>
       <c r="I26" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>2025-03-05 10:38:36</t>
+          <t>2025-03-05 11:31:34</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -4767,7 +6512,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -4777,7 +6522,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>0x13</t>
+          <t>0x 9</t>
         </is>
       </c>
       <c r="F27" t="n">
@@ -4785,20 +6530,20 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>568631262647113771270412</t>
+          <t>568631262647113770680332</t>
         </is>
       </c>
       <c r="H27" t="n">
         <v>400</v>
       </c>
       <c r="I27" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>2025-03-05 11:38:36</t>
+          <t>2025-03-05 12:31:34</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -4808,7 +6553,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -4818,7 +6563,7 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>0x13</t>
+          <t>0x 9</t>
         </is>
       </c>
       <c r="F28" t="n">
@@ -4826,20 +6571,20 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>568631262647113771270412</t>
+          <t>568631262647113770680332</t>
         </is>
       </c>
       <c r="H28" t="n">
         <v>400</v>
       </c>
       <c r="I28" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>2025-03-05 12:38:36</t>
+          <t>2025-03-05 13:31:34</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -4849,7 +6594,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -4859,7 +6604,7 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>0x13</t>
+          <t>0x 9</t>
         </is>
       </c>
       <c r="F29" t="n">
@@ -4867,20 +6612,20 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>568631262647113771270412</t>
+          <t>568631262647113770680332</t>
         </is>
       </c>
       <c r="H29" t="n">
         <v>400</v>
       </c>
       <c r="I29" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>2025-03-05 13:38:36</t>
+          <t>2025-03-05 14:31:34</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -4890,7 +6635,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -4900,7 +6645,7 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>0x13</t>
+          <t>0x 9</t>
         </is>
       </c>
       <c r="F30" t="n">
@@ -4908,20 +6653,20 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>568631262647113771270412</t>
+          <t>568631262647113770680332</t>
         </is>
       </c>
       <c r="H30" t="n">
         <v>400</v>
       </c>
       <c r="I30" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>2025-03-05 14:38:36</t>
+          <t>2025-03-05 15:31:34</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -4931,7 +6676,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -4941,7 +6686,7 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>0x13</t>
+          <t>0x 9</t>
         </is>
       </c>
       <c r="F31" t="n">
@@ -4949,20 +6694,20 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>568631262647113771270412</t>
+          <t>568631262647113770680332</t>
         </is>
       </c>
       <c r="H31" t="n">
         <v>400</v>
       </c>
       <c r="I31" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>2025-03-05 15:38:36</t>
+          <t>2025-03-05 16:31:34</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -4972,7 +6717,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -4982,7 +6727,7 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>0x13</t>
+          <t>0x 9</t>
         </is>
       </c>
       <c r="F32" t="n">
@@ -4990,20 +6735,20 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>568631262647113771270412</t>
+          <t>568631262647113770680332</t>
         </is>
       </c>
       <c r="H32" t="n">
         <v>400</v>
       </c>
       <c r="I32" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>2025-03-05 16:38:36</t>
+          <t>2025-03-05 17:31:34</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -5013,7 +6758,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -5023,7 +6768,7 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>0x13</t>
+          <t>0x 9</t>
         </is>
       </c>
       <c r="F33" t="n">
@@ -5031,20 +6776,20 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>568631262647113771270412</t>
+          <t>568631262647113770680332</t>
         </is>
       </c>
       <c r="H33" t="n">
         <v>400</v>
       </c>
       <c r="I33" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>2025-03-05 17:38:36</t>
+          <t>2025-03-05 18:31:34</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -5054,7 +6799,7 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -5064,7 +6809,7 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>0x13</t>
+          <t>0x 9</t>
         </is>
       </c>
       <c r="F34" t="n">
@@ -5072,20 +6817,20 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>568631262647113771270412</t>
+          <t>568631262647113770680332</t>
         </is>
       </c>
       <c r="H34" t="n">
         <v>400</v>
       </c>
       <c r="I34" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>2025-03-05 18:38:36</t>
+          <t>2025-03-05 19:31:34</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -5095,7 +6840,7 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -5105,7 +6850,7 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>0x13</t>
+          <t>0x 9</t>
         </is>
       </c>
       <c r="F35" t="n">
@@ -5113,20 +6858,20 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>568631262647113771270412</t>
+          <t>568631262647113770680332</t>
         </is>
       </c>
       <c r="H35" t="n">
         <v>400</v>
       </c>
       <c r="I35" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>2025-03-05 19:38:36</t>
+          <t>2025-03-05 20:31:34</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -5136,7 +6881,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -5146,7 +6891,7 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>0x13</t>
+          <t>0x 9</t>
         </is>
       </c>
       <c r="F36" t="n">
@@ -5154,20 +6899,20 @@
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>568631262647113771270412</t>
+          <t>568631262647113770680332</t>
         </is>
       </c>
       <c r="H36" t="n">
         <v>400</v>
       </c>
       <c r="I36" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>2025-03-05 20:38:36</t>
+          <t>2025-03-05 21:31:34</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -5177,7 +6922,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -5187,7 +6932,7 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>0x13</t>
+          <t>0x 9</t>
         </is>
       </c>
       <c r="F37" t="n">
@@ -5195,20 +6940,20 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>568631262647113771270412</t>
+          <t>568631262647113770680332</t>
         </is>
       </c>
       <c r="H37" t="n">
         <v>400</v>
       </c>
       <c r="I37" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>2025-03-05 21:38:36</t>
+          <t>2025-03-05 22:31:34</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -5218,7 +6963,7 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -5228,7 +6973,7 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>0x13</t>
+          <t>0x 9</t>
         </is>
       </c>
       <c r="F38" t="n">
@@ -5236,20 +6981,20 @@
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>568631262647113771270412</t>
+          <t>568631262647113770680332</t>
         </is>
       </c>
       <c r="H38" t="n">
         <v>400</v>
       </c>
       <c r="I38" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>2025-03-05 22:38:36</t>
+          <t>2025-03-05 23:31:34</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -5259,7 +7004,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -5269,7 +7014,7 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>0x13</t>
+          <t>0x 9</t>
         </is>
       </c>
       <c r="F39" t="n">
@@ -5277,1594 +7022,13 @@
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>568631262647113771270412</t>
+          <t>568631262647113770680332</t>
         </is>
       </c>
       <c r="H39" t="n">
         <v>400</v>
       </c>
       <c r="I39" t="n">
-        <v>13</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:I38"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>time</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>总长</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>ID</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>实际长度</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>和校验</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>总长_DEC</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>ID_DEC</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>实际长度_DEC</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>和校验_DEC</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>45720.43858796296</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0x01,0x90 </t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>0x01,0x90,</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>0x 9</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>400</v>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>568631262647113770680332</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>400</v>
-      </c>
-      <c r="I2" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>2025-03-04 11:31:34</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0x01,0x90 </t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>0x01,0x90,</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>0x 9</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>400</v>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>568631262647113770680332</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>400</v>
-      </c>
-      <c r="I3" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>2025-03-04 12:31:34</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0x01,0x90 </t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>0x01,0x90,</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>0x 9</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>400</v>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>568631262647113770680332</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>400</v>
-      </c>
-      <c r="I4" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>2025-03-04 13:31:34</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0x01,0x90 </t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>0x01,0x90,</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>0x 9</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>400</v>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>568631262647113770680332</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>400</v>
-      </c>
-      <c r="I5" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>2025-03-04 14:31:34</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0x01,0x90 </t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0x01,0x90,</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>0x 9</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>400</v>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>568631262647113770680332</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>400</v>
-      </c>
-      <c r="I6" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>2025-03-04 15:31:34</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0x01,0x90 </t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>0x01,0x90,</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>0x 9</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>400</v>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>568631262647113770680332</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>400</v>
-      </c>
-      <c r="I7" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>2025-03-04 16:31:34</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0x01,0x90 </t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>0x01,0x90,</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>0x 9</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>400</v>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>568631262647113770680332</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>400</v>
-      </c>
-      <c r="I8" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>2025-03-04 17:31:34</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0x01,0x90 </t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>0x01,0x90,</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>0x 9</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>400</v>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>568631262647113770680332</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>400</v>
-      </c>
-      <c r="I9" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>2025-03-04 18:31:34</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0x01,0x90 </t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>0x01,0x90,</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>0x 9</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>400</v>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>568631262647113770680332</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>400</v>
-      </c>
-      <c r="I10" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>2025-03-04 19:31:34</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0x01,0x90 </t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>0x01,0x90,</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>0x 9</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>400</v>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>568631262647113770680332</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>400</v>
-      </c>
-      <c r="I11" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>2025-03-04 20:31:34</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0x01,0x90 </t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>0x01,0x90,</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>0x 9</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>400</v>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>568631262647113770680332</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>400</v>
-      </c>
-      <c r="I12" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>2025-03-04 21:31:34</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0x01,0x90 </t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>0x01,0x90,</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>0x 9</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>400</v>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>568631262647113770680332</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>400</v>
-      </c>
-      <c r="I13" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>2025-03-04 22:31:34</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0x01,0x90 </t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>0x01,0x90,</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>0x 9</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>400</v>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>568631262647113770680332</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>400</v>
-      </c>
-      <c r="I14" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>2025-03-04 23:31:34</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0x01,0x90 </t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>0x01,0x90,</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>0x 9</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>400</v>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>568631262647113770680332</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>400</v>
-      </c>
-      <c r="I15" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>2025-03-05 00:31:34</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0x01,0x90 </t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>0x01,0x90,</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>0x 9</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
-        <v>400</v>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>568631262647113770680332</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
-        <v>400</v>
-      </c>
-      <c r="I16" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>2025-03-05 01:31:34</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0x01,0x90 </t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>0x01,0x90,</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>0x 9</t>
-        </is>
-      </c>
-      <c r="F17" t="n">
-        <v>400</v>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>568631262647113770680332</t>
-        </is>
-      </c>
-      <c r="H17" t="n">
-        <v>400</v>
-      </c>
-      <c r="I17" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>2025-03-05 02:31:34</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0x01,0x90 </t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>0x01,0x90,</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>0x 9</t>
-        </is>
-      </c>
-      <c r="F18" t="n">
-        <v>400</v>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>568631262647113770680332</t>
-        </is>
-      </c>
-      <c r="H18" t="n">
-        <v>400</v>
-      </c>
-      <c r="I18" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>2025-03-05 03:31:34</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0x01,0x90 </t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>0x01,0x90,</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>0x 9</t>
-        </is>
-      </c>
-      <c r="F19" t="n">
-        <v>400</v>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>568631262647113770680332</t>
-        </is>
-      </c>
-      <c r="H19" t="n">
-        <v>400</v>
-      </c>
-      <c r="I19" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>2025-03-05 04:31:34</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0x01,0x90 </t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>0x01,0x90,</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>0x 9</t>
-        </is>
-      </c>
-      <c r="F20" t="n">
-        <v>400</v>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>568631262647113770680332</t>
-        </is>
-      </c>
-      <c r="H20" t="n">
-        <v>400</v>
-      </c>
-      <c r="I20" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>2025-03-05 05:31:34</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0x01,0x90 </t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>0x01,0x90,</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>0x 9</t>
-        </is>
-      </c>
-      <c r="F21" t="n">
-        <v>400</v>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>568631262647113770680332</t>
-        </is>
-      </c>
-      <c r="H21" t="n">
-        <v>400</v>
-      </c>
-      <c r="I21" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>2025-03-05 06:31:34</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0x01,0x90 </t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>0x01,0x90,</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>0x 9</t>
-        </is>
-      </c>
-      <c r="F22" t="n">
-        <v>400</v>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>568631262647113770680332</t>
-        </is>
-      </c>
-      <c r="H22" t="n">
-        <v>400</v>
-      </c>
-      <c r="I22" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>2025-03-05 07:31:34</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0x01,0x90 </t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>0x01,0x90,</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>0x 9</t>
-        </is>
-      </c>
-      <c r="F23" t="n">
-        <v>400</v>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>568631262647113770680332</t>
-        </is>
-      </c>
-      <c r="H23" t="n">
-        <v>400</v>
-      </c>
-      <c r="I23" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>2025-03-05 08:31:34</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0x01,0x90 </t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>0x01,0x90,</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>0x 9</t>
-        </is>
-      </c>
-      <c r="F24" t="n">
-        <v>400</v>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>568631262647113770680332</t>
-        </is>
-      </c>
-      <c r="H24" t="n">
-        <v>400</v>
-      </c>
-      <c r="I24" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>2025-03-05 09:31:34</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0x01,0x90 </t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>0x01,0x90,</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>0x 9</t>
-        </is>
-      </c>
-      <c r="F25" t="n">
-        <v>400</v>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>568631262647113770680332</t>
-        </is>
-      </c>
-      <c r="H25" t="n">
-        <v>400</v>
-      </c>
-      <c r="I25" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>2025-03-05 10:31:34</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0x01,0x90 </t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>0x01,0x90,</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>0x 9</t>
-        </is>
-      </c>
-      <c r="F26" t="n">
-        <v>400</v>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>568631262647113770680332</t>
-        </is>
-      </c>
-      <c r="H26" t="n">
-        <v>400</v>
-      </c>
-      <c r="I26" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>2025-03-05 11:31:34</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0x01,0x90 </t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>0x01,0x90,</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>0x 9</t>
-        </is>
-      </c>
-      <c r="F27" t="n">
-        <v>400</v>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>568631262647113770680332</t>
-        </is>
-      </c>
-      <c r="H27" t="n">
-        <v>400</v>
-      </c>
-      <c r="I27" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>2025-03-05 12:31:34</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0x01,0x90 </t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>0x01,0x90,</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>0x 9</t>
-        </is>
-      </c>
-      <c r="F28" t="n">
-        <v>400</v>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>568631262647113770680332</t>
-        </is>
-      </c>
-      <c r="H28" t="n">
-        <v>400</v>
-      </c>
-      <c r="I28" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>2025-03-05 13:31:34</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0x01,0x90 </t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>0x01,0x90,</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>0x 9</t>
-        </is>
-      </c>
-      <c r="F29" t="n">
-        <v>400</v>
-      </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>568631262647113770680332</t>
-        </is>
-      </c>
-      <c r="H29" t="n">
-        <v>400</v>
-      </c>
-      <c r="I29" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>2025-03-05 14:31:34</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0x01,0x90 </t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>0x01,0x90,</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>0x 9</t>
-        </is>
-      </c>
-      <c r="F30" t="n">
-        <v>400</v>
-      </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>568631262647113770680332</t>
-        </is>
-      </c>
-      <c r="H30" t="n">
-        <v>400</v>
-      </c>
-      <c r="I30" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>2025-03-05 15:31:34</t>
-        </is>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0x01,0x90 </t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>0x01,0x90,</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>0x 9</t>
-        </is>
-      </c>
-      <c r="F31" t="n">
-        <v>400</v>
-      </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>568631262647113770680332</t>
-        </is>
-      </c>
-      <c r="H31" t="n">
-        <v>400</v>
-      </c>
-      <c r="I31" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>2025-03-05 16:31:34</t>
-        </is>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0x01,0x90 </t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>0x01,0x90,</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>0x 9</t>
-        </is>
-      </c>
-      <c r="F32" t="n">
-        <v>400</v>
-      </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>568631262647113770680332</t>
-        </is>
-      </c>
-      <c r="H32" t="n">
-        <v>400</v>
-      </c>
-      <c r="I32" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>2025-03-05 17:31:34</t>
-        </is>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0x01,0x90 </t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>0x01,0x90,</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>0x 9</t>
-        </is>
-      </c>
-      <c r="F33" t="n">
-        <v>400</v>
-      </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>568631262647113770680332</t>
-        </is>
-      </c>
-      <c r="H33" t="n">
-        <v>400</v>
-      </c>
-      <c r="I33" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>2025-03-05 18:31:34</t>
-        </is>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0x01,0x90 </t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>0x01,0x90,</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>0x 9</t>
-        </is>
-      </c>
-      <c r="F34" t="n">
-        <v>400</v>
-      </c>
-      <c r="G34" t="inlineStr">
-        <is>
-          <t>568631262647113770680332</t>
-        </is>
-      </c>
-      <c r="H34" t="n">
-        <v>400</v>
-      </c>
-      <c r="I34" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>2025-03-05 19:31:34</t>
-        </is>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0x01,0x90 </t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>0x01,0x90,</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>0x 9</t>
-        </is>
-      </c>
-      <c r="F35" t="n">
-        <v>400</v>
-      </c>
-      <c r="G35" t="inlineStr">
-        <is>
-          <t>568631262647113770680332</t>
-        </is>
-      </c>
-      <c r="H35" t="n">
-        <v>400</v>
-      </c>
-      <c r="I35" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>2025-03-05 20:31:34</t>
-        </is>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0x01,0x90 </t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>0x01,0x90,</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>0x 9</t>
-        </is>
-      </c>
-      <c r="F36" t="n">
-        <v>400</v>
-      </c>
-      <c r="G36" t="inlineStr">
-        <is>
-          <t>568631262647113770680332</t>
-        </is>
-      </c>
-      <c r="H36" t="n">
-        <v>400</v>
-      </c>
-      <c r="I36" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>2025-03-05 21:31:34</t>
-        </is>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0x01,0x90 </t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>0x01,0x90,</t>
-        </is>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>0x 9</t>
-        </is>
-      </c>
-      <c r="F37" t="n">
-        <v>400</v>
-      </c>
-      <c r="G37" t="inlineStr">
-        <is>
-          <t>568631262647113770680332</t>
-        </is>
-      </c>
-      <c r="H37" t="n">
-        <v>400</v>
-      </c>
-      <c r="I37" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>2025-03-05 22:31:34</t>
-        </is>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0x01,0x90 </t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>0x01,0x90,</t>
-        </is>
-      </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>0x 9</t>
-        </is>
-      </c>
-      <c r="F38" t="n">
-        <v>400</v>
-      </c>
-      <c r="G38" t="inlineStr">
-        <is>
-          <t>568631262647113770680332</t>
-        </is>
-      </c>
-      <c r="H38" t="n">
-        <v>400</v>
-      </c>
-      <c r="I38" t="n">
         <v>9</v>
       </c>
     </row>

--- a/SAG2_sensor_data_with_decimal_filtered_updated.xlsx
+++ b/SAG2_sensor_data_with_decimal_filtered_updated.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I39"/>
+  <dimension ref="A1:I40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2043,12 +2043,1798 @@
         <v>14</v>
       </c>
     </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>2025-03-06 00:18:04</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1b,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>0x14</t>
+        </is>
+      </c>
+      <c r="F40" t="n">
+        <v>400</v>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>568631262647113771335948</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>400</v>
+      </c>
+      <c r="I40" t="n">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I42"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>time</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>总长</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>实际长度</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>和校验</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>总长_DEC</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>ID_DEC</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>实际长度_DEC</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>和校验_DEC</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>45720.34188657408</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F2" t="n">
+        <v>400</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>400</v>
+      </c>
+      <c r="I2" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2025-03-04 09:12:19</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F3" t="n">
+        <v>400</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>400</v>
+      </c>
+      <c r="I3" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>2025-03-04 10:12:19</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F4" t="n">
+        <v>400</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>400</v>
+      </c>
+      <c r="I4" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>2025-03-04 11:12:19</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F5" t="n">
+        <v>400</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>400</v>
+      </c>
+      <c r="I5" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>2025-03-04 12:12:19</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F6" t="n">
+        <v>400</v>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>400</v>
+      </c>
+      <c r="I6" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>2025-03-04 13:12:19</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F7" t="n">
+        <v>400</v>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>400</v>
+      </c>
+      <c r="I7" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>2025-03-04 14:12:19</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F8" t="n">
+        <v>400</v>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>400</v>
+      </c>
+      <c r="I8" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>2025-03-04 15:12:19</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F9" t="n">
+        <v>400</v>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>400</v>
+      </c>
+      <c r="I9" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>2025-03-04 16:12:19</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F10" t="n">
+        <v>400</v>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>400</v>
+      </c>
+      <c r="I10" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>2025-03-04 17:12:19</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F11" t="n">
+        <v>400</v>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>400</v>
+      </c>
+      <c r="I11" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>2025-03-04 18:12:19</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F12" t="n">
+        <v>400</v>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>400</v>
+      </c>
+      <c r="I12" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>2025-03-04 19:12:19</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F13" t="n">
+        <v>400</v>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>400</v>
+      </c>
+      <c r="I13" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>2025-03-04 20:12:19</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F14" t="n">
+        <v>400</v>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>400</v>
+      </c>
+      <c r="I14" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>2025-03-04 21:12:19</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F15" t="n">
+        <v>400</v>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>400</v>
+      </c>
+      <c r="I15" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>2025-03-04 22:12:19</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F16" t="n">
+        <v>400</v>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>400</v>
+      </c>
+      <c r="I16" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>2025-03-04 23:12:19</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F17" t="n">
+        <v>400</v>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>400</v>
+      </c>
+      <c r="I17" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>2025-03-05 00:12:19</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F18" t="n">
+        <v>400</v>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>400</v>
+      </c>
+      <c r="I18" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>2025-03-05 01:12:19</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F19" t="n">
+        <v>400</v>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>400</v>
+      </c>
+      <c r="I19" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>2025-03-05 02:12:19</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F20" t="n">
+        <v>400</v>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>400</v>
+      </c>
+      <c r="I20" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>2025-03-05 03:12:19</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F21" t="n">
+        <v>400</v>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>400</v>
+      </c>
+      <c r="I21" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>2025-03-05 04:12:19</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F22" t="n">
+        <v>400</v>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>400</v>
+      </c>
+      <c r="I22" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>2025-03-05 05:12:19</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F23" t="n">
+        <v>400</v>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>400</v>
+      </c>
+      <c r="I23" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>2025-03-05 06:12:19</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F24" t="n">
+        <v>400</v>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>400</v>
+      </c>
+      <c r="I24" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>2025-03-05 07:12:19</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F25" t="n">
+        <v>400</v>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>400</v>
+      </c>
+      <c r="I25" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>2025-03-05 08:12:19</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F26" t="n">
+        <v>400</v>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>400</v>
+      </c>
+      <c r="I26" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>2025-03-05 09:12:19</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F27" t="n">
+        <v>400</v>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>400</v>
+      </c>
+      <c r="I27" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>2025-03-05 10:12:19</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F28" t="n">
+        <v>400</v>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>400</v>
+      </c>
+      <c r="I28" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>2025-03-05 11:12:19</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F29" t="n">
+        <v>400</v>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>400</v>
+      </c>
+      <c r="I29" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>2025-03-05 12:12:19</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F30" t="n">
+        <v>400</v>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>400</v>
+      </c>
+      <c r="I30" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>2025-03-05 13:12:19</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F31" t="n">
+        <v>400</v>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>400</v>
+      </c>
+      <c r="I31" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>2025-03-05 14:12:19</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F32" t="n">
+        <v>400</v>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>400</v>
+      </c>
+      <c r="I32" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>2025-03-05 15:12:19</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F33" t="n">
+        <v>400</v>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>400</v>
+      </c>
+      <c r="I33" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>2025-03-05 16:12:19</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F34" t="n">
+        <v>400</v>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>400</v>
+      </c>
+      <c r="I34" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>2025-03-05 17:12:19</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F35" t="n">
+        <v>400</v>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>400</v>
+      </c>
+      <c r="I35" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>2025-03-05 18:12:19</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F36" t="n">
+        <v>400</v>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>400</v>
+      </c>
+      <c r="I36" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>2025-03-05 19:12:19</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F37" t="n">
+        <v>400</v>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>400</v>
+      </c>
+      <c r="I37" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>2025-03-05 20:12:19</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F38" t="n">
+        <v>400</v>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>400</v>
+      </c>
+      <c r="I38" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>2025-03-05 21:12:19</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F39" t="n">
+        <v>400</v>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>400</v>
+      </c>
+      <c r="I39" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>2025-03-05 22:12:19</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F40" t="n">
+        <v>400</v>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>400</v>
+      </c>
+      <c r="I40" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>2025-03-05 23:12:19</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F41" t="n">
+        <v>400</v>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>400</v>
+      </c>
+      <c r="I41" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>2025-03-06 00:12:19</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F42" t="n">
+        <v>400</v>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>400</v>
+      </c>
+      <c r="I42" t="n">
+        <v>25</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2111,7 +3897,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45720.34188657408</v>
+        <v>45720.40180555556</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -2120,7 +3906,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -2130,7 +3916,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>0x19</t>
+          <t>0x13</t>
         </is>
       </c>
       <c r="F2" t="n">
@@ -2138,20 +3924,20 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>568631262647113771663628</t>
+          <t>568631262647113771270412</t>
         </is>
       </c>
       <c r="H2" t="n">
         <v>400</v>
       </c>
       <c r="I2" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2025-03-04 09:12:19</t>
+          <t>2025-03-04 10:38:36</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -2161,7 +3947,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -2171,7 +3957,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>0x19</t>
+          <t>0x13</t>
         </is>
       </c>
       <c r="F3" t="n">
@@ -2179,20 +3965,20 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>568631262647113771663628</t>
+          <t>568631262647113771270412</t>
         </is>
       </c>
       <c r="H3" t="n">
         <v>400</v>
       </c>
       <c r="I3" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2025-03-04 10:12:19</t>
+          <t>2025-03-04 11:38:36</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -2202,7 +3988,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -2212,7 +3998,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>0x19</t>
+          <t>0x13</t>
         </is>
       </c>
       <c r="F4" t="n">
@@ -2220,20 +4006,20 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>568631262647113771663628</t>
+          <t>568631262647113771270412</t>
         </is>
       </c>
       <c r="H4" t="n">
         <v>400</v>
       </c>
       <c r="I4" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2025-03-04 11:12:19</t>
+          <t>2025-03-04 12:38:36</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -2243,7 +4029,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -2253,7 +4039,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>0x19</t>
+          <t>0x13</t>
         </is>
       </c>
       <c r="F5" t="n">
@@ -2261,20 +4047,20 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>568631262647113771663628</t>
+          <t>568631262647113771270412</t>
         </is>
       </c>
       <c r="H5" t="n">
         <v>400</v>
       </c>
       <c r="I5" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2025-03-04 12:12:19</t>
+          <t>2025-03-04 13:38:36</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -2284,7 +4070,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -2294,7 +4080,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>0x19</t>
+          <t>0x13</t>
         </is>
       </c>
       <c r="F6" t="n">
@@ -2302,20 +4088,20 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>568631262647113771663628</t>
+          <t>568631262647113771270412</t>
         </is>
       </c>
       <c r="H6" t="n">
         <v>400</v>
       </c>
       <c r="I6" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2025-03-04 13:12:19</t>
+          <t>2025-03-04 14:38:36</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -2325,7 +4111,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -2335,7 +4121,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>0x19</t>
+          <t>0x13</t>
         </is>
       </c>
       <c r="F7" t="n">
@@ -2343,20 +4129,20 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>568631262647113771663628</t>
+          <t>568631262647113771270412</t>
         </is>
       </c>
       <c r="H7" t="n">
         <v>400</v>
       </c>
       <c r="I7" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2025-03-04 14:12:19</t>
+          <t>2025-03-04 15:38:36</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -2366,7 +4152,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -2376,7 +4162,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>0x19</t>
+          <t>0x13</t>
         </is>
       </c>
       <c r="F8" t="n">
@@ -2384,20 +4170,20 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>568631262647113771663628</t>
+          <t>568631262647113771270412</t>
         </is>
       </c>
       <c r="H8" t="n">
         <v>400</v>
       </c>
       <c r="I8" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2025-03-04 15:12:19</t>
+          <t>2025-03-04 16:38:36</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -2407,7 +4193,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -2417,7 +4203,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>0x19</t>
+          <t>0x13</t>
         </is>
       </c>
       <c r="F9" t="n">
@@ -2425,20 +4211,20 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>568631262647113771663628</t>
+          <t>568631262647113771270412</t>
         </is>
       </c>
       <c r="H9" t="n">
         <v>400</v>
       </c>
       <c r="I9" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2025-03-04 16:12:19</t>
+          <t>2025-03-04 17:38:36</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -2448,7 +4234,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -2458,7 +4244,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>0x19</t>
+          <t>0x13</t>
         </is>
       </c>
       <c r="F10" t="n">
@@ -2466,20 +4252,20 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>568631262647113771663628</t>
+          <t>568631262647113771270412</t>
         </is>
       </c>
       <c r="H10" t="n">
         <v>400</v>
       </c>
       <c r="I10" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2025-03-04 17:12:19</t>
+          <t>2025-03-04 18:38:36</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -2489,7 +4275,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -2499,7 +4285,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>0x19</t>
+          <t>0x13</t>
         </is>
       </c>
       <c r="F11" t="n">
@@ -2507,20 +4293,20 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>568631262647113771663628</t>
+          <t>568631262647113771270412</t>
         </is>
       </c>
       <c r="H11" t="n">
         <v>400</v>
       </c>
       <c r="I11" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2025-03-04 18:12:19</t>
+          <t>2025-03-04 19:38:36</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2530,7 +4316,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -2540,7 +4326,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>0x19</t>
+          <t>0x13</t>
         </is>
       </c>
       <c r="F12" t="n">
@@ -2548,20 +4334,20 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>568631262647113771663628</t>
+          <t>568631262647113771270412</t>
         </is>
       </c>
       <c r="H12" t="n">
         <v>400</v>
       </c>
       <c r="I12" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2025-03-04 19:12:19</t>
+          <t>2025-03-04 20:38:36</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2571,7 +4357,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -2581,7 +4367,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>0x19</t>
+          <t>0x13</t>
         </is>
       </c>
       <c r="F13" t="n">
@@ -2589,20 +4375,20 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>568631262647113771663628</t>
+          <t>568631262647113771270412</t>
         </is>
       </c>
       <c r="H13" t="n">
         <v>400</v>
       </c>
       <c r="I13" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2025-03-04 20:12:19</t>
+          <t>2025-03-04 21:38:36</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -2612,7 +4398,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -2622,7 +4408,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>0x19</t>
+          <t>0x13</t>
         </is>
       </c>
       <c r="F14" t="n">
@@ -2630,20 +4416,20 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>568631262647113771663628</t>
+          <t>568631262647113771270412</t>
         </is>
       </c>
       <c r="H14" t="n">
         <v>400</v>
       </c>
       <c r="I14" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2025-03-04 21:12:19</t>
+          <t>2025-03-04 22:38:36</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -2653,7 +4439,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -2663,7 +4449,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>0x19</t>
+          <t>0x13</t>
         </is>
       </c>
       <c r="F15" t="n">
@@ -2671,20 +4457,20 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>568631262647113771663628</t>
+          <t>568631262647113771270412</t>
         </is>
       </c>
       <c r="H15" t="n">
         <v>400</v>
       </c>
       <c r="I15" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2025-03-04 22:12:19</t>
+          <t>2025-03-04 23:38:36</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -2694,7 +4480,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -2704,7 +4490,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>0x19</t>
+          <t>0x13</t>
         </is>
       </c>
       <c r="F16" t="n">
@@ -2712,20 +4498,20 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>568631262647113771663628</t>
+          <t>568631262647113771270412</t>
         </is>
       </c>
       <c r="H16" t="n">
         <v>400</v>
       </c>
       <c r="I16" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2025-03-04 23:12:19</t>
+          <t>2025-03-05 00:38:36</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -2735,7 +4521,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -2745,7 +4531,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>0x19</t>
+          <t>0x13</t>
         </is>
       </c>
       <c r="F17" t="n">
@@ -2753,20 +4539,20 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>568631262647113771663628</t>
+          <t>568631262647113771270412</t>
         </is>
       </c>
       <c r="H17" t="n">
         <v>400</v>
       </c>
       <c r="I17" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2025-03-05 00:12:19</t>
+          <t>2025-03-05 01:38:36</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -2776,7 +4562,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -2786,7 +4572,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>0x19</t>
+          <t>0x13</t>
         </is>
       </c>
       <c r="F18" t="n">
@@ -2794,20 +4580,20 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>568631262647113771663628</t>
+          <t>568631262647113771270412</t>
         </is>
       </c>
       <c r="H18" t="n">
         <v>400</v>
       </c>
       <c r="I18" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>2025-03-05 01:12:19</t>
+          <t>2025-03-05 02:38:36</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -2817,7 +4603,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -2827,7 +4613,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>0x19</t>
+          <t>0x13</t>
         </is>
       </c>
       <c r="F19" t="n">
@@ -2835,20 +4621,20 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>568631262647113771663628</t>
+          <t>568631262647113771270412</t>
         </is>
       </c>
       <c r="H19" t="n">
         <v>400</v>
       </c>
       <c r="I19" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2025-03-05 02:12:19</t>
+          <t>2025-03-05 03:38:36</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -2858,7 +4644,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -2868,7 +4654,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>0x19</t>
+          <t>0x13</t>
         </is>
       </c>
       <c r="F20" t="n">
@@ -2876,20 +4662,20 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>568631262647113771663628</t>
+          <t>568631262647113771270412</t>
         </is>
       </c>
       <c r="H20" t="n">
         <v>400</v>
       </c>
       <c r="I20" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>2025-03-05 03:12:19</t>
+          <t>2025-03-05 04:38:36</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -2899,7 +4685,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -2909,7 +4695,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>0x19</t>
+          <t>0x13</t>
         </is>
       </c>
       <c r="F21" t="n">
@@ -2917,20 +4703,20 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>568631262647113771663628</t>
+          <t>568631262647113771270412</t>
         </is>
       </c>
       <c r="H21" t="n">
         <v>400</v>
       </c>
       <c r="I21" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>2025-03-05 04:12:19</t>
+          <t>2025-03-05 05:38:36</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -2940,7 +4726,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -2950,7 +4736,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>0x19</t>
+          <t>0x13</t>
         </is>
       </c>
       <c r="F22" t="n">
@@ -2958,20 +4744,20 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>568631262647113771663628</t>
+          <t>568631262647113771270412</t>
         </is>
       </c>
       <c r="H22" t="n">
         <v>400</v>
       </c>
       <c r="I22" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>2025-03-05 05:12:19</t>
+          <t>2025-03-05 06:38:36</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -2981,7 +4767,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -2991,7 +4777,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>0x19</t>
+          <t>0x13</t>
         </is>
       </c>
       <c r="F23" t="n">
@@ -2999,20 +4785,20 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>568631262647113771663628</t>
+          <t>568631262647113771270412</t>
         </is>
       </c>
       <c r="H23" t="n">
         <v>400</v>
       </c>
       <c r="I23" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>2025-03-05 06:12:19</t>
+          <t>2025-03-05 07:38:36</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -3022,7 +4808,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -3032,7 +4818,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>0x19</t>
+          <t>0x13</t>
         </is>
       </c>
       <c r="F24" t="n">
@@ -3040,20 +4826,20 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>568631262647113771663628</t>
+          <t>568631262647113771270412</t>
         </is>
       </c>
       <c r="H24" t="n">
         <v>400</v>
       </c>
       <c r="I24" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>2025-03-05 07:12:19</t>
+          <t>2025-03-05 08:38:36</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -3063,7 +4849,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -3073,7 +4859,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>0x19</t>
+          <t>0x13</t>
         </is>
       </c>
       <c r="F25" t="n">
@@ -3081,20 +4867,20 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>568631262647113771663628</t>
+          <t>568631262647113771270412</t>
         </is>
       </c>
       <c r="H25" t="n">
         <v>400</v>
       </c>
       <c r="I25" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>2025-03-05 08:12:19</t>
+          <t>2025-03-05 09:38:36</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -3104,7 +4890,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -3114,7 +4900,7 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>0x19</t>
+          <t>0x13</t>
         </is>
       </c>
       <c r="F26" t="n">
@@ -3122,20 +4908,20 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>568631262647113771663628</t>
+          <t>568631262647113771270412</t>
         </is>
       </c>
       <c r="H26" t="n">
         <v>400</v>
       </c>
       <c r="I26" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>2025-03-05 09:12:19</t>
+          <t>2025-03-05 10:38:36</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -3145,7 +4931,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -3155,7 +4941,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>0x19</t>
+          <t>0x13</t>
         </is>
       </c>
       <c r="F27" t="n">
@@ -3163,20 +4949,20 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>568631262647113771663628</t>
+          <t>568631262647113771270412</t>
         </is>
       </c>
       <c r="H27" t="n">
         <v>400</v>
       </c>
       <c r="I27" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>2025-03-05 10:12:19</t>
+          <t>2025-03-05 11:38:36</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -3186,7 +4972,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -3196,7 +4982,7 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>0x19</t>
+          <t>0x13</t>
         </is>
       </c>
       <c r="F28" t="n">
@@ -3204,20 +4990,20 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>568631262647113771663628</t>
+          <t>568631262647113771270412</t>
         </is>
       </c>
       <c r="H28" t="n">
         <v>400</v>
       </c>
       <c r="I28" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>2025-03-05 11:12:19</t>
+          <t>2025-03-05 12:38:36</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -3227,7 +5013,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -3237,7 +5023,7 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>0x19</t>
+          <t>0x13</t>
         </is>
       </c>
       <c r="F29" t="n">
@@ -3245,20 +5031,20 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>568631262647113771663628</t>
+          <t>568631262647113771270412</t>
         </is>
       </c>
       <c r="H29" t="n">
         <v>400</v>
       </c>
       <c r="I29" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>2025-03-05 12:12:19</t>
+          <t>2025-03-05 13:38:36</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -3268,7 +5054,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -3278,7 +5064,7 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>0x19</t>
+          <t>0x13</t>
         </is>
       </c>
       <c r="F30" t="n">
@@ -3286,20 +5072,20 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>568631262647113771663628</t>
+          <t>568631262647113771270412</t>
         </is>
       </c>
       <c r="H30" t="n">
         <v>400</v>
       </c>
       <c r="I30" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>2025-03-05 13:12:19</t>
+          <t>2025-03-05 14:38:36</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -3309,7 +5095,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -3319,7 +5105,7 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>0x19</t>
+          <t>0x13</t>
         </is>
       </c>
       <c r="F31" t="n">
@@ -3327,20 +5113,20 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>568631262647113771663628</t>
+          <t>568631262647113771270412</t>
         </is>
       </c>
       <c r="H31" t="n">
         <v>400</v>
       </c>
       <c r="I31" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>2025-03-05 14:12:19</t>
+          <t>2025-03-05 15:38:36</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -3350,7 +5136,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -3360,7 +5146,7 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>0x19</t>
+          <t>0x13</t>
         </is>
       </c>
       <c r="F32" t="n">
@@ -3368,20 +5154,20 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>568631262647113771663628</t>
+          <t>568631262647113771270412</t>
         </is>
       </c>
       <c r="H32" t="n">
         <v>400</v>
       </c>
       <c r="I32" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>2025-03-05 15:12:19</t>
+          <t>2025-03-05 16:38:36</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -3391,7 +5177,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -3401,7 +5187,7 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>0x19</t>
+          <t>0x13</t>
         </is>
       </c>
       <c r="F33" t="n">
@@ -3409,20 +5195,20 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>568631262647113771663628</t>
+          <t>568631262647113771270412</t>
         </is>
       </c>
       <c r="H33" t="n">
         <v>400</v>
       </c>
       <c r="I33" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>2025-03-05 16:12:19</t>
+          <t>2025-03-05 17:38:36</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -3432,7 +5218,7 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -3442,7 +5228,7 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>0x19</t>
+          <t>0x13</t>
         </is>
       </c>
       <c r="F34" t="n">
@@ -3450,20 +5236,20 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>568631262647113771663628</t>
+          <t>568631262647113771270412</t>
         </is>
       </c>
       <c r="H34" t="n">
         <v>400</v>
       </c>
       <c r="I34" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>2025-03-05 17:12:19</t>
+          <t>2025-03-05 18:38:36</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -3473,7 +5259,7 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -3483,7 +5269,7 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>0x19</t>
+          <t>0x13</t>
         </is>
       </c>
       <c r="F35" t="n">
@@ -3491,20 +5277,20 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>568631262647113771663628</t>
+          <t>568631262647113771270412</t>
         </is>
       </c>
       <c r="H35" t="n">
         <v>400</v>
       </c>
       <c r="I35" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>2025-03-05 18:12:19</t>
+          <t>2025-03-05 19:38:36</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -3514,7 +5300,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -3524,7 +5310,7 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>0x19</t>
+          <t>0x13</t>
         </is>
       </c>
       <c r="F36" t="n">
@@ -3532,20 +5318,20 @@
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>568631262647113771663628</t>
+          <t>568631262647113771270412</t>
         </is>
       </c>
       <c r="H36" t="n">
         <v>400</v>
       </c>
       <c r="I36" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>2025-03-05 19:12:19</t>
+          <t>2025-03-05 20:38:36</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -3555,7 +5341,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -3565,7 +5351,7 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>0x19</t>
+          <t>0x13</t>
         </is>
       </c>
       <c r="F37" t="n">
@@ -3573,20 +5359,20 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>568631262647113771663628</t>
+          <t>568631262647113771270412</t>
         </is>
       </c>
       <c r="H37" t="n">
         <v>400</v>
       </c>
       <c r="I37" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>2025-03-05 20:12:19</t>
+          <t>2025-03-05 21:38:36</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -3596,7 +5382,7 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -3606,7 +5392,7 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>0x19</t>
+          <t>0x13</t>
         </is>
       </c>
       <c r="F38" t="n">
@@ -3614,20 +5400,20 @@
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>568631262647113771663628</t>
+          <t>568631262647113771270412</t>
         </is>
       </c>
       <c r="H38" t="n">
         <v>400</v>
       </c>
       <c r="I38" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>2025-03-05 21:12:19</t>
+          <t>2025-03-05 22:38:36</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -3637,7 +5423,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -3647,7 +5433,7 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>0x19</t>
+          <t>0x13</t>
         </is>
       </c>
       <c r="F39" t="n">
@@ -3655,20 +5441,20 @@
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>568631262647113771663628</t>
+          <t>568631262647113771270412</t>
         </is>
       </c>
       <c r="H39" t="n">
         <v>400</v>
       </c>
       <c r="I39" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>2025-03-05 22:12:19</t>
+          <t>2025-03-05 23:38:36</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -3678,7 +5464,7 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -3688,7 +5474,7 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>0x19</t>
+          <t>0x13</t>
         </is>
       </c>
       <c r="F40" t="n">
@@ -3696,20 +5482,20 @@
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>568631262647113771663628</t>
+          <t>568631262647113771270412</t>
         </is>
       </c>
       <c r="H40" t="n">
         <v>400</v>
       </c>
       <c r="I40" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>2025-03-05 23:12:19</t>
+          <t>2025-03-06 00:38:36</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -3719,7 +5505,7 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -3729,7 +5515,7 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>0x19</t>
+          <t>0x13</t>
         </is>
       </c>
       <c r="F41" t="n">
@@ -3737,14 +5523,14 @@
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>568631262647113771663628</t>
+          <t>568631262647113771270412</t>
         </is>
       </c>
       <c r="H41" t="n">
         <v>400</v>
       </c>
       <c r="I41" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -3752,7 +5538,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3815,7 +5601,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45720.40180555556</v>
+        <v>45720.43858796296</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -3824,7 +5610,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -3834,7 +5620,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>0x13</t>
+          <t>0x 9</t>
         </is>
       </c>
       <c r="F2" t="n">
@@ -3842,20 +5628,20 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>568631262647113771270412</t>
+          <t>568631262647113770680332</t>
         </is>
       </c>
       <c r="H2" t="n">
         <v>400</v>
       </c>
       <c r="I2" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2025-03-04 10:38:36</t>
+          <t>2025-03-04 11:31:34</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -3865,7 +5651,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -3875,7 +5661,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>0x13</t>
+          <t>0x 9</t>
         </is>
       </c>
       <c r="F3" t="n">
@@ -3883,20 +5669,20 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>568631262647113771270412</t>
+          <t>568631262647113770680332</t>
         </is>
       </c>
       <c r="H3" t="n">
         <v>400</v>
       </c>
       <c r="I3" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2025-03-04 11:38:36</t>
+          <t>2025-03-04 12:31:34</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -3906,7 +5692,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -3916,7 +5702,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>0x13</t>
+          <t>0x 9</t>
         </is>
       </c>
       <c r="F4" t="n">
@@ -3924,20 +5710,20 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>568631262647113771270412</t>
+          <t>568631262647113770680332</t>
         </is>
       </c>
       <c r="H4" t="n">
         <v>400</v>
       </c>
       <c r="I4" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2025-03-04 12:38:36</t>
+          <t>2025-03-04 13:31:34</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -3947,7 +5733,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -3957,7 +5743,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>0x13</t>
+          <t>0x 9</t>
         </is>
       </c>
       <c r="F5" t="n">
@@ -3965,20 +5751,20 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>568631262647113771270412</t>
+          <t>568631262647113770680332</t>
         </is>
       </c>
       <c r="H5" t="n">
         <v>400</v>
       </c>
       <c r="I5" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2025-03-04 13:38:36</t>
+          <t>2025-03-04 14:31:34</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -3988,7 +5774,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -3998,7 +5784,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>0x13</t>
+          <t>0x 9</t>
         </is>
       </c>
       <c r="F6" t="n">
@@ -4006,20 +5792,20 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>568631262647113771270412</t>
+          <t>568631262647113770680332</t>
         </is>
       </c>
       <c r="H6" t="n">
         <v>400</v>
       </c>
       <c r="I6" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2025-03-04 14:38:36</t>
+          <t>2025-03-04 15:31:34</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -4029,7 +5815,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -4039,7 +5825,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>0x13</t>
+          <t>0x 9</t>
         </is>
       </c>
       <c r="F7" t="n">
@@ -4047,20 +5833,20 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>568631262647113771270412</t>
+          <t>568631262647113770680332</t>
         </is>
       </c>
       <c r="H7" t="n">
         <v>400</v>
       </c>
       <c r="I7" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2025-03-04 15:38:36</t>
+          <t>2025-03-04 16:31:34</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -4070,7 +5856,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -4080,7 +5866,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>0x13</t>
+          <t>0x 9</t>
         </is>
       </c>
       <c r="F8" t="n">
@@ -4088,20 +5874,20 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>568631262647113771270412</t>
+          <t>568631262647113770680332</t>
         </is>
       </c>
       <c r="H8" t="n">
         <v>400</v>
       </c>
       <c r="I8" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2025-03-04 16:38:36</t>
+          <t>2025-03-04 17:31:34</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -4111,7 +5897,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -4121,7 +5907,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>0x13</t>
+          <t>0x 9</t>
         </is>
       </c>
       <c r="F9" t="n">
@@ -4129,20 +5915,20 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>568631262647113771270412</t>
+          <t>568631262647113770680332</t>
         </is>
       </c>
       <c r="H9" t="n">
         <v>400</v>
       </c>
       <c r="I9" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2025-03-04 17:38:36</t>
+          <t>2025-03-04 18:31:34</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -4152,7 +5938,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -4162,7 +5948,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>0x13</t>
+          <t>0x 9</t>
         </is>
       </c>
       <c r="F10" t="n">
@@ -4170,20 +5956,20 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>568631262647113771270412</t>
+          <t>568631262647113770680332</t>
         </is>
       </c>
       <c r="H10" t="n">
         <v>400</v>
       </c>
       <c r="I10" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2025-03-04 18:38:36</t>
+          <t>2025-03-04 19:31:34</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -4193,7 +5979,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -4203,7 +5989,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>0x13</t>
+          <t>0x 9</t>
         </is>
       </c>
       <c r="F11" t="n">
@@ -4211,20 +5997,20 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>568631262647113771270412</t>
+          <t>568631262647113770680332</t>
         </is>
       </c>
       <c r="H11" t="n">
         <v>400</v>
       </c>
       <c r="I11" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2025-03-04 19:38:36</t>
+          <t>2025-03-04 20:31:34</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -4234,7 +6020,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -4244,7 +6030,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>0x13</t>
+          <t>0x 9</t>
         </is>
       </c>
       <c r="F12" t="n">
@@ -4252,20 +6038,20 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>568631262647113771270412</t>
+          <t>568631262647113770680332</t>
         </is>
       </c>
       <c r="H12" t="n">
         <v>400</v>
       </c>
       <c r="I12" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2025-03-04 20:38:36</t>
+          <t>2025-03-04 21:31:34</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -4275,7 +6061,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -4285,7 +6071,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>0x13</t>
+          <t>0x 9</t>
         </is>
       </c>
       <c r="F13" t="n">
@@ -4293,20 +6079,20 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>568631262647113771270412</t>
+          <t>568631262647113770680332</t>
         </is>
       </c>
       <c r="H13" t="n">
         <v>400</v>
       </c>
       <c r="I13" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2025-03-04 21:38:36</t>
+          <t>2025-03-04 22:31:34</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -4316,7 +6102,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -4326,7 +6112,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>0x13</t>
+          <t>0x 9</t>
         </is>
       </c>
       <c r="F14" t="n">
@@ -4334,20 +6120,20 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>568631262647113771270412</t>
+          <t>568631262647113770680332</t>
         </is>
       </c>
       <c r="H14" t="n">
         <v>400</v>
       </c>
       <c r="I14" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2025-03-04 22:38:36</t>
+          <t>2025-03-04 23:31:34</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -4357,7 +6143,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -4367,7 +6153,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>0x13</t>
+          <t>0x 9</t>
         </is>
       </c>
       <c r="F15" t="n">
@@ -4375,20 +6161,20 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>568631262647113771270412</t>
+          <t>568631262647113770680332</t>
         </is>
       </c>
       <c r="H15" t="n">
         <v>400</v>
       </c>
       <c r="I15" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2025-03-04 23:38:36</t>
+          <t>2025-03-05 00:31:34</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -4398,7 +6184,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -4408,7 +6194,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>0x13</t>
+          <t>0x 9</t>
         </is>
       </c>
       <c r="F16" t="n">
@@ -4416,20 +6202,20 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>568631262647113771270412</t>
+          <t>568631262647113770680332</t>
         </is>
       </c>
       <c r="H16" t="n">
         <v>400</v>
       </c>
       <c r="I16" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2025-03-05 00:38:36</t>
+          <t>2025-03-05 01:31:34</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -4439,7 +6225,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -4449,7 +6235,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>0x13</t>
+          <t>0x 9</t>
         </is>
       </c>
       <c r="F17" t="n">
@@ -4457,20 +6243,20 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>568631262647113771270412</t>
+          <t>568631262647113770680332</t>
         </is>
       </c>
       <c r="H17" t="n">
         <v>400</v>
       </c>
       <c r="I17" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2025-03-05 01:38:36</t>
+          <t>2025-03-05 02:31:34</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -4480,7 +6266,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -4490,7 +6276,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>0x13</t>
+          <t>0x 9</t>
         </is>
       </c>
       <c r="F18" t="n">
@@ -4498,20 +6284,20 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>568631262647113771270412</t>
+          <t>568631262647113770680332</t>
         </is>
       </c>
       <c r="H18" t="n">
         <v>400</v>
       </c>
       <c r="I18" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>2025-03-05 02:38:36</t>
+          <t>2025-03-05 03:31:34</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -4521,7 +6307,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -4531,7 +6317,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>0x13</t>
+          <t>0x 9</t>
         </is>
       </c>
       <c r="F19" t="n">
@@ -4539,20 +6325,20 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>568631262647113771270412</t>
+          <t>568631262647113770680332</t>
         </is>
       </c>
       <c r="H19" t="n">
         <v>400</v>
       </c>
       <c r="I19" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2025-03-05 03:38:36</t>
+          <t>2025-03-05 04:31:34</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -4562,7 +6348,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -4572,7 +6358,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>0x13</t>
+          <t>0x 9</t>
         </is>
       </c>
       <c r="F20" t="n">
@@ -4580,20 +6366,20 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>568631262647113771270412</t>
+          <t>568631262647113770680332</t>
         </is>
       </c>
       <c r="H20" t="n">
         <v>400</v>
       </c>
       <c r="I20" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>2025-03-05 04:38:36</t>
+          <t>2025-03-05 05:31:34</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -4603,7 +6389,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -4613,7 +6399,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>0x13</t>
+          <t>0x 9</t>
         </is>
       </c>
       <c r="F21" t="n">
@@ -4621,20 +6407,20 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>568631262647113771270412</t>
+          <t>568631262647113770680332</t>
         </is>
       </c>
       <c r="H21" t="n">
         <v>400</v>
       </c>
       <c r="I21" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>2025-03-05 05:38:36</t>
+          <t>2025-03-05 06:31:34</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -4644,7 +6430,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -4654,7 +6440,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>0x13</t>
+          <t>0x 9</t>
         </is>
       </c>
       <c r="F22" t="n">
@@ -4662,20 +6448,20 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>568631262647113771270412</t>
+          <t>568631262647113770680332</t>
         </is>
       </c>
       <c r="H22" t="n">
         <v>400</v>
       </c>
       <c r="I22" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>2025-03-05 06:38:36</t>
+          <t>2025-03-05 07:31:34</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -4685,7 +6471,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -4695,7 +6481,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>0x13</t>
+          <t>0x 9</t>
         </is>
       </c>
       <c r="F23" t="n">
@@ -4703,20 +6489,20 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>568631262647113771270412</t>
+          <t>568631262647113770680332</t>
         </is>
       </c>
       <c r="H23" t="n">
         <v>400</v>
       </c>
       <c r="I23" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>2025-03-05 07:38:36</t>
+          <t>2025-03-05 08:31:34</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -4726,7 +6512,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -4736,7 +6522,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>0x13</t>
+          <t>0x 9</t>
         </is>
       </c>
       <c r="F24" t="n">
@@ -4744,20 +6530,20 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>568631262647113771270412</t>
+          <t>568631262647113770680332</t>
         </is>
       </c>
       <c r="H24" t="n">
         <v>400</v>
       </c>
       <c r="I24" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>2025-03-05 08:38:36</t>
+          <t>2025-03-05 09:31:34</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -4767,7 +6553,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -4777,7 +6563,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>0x13</t>
+          <t>0x 9</t>
         </is>
       </c>
       <c r="F25" t="n">
@@ -4785,20 +6571,20 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>568631262647113771270412</t>
+          <t>568631262647113770680332</t>
         </is>
       </c>
       <c r="H25" t="n">
         <v>400</v>
       </c>
       <c r="I25" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>2025-03-05 09:38:36</t>
+          <t>2025-03-05 10:31:34</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -4808,7 +6594,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -4818,7 +6604,7 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>0x13</t>
+          <t>0x 9</t>
         </is>
       </c>
       <c r="F26" t="n">
@@ -4826,20 +6612,20 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>568631262647113771270412</t>
+          <t>568631262647113770680332</t>
         </is>
       </c>
       <c r="H26" t="n">
         <v>400</v>
       </c>
       <c r="I26" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>2025-03-05 10:38:36</t>
+          <t>2025-03-05 11:31:34</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -4849,7 +6635,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -4859,7 +6645,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>0x13</t>
+          <t>0x 9</t>
         </is>
       </c>
       <c r="F27" t="n">
@@ -4867,20 +6653,20 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>568631262647113771270412</t>
+          <t>568631262647113770680332</t>
         </is>
       </c>
       <c r="H27" t="n">
         <v>400</v>
       </c>
       <c r="I27" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>2025-03-05 11:38:36</t>
+          <t>2025-03-05 12:31:34</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -4890,7 +6676,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -4900,7 +6686,7 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>0x13</t>
+          <t>0x 9</t>
         </is>
       </c>
       <c r="F28" t="n">
@@ -4908,20 +6694,20 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>568631262647113771270412</t>
+          <t>568631262647113770680332</t>
         </is>
       </c>
       <c r="H28" t="n">
         <v>400</v>
       </c>
       <c r="I28" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>2025-03-05 12:38:36</t>
+          <t>2025-03-05 13:31:34</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -4931,7 +6717,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -4941,7 +6727,7 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>0x13</t>
+          <t>0x 9</t>
         </is>
       </c>
       <c r="F29" t="n">
@@ -4949,20 +6735,20 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>568631262647113771270412</t>
+          <t>568631262647113770680332</t>
         </is>
       </c>
       <c r="H29" t="n">
         <v>400</v>
       </c>
       <c r="I29" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>2025-03-05 13:38:36</t>
+          <t>2025-03-05 14:31:34</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -4972,7 +6758,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -4982,7 +6768,7 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>0x13</t>
+          <t>0x 9</t>
         </is>
       </c>
       <c r="F30" t="n">
@@ -4990,20 +6776,20 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>568631262647113771270412</t>
+          <t>568631262647113770680332</t>
         </is>
       </c>
       <c r="H30" t="n">
         <v>400</v>
       </c>
       <c r="I30" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>2025-03-05 14:38:36</t>
+          <t>2025-03-05 15:31:34</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -5013,7 +6799,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -5023,7 +6809,7 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>0x13</t>
+          <t>0x 9</t>
         </is>
       </c>
       <c r="F31" t="n">
@@ -5031,20 +6817,20 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>568631262647113771270412</t>
+          <t>568631262647113770680332</t>
         </is>
       </c>
       <c r="H31" t="n">
         <v>400</v>
       </c>
       <c r="I31" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>2025-03-05 15:38:36</t>
+          <t>2025-03-05 16:31:34</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -5054,7 +6840,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -5064,7 +6850,7 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>0x13</t>
+          <t>0x 9</t>
         </is>
       </c>
       <c r="F32" t="n">
@@ -5072,20 +6858,20 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>568631262647113771270412</t>
+          <t>568631262647113770680332</t>
         </is>
       </c>
       <c r="H32" t="n">
         <v>400</v>
       </c>
       <c r="I32" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>2025-03-05 16:38:36</t>
+          <t>2025-03-05 17:31:34</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -5095,7 +6881,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -5105,7 +6891,7 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>0x13</t>
+          <t>0x 9</t>
         </is>
       </c>
       <c r="F33" t="n">
@@ -5113,20 +6899,20 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>568631262647113771270412</t>
+          <t>568631262647113770680332</t>
         </is>
       </c>
       <c r="H33" t="n">
         <v>400</v>
       </c>
       <c r="I33" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>2025-03-05 17:38:36</t>
+          <t>2025-03-05 18:31:34</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -5136,7 +6922,7 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -5146,7 +6932,7 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>0x13</t>
+          <t>0x 9</t>
         </is>
       </c>
       <c r="F34" t="n">
@@ -5154,20 +6940,20 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>568631262647113771270412</t>
+          <t>568631262647113770680332</t>
         </is>
       </c>
       <c r="H34" t="n">
         <v>400</v>
       </c>
       <c r="I34" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>2025-03-05 18:38:36</t>
+          <t>2025-03-05 19:31:34</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -5177,7 +6963,7 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -5187,7 +6973,7 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>0x13</t>
+          <t>0x 9</t>
         </is>
       </c>
       <c r="F35" t="n">
@@ -5195,20 +6981,20 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>568631262647113771270412</t>
+          <t>568631262647113770680332</t>
         </is>
       </c>
       <c r="H35" t="n">
         <v>400</v>
       </c>
       <c r="I35" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>2025-03-05 19:38:36</t>
+          <t>2025-03-05 20:31:34</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -5218,7 +7004,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -5228,7 +7014,7 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>0x13</t>
+          <t>0x 9</t>
         </is>
       </c>
       <c r="F36" t="n">
@@ -5236,20 +7022,20 @@
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>568631262647113771270412</t>
+          <t>568631262647113770680332</t>
         </is>
       </c>
       <c r="H36" t="n">
         <v>400</v>
       </c>
       <c r="I36" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>2025-03-05 20:38:36</t>
+          <t>2025-03-05 21:31:34</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -5259,7 +7045,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -5269,7 +7055,7 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>0x13</t>
+          <t>0x 9</t>
         </is>
       </c>
       <c r="F37" t="n">
@@ -5277,20 +7063,20 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>568631262647113771270412</t>
+          <t>568631262647113770680332</t>
         </is>
       </c>
       <c r="H37" t="n">
         <v>400</v>
       </c>
       <c r="I37" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>2025-03-05 21:38:36</t>
+          <t>2025-03-05 22:31:34</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -5300,7 +7086,7 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -5310,7 +7096,7 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>0x13</t>
+          <t>0x 9</t>
         </is>
       </c>
       <c r="F38" t="n">
@@ -5318,20 +7104,20 @@
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>568631262647113771270412</t>
+          <t>568631262647113770680332</t>
         </is>
       </c>
       <c r="H38" t="n">
         <v>400</v>
       </c>
       <c r="I38" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>2025-03-05 22:38:36</t>
+          <t>2025-03-05 23:31:34</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -5341,7 +7127,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -5351,7 +7137,7 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>0x13</t>
+          <t>0x 9</t>
         </is>
       </c>
       <c r="F39" t="n">
@@ -5359,20 +7145,20 @@
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>568631262647113771270412</t>
+          <t>568631262647113770680332</t>
         </is>
       </c>
       <c r="H39" t="n">
         <v>400</v>
       </c>
       <c r="I39" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>2025-03-05 23:38:36</t>
+          <t>2025-03-06 00:31:34</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -5382,7 +7168,7 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -5392,7 +7178,7 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>0x13</t>
+          <t>0x 9</t>
         </is>
       </c>
       <c r="F40" t="n">
@@ -5400,1635 +7186,13 @@
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>568631262647113771270412</t>
+          <t>568631262647113770680332</t>
         </is>
       </c>
       <c r="H40" t="n">
         <v>400</v>
       </c>
       <c r="I40" t="n">
-        <v>13</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:I39"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>time</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>总长</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>ID</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>实际长度</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>和校验</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>总长_DEC</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>ID_DEC</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>实际长度_DEC</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>和校验_DEC</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>45720.43858796296</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0x01,0x90 </t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>0x01,0x90,</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>0x 9</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>400</v>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>568631262647113770680332</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>400</v>
-      </c>
-      <c r="I2" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>2025-03-04 11:31:34</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0x01,0x90 </t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>0x01,0x90,</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>0x 9</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>400</v>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>568631262647113770680332</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>400</v>
-      </c>
-      <c r="I3" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>2025-03-04 12:31:34</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0x01,0x90 </t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>0x01,0x90,</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>0x 9</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>400</v>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>568631262647113770680332</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>400</v>
-      </c>
-      <c r="I4" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>2025-03-04 13:31:34</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0x01,0x90 </t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>0x01,0x90,</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>0x 9</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>400</v>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>568631262647113770680332</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>400</v>
-      </c>
-      <c r="I5" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>2025-03-04 14:31:34</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0x01,0x90 </t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0x01,0x90,</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>0x 9</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>400</v>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>568631262647113770680332</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>400</v>
-      </c>
-      <c r="I6" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>2025-03-04 15:31:34</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0x01,0x90 </t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>0x01,0x90,</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>0x 9</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>400</v>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>568631262647113770680332</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>400</v>
-      </c>
-      <c r="I7" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>2025-03-04 16:31:34</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0x01,0x90 </t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>0x01,0x90,</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>0x 9</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>400</v>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>568631262647113770680332</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>400</v>
-      </c>
-      <c r="I8" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>2025-03-04 17:31:34</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0x01,0x90 </t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>0x01,0x90,</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>0x 9</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>400</v>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>568631262647113770680332</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>400</v>
-      </c>
-      <c r="I9" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>2025-03-04 18:31:34</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0x01,0x90 </t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>0x01,0x90,</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>0x 9</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>400</v>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>568631262647113770680332</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>400</v>
-      </c>
-      <c r="I10" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>2025-03-04 19:31:34</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0x01,0x90 </t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>0x01,0x90,</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>0x 9</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>400</v>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>568631262647113770680332</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>400</v>
-      </c>
-      <c r="I11" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>2025-03-04 20:31:34</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0x01,0x90 </t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>0x01,0x90,</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>0x 9</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>400</v>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>568631262647113770680332</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>400</v>
-      </c>
-      <c r="I12" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>2025-03-04 21:31:34</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0x01,0x90 </t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>0x01,0x90,</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>0x 9</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>400</v>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>568631262647113770680332</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>400</v>
-      </c>
-      <c r="I13" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>2025-03-04 22:31:34</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0x01,0x90 </t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>0x01,0x90,</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>0x 9</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>400</v>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>568631262647113770680332</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>400</v>
-      </c>
-      <c r="I14" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>2025-03-04 23:31:34</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0x01,0x90 </t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>0x01,0x90,</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>0x 9</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>400</v>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>568631262647113770680332</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>400</v>
-      </c>
-      <c r="I15" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>2025-03-05 00:31:34</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0x01,0x90 </t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>0x01,0x90,</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>0x 9</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
-        <v>400</v>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>568631262647113770680332</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
-        <v>400</v>
-      </c>
-      <c r="I16" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>2025-03-05 01:31:34</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0x01,0x90 </t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>0x01,0x90,</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>0x 9</t>
-        </is>
-      </c>
-      <c r="F17" t="n">
-        <v>400</v>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>568631262647113770680332</t>
-        </is>
-      </c>
-      <c r="H17" t="n">
-        <v>400</v>
-      </c>
-      <c r="I17" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>2025-03-05 02:31:34</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0x01,0x90 </t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>0x01,0x90,</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>0x 9</t>
-        </is>
-      </c>
-      <c r="F18" t="n">
-        <v>400</v>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>568631262647113770680332</t>
-        </is>
-      </c>
-      <c r="H18" t="n">
-        <v>400</v>
-      </c>
-      <c r="I18" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>2025-03-05 03:31:34</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0x01,0x90 </t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>0x01,0x90,</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>0x 9</t>
-        </is>
-      </c>
-      <c r="F19" t="n">
-        <v>400</v>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>568631262647113770680332</t>
-        </is>
-      </c>
-      <c r="H19" t="n">
-        <v>400</v>
-      </c>
-      <c r="I19" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>2025-03-05 04:31:34</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0x01,0x90 </t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>0x01,0x90,</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>0x 9</t>
-        </is>
-      </c>
-      <c r="F20" t="n">
-        <v>400</v>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>568631262647113770680332</t>
-        </is>
-      </c>
-      <c r="H20" t="n">
-        <v>400</v>
-      </c>
-      <c r="I20" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>2025-03-05 05:31:34</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0x01,0x90 </t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>0x01,0x90,</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>0x 9</t>
-        </is>
-      </c>
-      <c r="F21" t="n">
-        <v>400</v>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>568631262647113770680332</t>
-        </is>
-      </c>
-      <c r="H21" t="n">
-        <v>400</v>
-      </c>
-      <c r="I21" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>2025-03-05 06:31:34</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0x01,0x90 </t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>0x01,0x90,</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>0x 9</t>
-        </is>
-      </c>
-      <c r="F22" t="n">
-        <v>400</v>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>568631262647113770680332</t>
-        </is>
-      </c>
-      <c r="H22" t="n">
-        <v>400</v>
-      </c>
-      <c r="I22" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>2025-03-05 07:31:34</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0x01,0x90 </t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>0x01,0x90,</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>0x 9</t>
-        </is>
-      </c>
-      <c r="F23" t="n">
-        <v>400</v>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>568631262647113770680332</t>
-        </is>
-      </c>
-      <c r="H23" t="n">
-        <v>400</v>
-      </c>
-      <c r="I23" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>2025-03-05 08:31:34</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0x01,0x90 </t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>0x01,0x90,</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>0x 9</t>
-        </is>
-      </c>
-      <c r="F24" t="n">
-        <v>400</v>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>568631262647113770680332</t>
-        </is>
-      </c>
-      <c r="H24" t="n">
-        <v>400</v>
-      </c>
-      <c r="I24" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>2025-03-05 09:31:34</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0x01,0x90 </t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>0x01,0x90,</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>0x 9</t>
-        </is>
-      </c>
-      <c r="F25" t="n">
-        <v>400</v>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>568631262647113770680332</t>
-        </is>
-      </c>
-      <c r="H25" t="n">
-        <v>400</v>
-      </c>
-      <c r="I25" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>2025-03-05 10:31:34</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0x01,0x90 </t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>0x01,0x90,</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>0x 9</t>
-        </is>
-      </c>
-      <c r="F26" t="n">
-        <v>400</v>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>568631262647113770680332</t>
-        </is>
-      </c>
-      <c r="H26" t="n">
-        <v>400</v>
-      </c>
-      <c r="I26" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>2025-03-05 11:31:34</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0x01,0x90 </t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>0x01,0x90,</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>0x 9</t>
-        </is>
-      </c>
-      <c r="F27" t="n">
-        <v>400</v>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>568631262647113770680332</t>
-        </is>
-      </c>
-      <c r="H27" t="n">
-        <v>400</v>
-      </c>
-      <c r="I27" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>2025-03-05 12:31:34</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0x01,0x90 </t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>0x01,0x90,</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>0x 9</t>
-        </is>
-      </c>
-      <c r="F28" t="n">
-        <v>400</v>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>568631262647113770680332</t>
-        </is>
-      </c>
-      <c r="H28" t="n">
-        <v>400</v>
-      </c>
-      <c r="I28" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>2025-03-05 13:31:34</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0x01,0x90 </t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>0x01,0x90,</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>0x 9</t>
-        </is>
-      </c>
-      <c r="F29" t="n">
-        <v>400</v>
-      </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>568631262647113770680332</t>
-        </is>
-      </c>
-      <c r="H29" t="n">
-        <v>400</v>
-      </c>
-      <c r="I29" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>2025-03-05 14:31:34</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0x01,0x90 </t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>0x01,0x90,</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>0x 9</t>
-        </is>
-      </c>
-      <c r="F30" t="n">
-        <v>400</v>
-      </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>568631262647113770680332</t>
-        </is>
-      </c>
-      <c r="H30" t="n">
-        <v>400</v>
-      </c>
-      <c r="I30" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>2025-03-05 15:31:34</t>
-        </is>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0x01,0x90 </t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>0x01,0x90,</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>0x 9</t>
-        </is>
-      </c>
-      <c r="F31" t="n">
-        <v>400</v>
-      </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>568631262647113770680332</t>
-        </is>
-      </c>
-      <c r="H31" t="n">
-        <v>400</v>
-      </c>
-      <c r="I31" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>2025-03-05 16:31:34</t>
-        </is>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0x01,0x90 </t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>0x01,0x90,</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>0x 9</t>
-        </is>
-      </c>
-      <c r="F32" t="n">
-        <v>400</v>
-      </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>568631262647113770680332</t>
-        </is>
-      </c>
-      <c r="H32" t="n">
-        <v>400</v>
-      </c>
-      <c r="I32" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>2025-03-05 17:31:34</t>
-        </is>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0x01,0x90 </t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>0x01,0x90,</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>0x 9</t>
-        </is>
-      </c>
-      <c r="F33" t="n">
-        <v>400</v>
-      </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>568631262647113770680332</t>
-        </is>
-      </c>
-      <c r="H33" t="n">
-        <v>400</v>
-      </c>
-      <c r="I33" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>2025-03-05 18:31:34</t>
-        </is>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0x01,0x90 </t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>0x01,0x90,</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>0x 9</t>
-        </is>
-      </c>
-      <c r="F34" t="n">
-        <v>400</v>
-      </c>
-      <c r="G34" t="inlineStr">
-        <is>
-          <t>568631262647113770680332</t>
-        </is>
-      </c>
-      <c r="H34" t="n">
-        <v>400</v>
-      </c>
-      <c r="I34" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>2025-03-05 19:31:34</t>
-        </is>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0x01,0x90 </t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>0x01,0x90,</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>0x 9</t>
-        </is>
-      </c>
-      <c r="F35" t="n">
-        <v>400</v>
-      </c>
-      <c r="G35" t="inlineStr">
-        <is>
-          <t>568631262647113770680332</t>
-        </is>
-      </c>
-      <c r="H35" t="n">
-        <v>400</v>
-      </c>
-      <c r="I35" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>2025-03-05 20:31:34</t>
-        </is>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0x01,0x90 </t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>0x01,0x90,</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>0x 9</t>
-        </is>
-      </c>
-      <c r="F36" t="n">
-        <v>400</v>
-      </c>
-      <c r="G36" t="inlineStr">
-        <is>
-          <t>568631262647113770680332</t>
-        </is>
-      </c>
-      <c r="H36" t="n">
-        <v>400</v>
-      </c>
-      <c r="I36" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>2025-03-05 21:31:34</t>
-        </is>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0x01,0x90 </t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>0x01,0x90,</t>
-        </is>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>0x 9</t>
-        </is>
-      </c>
-      <c r="F37" t="n">
-        <v>400</v>
-      </c>
-      <c r="G37" t="inlineStr">
-        <is>
-          <t>568631262647113770680332</t>
-        </is>
-      </c>
-      <c r="H37" t="n">
-        <v>400</v>
-      </c>
-      <c r="I37" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>2025-03-05 22:31:34</t>
-        </is>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0x01,0x90 </t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>0x01,0x90,</t>
-        </is>
-      </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>0x 9</t>
-        </is>
-      </c>
-      <c r="F38" t="n">
-        <v>400</v>
-      </c>
-      <c r="G38" t="inlineStr">
-        <is>
-          <t>568631262647113770680332</t>
-        </is>
-      </c>
-      <c r="H38" t="n">
-        <v>400</v>
-      </c>
-      <c r="I38" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>2025-03-05 23:31:34</t>
-        </is>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0x01,0x90 </t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>0x01,0x90,</t>
-        </is>
-      </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>0x 9</t>
-        </is>
-      </c>
-      <c r="F39" t="n">
-        <v>400</v>
-      </c>
-      <c r="G39" t="inlineStr">
-        <is>
-          <t>568631262647113770680332</t>
-        </is>
-      </c>
-      <c r="H39" t="n">
-        <v>400</v>
-      </c>
-      <c r="I39" t="n">
         <v>9</v>
       </c>
     </row>

--- a/SAG2_sensor_data_with_decimal_filtered_updated.xlsx
+++ b/SAG2_sensor_data_with_decimal_filtered_updated.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I40"/>
+  <dimension ref="A1:I41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2084,12 +2084,1839 @@
         <v>14</v>
       </c>
     </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>2025-03-06 01:18:04</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1b,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>0x14</t>
+        </is>
+      </c>
+      <c r="F41" t="n">
+        <v>400</v>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>568631262647113771335948</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>400</v>
+      </c>
+      <c r="I41" t="n">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I43"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>time</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>总长</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>实际长度</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>和校验</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>总长_DEC</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>ID_DEC</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>实际长度_DEC</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>和校验_DEC</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>45720.34188657408</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F2" t="n">
+        <v>400</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>400</v>
+      </c>
+      <c r="I2" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2025-03-04 09:12:19</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F3" t="n">
+        <v>400</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>400</v>
+      </c>
+      <c r="I3" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>2025-03-04 10:12:19</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F4" t="n">
+        <v>400</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>400</v>
+      </c>
+      <c r="I4" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>2025-03-04 11:12:19</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F5" t="n">
+        <v>400</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>400</v>
+      </c>
+      <c r="I5" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>2025-03-04 12:12:19</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F6" t="n">
+        <v>400</v>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>400</v>
+      </c>
+      <c r="I6" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>2025-03-04 13:12:19</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F7" t="n">
+        <v>400</v>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>400</v>
+      </c>
+      <c r="I7" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>2025-03-04 14:12:19</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F8" t="n">
+        <v>400</v>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>400</v>
+      </c>
+      <c r="I8" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>2025-03-04 15:12:19</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F9" t="n">
+        <v>400</v>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>400</v>
+      </c>
+      <c r="I9" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>2025-03-04 16:12:19</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F10" t="n">
+        <v>400</v>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>400</v>
+      </c>
+      <c r="I10" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>2025-03-04 17:12:19</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F11" t="n">
+        <v>400</v>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>400</v>
+      </c>
+      <c r="I11" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>2025-03-04 18:12:19</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F12" t="n">
+        <v>400</v>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>400</v>
+      </c>
+      <c r="I12" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>2025-03-04 19:12:19</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F13" t="n">
+        <v>400</v>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>400</v>
+      </c>
+      <c r="I13" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>2025-03-04 20:12:19</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F14" t="n">
+        <v>400</v>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>400</v>
+      </c>
+      <c r="I14" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>2025-03-04 21:12:19</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F15" t="n">
+        <v>400</v>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>400</v>
+      </c>
+      <c r="I15" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>2025-03-04 22:12:19</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F16" t="n">
+        <v>400</v>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>400</v>
+      </c>
+      <c r="I16" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>2025-03-04 23:12:19</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F17" t="n">
+        <v>400</v>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>400</v>
+      </c>
+      <c r="I17" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>2025-03-05 00:12:19</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F18" t="n">
+        <v>400</v>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>400</v>
+      </c>
+      <c r="I18" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>2025-03-05 01:12:19</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F19" t="n">
+        <v>400</v>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>400</v>
+      </c>
+      <c r="I19" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>2025-03-05 02:12:19</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F20" t="n">
+        <v>400</v>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>400</v>
+      </c>
+      <c r="I20" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>2025-03-05 03:12:19</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F21" t="n">
+        <v>400</v>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>400</v>
+      </c>
+      <c r="I21" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>2025-03-05 04:12:19</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F22" t="n">
+        <v>400</v>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>400</v>
+      </c>
+      <c r="I22" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>2025-03-05 05:12:19</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F23" t="n">
+        <v>400</v>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>400</v>
+      </c>
+      <c r="I23" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>2025-03-05 06:12:19</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F24" t="n">
+        <v>400</v>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>400</v>
+      </c>
+      <c r="I24" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>2025-03-05 07:12:19</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F25" t="n">
+        <v>400</v>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>400</v>
+      </c>
+      <c r="I25" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>2025-03-05 08:12:19</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F26" t="n">
+        <v>400</v>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>400</v>
+      </c>
+      <c r="I26" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>2025-03-05 09:12:19</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F27" t="n">
+        <v>400</v>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>400</v>
+      </c>
+      <c r="I27" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>2025-03-05 10:12:19</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F28" t="n">
+        <v>400</v>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>400</v>
+      </c>
+      <c r="I28" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>2025-03-05 11:12:19</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F29" t="n">
+        <v>400</v>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>400</v>
+      </c>
+      <c r="I29" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>2025-03-05 12:12:19</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F30" t="n">
+        <v>400</v>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>400</v>
+      </c>
+      <c r="I30" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>2025-03-05 13:12:19</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F31" t="n">
+        <v>400</v>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>400</v>
+      </c>
+      <c r="I31" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>2025-03-05 14:12:19</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F32" t="n">
+        <v>400</v>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>400</v>
+      </c>
+      <c r="I32" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>2025-03-05 15:12:19</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F33" t="n">
+        <v>400</v>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>400</v>
+      </c>
+      <c r="I33" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>2025-03-05 16:12:19</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F34" t="n">
+        <v>400</v>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>400</v>
+      </c>
+      <c r="I34" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>2025-03-05 17:12:19</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F35" t="n">
+        <v>400</v>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>400</v>
+      </c>
+      <c r="I35" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>2025-03-05 18:12:19</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F36" t="n">
+        <v>400</v>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>400</v>
+      </c>
+      <c r="I36" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>2025-03-05 19:12:19</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F37" t="n">
+        <v>400</v>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>400</v>
+      </c>
+      <c r="I37" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>2025-03-05 20:12:19</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F38" t="n">
+        <v>400</v>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>400</v>
+      </c>
+      <c r="I38" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>2025-03-05 21:12:19</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F39" t="n">
+        <v>400</v>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>400</v>
+      </c>
+      <c r="I39" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>2025-03-05 22:12:19</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F40" t="n">
+        <v>400</v>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>400</v>
+      </c>
+      <c r="I40" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>2025-03-05 23:12:19</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F41" t="n">
+        <v>400</v>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>400</v>
+      </c>
+      <c r="I41" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>2025-03-06 00:12:19</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F42" t="n">
+        <v>400</v>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>400</v>
+      </c>
+      <c r="I42" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>2025-03-06 01:12:19</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F43" t="n">
+        <v>400</v>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>400</v>
+      </c>
+      <c r="I43" t="n">
+        <v>25</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2152,7 +3979,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45720.34188657408</v>
+        <v>45720.40180555556</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -2161,7 +3988,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -2171,7 +3998,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>0x19</t>
+          <t>0x13</t>
         </is>
       </c>
       <c r="F2" t="n">
@@ -2179,20 +4006,20 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>568631262647113771663628</t>
+          <t>568631262647113771270412</t>
         </is>
       </c>
       <c r="H2" t="n">
         <v>400</v>
       </c>
       <c r="I2" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2025-03-04 09:12:19</t>
+          <t>2025-03-04 10:38:36</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -2202,7 +4029,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -2212,7 +4039,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>0x19</t>
+          <t>0x13</t>
         </is>
       </c>
       <c r="F3" t="n">
@@ -2220,20 +4047,20 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>568631262647113771663628</t>
+          <t>568631262647113771270412</t>
         </is>
       </c>
       <c r="H3" t="n">
         <v>400</v>
       </c>
       <c r="I3" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2025-03-04 10:12:19</t>
+          <t>2025-03-04 11:38:36</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -2243,7 +4070,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -2253,7 +4080,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>0x19</t>
+          <t>0x13</t>
         </is>
       </c>
       <c r="F4" t="n">
@@ -2261,20 +4088,20 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>568631262647113771663628</t>
+          <t>568631262647113771270412</t>
         </is>
       </c>
       <c r="H4" t="n">
         <v>400</v>
       </c>
       <c r="I4" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2025-03-04 11:12:19</t>
+          <t>2025-03-04 12:38:36</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -2284,7 +4111,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -2294,7 +4121,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>0x19</t>
+          <t>0x13</t>
         </is>
       </c>
       <c r="F5" t="n">
@@ -2302,20 +4129,20 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>568631262647113771663628</t>
+          <t>568631262647113771270412</t>
         </is>
       </c>
       <c r="H5" t="n">
         <v>400</v>
       </c>
       <c r="I5" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2025-03-04 12:12:19</t>
+          <t>2025-03-04 13:38:36</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -2325,7 +4152,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -2335,7 +4162,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>0x19</t>
+          <t>0x13</t>
         </is>
       </c>
       <c r="F6" t="n">
@@ -2343,20 +4170,20 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>568631262647113771663628</t>
+          <t>568631262647113771270412</t>
         </is>
       </c>
       <c r="H6" t="n">
         <v>400</v>
       </c>
       <c r="I6" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2025-03-04 13:12:19</t>
+          <t>2025-03-04 14:38:36</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -2366,7 +4193,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -2376,7 +4203,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>0x19</t>
+          <t>0x13</t>
         </is>
       </c>
       <c r="F7" t="n">
@@ -2384,20 +4211,20 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>568631262647113771663628</t>
+          <t>568631262647113771270412</t>
         </is>
       </c>
       <c r="H7" t="n">
         <v>400</v>
       </c>
       <c r="I7" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2025-03-04 14:12:19</t>
+          <t>2025-03-04 15:38:36</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -2407,7 +4234,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -2417,7 +4244,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>0x19</t>
+          <t>0x13</t>
         </is>
       </c>
       <c r="F8" t="n">
@@ -2425,20 +4252,20 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>568631262647113771663628</t>
+          <t>568631262647113771270412</t>
         </is>
       </c>
       <c r="H8" t="n">
         <v>400</v>
       </c>
       <c r="I8" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2025-03-04 15:12:19</t>
+          <t>2025-03-04 16:38:36</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -2448,7 +4275,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -2458,7 +4285,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>0x19</t>
+          <t>0x13</t>
         </is>
       </c>
       <c r="F9" t="n">
@@ -2466,20 +4293,20 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>568631262647113771663628</t>
+          <t>568631262647113771270412</t>
         </is>
       </c>
       <c r="H9" t="n">
         <v>400</v>
       </c>
       <c r="I9" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2025-03-04 16:12:19</t>
+          <t>2025-03-04 17:38:36</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -2489,7 +4316,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -2499,7 +4326,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>0x19</t>
+          <t>0x13</t>
         </is>
       </c>
       <c r="F10" t="n">
@@ -2507,20 +4334,20 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>568631262647113771663628</t>
+          <t>568631262647113771270412</t>
         </is>
       </c>
       <c r="H10" t="n">
         <v>400</v>
       </c>
       <c r="I10" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2025-03-04 17:12:19</t>
+          <t>2025-03-04 18:38:36</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -2530,7 +4357,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -2540,7 +4367,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>0x19</t>
+          <t>0x13</t>
         </is>
       </c>
       <c r="F11" t="n">
@@ -2548,20 +4375,20 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>568631262647113771663628</t>
+          <t>568631262647113771270412</t>
         </is>
       </c>
       <c r="H11" t="n">
         <v>400</v>
       </c>
       <c r="I11" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2025-03-04 18:12:19</t>
+          <t>2025-03-04 19:38:36</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2571,7 +4398,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -2581,7 +4408,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>0x19</t>
+          <t>0x13</t>
         </is>
       </c>
       <c r="F12" t="n">
@@ -2589,20 +4416,20 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>568631262647113771663628</t>
+          <t>568631262647113771270412</t>
         </is>
       </c>
       <c r="H12" t="n">
         <v>400</v>
       </c>
       <c r="I12" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2025-03-04 19:12:19</t>
+          <t>2025-03-04 20:38:36</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2612,7 +4439,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -2622,7 +4449,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>0x19</t>
+          <t>0x13</t>
         </is>
       </c>
       <c r="F13" t="n">
@@ -2630,20 +4457,20 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>568631262647113771663628</t>
+          <t>568631262647113771270412</t>
         </is>
       </c>
       <c r="H13" t="n">
         <v>400</v>
       </c>
       <c r="I13" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2025-03-04 20:12:19</t>
+          <t>2025-03-04 21:38:36</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -2653,7 +4480,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -2663,7 +4490,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>0x19</t>
+          <t>0x13</t>
         </is>
       </c>
       <c r="F14" t="n">
@@ -2671,20 +4498,20 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>568631262647113771663628</t>
+          <t>568631262647113771270412</t>
         </is>
       </c>
       <c r="H14" t="n">
         <v>400</v>
       </c>
       <c r="I14" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2025-03-04 21:12:19</t>
+          <t>2025-03-04 22:38:36</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -2694,7 +4521,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -2704,7 +4531,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>0x19</t>
+          <t>0x13</t>
         </is>
       </c>
       <c r="F15" t="n">
@@ -2712,20 +4539,20 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>568631262647113771663628</t>
+          <t>568631262647113771270412</t>
         </is>
       </c>
       <c r="H15" t="n">
         <v>400</v>
       </c>
       <c r="I15" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2025-03-04 22:12:19</t>
+          <t>2025-03-04 23:38:36</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -2735,7 +4562,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -2745,7 +4572,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>0x19</t>
+          <t>0x13</t>
         </is>
       </c>
       <c r="F16" t="n">
@@ -2753,20 +4580,20 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>568631262647113771663628</t>
+          <t>568631262647113771270412</t>
         </is>
       </c>
       <c r="H16" t="n">
         <v>400</v>
       </c>
       <c r="I16" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2025-03-04 23:12:19</t>
+          <t>2025-03-05 00:38:36</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -2776,7 +4603,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -2786,7 +4613,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>0x19</t>
+          <t>0x13</t>
         </is>
       </c>
       <c r="F17" t="n">
@@ -2794,20 +4621,20 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>568631262647113771663628</t>
+          <t>568631262647113771270412</t>
         </is>
       </c>
       <c r="H17" t="n">
         <v>400</v>
       </c>
       <c r="I17" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2025-03-05 00:12:19</t>
+          <t>2025-03-05 01:38:36</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -2817,7 +4644,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -2827,7 +4654,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>0x19</t>
+          <t>0x13</t>
         </is>
       </c>
       <c r="F18" t="n">
@@ -2835,20 +4662,20 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>568631262647113771663628</t>
+          <t>568631262647113771270412</t>
         </is>
       </c>
       <c r="H18" t="n">
         <v>400</v>
       </c>
       <c r="I18" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>2025-03-05 01:12:19</t>
+          <t>2025-03-05 02:38:36</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -2858,7 +4685,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -2868,7 +4695,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>0x19</t>
+          <t>0x13</t>
         </is>
       </c>
       <c r="F19" t="n">
@@ -2876,20 +4703,20 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>568631262647113771663628</t>
+          <t>568631262647113771270412</t>
         </is>
       </c>
       <c r="H19" t="n">
         <v>400</v>
       </c>
       <c r="I19" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2025-03-05 02:12:19</t>
+          <t>2025-03-05 03:38:36</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -2899,7 +4726,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -2909,7 +4736,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>0x19</t>
+          <t>0x13</t>
         </is>
       </c>
       <c r="F20" t="n">
@@ -2917,20 +4744,20 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>568631262647113771663628</t>
+          <t>568631262647113771270412</t>
         </is>
       </c>
       <c r="H20" t="n">
         <v>400</v>
       </c>
       <c r="I20" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>2025-03-05 03:12:19</t>
+          <t>2025-03-05 04:38:36</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -2940,7 +4767,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -2950,7 +4777,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>0x19</t>
+          <t>0x13</t>
         </is>
       </c>
       <c r="F21" t="n">
@@ -2958,20 +4785,20 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>568631262647113771663628</t>
+          <t>568631262647113771270412</t>
         </is>
       </c>
       <c r="H21" t="n">
         <v>400</v>
       </c>
       <c r="I21" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>2025-03-05 04:12:19</t>
+          <t>2025-03-05 05:38:36</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -2981,7 +4808,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -2991,7 +4818,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>0x19</t>
+          <t>0x13</t>
         </is>
       </c>
       <c r="F22" t="n">
@@ -2999,20 +4826,20 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>568631262647113771663628</t>
+          <t>568631262647113771270412</t>
         </is>
       </c>
       <c r="H22" t="n">
         <v>400</v>
       </c>
       <c r="I22" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>2025-03-05 05:12:19</t>
+          <t>2025-03-05 06:38:36</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -3022,7 +4849,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -3032,7 +4859,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>0x19</t>
+          <t>0x13</t>
         </is>
       </c>
       <c r="F23" t="n">
@@ -3040,20 +4867,20 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>568631262647113771663628</t>
+          <t>568631262647113771270412</t>
         </is>
       </c>
       <c r="H23" t="n">
         <v>400</v>
       </c>
       <c r="I23" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>2025-03-05 06:12:19</t>
+          <t>2025-03-05 07:38:36</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -3063,7 +4890,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -3073,7 +4900,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>0x19</t>
+          <t>0x13</t>
         </is>
       </c>
       <c r="F24" t="n">
@@ -3081,20 +4908,20 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>568631262647113771663628</t>
+          <t>568631262647113771270412</t>
         </is>
       </c>
       <c r="H24" t="n">
         <v>400</v>
       </c>
       <c r="I24" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>2025-03-05 07:12:19</t>
+          <t>2025-03-05 08:38:36</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -3104,7 +4931,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -3114,7 +4941,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>0x19</t>
+          <t>0x13</t>
         </is>
       </c>
       <c r="F25" t="n">
@@ -3122,20 +4949,20 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>568631262647113771663628</t>
+          <t>568631262647113771270412</t>
         </is>
       </c>
       <c r="H25" t="n">
         <v>400</v>
       </c>
       <c r="I25" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>2025-03-05 08:12:19</t>
+          <t>2025-03-05 09:38:36</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -3145,7 +4972,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -3155,7 +4982,7 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>0x19</t>
+          <t>0x13</t>
         </is>
       </c>
       <c r="F26" t="n">
@@ -3163,20 +4990,20 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>568631262647113771663628</t>
+          <t>568631262647113771270412</t>
         </is>
       </c>
       <c r="H26" t="n">
         <v>400</v>
       </c>
       <c r="I26" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>2025-03-05 09:12:19</t>
+          <t>2025-03-05 10:38:36</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -3186,7 +5013,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -3196,7 +5023,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>0x19</t>
+          <t>0x13</t>
         </is>
       </c>
       <c r="F27" t="n">
@@ -3204,20 +5031,20 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>568631262647113771663628</t>
+          <t>568631262647113771270412</t>
         </is>
       </c>
       <c r="H27" t="n">
         <v>400</v>
       </c>
       <c r="I27" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>2025-03-05 10:12:19</t>
+          <t>2025-03-05 11:38:36</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -3227,7 +5054,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -3237,7 +5064,7 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>0x19</t>
+          <t>0x13</t>
         </is>
       </c>
       <c r="F28" t="n">
@@ -3245,20 +5072,20 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>568631262647113771663628</t>
+          <t>568631262647113771270412</t>
         </is>
       </c>
       <c r="H28" t="n">
         <v>400</v>
       </c>
       <c r="I28" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>2025-03-05 11:12:19</t>
+          <t>2025-03-05 12:38:36</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -3268,7 +5095,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -3278,7 +5105,7 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>0x19</t>
+          <t>0x13</t>
         </is>
       </c>
       <c r="F29" t="n">
@@ -3286,20 +5113,20 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>568631262647113771663628</t>
+          <t>568631262647113771270412</t>
         </is>
       </c>
       <c r="H29" t="n">
         <v>400</v>
       </c>
       <c r="I29" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>2025-03-05 12:12:19</t>
+          <t>2025-03-05 13:38:36</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -3309,7 +5136,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -3319,7 +5146,7 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>0x19</t>
+          <t>0x13</t>
         </is>
       </c>
       <c r="F30" t="n">
@@ -3327,20 +5154,20 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>568631262647113771663628</t>
+          <t>568631262647113771270412</t>
         </is>
       </c>
       <c r="H30" t="n">
         <v>400</v>
       </c>
       <c r="I30" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>2025-03-05 13:12:19</t>
+          <t>2025-03-05 14:38:36</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -3350,7 +5177,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -3360,7 +5187,7 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>0x19</t>
+          <t>0x13</t>
         </is>
       </c>
       <c r="F31" t="n">
@@ -3368,20 +5195,20 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>568631262647113771663628</t>
+          <t>568631262647113771270412</t>
         </is>
       </c>
       <c r="H31" t="n">
         <v>400</v>
       </c>
       <c r="I31" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>2025-03-05 14:12:19</t>
+          <t>2025-03-05 15:38:36</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -3391,7 +5218,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -3401,7 +5228,7 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>0x19</t>
+          <t>0x13</t>
         </is>
       </c>
       <c r="F32" t="n">
@@ -3409,20 +5236,20 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>568631262647113771663628</t>
+          <t>568631262647113771270412</t>
         </is>
       </c>
       <c r="H32" t="n">
         <v>400</v>
       </c>
       <c r="I32" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>2025-03-05 15:12:19</t>
+          <t>2025-03-05 16:38:36</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -3432,7 +5259,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -3442,7 +5269,7 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>0x19</t>
+          <t>0x13</t>
         </is>
       </c>
       <c r="F33" t="n">
@@ -3450,20 +5277,20 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>568631262647113771663628</t>
+          <t>568631262647113771270412</t>
         </is>
       </c>
       <c r="H33" t="n">
         <v>400</v>
       </c>
       <c r="I33" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>2025-03-05 16:12:19</t>
+          <t>2025-03-05 17:38:36</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -3473,7 +5300,7 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -3483,7 +5310,7 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>0x19</t>
+          <t>0x13</t>
         </is>
       </c>
       <c r="F34" t="n">
@@ -3491,20 +5318,20 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>568631262647113771663628</t>
+          <t>568631262647113771270412</t>
         </is>
       </c>
       <c r="H34" t="n">
         <v>400</v>
       </c>
       <c r="I34" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>2025-03-05 17:12:19</t>
+          <t>2025-03-05 18:38:36</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -3514,7 +5341,7 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -3524,7 +5351,7 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>0x19</t>
+          <t>0x13</t>
         </is>
       </c>
       <c r="F35" t="n">
@@ -3532,20 +5359,20 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>568631262647113771663628</t>
+          <t>568631262647113771270412</t>
         </is>
       </c>
       <c r="H35" t="n">
         <v>400</v>
       </c>
       <c r="I35" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>2025-03-05 18:12:19</t>
+          <t>2025-03-05 19:38:36</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -3555,7 +5382,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -3565,7 +5392,7 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>0x19</t>
+          <t>0x13</t>
         </is>
       </c>
       <c r="F36" t="n">
@@ -3573,20 +5400,20 @@
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>568631262647113771663628</t>
+          <t>568631262647113771270412</t>
         </is>
       </c>
       <c r="H36" t="n">
         <v>400</v>
       </c>
       <c r="I36" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>2025-03-05 19:12:19</t>
+          <t>2025-03-05 20:38:36</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -3596,7 +5423,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -3606,7 +5433,7 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>0x19</t>
+          <t>0x13</t>
         </is>
       </c>
       <c r="F37" t="n">
@@ -3614,20 +5441,20 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>568631262647113771663628</t>
+          <t>568631262647113771270412</t>
         </is>
       </c>
       <c r="H37" t="n">
         <v>400</v>
       </c>
       <c r="I37" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>2025-03-05 20:12:19</t>
+          <t>2025-03-05 21:38:36</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -3637,7 +5464,7 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -3647,7 +5474,7 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>0x19</t>
+          <t>0x13</t>
         </is>
       </c>
       <c r="F38" t="n">
@@ -3655,20 +5482,20 @@
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>568631262647113771663628</t>
+          <t>568631262647113771270412</t>
         </is>
       </c>
       <c r="H38" t="n">
         <v>400</v>
       </c>
       <c r="I38" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>2025-03-05 21:12:19</t>
+          <t>2025-03-05 22:38:36</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -3678,7 +5505,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -3688,7 +5515,7 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>0x19</t>
+          <t>0x13</t>
         </is>
       </c>
       <c r="F39" t="n">
@@ -3696,20 +5523,20 @@
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>568631262647113771663628</t>
+          <t>568631262647113771270412</t>
         </is>
       </c>
       <c r="H39" t="n">
         <v>400</v>
       </c>
       <c r="I39" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>2025-03-05 22:12:19</t>
+          <t>2025-03-05 23:38:36</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -3719,7 +5546,7 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -3729,7 +5556,7 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>0x19</t>
+          <t>0x13</t>
         </is>
       </c>
       <c r="F40" t="n">
@@ -3737,20 +5564,20 @@
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>568631262647113771663628</t>
+          <t>568631262647113771270412</t>
         </is>
       </c>
       <c r="H40" t="n">
         <v>400</v>
       </c>
       <c r="I40" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>2025-03-05 23:12:19</t>
+          <t>2025-03-06 00:38:36</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -3760,7 +5587,7 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -3770,7 +5597,7 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>0x19</t>
+          <t>0x13</t>
         </is>
       </c>
       <c r="F41" t="n">
@@ -3778,20 +5605,20 @@
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>568631262647113771663628</t>
+          <t>568631262647113771270412</t>
         </is>
       </c>
       <c r="H41" t="n">
         <v>400</v>
       </c>
       <c r="I41" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>2025-03-06 00:12:19</t>
+          <t>2025-03-06 01:38:36</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -3801,7 +5628,7 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -3811,7 +5638,7 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>0x19</t>
+          <t>0x13</t>
         </is>
       </c>
       <c r="F42" t="n">
@@ -3819,14 +5646,14 @@
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>568631262647113771663628</t>
+          <t>568631262647113771270412</t>
         </is>
       </c>
       <c r="H42" t="n">
         <v>400</v>
       </c>
       <c r="I42" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -3834,7 +5661,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3897,7 +5724,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45720.40180555556</v>
+        <v>45720.43858796296</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -3906,7 +5733,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -3916,7 +5743,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>0x13</t>
+          <t>0x 9</t>
         </is>
       </c>
       <c r="F2" t="n">
@@ -3924,20 +5751,20 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>568631262647113771270412</t>
+          <t>568631262647113770680332</t>
         </is>
       </c>
       <c r="H2" t="n">
         <v>400</v>
       </c>
       <c r="I2" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2025-03-04 10:38:36</t>
+          <t>2025-03-04 11:31:34</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -3947,7 +5774,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -3957,7 +5784,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>0x13</t>
+          <t>0x 9</t>
         </is>
       </c>
       <c r="F3" t="n">
@@ -3965,20 +5792,20 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>568631262647113771270412</t>
+          <t>568631262647113770680332</t>
         </is>
       </c>
       <c r="H3" t="n">
         <v>400</v>
       </c>
       <c r="I3" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2025-03-04 11:38:36</t>
+          <t>2025-03-04 12:31:34</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -3988,7 +5815,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -3998,7 +5825,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>0x13</t>
+          <t>0x 9</t>
         </is>
       </c>
       <c r="F4" t="n">
@@ -4006,20 +5833,20 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>568631262647113771270412</t>
+          <t>568631262647113770680332</t>
         </is>
       </c>
       <c r="H4" t="n">
         <v>400</v>
       </c>
       <c r="I4" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2025-03-04 12:38:36</t>
+          <t>2025-03-04 13:31:34</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -4029,7 +5856,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -4039,7 +5866,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>0x13</t>
+          <t>0x 9</t>
         </is>
       </c>
       <c r="F5" t="n">
@@ -4047,20 +5874,20 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>568631262647113771270412</t>
+          <t>568631262647113770680332</t>
         </is>
       </c>
       <c r="H5" t="n">
         <v>400</v>
       </c>
       <c r="I5" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2025-03-04 13:38:36</t>
+          <t>2025-03-04 14:31:34</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -4070,7 +5897,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -4080,7 +5907,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>0x13</t>
+          <t>0x 9</t>
         </is>
       </c>
       <c r="F6" t="n">
@@ -4088,20 +5915,20 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>568631262647113771270412</t>
+          <t>568631262647113770680332</t>
         </is>
       </c>
       <c r="H6" t="n">
         <v>400</v>
       </c>
       <c r="I6" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2025-03-04 14:38:36</t>
+          <t>2025-03-04 15:31:34</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -4111,7 +5938,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -4121,7 +5948,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>0x13</t>
+          <t>0x 9</t>
         </is>
       </c>
       <c r="F7" t="n">
@@ -4129,20 +5956,20 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>568631262647113771270412</t>
+          <t>568631262647113770680332</t>
         </is>
       </c>
       <c r="H7" t="n">
         <v>400</v>
       </c>
       <c r="I7" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2025-03-04 15:38:36</t>
+          <t>2025-03-04 16:31:34</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -4152,7 +5979,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -4162,7 +5989,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>0x13</t>
+          <t>0x 9</t>
         </is>
       </c>
       <c r="F8" t="n">
@@ -4170,20 +5997,20 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>568631262647113771270412</t>
+          <t>568631262647113770680332</t>
         </is>
       </c>
       <c r="H8" t="n">
         <v>400</v>
       </c>
       <c r="I8" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2025-03-04 16:38:36</t>
+          <t>2025-03-04 17:31:34</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -4193,7 +6020,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -4203,7 +6030,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>0x13</t>
+          <t>0x 9</t>
         </is>
       </c>
       <c r="F9" t="n">
@@ -4211,20 +6038,20 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>568631262647113771270412</t>
+          <t>568631262647113770680332</t>
         </is>
       </c>
       <c r="H9" t="n">
         <v>400</v>
       </c>
       <c r="I9" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2025-03-04 17:38:36</t>
+          <t>2025-03-04 18:31:34</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -4234,7 +6061,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -4244,7 +6071,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>0x13</t>
+          <t>0x 9</t>
         </is>
       </c>
       <c r="F10" t="n">
@@ -4252,20 +6079,20 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>568631262647113771270412</t>
+          <t>568631262647113770680332</t>
         </is>
       </c>
       <c r="H10" t="n">
         <v>400</v>
       </c>
       <c r="I10" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2025-03-04 18:38:36</t>
+          <t>2025-03-04 19:31:34</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -4275,7 +6102,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -4285,7 +6112,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>0x13</t>
+          <t>0x 9</t>
         </is>
       </c>
       <c r="F11" t="n">
@@ -4293,20 +6120,20 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>568631262647113771270412</t>
+          <t>568631262647113770680332</t>
         </is>
       </c>
       <c r="H11" t="n">
         <v>400</v>
       </c>
       <c r="I11" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2025-03-04 19:38:36</t>
+          <t>2025-03-04 20:31:34</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -4316,7 +6143,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -4326,7 +6153,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>0x13</t>
+          <t>0x 9</t>
         </is>
       </c>
       <c r="F12" t="n">
@@ -4334,20 +6161,20 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>568631262647113771270412</t>
+          <t>568631262647113770680332</t>
         </is>
       </c>
       <c r="H12" t="n">
         <v>400</v>
       </c>
       <c r="I12" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2025-03-04 20:38:36</t>
+          <t>2025-03-04 21:31:34</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -4357,7 +6184,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -4367,7 +6194,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>0x13</t>
+          <t>0x 9</t>
         </is>
       </c>
       <c r="F13" t="n">
@@ -4375,20 +6202,20 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>568631262647113771270412</t>
+          <t>568631262647113770680332</t>
         </is>
       </c>
       <c r="H13" t="n">
         <v>400</v>
       </c>
       <c r="I13" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2025-03-04 21:38:36</t>
+          <t>2025-03-04 22:31:34</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -4398,7 +6225,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -4408,7 +6235,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>0x13</t>
+          <t>0x 9</t>
         </is>
       </c>
       <c r="F14" t="n">
@@ -4416,20 +6243,20 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>568631262647113771270412</t>
+          <t>568631262647113770680332</t>
         </is>
       </c>
       <c r="H14" t="n">
         <v>400</v>
       </c>
       <c r="I14" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2025-03-04 22:38:36</t>
+          <t>2025-03-04 23:31:34</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -4439,7 +6266,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -4449,7 +6276,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>0x13</t>
+          <t>0x 9</t>
         </is>
       </c>
       <c r="F15" t="n">
@@ -4457,20 +6284,20 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>568631262647113771270412</t>
+          <t>568631262647113770680332</t>
         </is>
       </c>
       <c r="H15" t="n">
         <v>400</v>
       </c>
       <c r="I15" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2025-03-04 23:38:36</t>
+          <t>2025-03-05 00:31:34</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -4480,7 +6307,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -4490,7 +6317,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>0x13</t>
+          <t>0x 9</t>
         </is>
       </c>
       <c r="F16" t="n">
@@ -4498,20 +6325,20 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>568631262647113771270412</t>
+          <t>568631262647113770680332</t>
         </is>
       </c>
       <c r="H16" t="n">
         <v>400</v>
       </c>
       <c r="I16" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2025-03-05 00:38:36</t>
+          <t>2025-03-05 01:31:34</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -4521,7 +6348,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -4531,7 +6358,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>0x13</t>
+          <t>0x 9</t>
         </is>
       </c>
       <c r="F17" t="n">
@@ -4539,20 +6366,20 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>568631262647113771270412</t>
+          <t>568631262647113770680332</t>
         </is>
       </c>
       <c r="H17" t="n">
         <v>400</v>
       </c>
       <c r="I17" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2025-03-05 01:38:36</t>
+          <t>2025-03-05 02:31:34</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -4562,7 +6389,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -4572,7 +6399,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>0x13</t>
+          <t>0x 9</t>
         </is>
       </c>
       <c r="F18" t="n">
@@ -4580,20 +6407,20 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>568631262647113771270412</t>
+          <t>568631262647113770680332</t>
         </is>
       </c>
       <c r="H18" t="n">
         <v>400</v>
       </c>
       <c r="I18" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>2025-03-05 02:38:36</t>
+          <t>2025-03-05 03:31:34</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -4603,7 +6430,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -4613,7 +6440,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>0x13</t>
+          <t>0x 9</t>
         </is>
       </c>
       <c r="F19" t="n">
@@ -4621,20 +6448,20 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>568631262647113771270412</t>
+          <t>568631262647113770680332</t>
         </is>
       </c>
       <c r="H19" t="n">
         <v>400</v>
       </c>
       <c r="I19" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2025-03-05 03:38:36</t>
+          <t>2025-03-05 04:31:34</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -4644,7 +6471,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -4654,7 +6481,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>0x13</t>
+          <t>0x 9</t>
         </is>
       </c>
       <c r="F20" t="n">
@@ -4662,20 +6489,20 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>568631262647113771270412</t>
+          <t>568631262647113770680332</t>
         </is>
       </c>
       <c r="H20" t="n">
         <v>400</v>
       </c>
       <c r="I20" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>2025-03-05 04:38:36</t>
+          <t>2025-03-05 05:31:34</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -4685,7 +6512,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -4695,7 +6522,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>0x13</t>
+          <t>0x 9</t>
         </is>
       </c>
       <c r="F21" t="n">
@@ -4703,20 +6530,20 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>568631262647113771270412</t>
+          <t>568631262647113770680332</t>
         </is>
       </c>
       <c r="H21" t="n">
         <v>400</v>
       </c>
       <c r="I21" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>2025-03-05 05:38:36</t>
+          <t>2025-03-05 06:31:34</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -4726,7 +6553,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -4736,7 +6563,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>0x13</t>
+          <t>0x 9</t>
         </is>
       </c>
       <c r="F22" t="n">
@@ -4744,20 +6571,20 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>568631262647113771270412</t>
+          <t>568631262647113770680332</t>
         </is>
       </c>
       <c r="H22" t="n">
         <v>400</v>
       </c>
       <c r="I22" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>2025-03-05 06:38:36</t>
+          <t>2025-03-05 07:31:34</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -4767,7 +6594,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -4777,7 +6604,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>0x13</t>
+          <t>0x 9</t>
         </is>
       </c>
       <c r="F23" t="n">
@@ -4785,20 +6612,20 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>568631262647113771270412</t>
+          <t>568631262647113770680332</t>
         </is>
       </c>
       <c r="H23" t="n">
         <v>400</v>
       </c>
       <c r="I23" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>2025-03-05 07:38:36</t>
+          <t>2025-03-05 08:31:34</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -4808,7 +6635,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -4818,7 +6645,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>0x13</t>
+          <t>0x 9</t>
         </is>
       </c>
       <c r="F24" t="n">
@@ -4826,20 +6653,20 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>568631262647113771270412</t>
+          <t>568631262647113770680332</t>
         </is>
       </c>
       <c r="H24" t="n">
         <v>400</v>
       </c>
       <c r="I24" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>2025-03-05 08:38:36</t>
+          <t>2025-03-05 09:31:34</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -4849,7 +6676,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -4859,7 +6686,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>0x13</t>
+          <t>0x 9</t>
         </is>
       </c>
       <c r="F25" t="n">
@@ -4867,20 +6694,20 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>568631262647113771270412</t>
+          <t>568631262647113770680332</t>
         </is>
       </c>
       <c r="H25" t="n">
         <v>400</v>
       </c>
       <c r="I25" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>2025-03-05 09:38:36</t>
+          <t>2025-03-05 10:31:34</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -4890,7 +6717,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -4900,7 +6727,7 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>0x13</t>
+          <t>0x 9</t>
         </is>
       </c>
       <c r="F26" t="n">
@@ -4908,20 +6735,20 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>568631262647113771270412</t>
+          <t>568631262647113770680332</t>
         </is>
       </c>
       <c r="H26" t="n">
         <v>400</v>
       </c>
       <c r="I26" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>2025-03-05 10:38:36</t>
+          <t>2025-03-05 11:31:34</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -4931,7 +6758,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -4941,7 +6768,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>0x13</t>
+          <t>0x 9</t>
         </is>
       </c>
       <c r="F27" t="n">
@@ -4949,20 +6776,20 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>568631262647113771270412</t>
+          <t>568631262647113770680332</t>
         </is>
       </c>
       <c r="H27" t="n">
         <v>400</v>
       </c>
       <c r="I27" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>2025-03-05 11:38:36</t>
+          <t>2025-03-05 12:31:34</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -4972,7 +6799,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -4982,7 +6809,7 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>0x13</t>
+          <t>0x 9</t>
         </is>
       </c>
       <c r="F28" t="n">
@@ -4990,20 +6817,20 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>568631262647113771270412</t>
+          <t>568631262647113770680332</t>
         </is>
       </c>
       <c r="H28" t="n">
         <v>400</v>
       </c>
       <c r="I28" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>2025-03-05 12:38:36</t>
+          <t>2025-03-05 13:31:34</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -5013,7 +6840,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -5023,7 +6850,7 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>0x13</t>
+          <t>0x 9</t>
         </is>
       </c>
       <c r="F29" t="n">
@@ -5031,20 +6858,20 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>568631262647113771270412</t>
+          <t>568631262647113770680332</t>
         </is>
       </c>
       <c r="H29" t="n">
         <v>400</v>
       </c>
       <c r="I29" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>2025-03-05 13:38:36</t>
+          <t>2025-03-05 14:31:34</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -5054,7 +6881,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -5064,7 +6891,7 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>0x13</t>
+          <t>0x 9</t>
         </is>
       </c>
       <c r="F30" t="n">
@@ -5072,20 +6899,20 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>568631262647113771270412</t>
+          <t>568631262647113770680332</t>
         </is>
       </c>
       <c r="H30" t="n">
         <v>400</v>
       </c>
       <c r="I30" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>2025-03-05 14:38:36</t>
+          <t>2025-03-05 15:31:34</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -5095,7 +6922,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -5105,7 +6932,7 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>0x13</t>
+          <t>0x 9</t>
         </is>
       </c>
       <c r="F31" t="n">
@@ -5113,20 +6940,20 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>568631262647113771270412</t>
+          <t>568631262647113770680332</t>
         </is>
       </c>
       <c r="H31" t="n">
         <v>400</v>
       </c>
       <c r="I31" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>2025-03-05 15:38:36</t>
+          <t>2025-03-05 16:31:34</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -5136,7 +6963,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -5146,7 +6973,7 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>0x13</t>
+          <t>0x 9</t>
         </is>
       </c>
       <c r="F32" t="n">
@@ -5154,20 +6981,20 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>568631262647113771270412</t>
+          <t>568631262647113770680332</t>
         </is>
       </c>
       <c r="H32" t="n">
         <v>400</v>
       </c>
       <c r="I32" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>2025-03-05 16:38:36</t>
+          <t>2025-03-05 17:31:34</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -5177,7 +7004,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -5187,7 +7014,7 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>0x13</t>
+          <t>0x 9</t>
         </is>
       </c>
       <c r="F33" t="n">
@@ -5195,20 +7022,20 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>568631262647113771270412</t>
+          <t>568631262647113770680332</t>
         </is>
       </c>
       <c r="H33" t="n">
         <v>400</v>
       </c>
       <c r="I33" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>2025-03-05 17:38:36</t>
+          <t>2025-03-05 18:31:34</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -5218,7 +7045,7 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -5228,7 +7055,7 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>0x13</t>
+          <t>0x 9</t>
         </is>
       </c>
       <c r="F34" t="n">
@@ -5236,20 +7063,20 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>568631262647113771270412</t>
+          <t>568631262647113770680332</t>
         </is>
       </c>
       <c r="H34" t="n">
         <v>400</v>
       </c>
       <c r="I34" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>2025-03-05 18:38:36</t>
+          <t>2025-03-05 19:31:34</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -5259,7 +7086,7 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -5269,7 +7096,7 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>0x13</t>
+          <t>0x 9</t>
         </is>
       </c>
       <c r="F35" t="n">
@@ -5277,20 +7104,20 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>568631262647113771270412</t>
+          <t>568631262647113770680332</t>
         </is>
       </c>
       <c r="H35" t="n">
         <v>400</v>
       </c>
       <c r="I35" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>2025-03-05 19:38:36</t>
+          <t>2025-03-05 20:31:34</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -5300,7 +7127,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -5310,7 +7137,7 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>0x13</t>
+          <t>0x 9</t>
         </is>
       </c>
       <c r="F36" t="n">
@@ -5318,20 +7145,20 @@
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>568631262647113771270412</t>
+          <t>568631262647113770680332</t>
         </is>
       </c>
       <c r="H36" t="n">
         <v>400</v>
       </c>
       <c r="I36" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>2025-03-05 20:38:36</t>
+          <t>2025-03-05 21:31:34</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -5341,7 +7168,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -5351,7 +7178,7 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>0x13</t>
+          <t>0x 9</t>
         </is>
       </c>
       <c r="F37" t="n">
@@ -5359,20 +7186,20 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>568631262647113771270412</t>
+          <t>568631262647113770680332</t>
         </is>
       </c>
       <c r="H37" t="n">
         <v>400</v>
       </c>
       <c r="I37" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>2025-03-05 21:38:36</t>
+          <t>2025-03-05 22:31:34</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -5382,7 +7209,7 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -5392,7 +7219,7 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>0x13</t>
+          <t>0x 9</t>
         </is>
       </c>
       <c r="F38" t="n">
@@ -5400,20 +7227,20 @@
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>568631262647113771270412</t>
+          <t>568631262647113770680332</t>
         </is>
       </c>
       <c r="H38" t="n">
         <v>400</v>
       </c>
       <c r="I38" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>2025-03-05 22:38:36</t>
+          <t>2025-03-05 23:31:34</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -5423,7 +7250,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -5433,7 +7260,7 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>0x13</t>
+          <t>0x 9</t>
         </is>
       </c>
       <c r="F39" t="n">
@@ -5441,20 +7268,20 @@
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>568631262647113771270412</t>
+          <t>568631262647113770680332</t>
         </is>
       </c>
       <c r="H39" t="n">
         <v>400</v>
       </c>
       <c r="I39" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>2025-03-05 23:38:36</t>
+          <t>2025-03-06 00:31:34</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -5464,7 +7291,7 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -5474,7 +7301,7 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>0x13</t>
+          <t>0x 9</t>
         </is>
       </c>
       <c r="F40" t="n">
@@ -5482,20 +7309,20 @@
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>568631262647113771270412</t>
+          <t>568631262647113770680332</t>
         </is>
       </c>
       <c r="H40" t="n">
         <v>400</v>
       </c>
       <c r="I40" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>2025-03-06 00:38:36</t>
+          <t>2025-03-06 01:31:34</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -5505,7 +7332,7 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -5515,7 +7342,7 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>0x13</t>
+          <t>0x 9</t>
         </is>
       </c>
       <c r="F41" t="n">
@@ -5523,1676 +7350,13 @@
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>568631262647113771270412</t>
+          <t>568631262647113770680332</t>
         </is>
       </c>
       <c r="H41" t="n">
         <v>400</v>
       </c>
       <c r="I41" t="n">
-        <v>13</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:I40"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>time</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>总长</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>ID</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>实际长度</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>和校验</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>总长_DEC</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>ID_DEC</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>实际长度_DEC</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>和校验_DEC</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>45720.43858796296</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0x01,0x90 </t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>0x01,0x90,</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>0x 9</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>400</v>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>568631262647113770680332</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>400</v>
-      </c>
-      <c r="I2" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>2025-03-04 11:31:34</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0x01,0x90 </t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>0x01,0x90,</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>0x 9</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>400</v>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>568631262647113770680332</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>400</v>
-      </c>
-      <c r="I3" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>2025-03-04 12:31:34</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0x01,0x90 </t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>0x01,0x90,</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>0x 9</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>400</v>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>568631262647113770680332</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>400</v>
-      </c>
-      <c r="I4" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>2025-03-04 13:31:34</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0x01,0x90 </t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>0x01,0x90,</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>0x 9</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>400</v>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>568631262647113770680332</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>400</v>
-      </c>
-      <c r="I5" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>2025-03-04 14:31:34</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0x01,0x90 </t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0x01,0x90,</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>0x 9</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>400</v>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>568631262647113770680332</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>400</v>
-      </c>
-      <c r="I6" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>2025-03-04 15:31:34</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0x01,0x90 </t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>0x01,0x90,</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>0x 9</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>400</v>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>568631262647113770680332</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>400</v>
-      </c>
-      <c r="I7" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>2025-03-04 16:31:34</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0x01,0x90 </t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>0x01,0x90,</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>0x 9</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>400</v>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>568631262647113770680332</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>400</v>
-      </c>
-      <c r="I8" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>2025-03-04 17:31:34</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0x01,0x90 </t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>0x01,0x90,</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>0x 9</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>400</v>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>568631262647113770680332</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>400</v>
-      </c>
-      <c r="I9" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>2025-03-04 18:31:34</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0x01,0x90 </t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>0x01,0x90,</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>0x 9</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>400</v>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>568631262647113770680332</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>400</v>
-      </c>
-      <c r="I10" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>2025-03-04 19:31:34</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0x01,0x90 </t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>0x01,0x90,</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>0x 9</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>400</v>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>568631262647113770680332</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>400</v>
-      </c>
-      <c r="I11" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>2025-03-04 20:31:34</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0x01,0x90 </t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>0x01,0x90,</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>0x 9</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>400</v>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>568631262647113770680332</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>400</v>
-      </c>
-      <c r="I12" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>2025-03-04 21:31:34</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0x01,0x90 </t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>0x01,0x90,</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>0x 9</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>400</v>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>568631262647113770680332</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>400</v>
-      </c>
-      <c r="I13" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>2025-03-04 22:31:34</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0x01,0x90 </t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>0x01,0x90,</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>0x 9</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>400</v>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>568631262647113770680332</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>400</v>
-      </c>
-      <c r="I14" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>2025-03-04 23:31:34</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0x01,0x90 </t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>0x01,0x90,</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>0x 9</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>400</v>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>568631262647113770680332</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>400</v>
-      </c>
-      <c r="I15" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>2025-03-05 00:31:34</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0x01,0x90 </t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>0x01,0x90,</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>0x 9</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
-        <v>400</v>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>568631262647113770680332</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
-        <v>400</v>
-      </c>
-      <c r="I16" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>2025-03-05 01:31:34</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0x01,0x90 </t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>0x01,0x90,</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>0x 9</t>
-        </is>
-      </c>
-      <c r="F17" t="n">
-        <v>400</v>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>568631262647113770680332</t>
-        </is>
-      </c>
-      <c r="H17" t="n">
-        <v>400</v>
-      </c>
-      <c r="I17" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>2025-03-05 02:31:34</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0x01,0x90 </t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>0x01,0x90,</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>0x 9</t>
-        </is>
-      </c>
-      <c r="F18" t="n">
-        <v>400</v>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>568631262647113770680332</t>
-        </is>
-      </c>
-      <c r="H18" t="n">
-        <v>400</v>
-      </c>
-      <c r="I18" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>2025-03-05 03:31:34</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0x01,0x90 </t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>0x01,0x90,</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>0x 9</t>
-        </is>
-      </c>
-      <c r="F19" t="n">
-        <v>400</v>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>568631262647113770680332</t>
-        </is>
-      </c>
-      <c r="H19" t="n">
-        <v>400</v>
-      </c>
-      <c r="I19" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>2025-03-05 04:31:34</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0x01,0x90 </t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>0x01,0x90,</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>0x 9</t>
-        </is>
-      </c>
-      <c r="F20" t="n">
-        <v>400</v>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>568631262647113770680332</t>
-        </is>
-      </c>
-      <c r="H20" t="n">
-        <v>400</v>
-      </c>
-      <c r="I20" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>2025-03-05 05:31:34</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0x01,0x90 </t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>0x01,0x90,</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>0x 9</t>
-        </is>
-      </c>
-      <c r="F21" t="n">
-        <v>400</v>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>568631262647113770680332</t>
-        </is>
-      </c>
-      <c r="H21" t="n">
-        <v>400</v>
-      </c>
-      <c r="I21" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>2025-03-05 06:31:34</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0x01,0x90 </t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>0x01,0x90,</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>0x 9</t>
-        </is>
-      </c>
-      <c r="F22" t="n">
-        <v>400</v>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>568631262647113770680332</t>
-        </is>
-      </c>
-      <c r="H22" t="n">
-        <v>400</v>
-      </c>
-      <c r="I22" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>2025-03-05 07:31:34</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0x01,0x90 </t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>0x01,0x90,</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>0x 9</t>
-        </is>
-      </c>
-      <c r="F23" t="n">
-        <v>400</v>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>568631262647113770680332</t>
-        </is>
-      </c>
-      <c r="H23" t="n">
-        <v>400</v>
-      </c>
-      <c r="I23" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>2025-03-05 08:31:34</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0x01,0x90 </t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>0x01,0x90,</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>0x 9</t>
-        </is>
-      </c>
-      <c r="F24" t="n">
-        <v>400</v>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>568631262647113770680332</t>
-        </is>
-      </c>
-      <c r="H24" t="n">
-        <v>400</v>
-      </c>
-      <c r="I24" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>2025-03-05 09:31:34</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0x01,0x90 </t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>0x01,0x90,</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>0x 9</t>
-        </is>
-      </c>
-      <c r="F25" t="n">
-        <v>400</v>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>568631262647113770680332</t>
-        </is>
-      </c>
-      <c r="H25" t="n">
-        <v>400</v>
-      </c>
-      <c r="I25" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>2025-03-05 10:31:34</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0x01,0x90 </t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>0x01,0x90,</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>0x 9</t>
-        </is>
-      </c>
-      <c r="F26" t="n">
-        <v>400</v>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>568631262647113770680332</t>
-        </is>
-      </c>
-      <c r="H26" t="n">
-        <v>400</v>
-      </c>
-      <c r="I26" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>2025-03-05 11:31:34</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0x01,0x90 </t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>0x01,0x90,</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>0x 9</t>
-        </is>
-      </c>
-      <c r="F27" t="n">
-        <v>400</v>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>568631262647113770680332</t>
-        </is>
-      </c>
-      <c r="H27" t="n">
-        <v>400</v>
-      </c>
-      <c r="I27" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>2025-03-05 12:31:34</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0x01,0x90 </t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>0x01,0x90,</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>0x 9</t>
-        </is>
-      </c>
-      <c r="F28" t="n">
-        <v>400</v>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>568631262647113770680332</t>
-        </is>
-      </c>
-      <c r="H28" t="n">
-        <v>400</v>
-      </c>
-      <c r="I28" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>2025-03-05 13:31:34</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0x01,0x90 </t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>0x01,0x90,</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>0x 9</t>
-        </is>
-      </c>
-      <c r="F29" t="n">
-        <v>400</v>
-      </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>568631262647113770680332</t>
-        </is>
-      </c>
-      <c r="H29" t="n">
-        <v>400</v>
-      </c>
-      <c r="I29" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>2025-03-05 14:31:34</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0x01,0x90 </t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>0x01,0x90,</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>0x 9</t>
-        </is>
-      </c>
-      <c r="F30" t="n">
-        <v>400</v>
-      </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>568631262647113770680332</t>
-        </is>
-      </c>
-      <c r="H30" t="n">
-        <v>400</v>
-      </c>
-      <c r="I30" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>2025-03-05 15:31:34</t>
-        </is>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0x01,0x90 </t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>0x01,0x90,</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>0x 9</t>
-        </is>
-      </c>
-      <c r="F31" t="n">
-        <v>400</v>
-      </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>568631262647113770680332</t>
-        </is>
-      </c>
-      <c r="H31" t="n">
-        <v>400</v>
-      </c>
-      <c r="I31" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>2025-03-05 16:31:34</t>
-        </is>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0x01,0x90 </t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>0x01,0x90,</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>0x 9</t>
-        </is>
-      </c>
-      <c r="F32" t="n">
-        <v>400</v>
-      </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>568631262647113770680332</t>
-        </is>
-      </c>
-      <c r="H32" t="n">
-        <v>400</v>
-      </c>
-      <c r="I32" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>2025-03-05 17:31:34</t>
-        </is>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0x01,0x90 </t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>0x01,0x90,</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>0x 9</t>
-        </is>
-      </c>
-      <c r="F33" t="n">
-        <v>400</v>
-      </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>568631262647113770680332</t>
-        </is>
-      </c>
-      <c r="H33" t="n">
-        <v>400</v>
-      </c>
-      <c r="I33" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>2025-03-05 18:31:34</t>
-        </is>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0x01,0x90 </t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>0x01,0x90,</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>0x 9</t>
-        </is>
-      </c>
-      <c r="F34" t="n">
-        <v>400</v>
-      </c>
-      <c r="G34" t="inlineStr">
-        <is>
-          <t>568631262647113770680332</t>
-        </is>
-      </c>
-      <c r="H34" t="n">
-        <v>400</v>
-      </c>
-      <c r="I34" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>2025-03-05 19:31:34</t>
-        </is>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0x01,0x90 </t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>0x01,0x90,</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>0x 9</t>
-        </is>
-      </c>
-      <c r="F35" t="n">
-        <v>400</v>
-      </c>
-      <c r="G35" t="inlineStr">
-        <is>
-          <t>568631262647113770680332</t>
-        </is>
-      </c>
-      <c r="H35" t="n">
-        <v>400</v>
-      </c>
-      <c r="I35" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>2025-03-05 20:31:34</t>
-        </is>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0x01,0x90 </t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>0x01,0x90,</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>0x 9</t>
-        </is>
-      </c>
-      <c r="F36" t="n">
-        <v>400</v>
-      </c>
-      <c r="G36" t="inlineStr">
-        <is>
-          <t>568631262647113770680332</t>
-        </is>
-      </c>
-      <c r="H36" t="n">
-        <v>400</v>
-      </c>
-      <c r="I36" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>2025-03-05 21:31:34</t>
-        </is>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0x01,0x90 </t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>0x01,0x90,</t>
-        </is>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>0x 9</t>
-        </is>
-      </c>
-      <c r="F37" t="n">
-        <v>400</v>
-      </c>
-      <c r="G37" t="inlineStr">
-        <is>
-          <t>568631262647113770680332</t>
-        </is>
-      </c>
-      <c r="H37" t="n">
-        <v>400</v>
-      </c>
-      <c r="I37" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>2025-03-05 22:31:34</t>
-        </is>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0x01,0x90 </t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>0x01,0x90,</t>
-        </is>
-      </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>0x 9</t>
-        </is>
-      </c>
-      <c r="F38" t="n">
-        <v>400</v>
-      </c>
-      <c r="G38" t="inlineStr">
-        <is>
-          <t>568631262647113770680332</t>
-        </is>
-      </c>
-      <c r="H38" t="n">
-        <v>400</v>
-      </c>
-      <c r="I38" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>2025-03-05 23:31:34</t>
-        </is>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0x01,0x90 </t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>0x01,0x90,</t>
-        </is>
-      </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>0x 9</t>
-        </is>
-      </c>
-      <c r="F39" t="n">
-        <v>400</v>
-      </c>
-      <c r="G39" t="inlineStr">
-        <is>
-          <t>568631262647113770680332</t>
-        </is>
-      </c>
-      <c r="H39" t="n">
-        <v>400</v>
-      </c>
-      <c r="I39" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>2025-03-06 00:31:34</t>
-        </is>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0x01,0x90 </t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>0x01,0x90,</t>
-        </is>
-      </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>0x 9</t>
-        </is>
-      </c>
-      <c r="F40" t="n">
-        <v>400</v>
-      </c>
-      <c r="G40" t="inlineStr">
-        <is>
-          <t>568631262647113770680332</t>
-        </is>
-      </c>
-      <c r="H40" t="n">
-        <v>400</v>
-      </c>
-      <c r="I40" t="n">
         <v>9</v>
       </c>
     </row>

--- a/SAG2_sensor_data_with_decimal_filtered_updated.xlsx
+++ b/SAG2_sensor_data_with_decimal_filtered_updated.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I41"/>
+  <dimension ref="A1:I42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2125,12 +2125,1880 @@
         <v>14</v>
       </c>
     </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>2025-03-06 02:18:04</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1b,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>0x14</t>
+        </is>
+      </c>
+      <c r="F42" t="n">
+        <v>400</v>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>568631262647113771335948</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>400</v>
+      </c>
+      <c r="I42" t="n">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I44"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>time</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>总长</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>实际长度</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>和校验</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>总长_DEC</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>ID_DEC</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>实际长度_DEC</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>和校验_DEC</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>45720.34188657408</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F2" t="n">
+        <v>400</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>400</v>
+      </c>
+      <c r="I2" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2025-03-04 09:12:19</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F3" t="n">
+        <v>400</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>400</v>
+      </c>
+      <c r="I3" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>2025-03-04 10:12:19</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F4" t="n">
+        <v>400</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>400</v>
+      </c>
+      <c r="I4" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>2025-03-04 11:12:19</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F5" t="n">
+        <v>400</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>400</v>
+      </c>
+      <c r="I5" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>2025-03-04 12:12:19</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F6" t="n">
+        <v>400</v>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>400</v>
+      </c>
+      <c r="I6" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>2025-03-04 13:12:19</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F7" t="n">
+        <v>400</v>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>400</v>
+      </c>
+      <c r="I7" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>2025-03-04 14:12:19</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F8" t="n">
+        <v>400</v>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>400</v>
+      </c>
+      <c r="I8" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>2025-03-04 15:12:19</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F9" t="n">
+        <v>400</v>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>400</v>
+      </c>
+      <c r="I9" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>2025-03-04 16:12:19</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F10" t="n">
+        <v>400</v>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>400</v>
+      </c>
+      <c r="I10" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>2025-03-04 17:12:19</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F11" t="n">
+        <v>400</v>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>400</v>
+      </c>
+      <c r="I11" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>2025-03-04 18:12:19</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F12" t="n">
+        <v>400</v>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>400</v>
+      </c>
+      <c r="I12" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>2025-03-04 19:12:19</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F13" t="n">
+        <v>400</v>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>400</v>
+      </c>
+      <c r="I13" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>2025-03-04 20:12:19</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F14" t="n">
+        <v>400</v>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>400</v>
+      </c>
+      <c r="I14" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>2025-03-04 21:12:19</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F15" t="n">
+        <v>400</v>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>400</v>
+      </c>
+      <c r="I15" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>2025-03-04 22:12:19</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F16" t="n">
+        <v>400</v>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>400</v>
+      </c>
+      <c r="I16" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>2025-03-04 23:12:19</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F17" t="n">
+        <v>400</v>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>400</v>
+      </c>
+      <c r="I17" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>2025-03-05 00:12:19</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F18" t="n">
+        <v>400</v>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>400</v>
+      </c>
+      <c r="I18" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>2025-03-05 01:12:19</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F19" t="n">
+        <v>400</v>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>400</v>
+      </c>
+      <c r="I19" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>2025-03-05 02:12:19</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F20" t="n">
+        <v>400</v>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>400</v>
+      </c>
+      <c r="I20" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>2025-03-05 03:12:19</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F21" t="n">
+        <v>400</v>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>400</v>
+      </c>
+      <c r="I21" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>2025-03-05 04:12:19</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F22" t="n">
+        <v>400</v>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>400</v>
+      </c>
+      <c r="I22" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>2025-03-05 05:12:19</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F23" t="n">
+        <v>400</v>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>400</v>
+      </c>
+      <c r="I23" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>2025-03-05 06:12:19</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F24" t="n">
+        <v>400</v>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>400</v>
+      </c>
+      <c r="I24" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>2025-03-05 07:12:19</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F25" t="n">
+        <v>400</v>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>400</v>
+      </c>
+      <c r="I25" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>2025-03-05 08:12:19</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F26" t="n">
+        <v>400</v>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>400</v>
+      </c>
+      <c r="I26" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>2025-03-05 09:12:19</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F27" t="n">
+        <v>400</v>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>400</v>
+      </c>
+      <c r="I27" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>2025-03-05 10:12:19</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F28" t="n">
+        <v>400</v>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>400</v>
+      </c>
+      <c r="I28" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>2025-03-05 11:12:19</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F29" t="n">
+        <v>400</v>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>400</v>
+      </c>
+      <c r="I29" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>2025-03-05 12:12:19</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F30" t="n">
+        <v>400</v>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>400</v>
+      </c>
+      <c r="I30" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>2025-03-05 13:12:19</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F31" t="n">
+        <v>400</v>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>400</v>
+      </c>
+      <c r="I31" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>2025-03-05 14:12:19</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F32" t="n">
+        <v>400</v>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>400</v>
+      </c>
+      <c r="I32" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>2025-03-05 15:12:19</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F33" t="n">
+        <v>400</v>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>400</v>
+      </c>
+      <c r="I33" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>2025-03-05 16:12:19</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F34" t="n">
+        <v>400</v>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>400</v>
+      </c>
+      <c r="I34" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>2025-03-05 17:12:19</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F35" t="n">
+        <v>400</v>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>400</v>
+      </c>
+      <c r="I35" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>2025-03-05 18:12:19</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F36" t="n">
+        <v>400</v>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>400</v>
+      </c>
+      <c r="I36" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>2025-03-05 19:12:19</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F37" t="n">
+        <v>400</v>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>400</v>
+      </c>
+      <c r="I37" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>2025-03-05 20:12:19</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F38" t="n">
+        <v>400</v>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>400</v>
+      </c>
+      <c r="I38" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>2025-03-05 21:12:19</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F39" t="n">
+        <v>400</v>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>400</v>
+      </c>
+      <c r="I39" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>2025-03-05 22:12:19</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F40" t="n">
+        <v>400</v>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>400</v>
+      </c>
+      <c r="I40" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>2025-03-05 23:12:19</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F41" t="n">
+        <v>400</v>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>400</v>
+      </c>
+      <c r="I41" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>2025-03-06 00:12:19</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F42" t="n">
+        <v>400</v>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>400</v>
+      </c>
+      <c r="I42" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>2025-03-06 01:12:19</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F43" t="n">
+        <v>400</v>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>400</v>
+      </c>
+      <c r="I43" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>2025-03-06 02:12:19</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F44" t="n">
+        <v>400</v>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>400</v>
+      </c>
+      <c r="I44" t="n">
+        <v>25</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2193,7 +4061,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45720.34188657408</v>
+        <v>45720.40180555556</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -2202,7 +4070,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -2212,7 +4080,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>0x19</t>
+          <t>0x13</t>
         </is>
       </c>
       <c r="F2" t="n">
@@ -2220,20 +4088,20 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>568631262647113771663628</t>
+          <t>568631262647113771270412</t>
         </is>
       </c>
       <c r="H2" t="n">
         <v>400</v>
       </c>
       <c r="I2" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2025-03-04 09:12:19</t>
+          <t>2025-03-04 10:38:36</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -2243,7 +4111,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -2253,7 +4121,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>0x19</t>
+          <t>0x13</t>
         </is>
       </c>
       <c r="F3" t="n">
@@ -2261,20 +4129,20 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>568631262647113771663628</t>
+          <t>568631262647113771270412</t>
         </is>
       </c>
       <c r="H3" t="n">
         <v>400</v>
       </c>
       <c r="I3" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2025-03-04 10:12:19</t>
+          <t>2025-03-04 11:38:36</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -2284,7 +4152,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -2294,7 +4162,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>0x19</t>
+          <t>0x13</t>
         </is>
       </c>
       <c r="F4" t="n">
@@ -2302,20 +4170,20 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>568631262647113771663628</t>
+          <t>568631262647113771270412</t>
         </is>
       </c>
       <c r="H4" t="n">
         <v>400</v>
       </c>
       <c r="I4" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2025-03-04 11:12:19</t>
+          <t>2025-03-04 12:38:36</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -2325,7 +4193,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -2335,7 +4203,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>0x19</t>
+          <t>0x13</t>
         </is>
       </c>
       <c r="F5" t="n">
@@ -2343,20 +4211,20 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>568631262647113771663628</t>
+          <t>568631262647113771270412</t>
         </is>
       </c>
       <c r="H5" t="n">
         <v>400</v>
       </c>
       <c r="I5" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2025-03-04 12:12:19</t>
+          <t>2025-03-04 13:38:36</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -2366,7 +4234,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -2376,7 +4244,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>0x19</t>
+          <t>0x13</t>
         </is>
       </c>
       <c r="F6" t="n">
@@ -2384,20 +4252,20 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>568631262647113771663628</t>
+          <t>568631262647113771270412</t>
         </is>
       </c>
       <c r="H6" t="n">
         <v>400</v>
       </c>
       <c r="I6" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2025-03-04 13:12:19</t>
+          <t>2025-03-04 14:38:36</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -2407,7 +4275,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -2417,7 +4285,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>0x19</t>
+          <t>0x13</t>
         </is>
       </c>
       <c r="F7" t="n">
@@ -2425,20 +4293,20 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>568631262647113771663628</t>
+          <t>568631262647113771270412</t>
         </is>
       </c>
       <c r="H7" t="n">
         <v>400</v>
       </c>
       <c r="I7" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2025-03-04 14:12:19</t>
+          <t>2025-03-04 15:38:36</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -2448,7 +4316,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -2458,7 +4326,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>0x19</t>
+          <t>0x13</t>
         </is>
       </c>
       <c r="F8" t="n">
@@ -2466,20 +4334,20 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>568631262647113771663628</t>
+          <t>568631262647113771270412</t>
         </is>
       </c>
       <c r="H8" t="n">
         <v>400</v>
       </c>
       <c r="I8" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2025-03-04 15:12:19</t>
+          <t>2025-03-04 16:38:36</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -2489,7 +4357,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -2499,7 +4367,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>0x19</t>
+          <t>0x13</t>
         </is>
       </c>
       <c r="F9" t="n">
@@ -2507,20 +4375,20 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>568631262647113771663628</t>
+          <t>568631262647113771270412</t>
         </is>
       </c>
       <c r="H9" t="n">
         <v>400</v>
       </c>
       <c r="I9" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2025-03-04 16:12:19</t>
+          <t>2025-03-04 17:38:36</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -2530,7 +4398,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -2540,7 +4408,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>0x19</t>
+          <t>0x13</t>
         </is>
       </c>
       <c r="F10" t="n">
@@ -2548,20 +4416,20 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>568631262647113771663628</t>
+          <t>568631262647113771270412</t>
         </is>
       </c>
       <c r="H10" t="n">
         <v>400</v>
       </c>
       <c r="I10" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2025-03-04 17:12:19</t>
+          <t>2025-03-04 18:38:36</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -2571,7 +4439,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -2581,7 +4449,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>0x19</t>
+          <t>0x13</t>
         </is>
       </c>
       <c r="F11" t="n">
@@ -2589,20 +4457,20 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>568631262647113771663628</t>
+          <t>568631262647113771270412</t>
         </is>
       </c>
       <c r="H11" t="n">
         <v>400</v>
       </c>
       <c r="I11" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2025-03-04 18:12:19</t>
+          <t>2025-03-04 19:38:36</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2612,7 +4480,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -2622,7 +4490,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>0x19</t>
+          <t>0x13</t>
         </is>
       </c>
       <c r="F12" t="n">
@@ -2630,20 +4498,20 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>568631262647113771663628</t>
+          <t>568631262647113771270412</t>
         </is>
       </c>
       <c r="H12" t="n">
         <v>400</v>
       </c>
       <c r="I12" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2025-03-04 19:12:19</t>
+          <t>2025-03-04 20:38:36</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2653,7 +4521,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -2663,7 +4531,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>0x19</t>
+          <t>0x13</t>
         </is>
       </c>
       <c r="F13" t="n">
@@ -2671,20 +4539,20 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>568631262647113771663628</t>
+          <t>568631262647113771270412</t>
         </is>
       </c>
       <c r="H13" t="n">
         <v>400</v>
       </c>
       <c r="I13" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2025-03-04 20:12:19</t>
+          <t>2025-03-04 21:38:36</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -2694,7 +4562,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -2704,7 +4572,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>0x19</t>
+          <t>0x13</t>
         </is>
       </c>
       <c r="F14" t="n">
@@ -2712,20 +4580,20 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>568631262647113771663628</t>
+          <t>568631262647113771270412</t>
         </is>
       </c>
       <c r="H14" t="n">
         <v>400</v>
       </c>
       <c r="I14" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2025-03-04 21:12:19</t>
+          <t>2025-03-04 22:38:36</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -2735,7 +4603,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -2745,7 +4613,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>0x19</t>
+          <t>0x13</t>
         </is>
       </c>
       <c r="F15" t="n">
@@ -2753,20 +4621,20 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>568631262647113771663628</t>
+          <t>568631262647113771270412</t>
         </is>
       </c>
       <c r="H15" t="n">
         <v>400</v>
       </c>
       <c r="I15" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2025-03-04 22:12:19</t>
+          <t>2025-03-04 23:38:36</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -2776,7 +4644,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -2786,7 +4654,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>0x19</t>
+          <t>0x13</t>
         </is>
       </c>
       <c r="F16" t="n">
@@ -2794,20 +4662,20 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>568631262647113771663628</t>
+          <t>568631262647113771270412</t>
         </is>
       </c>
       <c r="H16" t="n">
         <v>400</v>
       </c>
       <c r="I16" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2025-03-04 23:12:19</t>
+          <t>2025-03-05 00:38:36</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -2817,7 +4685,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -2827,7 +4695,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>0x19</t>
+          <t>0x13</t>
         </is>
       </c>
       <c r="F17" t="n">
@@ -2835,20 +4703,20 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>568631262647113771663628</t>
+          <t>568631262647113771270412</t>
         </is>
       </c>
       <c r="H17" t="n">
         <v>400</v>
       </c>
       <c r="I17" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2025-03-05 00:12:19</t>
+          <t>2025-03-05 01:38:36</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -2858,7 +4726,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -2868,7 +4736,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>0x19</t>
+          <t>0x13</t>
         </is>
       </c>
       <c r="F18" t="n">
@@ -2876,20 +4744,20 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>568631262647113771663628</t>
+          <t>568631262647113771270412</t>
         </is>
       </c>
       <c r="H18" t="n">
         <v>400</v>
       </c>
       <c r="I18" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>2025-03-05 01:12:19</t>
+          <t>2025-03-05 02:38:36</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -2899,7 +4767,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -2909,7 +4777,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>0x19</t>
+          <t>0x13</t>
         </is>
       </c>
       <c r="F19" t="n">
@@ -2917,20 +4785,20 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>568631262647113771663628</t>
+          <t>568631262647113771270412</t>
         </is>
       </c>
       <c r="H19" t="n">
         <v>400</v>
       </c>
       <c r="I19" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2025-03-05 02:12:19</t>
+          <t>2025-03-05 03:38:36</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -2940,7 +4808,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -2950,7 +4818,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>0x19</t>
+          <t>0x13</t>
         </is>
       </c>
       <c r="F20" t="n">
@@ -2958,20 +4826,20 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>568631262647113771663628</t>
+          <t>568631262647113771270412</t>
         </is>
       </c>
       <c r="H20" t="n">
         <v>400</v>
       </c>
       <c r="I20" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>2025-03-05 03:12:19</t>
+          <t>2025-03-05 04:38:36</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -2981,7 +4849,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -2991,7 +4859,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>0x19</t>
+          <t>0x13</t>
         </is>
       </c>
       <c r="F21" t="n">
@@ -2999,20 +4867,20 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>568631262647113771663628</t>
+          <t>568631262647113771270412</t>
         </is>
       </c>
       <c r="H21" t="n">
         <v>400</v>
       </c>
       <c r="I21" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>2025-03-05 04:12:19</t>
+          <t>2025-03-05 05:38:36</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -3022,7 +4890,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -3032,7 +4900,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>0x19</t>
+          <t>0x13</t>
         </is>
       </c>
       <c r="F22" t="n">
@@ -3040,20 +4908,20 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>568631262647113771663628</t>
+          <t>568631262647113771270412</t>
         </is>
       </c>
       <c r="H22" t="n">
         <v>400</v>
       </c>
       <c r="I22" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>2025-03-05 05:12:19</t>
+          <t>2025-03-05 06:38:36</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -3063,7 +4931,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -3073,7 +4941,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>0x19</t>
+          <t>0x13</t>
         </is>
       </c>
       <c r="F23" t="n">
@@ -3081,20 +4949,20 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>568631262647113771663628</t>
+          <t>568631262647113771270412</t>
         </is>
       </c>
       <c r="H23" t="n">
         <v>400</v>
       </c>
       <c r="I23" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>2025-03-05 06:12:19</t>
+          <t>2025-03-05 07:38:36</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -3104,7 +4972,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -3114,7 +4982,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>0x19</t>
+          <t>0x13</t>
         </is>
       </c>
       <c r="F24" t="n">
@@ -3122,20 +4990,20 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>568631262647113771663628</t>
+          <t>568631262647113771270412</t>
         </is>
       </c>
       <c r="H24" t="n">
         <v>400</v>
       </c>
       <c r="I24" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>2025-03-05 07:12:19</t>
+          <t>2025-03-05 08:38:36</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -3145,7 +5013,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -3155,7 +5023,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>0x19</t>
+          <t>0x13</t>
         </is>
       </c>
       <c r="F25" t="n">
@@ -3163,20 +5031,20 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>568631262647113771663628</t>
+          <t>568631262647113771270412</t>
         </is>
       </c>
       <c r="H25" t="n">
         <v>400</v>
       </c>
       <c r="I25" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>2025-03-05 08:12:19</t>
+          <t>2025-03-05 09:38:36</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -3186,7 +5054,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -3196,7 +5064,7 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>0x19</t>
+          <t>0x13</t>
         </is>
       </c>
       <c r="F26" t="n">
@@ -3204,20 +5072,20 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>568631262647113771663628</t>
+          <t>568631262647113771270412</t>
         </is>
       </c>
       <c r="H26" t="n">
         <v>400</v>
       </c>
       <c r="I26" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>2025-03-05 09:12:19</t>
+          <t>2025-03-05 10:38:36</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -3227,7 +5095,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -3237,7 +5105,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>0x19</t>
+          <t>0x13</t>
         </is>
       </c>
       <c r="F27" t="n">
@@ -3245,20 +5113,20 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>568631262647113771663628</t>
+          <t>568631262647113771270412</t>
         </is>
       </c>
       <c r="H27" t="n">
         <v>400</v>
       </c>
       <c r="I27" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>2025-03-05 10:12:19</t>
+          <t>2025-03-05 11:38:36</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -3268,7 +5136,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -3278,7 +5146,7 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>0x19</t>
+          <t>0x13</t>
         </is>
       </c>
       <c r="F28" t="n">
@@ -3286,20 +5154,20 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>568631262647113771663628</t>
+          <t>568631262647113771270412</t>
         </is>
       </c>
       <c r="H28" t="n">
         <v>400</v>
       </c>
       <c r="I28" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>2025-03-05 11:12:19</t>
+          <t>2025-03-05 12:38:36</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -3309,7 +5177,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -3319,7 +5187,7 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>0x19</t>
+          <t>0x13</t>
         </is>
       </c>
       <c r="F29" t="n">
@@ -3327,20 +5195,20 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>568631262647113771663628</t>
+          <t>568631262647113771270412</t>
         </is>
       </c>
       <c r="H29" t="n">
         <v>400</v>
       </c>
       <c r="I29" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>2025-03-05 12:12:19</t>
+          <t>2025-03-05 13:38:36</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -3350,7 +5218,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -3360,7 +5228,7 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>0x19</t>
+          <t>0x13</t>
         </is>
       </c>
       <c r="F30" t="n">
@@ -3368,20 +5236,20 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>568631262647113771663628</t>
+          <t>568631262647113771270412</t>
         </is>
       </c>
       <c r="H30" t="n">
         <v>400</v>
       </c>
       <c r="I30" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>2025-03-05 13:12:19</t>
+          <t>2025-03-05 14:38:36</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -3391,7 +5259,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -3401,7 +5269,7 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>0x19</t>
+          <t>0x13</t>
         </is>
       </c>
       <c r="F31" t="n">
@@ -3409,20 +5277,20 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>568631262647113771663628</t>
+          <t>568631262647113771270412</t>
         </is>
       </c>
       <c r="H31" t="n">
         <v>400</v>
       </c>
       <c r="I31" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>2025-03-05 14:12:19</t>
+          <t>2025-03-05 15:38:36</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -3432,7 +5300,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -3442,7 +5310,7 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>0x19</t>
+          <t>0x13</t>
         </is>
       </c>
       <c r="F32" t="n">
@@ -3450,20 +5318,20 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>568631262647113771663628</t>
+          <t>568631262647113771270412</t>
         </is>
       </c>
       <c r="H32" t="n">
         <v>400</v>
       </c>
       <c r="I32" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>2025-03-05 15:12:19</t>
+          <t>2025-03-05 16:38:36</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -3473,7 +5341,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -3483,7 +5351,7 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>0x19</t>
+          <t>0x13</t>
         </is>
       </c>
       <c r="F33" t="n">
@@ -3491,20 +5359,20 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>568631262647113771663628</t>
+          <t>568631262647113771270412</t>
         </is>
       </c>
       <c r="H33" t="n">
         <v>400</v>
       </c>
       <c r="I33" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>2025-03-05 16:12:19</t>
+          <t>2025-03-05 17:38:36</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -3514,7 +5382,7 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -3524,7 +5392,7 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>0x19</t>
+          <t>0x13</t>
         </is>
       </c>
       <c r="F34" t="n">
@@ -3532,20 +5400,20 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>568631262647113771663628</t>
+          <t>568631262647113771270412</t>
         </is>
       </c>
       <c r="H34" t="n">
         <v>400</v>
       </c>
       <c r="I34" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>2025-03-05 17:12:19</t>
+          <t>2025-03-05 18:38:36</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -3555,7 +5423,7 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -3565,7 +5433,7 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>0x19</t>
+          <t>0x13</t>
         </is>
       </c>
       <c r="F35" t="n">
@@ -3573,20 +5441,20 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>568631262647113771663628</t>
+          <t>568631262647113771270412</t>
         </is>
       </c>
       <c r="H35" t="n">
         <v>400</v>
       </c>
       <c r="I35" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>2025-03-05 18:12:19</t>
+          <t>2025-03-05 19:38:36</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -3596,7 +5464,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -3606,7 +5474,7 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>0x19</t>
+          <t>0x13</t>
         </is>
       </c>
       <c r="F36" t="n">
@@ -3614,20 +5482,20 @@
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>568631262647113771663628</t>
+          <t>568631262647113771270412</t>
         </is>
       </c>
       <c r="H36" t="n">
         <v>400</v>
       </c>
       <c r="I36" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>2025-03-05 19:12:19</t>
+          <t>2025-03-05 20:38:36</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -3637,7 +5505,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -3647,7 +5515,7 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>0x19</t>
+          <t>0x13</t>
         </is>
       </c>
       <c r="F37" t="n">
@@ -3655,20 +5523,20 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>568631262647113771663628</t>
+          <t>568631262647113771270412</t>
         </is>
       </c>
       <c r="H37" t="n">
         <v>400</v>
       </c>
       <c r="I37" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>2025-03-05 20:12:19</t>
+          <t>2025-03-05 21:38:36</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -3678,7 +5546,7 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -3688,7 +5556,7 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>0x19</t>
+          <t>0x13</t>
         </is>
       </c>
       <c r="F38" t="n">
@@ -3696,20 +5564,20 @@
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>568631262647113771663628</t>
+          <t>568631262647113771270412</t>
         </is>
       </c>
       <c r="H38" t="n">
         <v>400</v>
       </c>
       <c r="I38" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>2025-03-05 21:12:19</t>
+          <t>2025-03-05 22:38:36</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -3719,7 +5587,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -3729,7 +5597,7 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>0x19</t>
+          <t>0x13</t>
         </is>
       </c>
       <c r="F39" t="n">
@@ -3737,20 +5605,20 @@
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>568631262647113771663628</t>
+          <t>568631262647113771270412</t>
         </is>
       </c>
       <c r="H39" t="n">
         <v>400</v>
       </c>
       <c r="I39" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>2025-03-05 22:12:19</t>
+          <t>2025-03-05 23:38:36</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -3760,7 +5628,7 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -3770,7 +5638,7 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>0x19</t>
+          <t>0x13</t>
         </is>
       </c>
       <c r="F40" t="n">
@@ -3778,20 +5646,20 @@
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>568631262647113771663628</t>
+          <t>568631262647113771270412</t>
         </is>
       </c>
       <c r="H40" t="n">
         <v>400</v>
       </c>
       <c r="I40" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>2025-03-05 23:12:19</t>
+          <t>2025-03-06 00:38:36</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -3801,7 +5669,7 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -3811,7 +5679,7 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>0x19</t>
+          <t>0x13</t>
         </is>
       </c>
       <c r="F41" t="n">
@@ -3819,20 +5687,20 @@
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>568631262647113771663628</t>
+          <t>568631262647113771270412</t>
         </is>
       </c>
       <c r="H41" t="n">
         <v>400</v>
       </c>
       <c r="I41" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>2025-03-06 00:12:19</t>
+          <t>2025-03-06 01:38:36</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -3842,7 +5710,7 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -3852,7 +5720,7 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>0x19</t>
+          <t>0x13</t>
         </is>
       </c>
       <c r="F42" t="n">
@@ -3860,20 +5728,20 @@
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>568631262647113771663628</t>
+          <t>568631262647113771270412</t>
         </is>
       </c>
       <c r="H42" t="n">
         <v>400</v>
       </c>
       <c r="I42" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>2025-03-06 01:12:19</t>
+          <t>2025-03-06 02:38:36</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -3883,7 +5751,7 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -3893,7 +5761,7 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>0x19</t>
+          <t>0x13</t>
         </is>
       </c>
       <c r="F43" t="n">
@@ -3901,14 +5769,14 @@
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>568631262647113771663628</t>
+          <t>568631262647113771270412</t>
         </is>
       </c>
       <c r="H43" t="n">
         <v>400</v>
       </c>
       <c r="I43" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -3916,7 +5784,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3979,7 +5847,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45720.40180555556</v>
+        <v>45720.43858796296</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -3988,7 +5856,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -3998,7 +5866,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>0x13</t>
+          <t>0x 9</t>
         </is>
       </c>
       <c r="F2" t="n">
@@ -4006,20 +5874,20 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>568631262647113771270412</t>
+          <t>568631262647113770680332</t>
         </is>
       </c>
       <c r="H2" t="n">
         <v>400</v>
       </c>
       <c r="I2" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2025-03-04 10:38:36</t>
+          <t>2025-03-04 11:31:34</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -4029,7 +5897,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -4039,7 +5907,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>0x13</t>
+          <t>0x 9</t>
         </is>
       </c>
       <c r="F3" t="n">
@@ -4047,20 +5915,20 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>568631262647113771270412</t>
+          <t>568631262647113770680332</t>
         </is>
       </c>
       <c r="H3" t="n">
         <v>400</v>
       </c>
       <c r="I3" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2025-03-04 11:38:36</t>
+          <t>2025-03-04 12:31:34</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -4070,7 +5938,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -4080,7 +5948,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>0x13</t>
+          <t>0x 9</t>
         </is>
       </c>
       <c r="F4" t="n">
@@ -4088,20 +5956,20 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>568631262647113771270412</t>
+          <t>568631262647113770680332</t>
         </is>
       </c>
       <c r="H4" t="n">
         <v>400</v>
       </c>
       <c r="I4" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2025-03-04 12:38:36</t>
+          <t>2025-03-04 13:31:34</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -4111,7 +5979,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -4121,7 +5989,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>0x13</t>
+          <t>0x 9</t>
         </is>
       </c>
       <c r="F5" t="n">
@@ -4129,20 +5997,20 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>568631262647113771270412</t>
+          <t>568631262647113770680332</t>
         </is>
       </c>
       <c r="H5" t="n">
         <v>400</v>
       </c>
       <c r="I5" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2025-03-04 13:38:36</t>
+          <t>2025-03-04 14:31:34</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -4152,7 +6020,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -4162,7 +6030,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>0x13</t>
+          <t>0x 9</t>
         </is>
       </c>
       <c r="F6" t="n">
@@ -4170,20 +6038,20 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>568631262647113771270412</t>
+          <t>568631262647113770680332</t>
         </is>
       </c>
       <c r="H6" t="n">
         <v>400</v>
       </c>
       <c r="I6" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2025-03-04 14:38:36</t>
+          <t>2025-03-04 15:31:34</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -4193,7 +6061,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -4203,7 +6071,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>0x13</t>
+          <t>0x 9</t>
         </is>
       </c>
       <c r="F7" t="n">
@@ -4211,20 +6079,20 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>568631262647113771270412</t>
+          <t>568631262647113770680332</t>
         </is>
       </c>
       <c r="H7" t="n">
         <v>400</v>
       </c>
       <c r="I7" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2025-03-04 15:38:36</t>
+          <t>2025-03-04 16:31:34</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -4234,7 +6102,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -4244,7 +6112,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>0x13</t>
+          <t>0x 9</t>
         </is>
       </c>
       <c r="F8" t="n">
@@ -4252,20 +6120,20 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>568631262647113771270412</t>
+          <t>568631262647113770680332</t>
         </is>
       </c>
       <c r="H8" t="n">
         <v>400</v>
       </c>
       <c r="I8" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2025-03-04 16:38:36</t>
+          <t>2025-03-04 17:31:34</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -4275,7 +6143,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -4285,7 +6153,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>0x13</t>
+          <t>0x 9</t>
         </is>
       </c>
       <c r="F9" t="n">
@@ -4293,20 +6161,20 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>568631262647113771270412</t>
+          <t>568631262647113770680332</t>
         </is>
       </c>
       <c r="H9" t="n">
         <v>400</v>
       </c>
       <c r="I9" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2025-03-04 17:38:36</t>
+          <t>2025-03-04 18:31:34</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -4316,7 +6184,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -4326,7 +6194,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>0x13</t>
+          <t>0x 9</t>
         </is>
       </c>
       <c r="F10" t="n">
@@ -4334,20 +6202,20 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>568631262647113771270412</t>
+          <t>568631262647113770680332</t>
         </is>
       </c>
       <c r="H10" t="n">
         <v>400</v>
       </c>
       <c r="I10" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2025-03-04 18:38:36</t>
+          <t>2025-03-04 19:31:34</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -4357,7 +6225,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -4367,7 +6235,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>0x13</t>
+          <t>0x 9</t>
         </is>
       </c>
       <c r="F11" t="n">
@@ -4375,20 +6243,20 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>568631262647113771270412</t>
+          <t>568631262647113770680332</t>
         </is>
       </c>
       <c r="H11" t="n">
         <v>400</v>
       </c>
       <c r="I11" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2025-03-04 19:38:36</t>
+          <t>2025-03-04 20:31:34</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -4398,7 +6266,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -4408,7 +6276,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>0x13</t>
+          <t>0x 9</t>
         </is>
       </c>
       <c r="F12" t="n">
@@ -4416,20 +6284,20 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>568631262647113771270412</t>
+          <t>568631262647113770680332</t>
         </is>
       </c>
       <c r="H12" t="n">
         <v>400</v>
       </c>
       <c r="I12" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2025-03-04 20:38:36</t>
+          <t>2025-03-04 21:31:34</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -4439,7 +6307,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -4449,7 +6317,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>0x13</t>
+          <t>0x 9</t>
         </is>
       </c>
       <c r="F13" t="n">
@@ -4457,20 +6325,20 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>568631262647113771270412</t>
+          <t>568631262647113770680332</t>
         </is>
       </c>
       <c r="H13" t="n">
         <v>400</v>
       </c>
       <c r="I13" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2025-03-04 21:38:36</t>
+          <t>2025-03-04 22:31:34</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -4480,7 +6348,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -4490,7 +6358,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>0x13</t>
+          <t>0x 9</t>
         </is>
       </c>
       <c r="F14" t="n">
@@ -4498,20 +6366,20 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>568631262647113771270412</t>
+          <t>568631262647113770680332</t>
         </is>
       </c>
       <c r="H14" t="n">
         <v>400</v>
       </c>
       <c r="I14" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2025-03-04 22:38:36</t>
+          <t>2025-03-04 23:31:34</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -4521,7 +6389,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -4531,7 +6399,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>0x13</t>
+          <t>0x 9</t>
         </is>
       </c>
       <c r="F15" t="n">
@@ -4539,20 +6407,20 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>568631262647113771270412</t>
+          <t>568631262647113770680332</t>
         </is>
       </c>
       <c r="H15" t="n">
         <v>400</v>
       </c>
       <c r="I15" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2025-03-04 23:38:36</t>
+          <t>2025-03-05 00:31:34</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -4562,7 +6430,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -4572,7 +6440,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>0x13</t>
+          <t>0x 9</t>
         </is>
       </c>
       <c r="F16" t="n">
@@ -4580,20 +6448,20 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>568631262647113771270412</t>
+          <t>568631262647113770680332</t>
         </is>
       </c>
       <c r="H16" t="n">
         <v>400</v>
       </c>
       <c r="I16" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2025-03-05 00:38:36</t>
+          <t>2025-03-05 01:31:34</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -4603,7 +6471,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -4613,7 +6481,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>0x13</t>
+          <t>0x 9</t>
         </is>
       </c>
       <c r="F17" t="n">
@@ -4621,20 +6489,20 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>568631262647113771270412</t>
+          <t>568631262647113770680332</t>
         </is>
       </c>
       <c r="H17" t="n">
         <v>400</v>
       </c>
       <c r="I17" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2025-03-05 01:38:36</t>
+          <t>2025-03-05 02:31:34</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -4644,7 +6512,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -4654,7 +6522,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>0x13</t>
+          <t>0x 9</t>
         </is>
       </c>
       <c r="F18" t="n">
@@ -4662,20 +6530,20 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>568631262647113771270412</t>
+          <t>568631262647113770680332</t>
         </is>
       </c>
       <c r="H18" t="n">
         <v>400</v>
       </c>
       <c r="I18" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>2025-03-05 02:38:36</t>
+          <t>2025-03-05 03:31:34</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -4685,7 +6553,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -4695,7 +6563,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>0x13</t>
+          <t>0x 9</t>
         </is>
       </c>
       <c r="F19" t="n">
@@ -4703,20 +6571,20 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>568631262647113771270412</t>
+          <t>568631262647113770680332</t>
         </is>
       </c>
       <c r="H19" t="n">
         <v>400</v>
       </c>
       <c r="I19" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2025-03-05 03:38:36</t>
+          <t>2025-03-05 04:31:34</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -4726,7 +6594,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -4736,7 +6604,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>0x13</t>
+          <t>0x 9</t>
         </is>
       </c>
       <c r="F20" t="n">
@@ -4744,20 +6612,20 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>568631262647113771270412</t>
+          <t>568631262647113770680332</t>
         </is>
       </c>
       <c r="H20" t="n">
         <v>400</v>
       </c>
       <c r="I20" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>2025-03-05 04:38:36</t>
+          <t>2025-03-05 05:31:34</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -4767,7 +6635,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -4777,7 +6645,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>0x13</t>
+          <t>0x 9</t>
         </is>
       </c>
       <c r="F21" t="n">
@@ -4785,20 +6653,20 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>568631262647113771270412</t>
+          <t>568631262647113770680332</t>
         </is>
       </c>
       <c r="H21" t="n">
         <v>400</v>
       </c>
       <c r="I21" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>2025-03-05 05:38:36</t>
+          <t>2025-03-05 06:31:34</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -4808,7 +6676,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -4818,7 +6686,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>0x13</t>
+          <t>0x 9</t>
         </is>
       </c>
       <c r="F22" t="n">
@@ -4826,20 +6694,20 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>568631262647113771270412</t>
+          <t>568631262647113770680332</t>
         </is>
       </c>
       <c r="H22" t="n">
         <v>400</v>
       </c>
       <c r="I22" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>2025-03-05 06:38:36</t>
+          <t>2025-03-05 07:31:34</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -4849,7 +6717,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -4859,7 +6727,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>0x13</t>
+          <t>0x 9</t>
         </is>
       </c>
       <c r="F23" t="n">
@@ -4867,20 +6735,20 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>568631262647113771270412</t>
+          <t>568631262647113770680332</t>
         </is>
       </c>
       <c r="H23" t="n">
         <v>400</v>
       </c>
       <c r="I23" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>2025-03-05 07:38:36</t>
+          <t>2025-03-05 08:31:34</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -4890,7 +6758,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -4900,7 +6768,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>0x13</t>
+          <t>0x 9</t>
         </is>
       </c>
       <c r="F24" t="n">
@@ -4908,20 +6776,20 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>568631262647113771270412</t>
+          <t>568631262647113770680332</t>
         </is>
       </c>
       <c r="H24" t="n">
         <v>400</v>
       </c>
       <c r="I24" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>2025-03-05 08:38:36</t>
+          <t>2025-03-05 09:31:34</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -4931,7 +6799,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -4941,7 +6809,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>0x13</t>
+          <t>0x 9</t>
         </is>
       </c>
       <c r="F25" t="n">
@@ -4949,20 +6817,20 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>568631262647113771270412</t>
+          <t>568631262647113770680332</t>
         </is>
       </c>
       <c r="H25" t="n">
         <v>400</v>
       </c>
       <c r="I25" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>2025-03-05 09:38:36</t>
+          <t>2025-03-05 10:31:34</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -4972,7 +6840,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -4982,7 +6850,7 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>0x13</t>
+          <t>0x 9</t>
         </is>
       </c>
       <c r="F26" t="n">
@@ -4990,20 +6858,20 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>568631262647113771270412</t>
+          <t>568631262647113770680332</t>
         </is>
       </c>
       <c r="H26" t="n">
         <v>400</v>
       </c>
       <c r="I26" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>2025-03-05 10:38:36</t>
+          <t>2025-03-05 11:31:34</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -5013,7 +6881,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -5023,7 +6891,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>0x13</t>
+          <t>0x 9</t>
         </is>
       </c>
       <c r="F27" t="n">
@@ -5031,20 +6899,20 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>568631262647113771270412</t>
+          <t>568631262647113770680332</t>
         </is>
       </c>
       <c r="H27" t="n">
         <v>400</v>
       </c>
       <c r="I27" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>2025-03-05 11:38:36</t>
+          <t>2025-03-05 12:31:34</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -5054,7 +6922,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -5064,7 +6932,7 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>0x13</t>
+          <t>0x 9</t>
         </is>
       </c>
       <c r="F28" t="n">
@@ -5072,20 +6940,20 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>568631262647113771270412</t>
+          <t>568631262647113770680332</t>
         </is>
       </c>
       <c r="H28" t="n">
         <v>400</v>
       </c>
       <c r="I28" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>2025-03-05 12:38:36</t>
+          <t>2025-03-05 13:31:34</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -5095,7 +6963,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -5105,7 +6973,7 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>0x13</t>
+          <t>0x 9</t>
         </is>
       </c>
       <c r="F29" t="n">
@@ -5113,20 +6981,20 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>568631262647113771270412</t>
+          <t>568631262647113770680332</t>
         </is>
       </c>
       <c r="H29" t="n">
         <v>400</v>
       </c>
       <c r="I29" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>2025-03-05 13:38:36</t>
+          <t>2025-03-05 14:31:34</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -5136,7 +7004,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -5146,7 +7014,7 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>0x13</t>
+          <t>0x 9</t>
         </is>
       </c>
       <c r="F30" t="n">
@@ -5154,20 +7022,20 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>568631262647113771270412</t>
+          <t>568631262647113770680332</t>
         </is>
       </c>
       <c r="H30" t="n">
         <v>400</v>
       </c>
       <c r="I30" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>2025-03-05 14:38:36</t>
+          <t>2025-03-05 15:31:34</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -5177,7 +7045,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -5187,7 +7055,7 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>0x13</t>
+          <t>0x 9</t>
         </is>
       </c>
       <c r="F31" t="n">
@@ -5195,20 +7063,20 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>568631262647113771270412</t>
+          <t>568631262647113770680332</t>
         </is>
       </c>
       <c r="H31" t="n">
         <v>400</v>
       </c>
       <c r="I31" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>2025-03-05 15:38:36</t>
+          <t>2025-03-05 16:31:34</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -5218,7 +7086,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -5228,7 +7096,7 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>0x13</t>
+          <t>0x 9</t>
         </is>
       </c>
       <c r="F32" t="n">
@@ -5236,20 +7104,20 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>568631262647113771270412</t>
+          <t>568631262647113770680332</t>
         </is>
       </c>
       <c r="H32" t="n">
         <v>400</v>
       </c>
       <c r="I32" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>2025-03-05 16:38:36</t>
+          <t>2025-03-05 17:31:34</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -5259,7 +7127,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -5269,7 +7137,7 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>0x13</t>
+          <t>0x 9</t>
         </is>
       </c>
       <c r="F33" t="n">
@@ -5277,20 +7145,20 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>568631262647113771270412</t>
+          <t>568631262647113770680332</t>
         </is>
       </c>
       <c r="H33" t="n">
         <v>400</v>
       </c>
       <c r="I33" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>2025-03-05 17:38:36</t>
+          <t>2025-03-05 18:31:34</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -5300,7 +7168,7 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -5310,7 +7178,7 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>0x13</t>
+          <t>0x 9</t>
         </is>
       </c>
       <c r="F34" t="n">
@@ -5318,20 +7186,20 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>568631262647113771270412</t>
+          <t>568631262647113770680332</t>
         </is>
       </c>
       <c r="H34" t="n">
         <v>400</v>
       </c>
       <c r="I34" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>2025-03-05 18:38:36</t>
+          <t>2025-03-05 19:31:34</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -5341,7 +7209,7 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -5351,7 +7219,7 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>0x13</t>
+          <t>0x 9</t>
         </is>
       </c>
       <c r="F35" t="n">
@@ -5359,20 +7227,20 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>568631262647113771270412</t>
+          <t>568631262647113770680332</t>
         </is>
       </c>
       <c r="H35" t="n">
         <v>400</v>
       </c>
       <c r="I35" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>2025-03-05 19:38:36</t>
+          <t>2025-03-05 20:31:34</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -5382,7 +7250,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -5392,7 +7260,7 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>0x13</t>
+          <t>0x 9</t>
         </is>
       </c>
       <c r="F36" t="n">
@@ -5400,20 +7268,20 @@
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>568631262647113771270412</t>
+          <t>568631262647113770680332</t>
         </is>
       </c>
       <c r="H36" t="n">
         <v>400</v>
       </c>
       <c r="I36" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>2025-03-05 20:38:36</t>
+          <t>2025-03-05 21:31:34</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -5423,7 +7291,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -5433,7 +7301,7 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>0x13</t>
+          <t>0x 9</t>
         </is>
       </c>
       <c r="F37" t="n">
@@ -5441,20 +7309,20 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>568631262647113771270412</t>
+          <t>568631262647113770680332</t>
         </is>
       </c>
       <c r="H37" t="n">
         <v>400</v>
       </c>
       <c r="I37" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>2025-03-05 21:38:36</t>
+          <t>2025-03-05 22:31:34</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -5464,7 +7332,7 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -5474,7 +7342,7 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>0x13</t>
+          <t>0x 9</t>
         </is>
       </c>
       <c r="F38" t="n">
@@ -5482,20 +7350,20 @@
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>568631262647113771270412</t>
+          <t>568631262647113770680332</t>
         </is>
       </c>
       <c r="H38" t="n">
         <v>400</v>
       </c>
       <c r="I38" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>2025-03-05 22:38:36</t>
+          <t>2025-03-05 23:31:34</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -5505,7 +7373,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -5515,7 +7383,7 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>0x13</t>
+          <t>0x 9</t>
         </is>
       </c>
       <c r="F39" t="n">
@@ -5523,20 +7391,20 @@
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>568631262647113771270412</t>
+          <t>568631262647113770680332</t>
         </is>
       </c>
       <c r="H39" t="n">
         <v>400</v>
       </c>
       <c r="I39" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>2025-03-05 23:38:36</t>
+          <t>2025-03-06 00:31:34</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -5546,7 +7414,7 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -5556,7 +7424,7 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>0x13</t>
+          <t>0x 9</t>
         </is>
       </c>
       <c r="F40" t="n">
@@ -5564,20 +7432,20 @@
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>568631262647113771270412</t>
+          <t>568631262647113770680332</t>
         </is>
       </c>
       <c r="H40" t="n">
         <v>400</v>
       </c>
       <c r="I40" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>2025-03-06 00:38:36</t>
+          <t>2025-03-06 01:31:34</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -5587,7 +7455,7 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -5597,7 +7465,7 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>0x13</t>
+          <t>0x 9</t>
         </is>
       </c>
       <c r="F41" t="n">
@@ -5605,20 +7473,20 @@
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>568631262647113771270412</t>
+          <t>568631262647113770680332</t>
         </is>
       </c>
       <c r="H41" t="n">
         <v>400</v>
       </c>
       <c r="I41" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>2025-03-06 01:38:36</t>
+          <t>2025-03-06 02:31:34</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -5628,7 +7496,7 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -5638,7 +7506,7 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>0x13</t>
+          <t>0x 9</t>
         </is>
       </c>
       <c r="F42" t="n">
@@ -5646,1717 +7514,13 @@
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>568631262647113771270412</t>
+          <t>568631262647113770680332</t>
         </is>
       </c>
       <c r="H42" t="n">
         <v>400</v>
       </c>
       <c r="I42" t="n">
-        <v>13</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:I41"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>time</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>总长</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>ID</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>实际长度</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>和校验</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>总长_DEC</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>ID_DEC</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>实际长度_DEC</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>和校验_DEC</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>45720.43858796296</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0x01,0x90 </t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>0x01,0x90,</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>0x 9</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>400</v>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>568631262647113770680332</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>400</v>
-      </c>
-      <c r="I2" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>2025-03-04 11:31:34</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0x01,0x90 </t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>0x01,0x90,</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>0x 9</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>400</v>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>568631262647113770680332</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>400</v>
-      </c>
-      <c r="I3" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>2025-03-04 12:31:34</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0x01,0x90 </t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>0x01,0x90,</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>0x 9</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>400</v>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>568631262647113770680332</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>400</v>
-      </c>
-      <c r="I4" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>2025-03-04 13:31:34</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0x01,0x90 </t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>0x01,0x90,</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>0x 9</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>400</v>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>568631262647113770680332</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>400</v>
-      </c>
-      <c r="I5" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>2025-03-04 14:31:34</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0x01,0x90 </t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0x01,0x90,</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>0x 9</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>400</v>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>568631262647113770680332</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>400</v>
-      </c>
-      <c r="I6" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>2025-03-04 15:31:34</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0x01,0x90 </t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>0x01,0x90,</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>0x 9</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>400</v>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>568631262647113770680332</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>400</v>
-      </c>
-      <c r="I7" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>2025-03-04 16:31:34</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0x01,0x90 </t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>0x01,0x90,</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>0x 9</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>400</v>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>568631262647113770680332</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>400</v>
-      </c>
-      <c r="I8" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>2025-03-04 17:31:34</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0x01,0x90 </t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>0x01,0x90,</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>0x 9</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>400</v>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>568631262647113770680332</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>400</v>
-      </c>
-      <c r="I9" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>2025-03-04 18:31:34</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0x01,0x90 </t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>0x01,0x90,</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>0x 9</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>400</v>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>568631262647113770680332</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>400</v>
-      </c>
-      <c r="I10" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>2025-03-04 19:31:34</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0x01,0x90 </t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>0x01,0x90,</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>0x 9</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>400</v>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>568631262647113770680332</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>400</v>
-      </c>
-      <c r="I11" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>2025-03-04 20:31:34</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0x01,0x90 </t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>0x01,0x90,</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>0x 9</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>400</v>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>568631262647113770680332</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>400</v>
-      </c>
-      <c r="I12" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>2025-03-04 21:31:34</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0x01,0x90 </t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>0x01,0x90,</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>0x 9</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>400</v>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>568631262647113770680332</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>400</v>
-      </c>
-      <c r="I13" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>2025-03-04 22:31:34</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0x01,0x90 </t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>0x01,0x90,</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>0x 9</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>400</v>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>568631262647113770680332</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>400</v>
-      </c>
-      <c r="I14" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>2025-03-04 23:31:34</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0x01,0x90 </t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>0x01,0x90,</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>0x 9</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>400</v>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>568631262647113770680332</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>400</v>
-      </c>
-      <c r="I15" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>2025-03-05 00:31:34</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0x01,0x90 </t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>0x01,0x90,</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>0x 9</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
-        <v>400</v>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>568631262647113770680332</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
-        <v>400</v>
-      </c>
-      <c r="I16" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>2025-03-05 01:31:34</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0x01,0x90 </t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>0x01,0x90,</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>0x 9</t>
-        </is>
-      </c>
-      <c r="F17" t="n">
-        <v>400</v>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>568631262647113770680332</t>
-        </is>
-      </c>
-      <c r="H17" t="n">
-        <v>400</v>
-      </c>
-      <c r="I17" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>2025-03-05 02:31:34</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0x01,0x90 </t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>0x01,0x90,</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>0x 9</t>
-        </is>
-      </c>
-      <c r="F18" t="n">
-        <v>400</v>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>568631262647113770680332</t>
-        </is>
-      </c>
-      <c r="H18" t="n">
-        <v>400</v>
-      </c>
-      <c r="I18" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>2025-03-05 03:31:34</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0x01,0x90 </t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>0x01,0x90,</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>0x 9</t>
-        </is>
-      </c>
-      <c r="F19" t="n">
-        <v>400</v>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>568631262647113770680332</t>
-        </is>
-      </c>
-      <c r="H19" t="n">
-        <v>400</v>
-      </c>
-      <c r="I19" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>2025-03-05 04:31:34</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0x01,0x90 </t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>0x01,0x90,</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>0x 9</t>
-        </is>
-      </c>
-      <c r="F20" t="n">
-        <v>400</v>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>568631262647113770680332</t>
-        </is>
-      </c>
-      <c r="H20" t="n">
-        <v>400</v>
-      </c>
-      <c r="I20" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>2025-03-05 05:31:34</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0x01,0x90 </t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>0x01,0x90,</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>0x 9</t>
-        </is>
-      </c>
-      <c r="F21" t="n">
-        <v>400</v>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>568631262647113770680332</t>
-        </is>
-      </c>
-      <c r="H21" t="n">
-        <v>400</v>
-      </c>
-      <c r="I21" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>2025-03-05 06:31:34</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0x01,0x90 </t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>0x01,0x90,</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>0x 9</t>
-        </is>
-      </c>
-      <c r="F22" t="n">
-        <v>400</v>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>568631262647113770680332</t>
-        </is>
-      </c>
-      <c r="H22" t="n">
-        <v>400</v>
-      </c>
-      <c r="I22" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>2025-03-05 07:31:34</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0x01,0x90 </t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>0x01,0x90,</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>0x 9</t>
-        </is>
-      </c>
-      <c r="F23" t="n">
-        <v>400</v>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>568631262647113770680332</t>
-        </is>
-      </c>
-      <c r="H23" t="n">
-        <v>400</v>
-      </c>
-      <c r="I23" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>2025-03-05 08:31:34</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0x01,0x90 </t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>0x01,0x90,</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>0x 9</t>
-        </is>
-      </c>
-      <c r="F24" t="n">
-        <v>400</v>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>568631262647113770680332</t>
-        </is>
-      </c>
-      <c r="H24" t="n">
-        <v>400</v>
-      </c>
-      <c r="I24" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>2025-03-05 09:31:34</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0x01,0x90 </t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>0x01,0x90,</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>0x 9</t>
-        </is>
-      </c>
-      <c r="F25" t="n">
-        <v>400</v>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>568631262647113770680332</t>
-        </is>
-      </c>
-      <c r="H25" t="n">
-        <v>400</v>
-      </c>
-      <c r="I25" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>2025-03-05 10:31:34</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0x01,0x90 </t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>0x01,0x90,</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>0x 9</t>
-        </is>
-      </c>
-      <c r="F26" t="n">
-        <v>400</v>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>568631262647113770680332</t>
-        </is>
-      </c>
-      <c r="H26" t="n">
-        <v>400</v>
-      </c>
-      <c r="I26" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>2025-03-05 11:31:34</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0x01,0x90 </t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>0x01,0x90,</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>0x 9</t>
-        </is>
-      </c>
-      <c r="F27" t="n">
-        <v>400</v>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>568631262647113770680332</t>
-        </is>
-      </c>
-      <c r="H27" t="n">
-        <v>400</v>
-      </c>
-      <c r="I27" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>2025-03-05 12:31:34</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0x01,0x90 </t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>0x01,0x90,</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>0x 9</t>
-        </is>
-      </c>
-      <c r="F28" t="n">
-        <v>400</v>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>568631262647113770680332</t>
-        </is>
-      </c>
-      <c r="H28" t="n">
-        <v>400</v>
-      </c>
-      <c r="I28" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>2025-03-05 13:31:34</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0x01,0x90 </t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>0x01,0x90,</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>0x 9</t>
-        </is>
-      </c>
-      <c r="F29" t="n">
-        <v>400</v>
-      </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>568631262647113770680332</t>
-        </is>
-      </c>
-      <c r="H29" t="n">
-        <v>400</v>
-      </c>
-      <c r="I29" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>2025-03-05 14:31:34</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0x01,0x90 </t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>0x01,0x90,</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>0x 9</t>
-        </is>
-      </c>
-      <c r="F30" t="n">
-        <v>400</v>
-      </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>568631262647113770680332</t>
-        </is>
-      </c>
-      <c r="H30" t="n">
-        <v>400</v>
-      </c>
-      <c r="I30" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>2025-03-05 15:31:34</t>
-        </is>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0x01,0x90 </t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>0x01,0x90,</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>0x 9</t>
-        </is>
-      </c>
-      <c r="F31" t="n">
-        <v>400</v>
-      </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>568631262647113770680332</t>
-        </is>
-      </c>
-      <c r="H31" t="n">
-        <v>400</v>
-      </c>
-      <c r="I31" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>2025-03-05 16:31:34</t>
-        </is>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0x01,0x90 </t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>0x01,0x90,</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>0x 9</t>
-        </is>
-      </c>
-      <c r="F32" t="n">
-        <v>400</v>
-      </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>568631262647113770680332</t>
-        </is>
-      </c>
-      <c r="H32" t="n">
-        <v>400</v>
-      </c>
-      <c r="I32" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>2025-03-05 17:31:34</t>
-        </is>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0x01,0x90 </t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>0x01,0x90,</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>0x 9</t>
-        </is>
-      </c>
-      <c r="F33" t="n">
-        <v>400</v>
-      </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>568631262647113770680332</t>
-        </is>
-      </c>
-      <c r="H33" t="n">
-        <v>400</v>
-      </c>
-      <c r="I33" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>2025-03-05 18:31:34</t>
-        </is>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0x01,0x90 </t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>0x01,0x90,</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>0x 9</t>
-        </is>
-      </c>
-      <c r="F34" t="n">
-        <v>400</v>
-      </c>
-      <c r="G34" t="inlineStr">
-        <is>
-          <t>568631262647113770680332</t>
-        </is>
-      </c>
-      <c r="H34" t="n">
-        <v>400</v>
-      </c>
-      <c r="I34" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>2025-03-05 19:31:34</t>
-        </is>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0x01,0x90 </t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>0x01,0x90,</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>0x 9</t>
-        </is>
-      </c>
-      <c r="F35" t="n">
-        <v>400</v>
-      </c>
-      <c r="G35" t="inlineStr">
-        <is>
-          <t>568631262647113770680332</t>
-        </is>
-      </c>
-      <c r="H35" t="n">
-        <v>400</v>
-      </c>
-      <c r="I35" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>2025-03-05 20:31:34</t>
-        </is>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0x01,0x90 </t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>0x01,0x90,</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>0x 9</t>
-        </is>
-      </c>
-      <c r="F36" t="n">
-        <v>400</v>
-      </c>
-      <c r="G36" t="inlineStr">
-        <is>
-          <t>568631262647113770680332</t>
-        </is>
-      </c>
-      <c r="H36" t="n">
-        <v>400</v>
-      </c>
-      <c r="I36" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>2025-03-05 21:31:34</t>
-        </is>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0x01,0x90 </t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>0x01,0x90,</t>
-        </is>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>0x 9</t>
-        </is>
-      </c>
-      <c r="F37" t="n">
-        <v>400</v>
-      </c>
-      <c r="G37" t="inlineStr">
-        <is>
-          <t>568631262647113770680332</t>
-        </is>
-      </c>
-      <c r="H37" t="n">
-        <v>400</v>
-      </c>
-      <c r="I37" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>2025-03-05 22:31:34</t>
-        </is>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0x01,0x90 </t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>0x01,0x90,</t>
-        </is>
-      </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>0x 9</t>
-        </is>
-      </c>
-      <c r="F38" t="n">
-        <v>400</v>
-      </c>
-      <c r="G38" t="inlineStr">
-        <is>
-          <t>568631262647113770680332</t>
-        </is>
-      </c>
-      <c r="H38" t="n">
-        <v>400</v>
-      </c>
-      <c r="I38" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>2025-03-05 23:31:34</t>
-        </is>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0x01,0x90 </t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>0x01,0x90,</t>
-        </is>
-      </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>0x 9</t>
-        </is>
-      </c>
-      <c r="F39" t="n">
-        <v>400</v>
-      </c>
-      <c r="G39" t="inlineStr">
-        <is>
-          <t>568631262647113770680332</t>
-        </is>
-      </c>
-      <c r="H39" t="n">
-        <v>400</v>
-      </c>
-      <c r="I39" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>2025-03-06 00:31:34</t>
-        </is>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0x01,0x90 </t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>0x01,0x90,</t>
-        </is>
-      </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>0x 9</t>
-        </is>
-      </c>
-      <c r="F40" t="n">
-        <v>400</v>
-      </c>
-      <c r="G40" t="inlineStr">
-        <is>
-          <t>568631262647113770680332</t>
-        </is>
-      </c>
-      <c r="H40" t="n">
-        <v>400</v>
-      </c>
-      <c r="I40" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>2025-03-06 01:31:34</t>
-        </is>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0x01,0x90 </t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
-        </is>
-      </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>0x01,0x90,</t>
-        </is>
-      </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>0x 9</t>
-        </is>
-      </c>
-      <c r="F41" t="n">
-        <v>400</v>
-      </c>
-      <c r="G41" t="inlineStr">
-        <is>
-          <t>568631262647113770680332</t>
-        </is>
-      </c>
-      <c r="H41" t="n">
-        <v>400</v>
-      </c>
-      <c r="I41" t="n">
         <v>9</v>
       </c>
     </row>

--- a/SAG2_sensor_data_with_decimal_filtered_updated.xlsx
+++ b/SAG2_sensor_data_with_decimal_filtered_updated.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I42"/>
+  <dimension ref="A1:I43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2166,12 +2166,1921 @@
         <v>14</v>
       </c>
     </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>2025-03-06 03:18:04</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1b,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>0x14</t>
+        </is>
+      </c>
+      <c r="F43" t="n">
+        <v>400</v>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>568631262647113771335948</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>400</v>
+      </c>
+      <c r="I43" t="n">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I45"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>time</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>总长</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>实际长度</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>和校验</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>总长_DEC</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>ID_DEC</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>实际长度_DEC</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>和校验_DEC</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>45720.34188657408</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F2" t="n">
+        <v>400</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>400</v>
+      </c>
+      <c r="I2" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2025-03-04 09:12:19</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F3" t="n">
+        <v>400</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>400</v>
+      </c>
+      <c r="I3" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>2025-03-04 10:12:19</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F4" t="n">
+        <v>400</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>400</v>
+      </c>
+      <c r="I4" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>2025-03-04 11:12:19</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F5" t="n">
+        <v>400</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>400</v>
+      </c>
+      <c r="I5" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>2025-03-04 12:12:19</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F6" t="n">
+        <v>400</v>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>400</v>
+      </c>
+      <c r="I6" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>2025-03-04 13:12:19</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F7" t="n">
+        <v>400</v>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>400</v>
+      </c>
+      <c r="I7" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>2025-03-04 14:12:19</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F8" t="n">
+        <v>400</v>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>400</v>
+      </c>
+      <c r="I8" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>2025-03-04 15:12:19</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F9" t="n">
+        <v>400</v>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>400</v>
+      </c>
+      <c r="I9" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>2025-03-04 16:12:19</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F10" t="n">
+        <v>400</v>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>400</v>
+      </c>
+      <c r="I10" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>2025-03-04 17:12:19</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F11" t="n">
+        <v>400</v>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>400</v>
+      </c>
+      <c r="I11" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>2025-03-04 18:12:19</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F12" t="n">
+        <v>400</v>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>400</v>
+      </c>
+      <c r="I12" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>2025-03-04 19:12:19</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F13" t="n">
+        <v>400</v>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>400</v>
+      </c>
+      <c r="I13" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>2025-03-04 20:12:19</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F14" t="n">
+        <v>400</v>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>400</v>
+      </c>
+      <c r="I14" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>2025-03-04 21:12:19</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F15" t="n">
+        <v>400</v>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>400</v>
+      </c>
+      <c r="I15" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>2025-03-04 22:12:19</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F16" t="n">
+        <v>400</v>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>400</v>
+      </c>
+      <c r="I16" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>2025-03-04 23:12:19</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F17" t="n">
+        <v>400</v>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>400</v>
+      </c>
+      <c r="I17" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>2025-03-05 00:12:19</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F18" t="n">
+        <v>400</v>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>400</v>
+      </c>
+      <c r="I18" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>2025-03-05 01:12:19</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F19" t="n">
+        <v>400</v>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>400</v>
+      </c>
+      <c r="I19" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>2025-03-05 02:12:19</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F20" t="n">
+        <v>400</v>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>400</v>
+      </c>
+      <c r="I20" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>2025-03-05 03:12:19</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F21" t="n">
+        <v>400</v>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>400</v>
+      </c>
+      <c r="I21" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>2025-03-05 04:12:19</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F22" t="n">
+        <v>400</v>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>400</v>
+      </c>
+      <c r="I22" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>2025-03-05 05:12:19</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F23" t="n">
+        <v>400</v>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>400</v>
+      </c>
+      <c r="I23" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>2025-03-05 06:12:19</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F24" t="n">
+        <v>400</v>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>400</v>
+      </c>
+      <c r="I24" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>2025-03-05 07:12:19</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F25" t="n">
+        <v>400</v>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>400</v>
+      </c>
+      <c r="I25" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>2025-03-05 08:12:19</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F26" t="n">
+        <v>400</v>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>400</v>
+      </c>
+      <c r="I26" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>2025-03-05 09:12:19</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F27" t="n">
+        <v>400</v>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>400</v>
+      </c>
+      <c r="I27" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>2025-03-05 10:12:19</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F28" t="n">
+        <v>400</v>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>400</v>
+      </c>
+      <c r="I28" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>2025-03-05 11:12:19</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F29" t="n">
+        <v>400</v>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>400</v>
+      </c>
+      <c r="I29" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>2025-03-05 12:12:19</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F30" t="n">
+        <v>400</v>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>400</v>
+      </c>
+      <c r="I30" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>2025-03-05 13:12:19</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F31" t="n">
+        <v>400</v>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>400</v>
+      </c>
+      <c r="I31" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>2025-03-05 14:12:19</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F32" t="n">
+        <v>400</v>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>400</v>
+      </c>
+      <c r="I32" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>2025-03-05 15:12:19</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F33" t="n">
+        <v>400</v>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>400</v>
+      </c>
+      <c r="I33" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>2025-03-05 16:12:19</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F34" t="n">
+        <v>400</v>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>400</v>
+      </c>
+      <c r="I34" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>2025-03-05 17:12:19</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F35" t="n">
+        <v>400</v>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>400</v>
+      </c>
+      <c r="I35" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>2025-03-05 18:12:19</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F36" t="n">
+        <v>400</v>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>400</v>
+      </c>
+      <c r="I36" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>2025-03-05 19:12:19</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F37" t="n">
+        <v>400</v>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>400</v>
+      </c>
+      <c r="I37" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>2025-03-05 20:12:19</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F38" t="n">
+        <v>400</v>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>400</v>
+      </c>
+      <c r="I38" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>2025-03-05 21:12:19</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F39" t="n">
+        <v>400</v>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>400</v>
+      </c>
+      <c r="I39" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>2025-03-05 22:12:19</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F40" t="n">
+        <v>400</v>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>400</v>
+      </c>
+      <c r="I40" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>2025-03-05 23:12:19</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F41" t="n">
+        <v>400</v>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>400</v>
+      </c>
+      <c r="I41" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>2025-03-06 00:12:19</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F42" t="n">
+        <v>400</v>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>400</v>
+      </c>
+      <c r="I42" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>2025-03-06 01:12:19</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F43" t="n">
+        <v>400</v>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>400</v>
+      </c>
+      <c r="I43" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>2025-03-06 02:12:19</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F44" t="n">
+        <v>400</v>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>400</v>
+      </c>
+      <c r="I44" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>2025-03-06 03:12:19</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F45" t="n">
+        <v>400</v>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>400</v>
+      </c>
+      <c r="I45" t="n">
+        <v>25</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2234,7 +4143,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45720.34188657408</v>
+        <v>45720.40180555556</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -2243,7 +4152,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -2253,7 +4162,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>0x19</t>
+          <t>0x13</t>
         </is>
       </c>
       <c r="F2" t="n">
@@ -2261,20 +4170,20 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>568631262647113771663628</t>
+          <t>568631262647113771270412</t>
         </is>
       </c>
       <c r="H2" t="n">
         <v>400</v>
       </c>
       <c r="I2" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2025-03-04 09:12:19</t>
+          <t>2025-03-04 10:38:36</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -2284,7 +4193,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -2294,7 +4203,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>0x19</t>
+          <t>0x13</t>
         </is>
       </c>
       <c r="F3" t="n">
@@ -2302,20 +4211,20 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>568631262647113771663628</t>
+          <t>568631262647113771270412</t>
         </is>
       </c>
       <c r="H3" t="n">
         <v>400</v>
       </c>
       <c r="I3" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2025-03-04 10:12:19</t>
+          <t>2025-03-04 11:38:36</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -2325,7 +4234,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -2335,7 +4244,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>0x19</t>
+          <t>0x13</t>
         </is>
       </c>
       <c r="F4" t="n">
@@ -2343,20 +4252,20 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>568631262647113771663628</t>
+          <t>568631262647113771270412</t>
         </is>
       </c>
       <c r="H4" t="n">
         <v>400</v>
       </c>
       <c r="I4" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2025-03-04 11:12:19</t>
+          <t>2025-03-04 12:38:36</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -2366,7 +4275,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -2376,7 +4285,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>0x19</t>
+          <t>0x13</t>
         </is>
       </c>
       <c r="F5" t="n">
@@ -2384,20 +4293,20 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>568631262647113771663628</t>
+          <t>568631262647113771270412</t>
         </is>
       </c>
       <c r="H5" t="n">
         <v>400</v>
       </c>
       <c r="I5" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2025-03-04 12:12:19</t>
+          <t>2025-03-04 13:38:36</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -2407,7 +4316,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -2417,7 +4326,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>0x19</t>
+          <t>0x13</t>
         </is>
       </c>
       <c r="F6" t="n">
@@ -2425,20 +4334,20 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>568631262647113771663628</t>
+          <t>568631262647113771270412</t>
         </is>
       </c>
       <c r="H6" t="n">
         <v>400</v>
       </c>
       <c r="I6" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2025-03-04 13:12:19</t>
+          <t>2025-03-04 14:38:36</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -2448,7 +4357,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -2458,7 +4367,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>0x19</t>
+          <t>0x13</t>
         </is>
       </c>
       <c r="F7" t="n">
@@ -2466,20 +4375,20 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>568631262647113771663628</t>
+          <t>568631262647113771270412</t>
         </is>
       </c>
       <c r="H7" t="n">
         <v>400</v>
       </c>
       <c r="I7" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2025-03-04 14:12:19</t>
+          <t>2025-03-04 15:38:36</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -2489,7 +4398,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -2499,7 +4408,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>0x19</t>
+          <t>0x13</t>
         </is>
       </c>
       <c r="F8" t="n">
@@ -2507,20 +4416,20 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>568631262647113771663628</t>
+          <t>568631262647113771270412</t>
         </is>
       </c>
       <c r="H8" t="n">
         <v>400</v>
       </c>
       <c r="I8" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2025-03-04 15:12:19</t>
+          <t>2025-03-04 16:38:36</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -2530,7 +4439,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -2540,7 +4449,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>0x19</t>
+          <t>0x13</t>
         </is>
       </c>
       <c r="F9" t="n">
@@ -2548,20 +4457,20 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>568631262647113771663628</t>
+          <t>568631262647113771270412</t>
         </is>
       </c>
       <c r="H9" t="n">
         <v>400</v>
       </c>
       <c r="I9" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2025-03-04 16:12:19</t>
+          <t>2025-03-04 17:38:36</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -2571,7 +4480,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -2581,7 +4490,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>0x19</t>
+          <t>0x13</t>
         </is>
       </c>
       <c r="F10" t="n">
@@ -2589,20 +4498,20 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>568631262647113771663628</t>
+          <t>568631262647113771270412</t>
         </is>
       </c>
       <c r="H10" t="n">
         <v>400</v>
       </c>
       <c r="I10" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2025-03-04 17:12:19</t>
+          <t>2025-03-04 18:38:36</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -2612,7 +4521,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -2622,7 +4531,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>0x19</t>
+          <t>0x13</t>
         </is>
       </c>
       <c r="F11" t="n">
@@ -2630,20 +4539,20 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>568631262647113771663628</t>
+          <t>568631262647113771270412</t>
         </is>
       </c>
       <c r="H11" t="n">
         <v>400</v>
       </c>
       <c r="I11" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2025-03-04 18:12:19</t>
+          <t>2025-03-04 19:38:36</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2653,7 +4562,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -2663,7 +4572,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>0x19</t>
+          <t>0x13</t>
         </is>
       </c>
       <c r="F12" t="n">
@@ -2671,20 +4580,20 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>568631262647113771663628</t>
+          <t>568631262647113771270412</t>
         </is>
       </c>
       <c r="H12" t="n">
         <v>400</v>
       </c>
       <c r="I12" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2025-03-04 19:12:19</t>
+          <t>2025-03-04 20:38:36</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2694,7 +4603,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -2704,7 +4613,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>0x19</t>
+          <t>0x13</t>
         </is>
       </c>
       <c r="F13" t="n">
@@ -2712,20 +4621,20 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>568631262647113771663628</t>
+          <t>568631262647113771270412</t>
         </is>
       </c>
       <c r="H13" t="n">
         <v>400</v>
       </c>
       <c r="I13" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2025-03-04 20:12:19</t>
+          <t>2025-03-04 21:38:36</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -2735,7 +4644,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -2745,7 +4654,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>0x19</t>
+          <t>0x13</t>
         </is>
       </c>
       <c r="F14" t="n">
@@ -2753,20 +4662,20 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>568631262647113771663628</t>
+          <t>568631262647113771270412</t>
         </is>
       </c>
       <c r="H14" t="n">
         <v>400</v>
       </c>
       <c r="I14" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2025-03-04 21:12:19</t>
+          <t>2025-03-04 22:38:36</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -2776,7 +4685,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -2786,7 +4695,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>0x19</t>
+          <t>0x13</t>
         </is>
       </c>
       <c r="F15" t="n">
@@ -2794,20 +4703,20 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>568631262647113771663628</t>
+          <t>568631262647113771270412</t>
         </is>
       </c>
       <c r="H15" t="n">
         <v>400</v>
       </c>
       <c r="I15" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2025-03-04 22:12:19</t>
+          <t>2025-03-04 23:38:36</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -2817,7 +4726,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -2827,7 +4736,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>0x19</t>
+          <t>0x13</t>
         </is>
       </c>
       <c r="F16" t="n">
@@ -2835,20 +4744,20 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>568631262647113771663628</t>
+          <t>568631262647113771270412</t>
         </is>
       </c>
       <c r="H16" t="n">
         <v>400</v>
       </c>
       <c r="I16" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2025-03-04 23:12:19</t>
+          <t>2025-03-05 00:38:36</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -2858,7 +4767,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -2868,7 +4777,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>0x19</t>
+          <t>0x13</t>
         </is>
       </c>
       <c r="F17" t="n">
@@ -2876,20 +4785,20 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>568631262647113771663628</t>
+          <t>568631262647113771270412</t>
         </is>
       </c>
       <c r="H17" t="n">
         <v>400</v>
       </c>
       <c r="I17" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2025-03-05 00:12:19</t>
+          <t>2025-03-05 01:38:36</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -2899,7 +4808,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -2909,7 +4818,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>0x19</t>
+          <t>0x13</t>
         </is>
       </c>
       <c r="F18" t="n">
@@ -2917,20 +4826,20 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>568631262647113771663628</t>
+          <t>568631262647113771270412</t>
         </is>
       </c>
       <c r="H18" t="n">
         <v>400</v>
       </c>
       <c r="I18" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>2025-03-05 01:12:19</t>
+          <t>2025-03-05 02:38:36</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -2940,7 +4849,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -2950,7 +4859,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>0x19</t>
+          <t>0x13</t>
         </is>
       </c>
       <c r="F19" t="n">
@@ -2958,20 +4867,20 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>568631262647113771663628</t>
+          <t>568631262647113771270412</t>
         </is>
       </c>
       <c r="H19" t="n">
         <v>400</v>
       </c>
       <c r="I19" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2025-03-05 02:12:19</t>
+          <t>2025-03-05 03:38:36</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -2981,7 +4890,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -2991,7 +4900,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>0x19</t>
+          <t>0x13</t>
         </is>
       </c>
       <c r="F20" t="n">
@@ -2999,20 +4908,20 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>568631262647113771663628</t>
+          <t>568631262647113771270412</t>
         </is>
       </c>
       <c r="H20" t="n">
         <v>400</v>
       </c>
       <c r="I20" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>2025-03-05 03:12:19</t>
+          <t>2025-03-05 04:38:36</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -3022,7 +4931,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -3032,7 +4941,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>0x19</t>
+          <t>0x13</t>
         </is>
       </c>
       <c r="F21" t="n">
@@ -3040,20 +4949,20 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>568631262647113771663628</t>
+          <t>568631262647113771270412</t>
         </is>
       </c>
       <c r="H21" t="n">
         <v>400</v>
       </c>
       <c r="I21" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>2025-03-05 04:12:19</t>
+          <t>2025-03-05 05:38:36</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -3063,7 +4972,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -3073,7 +4982,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>0x19</t>
+          <t>0x13</t>
         </is>
       </c>
       <c r="F22" t="n">
@@ -3081,20 +4990,20 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>568631262647113771663628</t>
+          <t>568631262647113771270412</t>
         </is>
       </c>
       <c r="H22" t="n">
         <v>400</v>
       </c>
       <c r="I22" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>2025-03-05 05:12:19</t>
+          <t>2025-03-05 06:38:36</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -3104,7 +5013,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -3114,7 +5023,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>0x19</t>
+          <t>0x13</t>
         </is>
       </c>
       <c r="F23" t="n">
@@ -3122,20 +5031,20 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>568631262647113771663628</t>
+          <t>568631262647113771270412</t>
         </is>
       </c>
       <c r="H23" t="n">
         <v>400</v>
       </c>
       <c r="I23" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>2025-03-05 06:12:19</t>
+          <t>2025-03-05 07:38:36</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -3145,7 +5054,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -3155,7 +5064,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>0x19</t>
+          <t>0x13</t>
         </is>
       </c>
       <c r="F24" t="n">
@@ -3163,20 +5072,20 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>568631262647113771663628</t>
+          <t>568631262647113771270412</t>
         </is>
       </c>
       <c r="H24" t="n">
         <v>400</v>
       </c>
       <c r="I24" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>2025-03-05 07:12:19</t>
+          <t>2025-03-05 08:38:36</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -3186,7 +5095,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -3196,7 +5105,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>0x19</t>
+          <t>0x13</t>
         </is>
       </c>
       <c r="F25" t="n">
@@ -3204,20 +5113,20 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>568631262647113771663628</t>
+          <t>568631262647113771270412</t>
         </is>
       </c>
       <c r="H25" t="n">
         <v>400</v>
       </c>
       <c r="I25" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>2025-03-05 08:12:19</t>
+          <t>2025-03-05 09:38:36</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -3227,7 +5136,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -3237,7 +5146,7 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>0x19</t>
+          <t>0x13</t>
         </is>
       </c>
       <c r="F26" t="n">
@@ -3245,20 +5154,20 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>568631262647113771663628</t>
+          <t>568631262647113771270412</t>
         </is>
       </c>
       <c r="H26" t="n">
         <v>400</v>
       </c>
       <c r="I26" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>2025-03-05 09:12:19</t>
+          <t>2025-03-05 10:38:36</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -3268,7 +5177,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -3278,7 +5187,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>0x19</t>
+          <t>0x13</t>
         </is>
       </c>
       <c r="F27" t="n">
@@ -3286,20 +5195,20 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>568631262647113771663628</t>
+          <t>568631262647113771270412</t>
         </is>
       </c>
       <c r="H27" t="n">
         <v>400</v>
       </c>
       <c r="I27" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>2025-03-05 10:12:19</t>
+          <t>2025-03-05 11:38:36</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -3309,7 +5218,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -3319,7 +5228,7 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>0x19</t>
+          <t>0x13</t>
         </is>
       </c>
       <c r="F28" t="n">
@@ -3327,20 +5236,20 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>568631262647113771663628</t>
+          <t>568631262647113771270412</t>
         </is>
       </c>
       <c r="H28" t="n">
         <v>400</v>
       </c>
       <c r="I28" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>2025-03-05 11:12:19</t>
+          <t>2025-03-05 12:38:36</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -3350,7 +5259,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -3360,7 +5269,7 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>0x19</t>
+          <t>0x13</t>
         </is>
       </c>
       <c r="F29" t="n">
@@ -3368,20 +5277,20 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>568631262647113771663628</t>
+          <t>568631262647113771270412</t>
         </is>
       </c>
       <c r="H29" t="n">
         <v>400</v>
       </c>
       <c r="I29" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>2025-03-05 12:12:19</t>
+          <t>2025-03-05 13:38:36</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -3391,7 +5300,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -3401,7 +5310,7 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>0x19</t>
+          <t>0x13</t>
         </is>
       </c>
       <c r="F30" t="n">
@@ -3409,20 +5318,20 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>568631262647113771663628</t>
+          <t>568631262647113771270412</t>
         </is>
       </c>
       <c r="H30" t="n">
         <v>400</v>
       </c>
       <c r="I30" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>2025-03-05 13:12:19</t>
+          <t>2025-03-05 14:38:36</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -3432,7 +5341,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -3442,7 +5351,7 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>0x19</t>
+          <t>0x13</t>
         </is>
       </c>
       <c r="F31" t="n">
@@ -3450,20 +5359,20 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>568631262647113771663628</t>
+          <t>568631262647113771270412</t>
         </is>
       </c>
       <c r="H31" t="n">
         <v>400</v>
       </c>
       <c r="I31" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>2025-03-05 14:12:19</t>
+          <t>2025-03-05 15:38:36</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -3473,7 +5382,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -3483,7 +5392,7 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>0x19</t>
+          <t>0x13</t>
         </is>
       </c>
       <c r="F32" t="n">
@@ -3491,20 +5400,20 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>568631262647113771663628</t>
+          <t>568631262647113771270412</t>
         </is>
       </c>
       <c r="H32" t="n">
         <v>400</v>
       </c>
       <c r="I32" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>2025-03-05 15:12:19</t>
+          <t>2025-03-05 16:38:36</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -3514,7 +5423,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -3524,7 +5433,7 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>0x19</t>
+          <t>0x13</t>
         </is>
       </c>
       <c r="F33" t="n">
@@ -3532,20 +5441,20 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>568631262647113771663628</t>
+          <t>568631262647113771270412</t>
         </is>
       </c>
       <c r="H33" t="n">
         <v>400</v>
       </c>
       <c r="I33" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>2025-03-05 16:12:19</t>
+          <t>2025-03-05 17:38:36</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -3555,7 +5464,7 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -3565,7 +5474,7 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>0x19</t>
+          <t>0x13</t>
         </is>
       </c>
       <c r="F34" t="n">
@@ -3573,20 +5482,20 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>568631262647113771663628</t>
+          <t>568631262647113771270412</t>
         </is>
       </c>
       <c r="H34" t="n">
         <v>400</v>
       </c>
       <c r="I34" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>2025-03-05 17:12:19</t>
+          <t>2025-03-05 18:38:36</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -3596,7 +5505,7 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -3606,7 +5515,7 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>0x19</t>
+          <t>0x13</t>
         </is>
       </c>
       <c r="F35" t="n">
@@ -3614,20 +5523,20 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>568631262647113771663628</t>
+          <t>568631262647113771270412</t>
         </is>
       </c>
       <c r="H35" t="n">
         <v>400</v>
       </c>
       <c r="I35" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>2025-03-05 18:12:19</t>
+          <t>2025-03-05 19:38:36</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -3637,7 +5546,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -3647,7 +5556,7 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>0x19</t>
+          <t>0x13</t>
         </is>
       </c>
       <c r="F36" t="n">
@@ -3655,20 +5564,20 @@
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>568631262647113771663628</t>
+          <t>568631262647113771270412</t>
         </is>
       </c>
       <c r="H36" t="n">
         <v>400</v>
       </c>
       <c r="I36" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>2025-03-05 19:12:19</t>
+          <t>2025-03-05 20:38:36</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -3678,7 +5587,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -3688,7 +5597,7 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>0x19</t>
+          <t>0x13</t>
         </is>
       </c>
       <c r="F37" t="n">
@@ -3696,20 +5605,20 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>568631262647113771663628</t>
+          <t>568631262647113771270412</t>
         </is>
       </c>
       <c r="H37" t="n">
         <v>400</v>
       </c>
       <c r="I37" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>2025-03-05 20:12:19</t>
+          <t>2025-03-05 21:38:36</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -3719,7 +5628,7 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -3729,7 +5638,7 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>0x19</t>
+          <t>0x13</t>
         </is>
       </c>
       <c r="F38" t="n">
@@ -3737,20 +5646,20 @@
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>568631262647113771663628</t>
+          <t>568631262647113771270412</t>
         </is>
       </c>
       <c r="H38" t="n">
         <v>400</v>
       </c>
       <c r="I38" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>2025-03-05 21:12:19</t>
+          <t>2025-03-05 22:38:36</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -3760,7 +5669,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -3770,7 +5679,7 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>0x19</t>
+          <t>0x13</t>
         </is>
       </c>
       <c r="F39" t="n">
@@ -3778,20 +5687,20 @@
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>568631262647113771663628</t>
+          <t>568631262647113771270412</t>
         </is>
       </c>
       <c r="H39" t="n">
         <v>400</v>
       </c>
       <c r="I39" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>2025-03-05 22:12:19</t>
+          <t>2025-03-05 23:38:36</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -3801,7 +5710,7 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -3811,7 +5720,7 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>0x19</t>
+          <t>0x13</t>
         </is>
       </c>
       <c r="F40" t="n">
@@ -3819,20 +5728,20 @@
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>568631262647113771663628</t>
+          <t>568631262647113771270412</t>
         </is>
       </c>
       <c r="H40" t="n">
         <v>400</v>
       </c>
       <c r="I40" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>2025-03-05 23:12:19</t>
+          <t>2025-03-06 00:38:36</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -3842,7 +5751,7 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -3852,7 +5761,7 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>0x19</t>
+          <t>0x13</t>
         </is>
       </c>
       <c r="F41" t="n">
@@ -3860,20 +5769,20 @@
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>568631262647113771663628</t>
+          <t>568631262647113771270412</t>
         </is>
       </c>
       <c r="H41" t="n">
         <v>400</v>
       </c>
       <c r="I41" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>2025-03-06 00:12:19</t>
+          <t>2025-03-06 01:38:36</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -3883,7 +5792,7 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -3893,7 +5802,7 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>0x19</t>
+          <t>0x13</t>
         </is>
       </c>
       <c r="F42" t="n">
@@ -3901,20 +5810,20 @@
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>568631262647113771663628</t>
+          <t>568631262647113771270412</t>
         </is>
       </c>
       <c r="H42" t="n">
         <v>400</v>
       </c>
       <c r="I42" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>2025-03-06 01:12:19</t>
+          <t>2025-03-06 02:38:36</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -3924,7 +5833,7 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -3934,7 +5843,7 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>0x19</t>
+          <t>0x13</t>
         </is>
       </c>
       <c r="F43" t="n">
@@ -3942,20 +5851,20 @@
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>568631262647113771663628</t>
+          <t>568631262647113771270412</t>
         </is>
       </c>
       <c r="H43" t="n">
         <v>400</v>
       </c>
       <c r="I43" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>2025-03-06 02:12:19</t>
+          <t>2025-03-06 03:38:36</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -3965,7 +5874,7 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -3975,7 +5884,7 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>0x19</t>
+          <t>0x13</t>
         </is>
       </c>
       <c r="F44" t="n">
@@ -3983,14 +5892,14 @@
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>568631262647113771663628</t>
+          <t>568631262647113771270412</t>
         </is>
       </c>
       <c r="H44" t="n">
         <v>400</v>
       </c>
       <c r="I44" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -3998,7 +5907,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4061,7 +5970,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45720.40180555556</v>
+        <v>45720.43858796296</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -4070,7 +5979,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -4080,7 +5989,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>0x13</t>
+          <t>0x 9</t>
         </is>
       </c>
       <c r="F2" t="n">
@@ -4088,20 +5997,20 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>568631262647113771270412</t>
+          <t>568631262647113770680332</t>
         </is>
       </c>
       <c r="H2" t="n">
         <v>400</v>
       </c>
       <c r="I2" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2025-03-04 10:38:36</t>
+          <t>2025-03-04 11:31:34</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -4111,7 +6020,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -4121,7 +6030,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>0x13</t>
+          <t>0x 9</t>
         </is>
       </c>
       <c r="F3" t="n">
@@ -4129,20 +6038,20 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>568631262647113771270412</t>
+          <t>568631262647113770680332</t>
         </is>
       </c>
       <c r="H3" t="n">
         <v>400</v>
       </c>
       <c r="I3" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2025-03-04 11:38:36</t>
+          <t>2025-03-04 12:31:34</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -4152,7 +6061,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -4162,7 +6071,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>0x13</t>
+          <t>0x 9</t>
         </is>
       </c>
       <c r="F4" t="n">
@@ -4170,20 +6079,20 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>568631262647113771270412</t>
+          <t>568631262647113770680332</t>
         </is>
       </c>
       <c r="H4" t="n">
         <v>400</v>
       </c>
       <c r="I4" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2025-03-04 12:38:36</t>
+          <t>2025-03-04 13:31:34</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -4193,7 +6102,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -4203,7 +6112,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>0x13</t>
+          <t>0x 9</t>
         </is>
       </c>
       <c r="F5" t="n">
@@ -4211,20 +6120,20 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>568631262647113771270412</t>
+          <t>568631262647113770680332</t>
         </is>
       </c>
       <c r="H5" t="n">
         <v>400</v>
       </c>
       <c r="I5" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2025-03-04 13:38:36</t>
+          <t>2025-03-04 14:31:34</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -4234,7 +6143,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -4244,7 +6153,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>0x13</t>
+          <t>0x 9</t>
         </is>
       </c>
       <c r="F6" t="n">
@@ -4252,20 +6161,20 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>568631262647113771270412</t>
+          <t>568631262647113770680332</t>
         </is>
       </c>
       <c r="H6" t="n">
         <v>400</v>
       </c>
       <c r="I6" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2025-03-04 14:38:36</t>
+          <t>2025-03-04 15:31:34</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -4275,7 +6184,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -4285,7 +6194,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>0x13</t>
+          <t>0x 9</t>
         </is>
       </c>
       <c r="F7" t="n">
@@ -4293,20 +6202,20 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>568631262647113771270412</t>
+          <t>568631262647113770680332</t>
         </is>
       </c>
       <c r="H7" t="n">
         <v>400</v>
       </c>
       <c r="I7" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2025-03-04 15:38:36</t>
+          <t>2025-03-04 16:31:34</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -4316,7 +6225,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -4326,7 +6235,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>0x13</t>
+          <t>0x 9</t>
         </is>
       </c>
       <c r="F8" t="n">
@@ -4334,20 +6243,20 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>568631262647113771270412</t>
+          <t>568631262647113770680332</t>
         </is>
       </c>
       <c r="H8" t="n">
         <v>400</v>
       </c>
       <c r="I8" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2025-03-04 16:38:36</t>
+          <t>2025-03-04 17:31:34</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -4357,7 +6266,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -4367,7 +6276,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>0x13</t>
+          <t>0x 9</t>
         </is>
       </c>
       <c r="F9" t="n">
@@ -4375,20 +6284,20 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>568631262647113771270412</t>
+          <t>568631262647113770680332</t>
         </is>
       </c>
       <c r="H9" t="n">
         <v>400</v>
       </c>
       <c r="I9" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2025-03-04 17:38:36</t>
+          <t>2025-03-04 18:31:34</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -4398,7 +6307,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -4408,7 +6317,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>0x13</t>
+          <t>0x 9</t>
         </is>
       </c>
       <c r="F10" t="n">
@@ -4416,20 +6325,20 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>568631262647113771270412</t>
+          <t>568631262647113770680332</t>
         </is>
       </c>
       <c r="H10" t="n">
         <v>400</v>
       </c>
       <c r="I10" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2025-03-04 18:38:36</t>
+          <t>2025-03-04 19:31:34</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -4439,7 +6348,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -4449,7 +6358,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>0x13</t>
+          <t>0x 9</t>
         </is>
       </c>
       <c r="F11" t="n">
@@ -4457,20 +6366,20 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>568631262647113771270412</t>
+          <t>568631262647113770680332</t>
         </is>
       </c>
       <c r="H11" t="n">
         <v>400</v>
       </c>
       <c r="I11" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2025-03-04 19:38:36</t>
+          <t>2025-03-04 20:31:34</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -4480,7 +6389,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -4490,7 +6399,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>0x13</t>
+          <t>0x 9</t>
         </is>
       </c>
       <c r="F12" t="n">
@@ -4498,20 +6407,20 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>568631262647113771270412</t>
+          <t>568631262647113770680332</t>
         </is>
       </c>
       <c r="H12" t="n">
         <v>400</v>
       </c>
       <c r="I12" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2025-03-04 20:38:36</t>
+          <t>2025-03-04 21:31:34</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -4521,7 +6430,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -4531,7 +6440,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>0x13</t>
+          <t>0x 9</t>
         </is>
       </c>
       <c r="F13" t="n">
@@ -4539,20 +6448,20 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>568631262647113771270412</t>
+          <t>568631262647113770680332</t>
         </is>
       </c>
       <c r="H13" t="n">
         <v>400</v>
       </c>
       <c r="I13" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2025-03-04 21:38:36</t>
+          <t>2025-03-04 22:31:34</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -4562,7 +6471,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -4572,7 +6481,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>0x13</t>
+          <t>0x 9</t>
         </is>
       </c